--- a/desarrollo/PEP/gestión/PEP-CP.xlsx
+++ b/desarrollo/PEP/gestión/PEP-CP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="110">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -107,7 +107,7 @@
     <t>Elaboracion de Historia de Usuario -HU01</t>
   </si>
   <si>
-    <t>Historia de usuario 01</t>
+    <t>Historia de Usuario 01</t>
   </si>
   <si>
     <t>PEP-HU01.docx</t>
@@ -116,7 +116,7 @@
     <t>Elaboracion de Historia de Usuario -HU02</t>
   </si>
   <si>
-    <t>Historia de usuario 02</t>
+    <t>Historia de Usuario 02</t>
   </si>
   <si>
     <t>PEP-HU02.docx</t>
@@ -125,7 +125,7 @@
     <t>Elaboracion de Historia de Usuario -HU03</t>
   </si>
   <si>
-    <t>Historia de usuario 03</t>
+    <t>Historia de Usuario 03</t>
   </si>
   <si>
     <t>PEP-HU03.docx</t>
@@ -137,7 +137,7 @@
     <t>Elaboracion de Historia de Usuario -HU04</t>
   </si>
   <si>
-    <t>Historia de usuario 04</t>
+    <t>Historia de Usuario 04</t>
   </si>
   <si>
     <t>PEP-HU04.docx</t>
@@ -149,7 +149,7 @@
     <t>Elaboracion de Historia de Usuario -HU05</t>
   </si>
   <si>
-    <t>Historia de usuario 05</t>
+    <t>Historia de Usuario 05</t>
   </si>
   <si>
     <t>PEP-HU05.docx</t>
@@ -161,13 +161,13 @@
     <t>Elaboracion de Historia de Usuario -HU06</t>
   </si>
   <si>
-    <t>Historia de usuario 06</t>
+    <t>Historia de Usuario 06</t>
   </si>
   <si>
     <t>PEP-HU06.docx</t>
   </si>
   <si>
-    <t>Moreno / Analista QA</t>
+    <t>Calderón / Analista QA</t>
   </si>
   <si>
     <t>Elaboración de Documento Final de Requisitos</t>
@@ -197,25 +197,28 @@
     <t>Diseño de la Base de Datos</t>
   </si>
   <si>
-    <t>Diagramas UML</t>
+    <t>Diseño de Diagramas UML</t>
   </si>
   <si>
-    <t>PEP-DUML-DB.docx</t>
+    <t>PEP-DUML.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Diseño de  Arquitectura del Sistema</t>
   </si>
   <si>
-    <t>Diagrama de componentes y deployment</t>
+    <t>Diseño de Diagrama de Componentes y Deployment</t>
   </si>
   <si>
-    <t>PEP-DCD.docx</t>
+    <t>PEP-DDCD.docx</t>
   </si>
   <si>
     <t>Diseño de la Arquitectura de Seguridad</t>
   </si>
   <si>
-    <t>Diagrama de Arquitectura de Gestión de Identidades y Accesos (IAM)</t>
+    <t>Diseño de Arquitectura de Gestión de Identidades y Accesos</t>
   </si>
   <si>
     <t>PEP-DAGIA.docx</t>
@@ -224,10 +227,10 @@
     <t>Creación de wireframes de baja fidelidad</t>
   </si>
   <si>
-    <t>Wireframe de baja fidelidad</t>
+    <t>Diseño de Wireframe de baja fidelidad</t>
   </si>
   <si>
-    <t>PEP-WBF.docx</t>
+    <t>PEP-DWBF.docx</t>
   </si>
   <si>
     <t>Luján/UX</t>
@@ -239,25 +242,25 @@
     <t>Documentación de la API</t>
   </si>
   <si>
-    <t>PEP-API.docx</t>
+    <t>PEP-DAPI.docx</t>
   </si>
   <si>
     <t>Diseño de mockups</t>
   </si>
   <si>
-    <t>Mockup</t>
+    <t>Diseño de Mockup</t>
   </si>
   <si>
-    <t>PEP-M.docx</t>
+    <t>PEP-DM.docx</t>
   </si>
   <si>
     <t>Diseño del prototipo de Interfaz de Usuario (Hi - Fi)</t>
   </si>
   <si>
-    <t>Prototipo de alta fidelidad de la Interfaz de Usuario</t>
+    <t>Diseño del Prototipo de Alta fidelidad de la Interfaz de Usuario</t>
   </si>
   <si>
-    <t>PEP-PAFIU.docx</t>
+    <t>PEP-DPAFIU.docx</t>
   </si>
   <si>
     <t>Revisión y Validación de Diseño</t>
@@ -317,10 +320,13 @@
     <t>PEP-IUAT.docx</t>
   </si>
   <si>
+    <t>Calderón  / Analista QA</t>
+  </si>
+  <si>
     <t>Documentación de manual de usuario</t>
   </si>
   <si>
-    <t>Manual de usuario</t>
+    <t>Manual de Usuario</t>
   </si>
   <si>
     <t>PEP-MU.docx</t>
@@ -346,7 +352,7 @@
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -386,6 +392,12 @@
       <u/>
       <sz val="13.0"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="13.0"/>
+      <color rgb="FF0563C1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
@@ -442,7 +454,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border/>
     <border>
       <left style="thin">
@@ -489,6 +501,11 @@
       </bottom>
     </border>
     <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -503,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -541,14 +558,14 @@
     <xf borderId="2" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -574,32 +591,38 @@
     <xf borderId="1" fillId="4" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="4" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="9" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -817,7 +840,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="11.43"/>
-    <col customWidth="1" min="2" max="2" width="54.71"/>
+    <col customWidth="1" min="2" max="2" width="56.0"/>
     <col customWidth="1" min="3" max="3" width="67.86"/>
     <col customWidth="1" min="4" max="4" width="24.43"/>
     <col customWidth="1" min="5" max="5" width="48.14"/>
@@ -1080,6 +1103,7 @@
       <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
+      <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -1277,7 +1301,7 @@
         <v>45539.0</v>
       </c>
       <c r="H14" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1303,10 +1327,10 @@
       <c r="B15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="26" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="25" t="s">
@@ -1319,7 +1343,7 @@
         <v>45541.0</v>
       </c>
       <c r="H15" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1345,10 +1369,10 @@
       <c r="B16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="28" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="25" t="s">
@@ -1361,7 +1385,7 @@
         <v>45541.0</v>
       </c>
       <c r="H16" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1387,10 +1411,10 @@
       <c r="B17" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="28" t="s">
         <v>38</v>
       </c>
       <c r="E17" s="25" t="s">
@@ -1403,7 +1427,7 @@
         <v>45541.0</v>
       </c>
       <c r="H17" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1429,10 +1453,10 @@
       <c r="B18" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="26" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="25" t="s">
@@ -1445,7 +1469,7 @@
         <v>45541.0</v>
       </c>
       <c r="H18" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1471,10 +1495,10 @@
       <c r="B19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="26" t="s">
         <v>46</v>
       </c>
       <c r="E19" s="25" t="s">
@@ -1487,7 +1511,7 @@
         <v>45541.0</v>
       </c>
       <c r="H19" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -1513,10 +1537,10 @@
       <c r="B20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="26" t="s">
         <v>50</v>
       </c>
       <c r="E20" s="25" t="s">
@@ -1529,7 +1553,7 @@
         <v>45541.0</v>
       </c>
       <c r="H20" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1558,7 +1582,7 @@
       <c r="C21" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="26" t="s">
         <v>54</v>
       </c>
       <c r="E21" s="25" t="s">
@@ -1571,7 +1595,7 @@
         <v>45543.0</v>
       </c>
       <c r="H21" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -1597,10 +1621,10 @@
       <c r="B22" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="26" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="25" t="s">
@@ -1613,7 +1637,7 @@
         <v>45544.0</v>
       </c>
       <c r="H22" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1638,10 +1662,10 @@
       <c r="A23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="30">
+      <c r="C23" s="31">
         <v>45545.0</v>
       </c>
       <c r="D23" s="6"/>
@@ -1673,23 +1697,23 @@
       <c r="B24" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="26" t="s">
         <v>62</v>
       </c>
       <c r="E24" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="33">
         <v>45546.0</v>
       </c>
-      <c r="G24" s="32">
-        <v>45553.0</v>
+      <c r="G24" s="33">
+        <v>45550.0</v>
       </c>
       <c r="H24" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1711,27 +1735,29 @@
       <c r="Z24" s="3"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="1"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="B25" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="C25" s="32" t="s">
         <v>65</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>66</v>
       </c>
       <c r="E25" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="33">
         <v>45546.0</v>
       </c>
-      <c r="G25" s="32">
-        <v>45553.0</v>
+      <c r="G25" s="33">
+        <v>45550.0</v>
       </c>
       <c r="H25" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1755,25 +1781,25 @@
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="C26" s="32" t="s">
         <v>68</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>69</v>
       </c>
       <c r="E26" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="33">
         <v>45546.0</v>
       </c>
-      <c r="G26" s="32">
-        <v>45553.0</v>
+      <c r="G26" s="33">
+        <v>45550.0</v>
       </c>
       <c r="H26" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1797,25 +1823,25 @@
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="C27" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="D27" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="32">
+      <c r="E27" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="33">
         <v>45546.0</v>
       </c>
-      <c r="G27" s="32">
-        <v>45553.0</v>
+      <c r="G27" s="33">
+        <v>45550.0</v>
       </c>
       <c r="H27" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -1839,25 +1865,25 @@
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="C28" s="32" t="s">
         <v>75</v>
+      </c>
+      <c r="D28" s="26" t="s">
+        <v>76</v>
       </c>
       <c r="E28" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="33">
         <v>45546.0</v>
       </c>
-      <c r="G28" s="32">
-        <v>45553.0</v>
+      <c r="G28" s="33">
+        <v>45550.0</v>
       </c>
       <c r="H28" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -1881,25 +1907,25 @@
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="C29" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="31" t="s">
+      <c r="D29" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="32">
-        <v>45553.0</v>
+      <c r="F29" s="33">
+        <v>45551.0</v>
       </c>
-      <c r="G29" s="32">
-        <v>45556.0</v>
+      <c r="G29" s="33">
+        <v>45555.0</v>
       </c>
       <c r="H29" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -1922,26 +1948,26 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="31" t="s">
+      <c r="B30" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D30" s="31" t="s">
+      <c r="C30" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="D30" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="33">
         <v>45556.0</v>
       </c>
-      <c r="G30" s="32">
-        <v>45558.0</v>
+      <c r="G30" s="33">
+        <v>45560.0</v>
       </c>
       <c r="H30" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -1965,25 +1991,25 @@
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="C31" s="32" t="s">
         <v>84</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>85</v>
       </c>
       <c r="E31" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F31" s="32">
-        <v>45559.0</v>
+      <c r="F31" s="33">
+        <v>45561.0</v>
       </c>
-      <c r="G31" s="32">
-        <v>45559.0</v>
+      <c r="G31" s="33">
+        <v>45565.0</v>
       </c>
       <c r="H31" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -2008,11 +2034,11 @@
       <c r="A32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="29" t="s">
-        <v>85</v>
+      <c r="B32" s="30" t="s">
+        <v>86</v>
       </c>
-      <c r="C32" s="30">
-        <v>45589.0</v>
+      <c r="C32" s="31">
+        <v>45566.0</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -2041,22 +2067,22 @@
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="C33" s="32" t="s">
         <v>88</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="E33" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F33" s="27">
-        <v>45590.0</v>
+        <v>45567.0</v>
       </c>
       <c r="G33" s="27">
-        <v>45593.0</v>
+        <v>45576.0</v>
       </c>
       <c r="H33" s="21">
         <v>0.0</v>
@@ -2083,22 +2109,22 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="C34" s="32" t="s">
         <v>91</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>92</v>
       </c>
       <c r="E34" s="25" t="s">
         <v>29</v>
       </c>
       <c r="F34" s="27">
-        <v>45590.0</v>
+        <v>45577.0</v>
       </c>
       <c r="G34" s="27">
-        <v>45599.0</v>
+        <v>45588.0</v>
       </c>
       <c r="H34" s="21">
         <v>0.0</v>
@@ -2125,22 +2151,22 @@
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="C35" s="32" t="s">
         <v>94</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>95</v>
       </c>
       <c r="E35" s="25" t="s">
         <v>47</v>
       </c>
       <c r="F35" s="27">
-        <v>45590.0</v>
+        <v>45577.0</v>
       </c>
       <c r="G35" s="27">
-        <v>45599.0</v>
+        <v>45588.0</v>
       </c>
       <c r="H35" s="21">
         <v>0.0</v>
@@ -2166,25 +2192,25 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="31" t="s">
+      <c r="B36" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="C36" s="32" t="s">
         <v>97</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>98</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F36" s="27">
-        <v>45600.0</v>
+        <v>45589.0</v>
       </c>
       <c r="G36" s="27">
-        <v>45602.0</v>
+        <v>45598.0</v>
       </c>
-      <c r="H36" s="34"/>
+      <c r="H36" s="36"/>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -2206,23 +2232,23 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="31" t="s">
+      <c r="B37" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="C37" s="32" t="s">
         <v>100</v>
       </c>
+      <c r="D37" s="32" t="s">
+        <v>101</v>
+      </c>
       <c r="E37" s="25" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F37" s="27">
-        <v>45603.0</v>
+        <v>45599.0</v>
       </c>
       <c r="G37" s="27">
-        <v>45605.0</v>
+        <v>45603.0</v>
       </c>
       <c r="H37" s="21">
         <v>0.0</v>
@@ -2248,23 +2274,23 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
-      <c r="B38" s="33" t="s">
-        <v>101</v>
+      <c r="B38" s="35" t="s">
+        <v>103</v>
       </c>
-      <c r="C38" s="31" t="s">
-        <v>102</v>
+      <c r="C38" s="32" t="s">
+        <v>104</v>
       </c>
-      <c r="D38" s="31" t="s">
-        <v>103</v>
+      <c r="D38" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="E38" s="25" t="s">
         <v>51</v>
       </c>
       <c r="F38" s="27">
-        <v>45590.0</v>
+        <v>45604.0</v>
       </c>
       <c r="G38" s="27">
-        <v>45606.0</v>
+        <v>45605.0</v>
       </c>
       <c r="H38" s="21"/>
       <c r="I38" s="3"/>
@@ -2288,14 +2314,14 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="33" t="s">
-        <v>104</v>
+      <c r="B39" s="35" t="s">
+        <v>106</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>105</v>
+      <c r="C39" s="32" t="s">
+        <v>107</v>
       </c>
-      <c r="D39" s="31" t="s">
-        <v>106</v>
+      <c r="D39" s="32" t="s">
+        <v>108</v>
       </c>
       <c r="E39" s="25" t="s">
         <v>22</v>
@@ -2309,33 +2335,33 @@
       <c r="H39" s="21">
         <v>0.0</v>
       </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="37"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="37"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="37"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="37"/>
+      <c r="V39" s="37"/>
+      <c r="W39" s="37"/>
+      <c r="X39" s="37"/>
+      <c r="Y39" s="37"/>
+      <c r="Z39" s="37"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="29" t="s">
-        <v>107</v>
+      <c r="B40" s="30" t="s">
+        <v>109</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="38">
         <v>45610.0</v>
       </c>
       <c r="D40" s="6"/>
@@ -2364,13 +2390,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="38"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2392,13 +2418,13 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="38"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="40"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -3094,7 +3120,7 @@
       <c r="A67" s="1"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="39"/>
+      <c r="D67" s="41"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -3122,7 +3148,7 @@
       <c r="A68" s="1"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="35"/>
+      <c r="D68" s="37"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -3150,7 +3176,7 @@
       <c r="A69" s="1"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="35"/>
+      <c r="D69" s="37"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -3178,7 +3204,7 @@
       <c r="A70" s="1"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="35"/>
+      <c r="D70" s="37"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -3206,7 +3232,7 @@
       <c r="A71" s="1"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="35"/>
+      <c r="D71" s="37"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -3234,7 +3260,7 @@
       <c r="A72" s="1"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="35"/>
+      <c r="D72" s="37"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -3262,7 +3288,7 @@
       <c r="A73" s="1"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="35"/>
+      <c r="D73" s="37"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -3290,7 +3316,7 @@
       <c r="A74" s="1"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="35"/>
+      <c r="D74" s="37"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -3318,7 +3344,7 @@
       <c r="A75" s="1"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="35"/>
+      <c r="D75" s="37"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -3346,7 +3372,7 @@
       <c r="A76" s="1"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="35"/>
+      <c r="D76" s="37"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -3374,7 +3400,7 @@
       <c r="A77" s="1"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="35"/>
+      <c r="D77" s="37"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -3402,7 +3428,7 @@
       <c r="A78" s="1"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="35"/>
+      <c r="D78" s="37"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -3430,7 +3456,7 @@
       <c r="A79" s="1"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="35"/>
+      <c r="D79" s="37"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -3458,7 +3484,7 @@
       <c r="A80" s="1"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="35"/>
+      <c r="D80" s="37"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -3486,7 +3512,7 @@
       <c r="A81" s="1"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="35"/>
+      <c r="D81" s="37"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -3514,7 +3540,7 @@
       <c r="A82" s="1"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="35"/>
+      <c r="D82" s="37"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -3542,7 +3568,7 @@
       <c r="A83" s="1"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="35"/>
+      <c r="D83" s="37"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -3570,7 +3596,7 @@
       <c r="A84" s="1"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="35"/>
+      <c r="D84" s="37"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -3598,7 +3624,7 @@
       <c r="A85" s="1"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="35"/>
+      <c r="D85" s="37"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -3626,7 +3652,7 @@
       <c r="A86" s="1"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="35"/>
+      <c r="D86" s="37"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -3654,7 +3680,7 @@
       <c r="A87" s="1"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="35"/>
+      <c r="D87" s="37"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -3682,7 +3708,7 @@
       <c r="A88" s="1"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="35"/>
+      <c r="D88" s="37"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -3710,7 +3736,7 @@
       <c r="A89" s="1"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="35"/>
+      <c r="D89" s="37"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -3738,7 +3764,7 @@
       <c r="A90" s="1"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="35"/>
+      <c r="D90" s="37"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -3766,7 +3792,7 @@
       <c r="A91" s="1"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="35"/>
+      <c r="D91" s="37"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -3794,7 +3820,7 @@
       <c r="A92" s="1"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="35"/>
+      <c r="D92" s="37"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -3822,7 +3848,7 @@
       <c r="A93" s="1"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="35"/>
+      <c r="D93" s="37"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -3850,7 +3876,7 @@
       <c r="A94" s="1"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="35"/>
+      <c r="D94" s="37"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -3878,7 +3904,7 @@
       <c r="A95" s="1"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="35"/>
+      <c r="D95" s="37"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -3906,7 +3932,7 @@
       <c r="A96" s="1"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="35"/>
+      <c r="D96" s="37"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -3934,7 +3960,7 @@
       <c r="A97" s="1"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="35"/>
+      <c r="D97" s="37"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -3962,7 +3988,7 @@
       <c r="A98" s="1"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="35"/>
+      <c r="D98" s="37"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -3990,7 +4016,7 @@
       <c r="A99" s="1"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="35"/>
+      <c r="D99" s="37"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -4018,7 +4044,7 @@
       <c r="A100" s="1"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="35"/>
+      <c r="D100" s="37"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -4046,7 +4072,7 @@
       <c r="A101" s="1"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="35"/>
+      <c r="D101" s="37"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -4074,7 +4100,7 @@
       <c r="A102" s="1"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="35"/>
+      <c r="D102" s="37"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -4102,7 +4128,7 @@
       <c r="A103" s="1"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="35"/>
+      <c r="D103" s="37"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -4130,7 +4156,7 @@
       <c r="A104" s="1"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="35"/>
+      <c r="D104" s="37"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -4158,7 +4184,7 @@
       <c r="A105" s="1"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="35"/>
+      <c r="D105" s="37"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -4186,7 +4212,7 @@
       <c r="A106" s="1"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="35"/>
+      <c r="D106" s="37"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -4214,7 +4240,7 @@
       <c r="A107" s="1"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
-      <c r="D107" s="35"/>
+      <c r="D107" s="37"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -4242,7 +4268,7 @@
       <c r="A108" s="1"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="35"/>
+      <c r="D108" s="37"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -4270,7 +4296,7 @@
       <c r="A109" s="1"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="35"/>
+      <c r="D109" s="37"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -4298,7 +4324,7 @@
       <c r="A110" s="1"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="35"/>
+      <c r="D110" s="37"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -4326,7 +4352,7 @@
       <c r="A111" s="1"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="35"/>
+      <c r="D111" s="37"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -4354,7 +4380,7 @@
       <c r="A112" s="1"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
-      <c r="D112" s="35"/>
+      <c r="D112" s="37"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
@@ -4382,7 +4408,7 @@
       <c r="A113" s="1"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="35"/>
+      <c r="D113" s="37"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -4410,7 +4436,7 @@
       <c r="A114" s="1"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="35"/>
+      <c r="D114" s="37"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -4438,7 +4464,7 @@
       <c r="A115" s="1"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="35"/>
+      <c r="D115" s="37"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
@@ -4466,7 +4492,7 @@
       <c r="A116" s="1"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="35"/>
+      <c r="D116" s="37"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
@@ -4494,7 +4520,7 @@
       <c r="A117" s="1"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
-      <c r="D117" s="35"/>
+      <c r="D117" s="37"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
@@ -4522,7 +4548,7 @@
       <c r="A118" s="1"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
-      <c r="D118" s="35"/>
+      <c r="D118" s="37"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
@@ -4550,7 +4576,7 @@
       <c r="A119" s="1"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="35"/>
+      <c r="D119" s="37"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
@@ -4578,7 +4604,7 @@
       <c r="A120" s="1"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="35"/>
+      <c r="D120" s="37"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -4606,7 +4632,7 @@
       <c r="A121" s="1"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
-      <c r="D121" s="35"/>
+      <c r="D121" s="37"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -4634,7 +4660,7 @@
       <c r="A122" s="1"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="35"/>
+      <c r="D122" s="37"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -4662,7 +4688,7 @@
       <c r="A123" s="1"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="35"/>
+      <c r="D123" s="37"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -4690,7 +4716,7 @@
       <c r="A124" s="1"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="35"/>
+      <c r="D124" s="37"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -4718,7 +4744,7 @@
       <c r="A125" s="1"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
-      <c r="D125" s="35"/>
+      <c r="D125" s="37"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -4746,7 +4772,7 @@
       <c r="A126" s="1"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
-      <c r="D126" s="35"/>
+      <c r="D126" s="37"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -4774,7 +4800,7 @@
       <c r="A127" s="1"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
-      <c r="D127" s="35"/>
+      <c r="D127" s="37"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
@@ -4802,7 +4828,7 @@
       <c r="A128" s="1"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
-      <c r="D128" s="35"/>
+      <c r="D128" s="37"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -4830,7 +4856,7 @@
       <c r="A129" s="1"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="35"/>
+      <c r="D129" s="37"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -4858,7 +4884,7 @@
       <c r="A130" s="1"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="35"/>
+      <c r="D130" s="37"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
@@ -4886,7 +4912,7 @@
       <c r="A131" s="1"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
-      <c r="D131" s="35"/>
+      <c r="D131" s="37"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
@@ -4914,7 +4940,7 @@
       <c r="A132" s="1"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="35"/>
+      <c r="D132" s="37"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
@@ -4942,7 +4968,7 @@
       <c r="A133" s="1"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
-      <c r="D133" s="35"/>
+      <c r="D133" s="37"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -4970,7 +4996,7 @@
       <c r="A134" s="1"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="35"/>
+      <c r="D134" s="37"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -4998,7 +5024,7 @@
       <c r="A135" s="1"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
-      <c r="D135" s="35"/>
+      <c r="D135" s="37"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
@@ -5026,7 +5052,7 @@
       <c r="A136" s="1"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="35"/>
+      <c r="D136" s="37"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
@@ -5054,7 +5080,7 @@
       <c r="A137" s="1"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="35"/>
+      <c r="D137" s="37"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
@@ -5082,7 +5108,7 @@
       <c r="A138" s="1"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
-      <c r="D138" s="35"/>
+      <c r="D138" s="37"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
@@ -5110,7 +5136,7 @@
       <c r="A139" s="1"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="35"/>
+      <c r="D139" s="37"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -5138,7 +5164,7 @@
       <c r="A140" s="1"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
-      <c r="D140" s="35"/>
+      <c r="D140" s="37"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
@@ -5166,7 +5192,7 @@
       <c r="A141" s="1"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
-      <c r="D141" s="35"/>
+      <c r="D141" s="37"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
@@ -5194,7 +5220,7 @@
       <c r="A142" s="1"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
-      <c r="D142" s="35"/>
+      <c r="D142" s="37"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
@@ -5222,7 +5248,7 @@
       <c r="A143" s="1"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="35"/>
+      <c r="D143" s="37"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -5250,7 +5276,7 @@
       <c r="A144" s="1"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="35"/>
+      <c r="D144" s="37"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -5278,7 +5304,7 @@
       <c r="A145" s="1"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="35"/>
+      <c r="D145" s="37"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
@@ -5306,7 +5332,7 @@
       <c r="A146" s="1"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
-      <c r="D146" s="35"/>
+      <c r="D146" s="37"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
@@ -5334,7 +5360,7 @@
       <c r="A147" s="1"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
-      <c r="D147" s="35"/>
+      <c r="D147" s="37"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -5362,7 +5388,7 @@
       <c r="A148" s="1"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
-      <c r="D148" s="35"/>
+      <c r="D148" s="37"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -5390,7 +5416,7 @@
       <c r="A149" s="1"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
-      <c r="D149" s="35"/>
+      <c r="D149" s="37"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
@@ -5418,7 +5444,7 @@
       <c r="A150" s="1"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
-      <c r="D150" s="35"/>
+      <c r="D150" s="37"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
@@ -5446,7 +5472,7 @@
       <c r="A151" s="1"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
-      <c r="D151" s="35"/>
+      <c r="D151" s="37"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -5474,7 +5500,7 @@
       <c r="A152" s="1"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
-      <c r="D152" s="35"/>
+      <c r="D152" s="37"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
@@ -5502,7 +5528,7 @@
       <c r="A153" s="1"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
-      <c r="D153" s="35"/>
+      <c r="D153" s="37"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
@@ -5530,7 +5556,7 @@
       <c r="A154" s="1"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
-      <c r="D154" s="35"/>
+      <c r="D154" s="37"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -5558,7 +5584,7 @@
       <c r="A155" s="1"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
-      <c r="D155" s="35"/>
+      <c r="D155" s="37"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
@@ -5586,7 +5612,7 @@
       <c r="A156" s="1"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
-      <c r="D156" s="35"/>
+      <c r="D156" s="37"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
@@ -5614,7 +5640,7 @@
       <c r="A157" s="1"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
-      <c r="D157" s="35"/>
+      <c r="D157" s="37"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
@@ -5642,7 +5668,7 @@
       <c r="A158" s="1"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
-      <c r="D158" s="35"/>
+      <c r="D158" s="37"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
@@ -5670,7 +5696,7 @@
       <c r="A159" s="1"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
-      <c r="D159" s="35"/>
+      <c r="D159" s="37"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
@@ -5698,7 +5724,7 @@
       <c r="A160" s="1"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
-      <c r="D160" s="35"/>
+      <c r="D160" s="37"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
@@ -5726,7 +5752,7 @@
       <c r="A161" s="1"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
-      <c r="D161" s="35"/>
+      <c r="D161" s="37"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
@@ -5754,7 +5780,7 @@
       <c r="A162" s="1"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
-      <c r="D162" s="35"/>
+      <c r="D162" s="37"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
@@ -5782,7 +5808,7 @@
       <c r="A163" s="1"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
-      <c r="D163" s="35"/>
+      <c r="D163" s="37"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
@@ -5810,7 +5836,7 @@
       <c r="A164" s="1"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
-      <c r="D164" s="35"/>
+      <c r="D164" s="37"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -5838,7 +5864,7 @@
       <c r="A165" s="1"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
-      <c r="D165" s="35"/>
+      <c r="D165" s="37"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
@@ -5866,7 +5892,7 @@
       <c r="A166" s="1"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
-      <c r="D166" s="35"/>
+      <c r="D166" s="37"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
@@ -5894,7 +5920,7 @@
       <c r="A167" s="1"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
-      <c r="D167" s="35"/>
+      <c r="D167" s="37"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
@@ -5922,7 +5948,7 @@
       <c r="A168" s="1"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
-      <c r="D168" s="35"/>
+      <c r="D168" s="37"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
@@ -5950,7 +5976,7 @@
       <c r="A169" s="1"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
-      <c r="D169" s="35"/>
+      <c r="D169" s="37"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
@@ -5978,7 +6004,7 @@
       <c r="A170" s="1"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
-      <c r="D170" s="35"/>
+      <c r="D170" s="37"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
@@ -6006,7 +6032,7 @@
       <c r="A171" s="1"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
-      <c r="D171" s="35"/>
+      <c r="D171" s="37"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
@@ -6034,7 +6060,7 @@
       <c r="A172" s="1"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="35"/>
+      <c r="D172" s="37"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
@@ -6062,7 +6088,7 @@
       <c r="A173" s="1"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
-      <c r="D173" s="35"/>
+      <c r="D173" s="37"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
@@ -6090,7 +6116,7 @@
       <c r="A174" s="1"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
-      <c r="D174" s="35"/>
+      <c r="D174" s="37"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -6118,7 +6144,7 @@
       <c r="A175" s="1"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
-      <c r="D175" s="35"/>
+      <c r="D175" s="37"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
@@ -6146,7 +6172,7 @@
       <c r="A176" s="1"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
-      <c r="D176" s="35"/>
+      <c r="D176" s="37"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
@@ -6174,7 +6200,7 @@
       <c r="A177" s="1"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
-      <c r="D177" s="35"/>
+      <c r="D177" s="37"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
@@ -6202,7 +6228,7 @@
       <c r="A178" s="1"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
-      <c r="D178" s="35"/>
+      <c r="D178" s="37"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
@@ -6230,7 +6256,7 @@
       <c r="A179" s="1"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
-      <c r="D179" s="35"/>
+      <c r="D179" s="37"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
@@ -6258,7 +6284,7 @@
       <c r="A180" s="1"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
-      <c r="D180" s="35"/>
+      <c r="D180" s="37"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
@@ -6286,7 +6312,7 @@
       <c r="A181" s="1"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
-      <c r="D181" s="35"/>
+      <c r="D181" s="37"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
@@ -6314,7 +6340,7 @@
       <c r="A182" s="1"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
-      <c r="D182" s="35"/>
+      <c r="D182" s="37"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
@@ -6342,7 +6368,7 @@
       <c r="A183" s="1"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
-      <c r="D183" s="35"/>
+      <c r="D183" s="37"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
@@ -6370,7 +6396,7 @@
       <c r="A184" s="1"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
-      <c r="D184" s="35"/>
+      <c r="D184" s="37"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -6398,7 +6424,7 @@
       <c r="A185" s="1"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
-      <c r="D185" s="35"/>
+      <c r="D185" s="37"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
@@ -6426,7 +6452,7 @@
       <c r="A186" s="1"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
-      <c r="D186" s="35"/>
+      <c r="D186" s="37"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
@@ -6454,7 +6480,7 @@
       <c r="A187" s="1"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
-      <c r="D187" s="35"/>
+      <c r="D187" s="37"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -6482,7 +6508,7 @@
       <c r="A188" s="1"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
-      <c r="D188" s="35"/>
+      <c r="D188" s="37"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
@@ -6510,7 +6536,7 @@
       <c r="A189" s="1"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
-      <c r="D189" s="35"/>
+      <c r="D189" s="37"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
@@ -6538,7 +6564,7 @@
       <c r="A190" s="1"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
-      <c r="D190" s="35"/>
+      <c r="D190" s="37"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
@@ -6566,7 +6592,7 @@
       <c r="A191" s="1"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
-      <c r="D191" s="35"/>
+      <c r="D191" s="37"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
@@ -6594,7 +6620,7 @@
       <c r="A192" s="1"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
-      <c r="D192" s="35"/>
+      <c r="D192" s="37"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -6622,7 +6648,7 @@
       <c r="A193" s="1"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
-      <c r="D193" s="35"/>
+      <c r="D193" s="37"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
@@ -6650,7 +6676,7 @@
       <c r="A194" s="1"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
-      <c r="D194" s="35"/>
+      <c r="D194" s="37"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
@@ -6678,7 +6704,7 @@
       <c r="A195" s="1"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
-      <c r="D195" s="35"/>
+      <c r="D195" s="37"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
@@ -6706,7 +6732,7 @@
       <c r="A196" s="1"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
-      <c r="D196" s="35"/>
+      <c r="D196" s="37"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
@@ -6734,7 +6760,7 @@
       <c r="A197" s="1"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
-      <c r="D197" s="35"/>
+      <c r="D197" s="37"/>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
@@ -6762,7 +6788,7 @@
       <c r="A198" s="1"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
-      <c r="D198" s="35"/>
+      <c r="D198" s="37"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
@@ -6790,7 +6816,7 @@
       <c r="A199" s="1"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
-      <c r="D199" s="35"/>
+      <c r="D199" s="37"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
@@ -6818,7 +6844,7 @@
       <c r="A200" s="1"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
-      <c r="D200" s="35"/>
+      <c r="D200" s="37"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
@@ -6846,7 +6872,7 @@
       <c r="A201" s="1"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
-      <c r="D201" s="35"/>
+      <c r="D201" s="37"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
@@ -6874,7 +6900,7 @@
       <c r="A202" s="1"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
-      <c r="D202" s="35"/>
+      <c r="D202" s="37"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
@@ -6902,7 +6928,7 @@
       <c r="A203" s="1"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
-      <c r="D203" s="35"/>
+      <c r="D203" s="37"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
@@ -6930,7 +6956,7 @@
       <c r="A204" s="1"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
-      <c r="D204" s="35"/>
+      <c r="D204" s="37"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
@@ -6958,7 +6984,7 @@
       <c r="A205" s="1"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
-      <c r="D205" s="35"/>
+      <c r="D205" s="37"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
@@ -6986,7 +7012,7 @@
       <c r="A206" s="1"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
-      <c r="D206" s="35"/>
+      <c r="D206" s="37"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
@@ -7014,7 +7040,7 @@
       <c r="A207" s="1"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
-      <c r="D207" s="35"/>
+      <c r="D207" s="37"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
@@ -7042,7 +7068,7 @@
       <c r="A208" s="1"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
-      <c r="D208" s="35"/>
+      <c r="D208" s="37"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
@@ -7070,7 +7096,7 @@
       <c r="A209" s="1"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
-      <c r="D209" s="35"/>
+      <c r="D209" s="37"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
@@ -7098,7 +7124,7 @@
       <c r="A210" s="1"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
-      <c r="D210" s="35"/>
+      <c r="D210" s="37"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
@@ -7126,7 +7152,7 @@
       <c r="A211" s="1"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
-      <c r="D211" s="35"/>
+      <c r="D211" s="37"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
@@ -7154,7 +7180,7 @@
       <c r="A212" s="1"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
-      <c r="D212" s="35"/>
+      <c r="D212" s="37"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
@@ -7182,7 +7208,7 @@
       <c r="A213" s="1"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
-      <c r="D213" s="35"/>
+      <c r="D213" s="37"/>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
@@ -7210,7 +7236,7 @@
       <c r="A214" s="1"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
-      <c r="D214" s="35"/>
+      <c r="D214" s="37"/>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
@@ -7238,7 +7264,7 @@
       <c r="A215" s="1"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
-      <c r="D215" s="35"/>
+      <c r="D215" s="37"/>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
@@ -7266,7 +7292,7 @@
       <c r="A216" s="1"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
-      <c r="D216" s="35"/>
+      <c r="D216" s="37"/>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
@@ -7294,7 +7320,7 @@
       <c r="A217" s="1"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
-      <c r="D217" s="35"/>
+      <c r="D217" s="37"/>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
@@ -7322,7 +7348,7 @@
       <c r="A218" s="1"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
-      <c r="D218" s="35"/>
+      <c r="D218" s="37"/>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
@@ -7350,7 +7376,7 @@
       <c r="A219" s="1"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
-      <c r="D219" s="35"/>
+      <c r="D219" s="37"/>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
@@ -7378,7 +7404,7 @@
       <c r="A220" s="1"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
-      <c r="D220" s="35"/>
+      <c r="D220" s="37"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
@@ -7406,7 +7432,7 @@
       <c r="A221" s="1"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
-      <c r="D221" s="35"/>
+      <c r="D221" s="37"/>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
@@ -7434,7 +7460,7 @@
       <c r="A222" s="1"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
-      <c r="D222" s="35"/>
+      <c r="D222" s="37"/>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
@@ -7462,7 +7488,7 @@
       <c r="A223" s="1"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
-      <c r="D223" s="35"/>
+      <c r="D223" s="37"/>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
@@ -7490,7 +7516,7 @@
       <c r="A224" s="1"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
-      <c r="D224" s="35"/>
+      <c r="D224" s="37"/>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
@@ -7518,7 +7544,7 @@
       <c r="A225" s="1"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
-      <c r="D225" s="35"/>
+      <c r="D225" s="37"/>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
@@ -7546,7 +7572,7 @@
       <c r="A226" s="1"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
-      <c r="D226" s="35"/>
+      <c r="D226" s="37"/>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
@@ -7574,7 +7600,7 @@
       <c r="A227" s="1"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
-      <c r="D227" s="35"/>
+      <c r="D227" s="37"/>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
@@ -7602,7 +7628,7 @@
       <c r="A228" s="1"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
-      <c r="D228" s="35"/>
+      <c r="D228" s="37"/>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
@@ -7630,7 +7656,7 @@
       <c r="A229" s="1"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
-      <c r="D229" s="35"/>
+      <c r="D229" s="37"/>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
@@ -7658,7 +7684,7 @@
       <c r="A230" s="1"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
-      <c r="D230" s="35"/>
+      <c r="D230" s="37"/>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
@@ -7686,7 +7712,7 @@
       <c r="A231" s="1"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
-      <c r="D231" s="35"/>
+      <c r="D231" s="37"/>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
@@ -7714,7 +7740,7 @@
       <c r="A232" s="1"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
-      <c r="D232" s="35"/>
+      <c r="D232" s="37"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
@@ -7742,7 +7768,7 @@
       <c r="A233" s="1"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
-      <c r="D233" s="35"/>
+      <c r="D233" s="37"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
@@ -7770,7 +7796,7 @@
       <c r="A234" s="1"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
-      <c r="D234" s="35"/>
+      <c r="D234" s="37"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
@@ -7798,7 +7824,7 @@
       <c r="A235" s="1"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
-      <c r="D235" s="35"/>
+      <c r="D235" s="37"/>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
@@ -7826,7 +7852,7 @@
       <c r="A236" s="1"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
-      <c r="D236" s="35"/>
+      <c r="D236" s="37"/>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
@@ -7854,7 +7880,7 @@
       <c r="A237" s="1"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
-      <c r="D237" s="35"/>
+      <c r="D237" s="37"/>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
@@ -7882,7 +7908,7 @@
       <c r="A238" s="1"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
-      <c r="D238" s="35"/>
+      <c r="D238" s="37"/>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
@@ -7910,7 +7936,7 @@
       <c r="A239" s="1"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
-      <c r="D239" s="35"/>
+      <c r="D239" s="37"/>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
@@ -7938,7 +7964,7 @@
       <c r="A240" s="1"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
-      <c r="D240" s="35"/>
+      <c r="D240" s="37"/>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
@@ -7966,7 +7992,7 @@
       <c r="A241" s="1"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
-      <c r="D241" s="35"/>
+      <c r="D241" s="37"/>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
@@ -7994,7 +8020,7 @@
       <c r="A242" s="1"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
-      <c r="D242" s="35"/>
+      <c r="D242" s="37"/>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
@@ -8022,7 +8048,7 @@
       <c r="A243" s="1"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
-      <c r="D243" s="35"/>
+      <c r="D243" s="37"/>
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
@@ -8050,7 +8076,7 @@
       <c r="A244" s="1"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
-      <c r="D244" s="35"/>
+      <c r="D244" s="37"/>
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
@@ -8078,7 +8104,7 @@
       <c r="A245" s="1"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
-      <c r="D245" s="35"/>
+      <c r="D245" s="37"/>
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
@@ -8106,7 +8132,7 @@
       <c r="A246" s="1"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
-      <c r="D246" s="35"/>
+      <c r="D246" s="37"/>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
@@ -8134,7 +8160,7 @@
       <c r="A247" s="1"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
-      <c r="D247" s="35"/>
+      <c r="D247" s="37"/>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
@@ -8162,7 +8188,7 @@
       <c r="A248" s="1"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
-      <c r="D248" s="35"/>
+      <c r="D248" s="37"/>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
@@ -8190,7 +8216,7 @@
       <c r="A249" s="1"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
-      <c r="D249" s="35"/>
+      <c r="D249" s="37"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
@@ -8218,7 +8244,7 @@
       <c r="A250" s="1"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
-      <c r="D250" s="35"/>
+      <c r="D250" s="37"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
@@ -8246,7 +8272,7 @@
       <c r="A251" s="1"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
-      <c r="D251" s="35"/>
+      <c r="D251" s="37"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
@@ -8274,7 +8300,7 @@
       <c r="A252" s="1"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
-      <c r="D252" s="35"/>
+      <c r="D252" s="37"/>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
@@ -8302,7 +8328,7 @@
       <c r="A253" s="1"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
-      <c r="D253" s="35"/>
+      <c r="D253" s="37"/>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
@@ -8330,7 +8356,7 @@
       <c r="A254" s="1"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
-      <c r="D254" s="35"/>
+      <c r="D254" s="37"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
@@ -8358,7 +8384,7 @@
       <c r="A255" s="1"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
-      <c r="D255" s="35"/>
+      <c r="D255" s="37"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
@@ -8386,7 +8412,7 @@
       <c r="A256" s="1"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
-      <c r="D256" s="35"/>
+      <c r="D256" s="37"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
@@ -8414,7 +8440,7 @@
       <c r="A257" s="1"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
-      <c r="D257" s="35"/>
+      <c r="D257" s="37"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
@@ -8442,7 +8468,7 @@
       <c r="A258" s="1"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
-      <c r="D258" s="35"/>
+      <c r="D258" s="37"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
@@ -8470,7 +8496,7 @@
       <c r="A259" s="1"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
-      <c r="D259" s="35"/>
+      <c r="D259" s="37"/>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
@@ -8498,7 +8524,7 @@
       <c r="A260" s="1"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
-      <c r="D260" s="35"/>
+      <c r="D260" s="37"/>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
@@ -8526,7 +8552,7 @@
       <c r="A261" s="1"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
-      <c r="D261" s="35"/>
+      <c r="D261" s="37"/>
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
@@ -8554,7 +8580,7 @@
       <c r="A262" s="1"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
-      <c r="D262" s="35"/>
+      <c r="D262" s="37"/>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
@@ -8582,7 +8608,7 @@
       <c r="A263" s="1"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
-      <c r="D263" s="35"/>
+      <c r="D263" s="37"/>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
@@ -8610,7 +8636,7 @@
       <c r="A264" s="1"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
-      <c r="D264" s="35"/>
+      <c r="D264" s="37"/>
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
@@ -8638,7 +8664,7 @@
       <c r="A265" s="1"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
-      <c r="D265" s="35"/>
+      <c r="D265" s="37"/>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
@@ -8666,7 +8692,7 @@
       <c r="A266" s="1"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
-      <c r="D266" s="35"/>
+      <c r="D266" s="37"/>
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
@@ -8694,7 +8720,7 @@
       <c r="A267" s="1"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
-      <c r="D267" s="35"/>
+      <c r="D267" s="37"/>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
@@ -8722,7 +8748,7 @@
       <c r="A268" s="1"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
-      <c r="D268" s="35"/>
+      <c r="D268" s="37"/>
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
@@ -8750,7 +8776,7 @@
       <c r="A269" s="1"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
-      <c r="D269" s="35"/>
+      <c r="D269" s="37"/>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
@@ -8778,7 +8804,7 @@
       <c r="A270" s="1"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
-      <c r="D270" s="35"/>
+      <c r="D270" s="37"/>
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
@@ -8806,7 +8832,7 @@
       <c r="A271" s="1"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
-      <c r="D271" s="35"/>
+      <c r="D271" s="37"/>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
@@ -8834,7 +8860,7 @@
       <c r="A272" s="1"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
-      <c r="D272" s="35"/>
+      <c r="D272" s="37"/>
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
@@ -8862,7 +8888,7 @@
       <c r="A273" s="1"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
-      <c r="D273" s="35"/>
+      <c r="D273" s="37"/>
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
@@ -8890,7 +8916,7 @@
       <c r="A274" s="1"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
-      <c r="D274" s="35"/>
+      <c r="D274" s="37"/>
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
@@ -8918,7 +8944,7 @@
       <c r="A275" s="1"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
-      <c r="D275" s="35"/>
+      <c r="D275" s="37"/>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
@@ -8946,7 +8972,7 @@
       <c r="A276" s="1"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
-      <c r="D276" s="35"/>
+      <c r="D276" s="37"/>
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
@@ -8974,7 +9000,7 @@
       <c r="A277" s="1"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
-      <c r="D277" s="35"/>
+      <c r="D277" s="37"/>
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
@@ -9002,7 +9028,7 @@
       <c r="A278" s="1"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
-      <c r="D278" s="35"/>
+      <c r="D278" s="37"/>
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
@@ -9030,7 +9056,7 @@
       <c r="A279" s="1"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
-      <c r="D279" s="35"/>
+      <c r="D279" s="37"/>
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
@@ -9058,7 +9084,7 @@
       <c r="A280" s="1"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
-      <c r="D280" s="35"/>
+      <c r="D280" s="37"/>
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
@@ -9086,7 +9112,7 @@
       <c r="A281" s="1"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
-      <c r="D281" s="35"/>
+      <c r="D281" s="37"/>
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
@@ -9114,7 +9140,7 @@
       <c r="A282" s="1"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
-      <c r="D282" s="35"/>
+      <c r="D282" s="37"/>
       <c r="E282" s="3"/>
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
@@ -9142,7 +9168,7 @@
       <c r="A283" s="1"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
-      <c r="D283" s="35"/>
+      <c r="D283" s="37"/>
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
@@ -9170,7 +9196,7 @@
       <c r="A284" s="1"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
-      <c r="D284" s="35"/>
+      <c r="D284" s="37"/>
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
@@ -9198,7 +9224,7 @@
       <c r="A285" s="1"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
-      <c r="D285" s="35"/>
+      <c r="D285" s="37"/>
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
@@ -9226,7 +9252,7 @@
       <c r="A286" s="1"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
-      <c r="D286" s="35"/>
+      <c r="D286" s="37"/>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
@@ -9254,7 +9280,7 @@
       <c r="A287" s="1"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
-      <c r="D287" s="35"/>
+      <c r="D287" s="37"/>
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
@@ -9282,7 +9308,7 @@
       <c r="A288" s="1"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
-      <c r="D288" s="35"/>
+      <c r="D288" s="37"/>
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
@@ -9310,7 +9336,7 @@
       <c r="A289" s="1"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
-      <c r="D289" s="35"/>
+      <c r="D289" s="37"/>
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
@@ -9338,7 +9364,7 @@
       <c r="A290" s="1"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
-      <c r="D290" s="35"/>
+      <c r="D290" s="37"/>
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
@@ -9366,7 +9392,7 @@
       <c r="A291" s="1"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
-      <c r="D291" s="35"/>
+      <c r="D291" s="37"/>
       <c r="E291" s="3"/>
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
@@ -9394,7 +9420,7 @@
       <c r="A292" s="1"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
-      <c r="D292" s="35"/>
+      <c r="D292" s="37"/>
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
@@ -9422,7 +9448,7 @@
       <c r="A293" s="1"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
-      <c r="D293" s="35"/>
+      <c r="D293" s="37"/>
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
@@ -9450,7 +9476,7 @@
       <c r="A294" s="1"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
-      <c r="D294" s="35"/>
+      <c r="D294" s="37"/>
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
@@ -9478,7 +9504,7 @@
       <c r="A295" s="1"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
-      <c r="D295" s="35"/>
+      <c r="D295" s="37"/>
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
@@ -9506,7 +9532,7 @@
       <c r="A296" s="1"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
-      <c r="D296" s="35"/>
+      <c r="D296" s="37"/>
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
@@ -9534,7 +9560,7 @@
       <c r="A297" s="1"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
-      <c r="D297" s="35"/>
+      <c r="D297" s="37"/>
       <c r="E297" s="3"/>
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
@@ -9562,7 +9588,7 @@
       <c r="A298" s="1"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
-      <c r="D298" s="35"/>
+      <c r="D298" s="37"/>
       <c r="E298" s="3"/>
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
@@ -9590,7 +9616,7 @@
       <c r="A299" s="1"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
-      <c r="D299" s="35"/>
+      <c r="D299" s="37"/>
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
@@ -9618,7 +9644,7 @@
       <c r="A300" s="1"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
-      <c r="D300" s="35"/>
+      <c r="D300" s="37"/>
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
@@ -9646,7 +9672,7 @@
       <c r="A301" s="1"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
-      <c r="D301" s="35"/>
+      <c r="D301" s="37"/>
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
@@ -9674,7 +9700,7 @@
       <c r="A302" s="1"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
-      <c r="D302" s="35"/>
+      <c r="D302" s="37"/>
       <c r="E302" s="3"/>
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
@@ -9702,7 +9728,7 @@
       <c r="A303" s="1"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
-      <c r="D303" s="35"/>
+      <c r="D303" s="37"/>
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
@@ -9730,7 +9756,7 @@
       <c r="A304" s="1"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
-      <c r="D304" s="35"/>
+      <c r="D304" s="37"/>
       <c r="E304" s="3"/>
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
@@ -9758,7 +9784,7 @@
       <c r="A305" s="1"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
-      <c r="D305" s="35"/>
+      <c r="D305" s="37"/>
       <c r="E305" s="3"/>
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
@@ -9786,7 +9812,7 @@
       <c r="A306" s="1"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
-      <c r="D306" s="35"/>
+      <c r="D306" s="37"/>
       <c r="E306" s="3"/>
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
@@ -9814,7 +9840,7 @@
       <c r="A307" s="1"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
-      <c r="D307" s="35"/>
+      <c r="D307" s="37"/>
       <c r="E307" s="3"/>
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
@@ -9842,7 +9868,7 @@
       <c r="A308" s="1"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
-      <c r="D308" s="35"/>
+      <c r="D308" s="37"/>
       <c r="E308" s="3"/>
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
@@ -9870,7 +9896,7 @@
       <c r="A309" s="1"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
-      <c r="D309" s="35"/>
+      <c r="D309" s="37"/>
       <c r="E309" s="3"/>
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
@@ -9898,7 +9924,7 @@
       <c r="A310" s="1"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
-      <c r="D310" s="35"/>
+      <c r="D310" s="37"/>
       <c r="E310" s="3"/>
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
@@ -9926,7 +9952,7 @@
       <c r="A311" s="1"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
-      <c r="D311" s="35"/>
+      <c r="D311" s="37"/>
       <c r="E311" s="3"/>
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
@@ -9954,7 +9980,7 @@
       <c r="A312" s="1"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
-      <c r="D312" s="35"/>
+      <c r="D312" s="37"/>
       <c r="E312" s="3"/>
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
@@ -9982,7 +10008,7 @@
       <c r="A313" s="1"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
-      <c r="D313" s="35"/>
+      <c r="D313" s="37"/>
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
@@ -10010,7 +10036,7 @@
       <c r="A314" s="1"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
-      <c r="D314" s="35"/>
+      <c r="D314" s="37"/>
       <c r="E314" s="3"/>
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
@@ -10038,7 +10064,7 @@
       <c r="A315" s="1"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
-      <c r="D315" s="35"/>
+      <c r="D315" s="37"/>
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
@@ -10066,7 +10092,7 @@
       <c r="A316" s="1"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
-      <c r="D316" s="35"/>
+      <c r="D316" s="37"/>
       <c r="E316" s="3"/>
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
@@ -10094,7 +10120,7 @@
       <c r="A317" s="1"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
-      <c r="D317" s="35"/>
+      <c r="D317" s="37"/>
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
@@ -10122,7 +10148,7 @@
       <c r="A318" s="1"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
-      <c r="D318" s="35"/>
+      <c r="D318" s="37"/>
       <c r="E318" s="3"/>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
@@ -10150,7 +10176,7 @@
       <c r="A319" s="1"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
-      <c r="D319" s="35"/>
+      <c r="D319" s="37"/>
       <c r="E319" s="3"/>
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
@@ -10178,7 +10204,7 @@
       <c r="A320" s="1"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
-      <c r="D320" s="35"/>
+      <c r="D320" s="37"/>
       <c r="E320" s="3"/>
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
@@ -10206,7 +10232,7 @@
       <c r="A321" s="1"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
-      <c r="D321" s="35"/>
+      <c r="D321" s="37"/>
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
@@ -10234,7 +10260,7 @@
       <c r="A322" s="1"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
-      <c r="D322" s="35"/>
+      <c r="D322" s="37"/>
       <c r="E322" s="3"/>
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
@@ -10262,7 +10288,7 @@
       <c r="A323" s="1"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
-      <c r="D323" s="35"/>
+      <c r="D323" s="37"/>
       <c r="E323" s="3"/>
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
@@ -10290,7 +10316,7 @@
       <c r="A324" s="1"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
-      <c r="D324" s="35"/>
+      <c r="D324" s="37"/>
       <c r="E324" s="3"/>
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
@@ -10318,7 +10344,7 @@
       <c r="A325" s="1"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
-      <c r="D325" s="35"/>
+      <c r="D325" s="37"/>
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
@@ -10346,7 +10372,7 @@
       <c r="A326" s="1"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
-      <c r="D326" s="35"/>
+      <c r="D326" s="37"/>
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
@@ -10374,7 +10400,7 @@
       <c r="A327" s="1"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
-      <c r="D327" s="35"/>
+      <c r="D327" s="37"/>
       <c r="E327" s="3"/>
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
@@ -10402,7 +10428,7 @@
       <c r="A328" s="1"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
-      <c r="D328" s="35"/>
+      <c r="D328" s="37"/>
       <c r="E328" s="3"/>
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
@@ -10430,7 +10456,7 @@
       <c r="A329" s="1"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
-      <c r="D329" s="35"/>
+      <c r="D329" s="37"/>
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
@@ -10458,7 +10484,7 @@
       <c r="A330" s="1"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
-      <c r="D330" s="35"/>
+      <c r="D330" s="37"/>
       <c r="E330" s="3"/>
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
@@ -10486,7 +10512,7 @@
       <c r="A331" s="1"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
-      <c r="D331" s="35"/>
+      <c r="D331" s="37"/>
       <c r="E331" s="3"/>
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
@@ -10514,7 +10540,7 @@
       <c r="A332" s="1"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
-      <c r="D332" s="35"/>
+      <c r="D332" s="37"/>
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
@@ -10542,7 +10568,7 @@
       <c r="A333" s="1"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
-      <c r="D333" s="35"/>
+      <c r="D333" s="37"/>
       <c r="E333" s="3"/>
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
@@ -10570,7 +10596,7 @@
       <c r="A334" s="1"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
-      <c r="D334" s="35"/>
+      <c r="D334" s="37"/>
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
@@ -10598,7 +10624,7 @@
       <c r="A335" s="1"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
-      <c r="D335" s="35"/>
+      <c r="D335" s="37"/>
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
@@ -10626,7 +10652,7 @@
       <c r="A336" s="1"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
-      <c r="D336" s="35"/>
+      <c r="D336" s="37"/>
       <c r="E336" s="3"/>
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
@@ -10654,7 +10680,7 @@
       <c r="A337" s="1"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
-      <c r="D337" s="35"/>
+      <c r="D337" s="37"/>
       <c r="E337" s="3"/>
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
@@ -10682,7 +10708,7 @@
       <c r="A338" s="1"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
-      <c r="D338" s="35"/>
+      <c r="D338" s="37"/>
       <c r="E338" s="3"/>
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
@@ -10710,7 +10736,7 @@
       <c r="A339" s="1"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
-      <c r="D339" s="35"/>
+      <c r="D339" s="37"/>
       <c r="E339" s="3"/>
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
@@ -10738,7 +10764,7 @@
       <c r="A340" s="1"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
-      <c r="D340" s="35"/>
+      <c r="D340" s="37"/>
       <c r="E340" s="3"/>
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
@@ -10766,7 +10792,7 @@
       <c r="A341" s="1"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
-      <c r="D341" s="35"/>
+      <c r="D341" s="37"/>
       <c r="E341" s="3"/>
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
@@ -10794,7 +10820,7 @@
       <c r="A342" s="1"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
-      <c r="D342" s="35"/>
+      <c r="D342" s="37"/>
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
@@ -10822,7 +10848,7 @@
       <c r="A343" s="1"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
-      <c r="D343" s="35"/>
+      <c r="D343" s="37"/>
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
@@ -10850,7 +10876,7 @@
       <c r="A344" s="1"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
-      <c r="D344" s="35"/>
+      <c r="D344" s="37"/>
       <c r="E344" s="3"/>
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
@@ -10878,7 +10904,7 @@
       <c r="A345" s="1"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
-      <c r="D345" s="35"/>
+      <c r="D345" s="37"/>
       <c r="E345" s="3"/>
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
@@ -10906,7 +10932,7 @@
       <c r="A346" s="1"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
-      <c r="D346" s="35"/>
+      <c r="D346" s="37"/>
       <c r="E346" s="3"/>
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
@@ -10934,7 +10960,7 @@
       <c r="A347" s="1"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
-      <c r="D347" s="35"/>
+      <c r="D347" s="37"/>
       <c r="E347" s="3"/>
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
@@ -10962,7 +10988,7 @@
       <c r="A348" s="1"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
-      <c r="D348" s="35"/>
+      <c r="D348" s="37"/>
       <c r="E348" s="3"/>
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
@@ -10990,7 +11016,7 @@
       <c r="A349" s="1"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
-      <c r="D349" s="35"/>
+      <c r="D349" s="37"/>
       <c r="E349" s="3"/>
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
@@ -11018,7 +11044,7 @@
       <c r="A350" s="1"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
-      <c r="D350" s="35"/>
+      <c r="D350" s="37"/>
       <c r="E350" s="3"/>
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
@@ -11046,7 +11072,7 @@
       <c r="A351" s="1"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
-      <c r="D351" s="35"/>
+      <c r="D351" s="37"/>
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
@@ -11074,7 +11100,7 @@
       <c r="A352" s="1"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
-      <c r="D352" s="35"/>
+      <c r="D352" s="37"/>
       <c r="E352" s="3"/>
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
@@ -11102,7 +11128,7 @@
       <c r="A353" s="1"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
-      <c r="D353" s="35"/>
+      <c r="D353" s="37"/>
       <c r="E353" s="3"/>
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
@@ -11130,7 +11156,7 @@
       <c r="A354" s="1"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
-      <c r="D354" s="35"/>
+      <c r="D354" s="37"/>
       <c r="E354" s="3"/>
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
@@ -11158,7 +11184,7 @@
       <c r="A355" s="1"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
-      <c r="D355" s="35"/>
+      <c r="D355" s="37"/>
       <c r="E355" s="3"/>
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
@@ -11186,7 +11212,7 @@
       <c r="A356" s="1"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
-      <c r="D356" s="35"/>
+      <c r="D356" s="37"/>
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
@@ -11214,7 +11240,7 @@
       <c r="A357" s="1"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
-      <c r="D357" s="35"/>
+      <c r="D357" s="37"/>
       <c r="E357" s="3"/>
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
@@ -11242,7 +11268,7 @@
       <c r="A358" s="1"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
-      <c r="D358" s="35"/>
+      <c r="D358" s="37"/>
       <c r="E358" s="3"/>
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
@@ -11270,7 +11296,7 @@
       <c r="A359" s="1"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
-      <c r="D359" s="35"/>
+      <c r="D359" s="37"/>
       <c r="E359" s="3"/>
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
@@ -11298,7 +11324,7 @@
       <c r="A360" s="1"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
-      <c r="D360" s="35"/>
+      <c r="D360" s="37"/>
       <c r="E360" s="3"/>
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
@@ -11326,7 +11352,7 @@
       <c r="A361" s="1"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
-      <c r="D361" s="35"/>
+      <c r="D361" s="37"/>
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
@@ -11354,7 +11380,7 @@
       <c r="A362" s="1"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
-      <c r="D362" s="35"/>
+      <c r="D362" s="37"/>
       <c r="E362" s="3"/>
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
@@ -11382,7 +11408,7 @@
       <c r="A363" s="1"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
-      <c r="D363" s="35"/>
+      <c r="D363" s="37"/>
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
@@ -11410,7 +11436,7 @@
       <c r="A364" s="1"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
-      <c r="D364" s="35"/>
+      <c r="D364" s="37"/>
       <c r="E364" s="3"/>
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
@@ -11438,7 +11464,7 @@
       <c r="A365" s="1"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
-      <c r="D365" s="35"/>
+      <c r="D365" s="37"/>
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
@@ -11466,7 +11492,7 @@
       <c r="A366" s="1"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
-      <c r="D366" s="35"/>
+      <c r="D366" s="37"/>
       <c r="E366" s="3"/>
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
@@ -11494,7 +11520,7 @@
       <c r="A367" s="1"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
-      <c r="D367" s="35"/>
+      <c r="D367" s="37"/>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
@@ -11522,7 +11548,7 @@
       <c r="A368" s="1"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
-      <c r="D368" s="35"/>
+      <c r="D368" s="37"/>
       <c r="E368" s="3"/>
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
@@ -11550,7 +11576,7 @@
       <c r="A369" s="1"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
-      <c r="D369" s="35"/>
+      <c r="D369" s="37"/>
       <c r="E369" s="3"/>
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
@@ -11578,7 +11604,7 @@
       <c r="A370" s="1"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
-      <c r="D370" s="35"/>
+      <c r="D370" s="37"/>
       <c r="E370" s="3"/>
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
@@ -11606,7 +11632,7 @@
       <c r="A371" s="1"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
-      <c r="D371" s="35"/>
+      <c r="D371" s="37"/>
       <c r="E371" s="3"/>
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
@@ -11634,7 +11660,7 @@
       <c r="A372" s="1"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
-      <c r="D372" s="35"/>
+      <c r="D372" s="37"/>
       <c r="E372" s="3"/>
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
@@ -11662,7 +11688,7 @@
       <c r="A373" s="1"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
-      <c r="D373" s="35"/>
+      <c r="D373" s="37"/>
       <c r="E373" s="3"/>
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
@@ -11690,7 +11716,7 @@
       <c r="A374" s="1"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
-      <c r="D374" s="35"/>
+      <c r="D374" s="37"/>
       <c r="E374" s="3"/>
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
@@ -11718,7 +11744,7 @@
       <c r="A375" s="1"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
-      <c r="D375" s="35"/>
+      <c r="D375" s="37"/>
       <c r="E375" s="3"/>
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
@@ -11746,7 +11772,7 @@
       <c r="A376" s="1"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
-      <c r="D376" s="35"/>
+      <c r="D376" s="37"/>
       <c r="E376" s="3"/>
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
@@ -11774,7 +11800,7 @@
       <c r="A377" s="1"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
-      <c r="D377" s="35"/>
+      <c r="D377" s="37"/>
       <c r="E377" s="3"/>
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
@@ -11802,7 +11828,7 @@
       <c r="A378" s="1"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
-      <c r="D378" s="35"/>
+      <c r="D378" s="37"/>
       <c r="E378" s="3"/>
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
@@ -11830,7 +11856,7 @@
       <c r="A379" s="1"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
-      <c r="D379" s="35"/>
+      <c r="D379" s="37"/>
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
@@ -11858,7 +11884,7 @@
       <c r="A380" s="1"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
-      <c r="D380" s="35"/>
+      <c r="D380" s="37"/>
       <c r="E380" s="3"/>
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
@@ -11886,7 +11912,7 @@
       <c r="A381" s="1"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
-      <c r="D381" s="35"/>
+      <c r="D381" s="37"/>
       <c r="E381" s="3"/>
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
@@ -11914,7 +11940,7 @@
       <c r="A382" s="1"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
-      <c r="D382" s="35"/>
+      <c r="D382" s="37"/>
       <c r="E382" s="3"/>
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
@@ -11942,7 +11968,7 @@
       <c r="A383" s="1"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
-      <c r="D383" s="35"/>
+      <c r="D383" s="37"/>
       <c r="E383" s="3"/>
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
@@ -11970,7 +11996,7 @@
       <c r="A384" s="1"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
-      <c r="D384" s="35"/>
+      <c r="D384" s="37"/>
       <c r="E384" s="3"/>
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
@@ -11998,7 +12024,7 @@
       <c r="A385" s="1"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
-      <c r="D385" s="35"/>
+      <c r="D385" s="37"/>
       <c r="E385" s="3"/>
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
@@ -12026,7 +12052,7 @@
       <c r="A386" s="1"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
-      <c r="D386" s="35"/>
+      <c r="D386" s="37"/>
       <c r="E386" s="3"/>
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
@@ -12054,7 +12080,7 @@
       <c r="A387" s="1"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
-      <c r="D387" s="35"/>
+      <c r="D387" s="37"/>
       <c r="E387" s="3"/>
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
@@ -12082,7 +12108,7 @@
       <c r="A388" s="1"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
-      <c r="D388" s="35"/>
+      <c r="D388" s="37"/>
       <c r="E388" s="3"/>
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
@@ -12110,7 +12136,7 @@
       <c r="A389" s="1"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
-      <c r="D389" s="35"/>
+      <c r="D389" s="37"/>
       <c r="E389" s="3"/>
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
@@ -12138,7 +12164,7 @@
       <c r="A390" s="1"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
-      <c r="D390" s="35"/>
+      <c r="D390" s="37"/>
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
@@ -12166,7 +12192,7 @@
       <c r="A391" s="1"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
-      <c r="D391" s="35"/>
+      <c r="D391" s="37"/>
       <c r="E391" s="3"/>
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
@@ -12194,7 +12220,7 @@
       <c r="A392" s="1"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
-      <c r="D392" s="35"/>
+      <c r="D392" s="37"/>
       <c r="E392" s="3"/>
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
@@ -12222,7 +12248,7 @@
       <c r="A393" s="1"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
-      <c r="D393" s="35"/>
+      <c r="D393" s="37"/>
       <c r="E393" s="3"/>
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
@@ -12250,7 +12276,7 @@
       <c r="A394" s="1"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
-      <c r="D394" s="35"/>
+      <c r="D394" s="37"/>
       <c r="E394" s="3"/>
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
@@ -12278,7 +12304,7 @@
       <c r="A395" s="1"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
-      <c r="D395" s="35"/>
+      <c r="D395" s="37"/>
       <c r="E395" s="3"/>
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
@@ -12306,7 +12332,7 @@
       <c r="A396" s="1"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
-      <c r="D396" s="35"/>
+      <c r="D396" s="37"/>
       <c r="E396" s="3"/>
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
@@ -12334,7 +12360,7 @@
       <c r="A397" s="1"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
-      <c r="D397" s="35"/>
+      <c r="D397" s="37"/>
       <c r="E397" s="3"/>
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
@@ -12362,7 +12388,7 @@
       <c r="A398" s="1"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
-      <c r="D398" s="35"/>
+      <c r="D398" s="37"/>
       <c r="E398" s="3"/>
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
@@ -12390,7 +12416,7 @@
       <c r="A399" s="1"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
-      <c r="D399" s="35"/>
+      <c r="D399" s="37"/>
       <c r="E399" s="3"/>
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
@@ -12418,7 +12444,7 @@
       <c r="A400" s="1"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
-      <c r="D400" s="35"/>
+      <c r="D400" s="37"/>
       <c r="E400" s="3"/>
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
@@ -12446,7 +12472,7 @@
       <c r="A401" s="1"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
-      <c r="D401" s="35"/>
+      <c r="D401" s="37"/>
       <c r="E401" s="3"/>
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
@@ -12474,7 +12500,7 @@
       <c r="A402" s="1"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
-      <c r="D402" s="35"/>
+      <c r="D402" s="37"/>
       <c r="E402" s="3"/>
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
@@ -12502,7 +12528,7 @@
       <c r="A403" s="1"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
-      <c r="D403" s="35"/>
+      <c r="D403" s="37"/>
       <c r="E403" s="3"/>
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
@@ -12530,7 +12556,7 @@
       <c r="A404" s="1"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
-      <c r="D404" s="35"/>
+      <c r="D404" s="37"/>
       <c r="E404" s="3"/>
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
@@ -12558,7 +12584,7 @@
       <c r="A405" s="1"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
-      <c r="D405" s="35"/>
+      <c r="D405" s="37"/>
       <c r="E405" s="3"/>
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
@@ -12586,7 +12612,7 @@
       <c r="A406" s="1"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
-      <c r="D406" s="35"/>
+      <c r="D406" s="37"/>
       <c r="E406" s="3"/>
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
@@ -12614,7 +12640,7 @@
       <c r="A407" s="1"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
-      <c r="D407" s="35"/>
+      <c r="D407" s="37"/>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
@@ -12642,7 +12668,7 @@
       <c r="A408" s="1"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
-      <c r="D408" s="35"/>
+      <c r="D408" s="37"/>
       <c r="E408" s="3"/>
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
@@ -12670,7 +12696,7 @@
       <c r="A409" s="1"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
-      <c r="D409" s="35"/>
+      <c r="D409" s="37"/>
       <c r="E409" s="3"/>
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
@@ -12698,7 +12724,7 @@
       <c r="A410" s="1"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
-      <c r="D410" s="35"/>
+      <c r="D410" s="37"/>
       <c r="E410" s="3"/>
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
@@ -12726,7 +12752,7 @@
       <c r="A411" s="1"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
-      <c r="D411" s="35"/>
+      <c r="D411" s="37"/>
       <c r="E411" s="3"/>
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
@@ -12754,7 +12780,7 @@
       <c r="A412" s="1"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
-      <c r="D412" s="35"/>
+      <c r="D412" s="37"/>
       <c r="E412" s="3"/>
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
@@ -12782,7 +12808,7 @@
       <c r="A413" s="1"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
-      <c r="D413" s="35"/>
+      <c r="D413" s="37"/>
       <c r="E413" s="3"/>
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
@@ -12810,7 +12836,7 @@
       <c r="A414" s="1"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
-      <c r="D414" s="35"/>
+      <c r="D414" s="37"/>
       <c r="E414" s="3"/>
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
@@ -12838,7 +12864,7 @@
       <c r="A415" s="1"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
-      <c r="D415" s="35"/>
+      <c r="D415" s="37"/>
       <c r="E415" s="3"/>
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
@@ -12866,7 +12892,7 @@
       <c r="A416" s="1"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
-      <c r="D416" s="35"/>
+      <c r="D416" s="37"/>
       <c r="E416" s="3"/>
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
@@ -12894,7 +12920,7 @@
       <c r="A417" s="1"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
-      <c r="D417" s="35"/>
+      <c r="D417" s="37"/>
       <c r="E417" s="3"/>
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
@@ -12922,7 +12948,7 @@
       <c r="A418" s="1"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
-      <c r="D418" s="35"/>
+      <c r="D418" s="37"/>
       <c r="E418" s="3"/>
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
@@ -12950,7 +12976,7 @@
       <c r="A419" s="1"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
-      <c r="D419" s="35"/>
+      <c r="D419" s="37"/>
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
@@ -12978,7 +13004,7 @@
       <c r="A420" s="1"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
-      <c r="D420" s="35"/>
+      <c r="D420" s="37"/>
       <c r="E420" s="3"/>
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
@@ -13006,7 +13032,7 @@
       <c r="A421" s="1"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
-      <c r="D421" s="35"/>
+      <c r="D421" s="37"/>
       <c r="E421" s="3"/>
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
@@ -13034,7 +13060,7 @@
       <c r="A422" s="1"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
-      <c r="D422" s="35"/>
+      <c r="D422" s="37"/>
       <c r="E422" s="3"/>
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
@@ -13062,7 +13088,7 @@
       <c r="A423" s="1"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
-      <c r="D423" s="35"/>
+      <c r="D423" s="37"/>
       <c r="E423" s="3"/>
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
@@ -13090,7 +13116,7 @@
       <c r="A424" s="1"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
-      <c r="D424" s="35"/>
+      <c r="D424" s="37"/>
       <c r="E424" s="3"/>
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
@@ -13118,7 +13144,7 @@
       <c r="A425" s="1"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
-      <c r="D425" s="35"/>
+      <c r="D425" s="37"/>
       <c r="E425" s="3"/>
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
@@ -13146,7 +13172,7 @@
       <c r="A426" s="1"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
-      <c r="D426" s="35"/>
+      <c r="D426" s="37"/>
       <c r="E426" s="3"/>
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
@@ -13174,7 +13200,7 @@
       <c r="A427" s="1"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
-      <c r="D427" s="35"/>
+      <c r="D427" s="37"/>
       <c r="E427" s="3"/>
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
@@ -13202,7 +13228,7 @@
       <c r="A428" s="1"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
-      <c r="D428" s="35"/>
+      <c r="D428" s="37"/>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
@@ -13230,7 +13256,7 @@
       <c r="A429" s="1"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
-      <c r="D429" s="35"/>
+      <c r="D429" s="37"/>
       <c r="E429" s="3"/>
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
@@ -13258,7 +13284,7 @@
       <c r="A430" s="1"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
-      <c r="D430" s="35"/>
+      <c r="D430" s="37"/>
       <c r="E430" s="3"/>
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
@@ -13286,7 +13312,7 @@
       <c r="A431" s="1"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
-      <c r="D431" s="35"/>
+      <c r="D431" s="37"/>
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
@@ -13314,7 +13340,7 @@
       <c r="A432" s="1"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
-      <c r="D432" s="35"/>
+      <c r="D432" s="37"/>
       <c r="E432" s="3"/>
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
@@ -13342,7 +13368,7 @@
       <c r="A433" s="1"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
-      <c r="D433" s="35"/>
+      <c r="D433" s="37"/>
       <c r="E433" s="3"/>
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
@@ -13370,7 +13396,7 @@
       <c r="A434" s="1"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
-      <c r="D434" s="35"/>
+      <c r="D434" s="37"/>
       <c r="E434" s="3"/>
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
@@ -13398,7 +13424,7 @@
       <c r="A435" s="1"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
-      <c r="D435" s="35"/>
+      <c r="D435" s="37"/>
       <c r="E435" s="3"/>
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
@@ -13426,7 +13452,7 @@
       <c r="A436" s="1"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
-      <c r="D436" s="35"/>
+      <c r="D436" s="37"/>
       <c r="E436" s="3"/>
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
@@ -13454,7 +13480,7 @@
       <c r="A437" s="1"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
-      <c r="D437" s="35"/>
+      <c r="D437" s="37"/>
       <c r="E437" s="3"/>
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
@@ -13482,7 +13508,7 @@
       <c r="A438" s="1"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
-      <c r="D438" s="35"/>
+      <c r="D438" s="37"/>
       <c r="E438" s="3"/>
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
@@ -13510,7 +13536,7 @@
       <c r="A439" s="1"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
-      <c r="D439" s="35"/>
+      <c r="D439" s="37"/>
       <c r="E439" s="3"/>
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
@@ -13538,7 +13564,7 @@
       <c r="A440" s="1"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
-      <c r="D440" s="35"/>
+      <c r="D440" s="37"/>
       <c r="E440" s="3"/>
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
@@ -13566,7 +13592,7 @@
       <c r="A441" s="1"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
-      <c r="D441" s="35"/>
+      <c r="D441" s="37"/>
       <c r="E441" s="3"/>
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
@@ -13594,7 +13620,7 @@
       <c r="A442" s="1"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
-      <c r="D442" s="35"/>
+      <c r="D442" s="37"/>
       <c r="E442" s="3"/>
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
@@ -13622,7 +13648,7 @@
       <c r="A443" s="1"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
-      <c r="D443" s="35"/>
+      <c r="D443" s="37"/>
       <c r="E443" s="3"/>
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
@@ -13650,7 +13676,7 @@
       <c r="A444" s="1"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
-      <c r="D444" s="35"/>
+      <c r="D444" s="37"/>
       <c r="E444" s="3"/>
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
@@ -13678,7 +13704,7 @@
       <c r="A445" s="1"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
-      <c r="D445" s="35"/>
+      <c r="D445" s="37"/>
       <c r="E445" s="3"/>
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
@@ -13706,7 +13732,7 @@
       <c r="A446" s="1"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
-      <c r="D446" s="35"/>
+      <c r="D446" s="37"/>
       <c r="E446" s="3"/>
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
@@ -13734,7 +13760,7 @@
       <c r="A447" s="1"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
-      <c r="D447" s="35"/>
+      <c r="D447" s="37"/>
       <c r="E447" s="3"/>
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
@@ -13762,7 +13788,7 @@
       <c r="A448" s="1"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
-      <c r="D448" s="35"/>
+      <c r="D448" s="37"/>
       <c r="E448" s="3"/>
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
@@ -13790,7 +13816,7 @@
       <c r="A449" s="1"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
-      <c r="D449" s="35"/>
+      <c r="D449" s="37"/>
       <c r="E449" s="3"/>
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
@@ -13818,7 +13844,7 @@
       <c r="A450" s="1"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
-      <c r="D450" s="35"/>
+      <c r="D450" s="37"/>
       <c r="E450" s="3"/>
       <c r="F450" s="3"/>
       <c r="G450" s="3"/>
@@ -13846,7 +13872,7 @@
       <c r="A451" s="1"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
-      <c r="D451" s="35"/>
+      <c r="D451" s="37"/>
       <c r="E451" s="3"/>
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
@@ -13874,7 +13900,7 @@
       <c r="A452" s="1"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
-      <c r="D452" s="35"/>
+      <c r="D452" s="37"/>
       <c r="E452" s="3"/>
       <c r="F452" s="3"/>
       <c r="G452" s="3"/>
@@ -13902,7 +13928,7 @@
       <c r="A453" s="1"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
-      <c r="D453" s="35"/>
+      <c r="D453" s="37"/>
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
@@ -13930,7 +13956,7 @@
       <c r="A454" s="1"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
-      <c r="D454" s="35"/>
+      <c r="D454" s="37"/>
       <c r="E454" s="3"/>
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
@@ -13958,7 +13984,7 @@
       <c r="A455" s="1"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
-      <c r="D455" s="35"/>
+      <c r="D455" s="37"/>
       <c r="E455" s="3"/>
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
@@ -13986,7 +14012,7 @@
       <c r="A456" s="1"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
-      <c r="D456" s="35"/>
+      <c r="D456" s="37"/>
       <c r="E456" s="3"/>
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
@@ -14014,7 +14040,7 @@
       <c r="A457" s="1"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
-      <c r="D457" s="35"/>
+      <c r="D457" s="37"/>
       <c r="E457" s="3"/>
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
@@ -14042,7 +14068,7 @@
       <c r="A458" s="1"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
-      <c r="D458" s="35"/>
+      <c r="D458" s="37"/>
       <c r="E458" s="3"/>
       <c r="F458" s="3"/>
       <c r="G458" s="3"/>
@@ -14070,7 +14096,7 @@
       <c r="A459" s="1"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
-      <c r="D459" s="35"/>
+      <c r="D459" s="37"/>
       <c r="E459" s="3"/>
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
@@ -14098,7 +14124,7 @@
       <c r="A460" s="1"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
-      <c r="D460" s="35"/>
+      <c r="D460" s="37"/>
       <c r="E460" s="3"/>
       <c r="F460" s="3"/>
       <c r="G460" s="3"/>
@@ -14126,7 +14152,7 @@
       <c r="A461" s="1"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
-      <c r="D461" s="35"/>
+      <c r="D461" s="37"/>
       <c r="E461" s="3"/>
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
@@ -14154,7 +14180,7 @@
       <c r="A462" s="1"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
-      <c r="D462" s="35"/>
+      <c r="D462" s="37"/>
       <c r="E462" s="3"/>
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
@@ -14182,7 +14208,7 @@
       <c r="A463" s="1"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
-      <c r="D463" s="35"/>
+      <c r="D463" s="37"/>
       <c r="E463" s="3"/>
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
@@ -14210,7 +14236,7 @@
       <c r="A464" s="1"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
-      <c r="D464" s="35"/>
+      <c r="D464" s="37"/>
       <c r="E464" s="3"/>
       <c r="F464" s="3"/>
       <c r="G464" s="3"/>
@@ -14238,7 +14264,7 @@
       <c r="A465" s="1"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
-      <c r="D465" s="35"/>
+      <c r="D465" s="37"/>
       <c r="E465" s="3"/>
       <c r="F465" s="3"/>
       <c r="G465" s="3"/>
@@ -14266,7 +14292,7 @@
       <c r="A466" s="1"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
-      <c r="D466" s="35"/>
+      <c r="D466" s="37"/>
       <c r="E466" s="3"/>
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
@@ -14294,7 +14320,7 @@
       <c r="A467" s="1"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
-      <c r="D467" s="35"/>
+      <c r="D467" s="37"/>
       <c r="E467" s="3"/>
       <c r="F467" s="3"/>
       <c r="G467" s="3"/>
@@ -14322,7 +14348,7 @@
       <c r="A468" s="1"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
-      <c r="D468" s="35"/>
+      <c r="D468" s="37"/>
       <c r="E468" s="3"/>
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
@@ -14350,7 +14376,7 @@
       <c r="A469" s="1"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
-      <c r="D469" s="35"/>
+      <c r="D469" s="37"/>
       <c r="E469" s="3"/>
       <c r="F469" s="3"/>
       <c r="G469" s="3"/>
@@ -14378,7 +14404,7 @@
       <c r="A470" s="1"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
-      <c r="D470" s="35"/>
+      <c r="D470" s="37"/>
       <c r="E470" s="3"/>
       <c r="F470" s="3"/>
       <c r="G470" s="3"/>
@@ -14406,7 +14432,7 @@
       <c r="A471" s="1"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
-      <c r="D471" s="35"/>
+      <c r="D471" s="37"/>
       <c r="E471" s="3"/>
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
@@ -14434,7 +14460,7 @@
       <c r="A472" s="1"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
-      <c r="D472" s="35"/>
+      <c r="D472" s="37"/>
       <c r="E472" s="3"/>
       <c r="F472" s="3"/>
       <c r="G472" s="3"/>
@@ -14462,7 +14488,7 @@
       <c r="A473" s="1"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
-      <c r="D473" s="35"/>
+      <c r="D473" s="37"/>
       <c r="E473" s="3"/>
       <c r="F473" s="3"/>
       <c r="G473" s="3"/>
@@ -14490,7 +14516,7 @@
       <c r="A474" s="1"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
-      <c r="D474" s="35"/>
+      <c r="D474" s="37"/>
       <c r="E474" s="3"/>
       <c r="F474" s="3"/>
       <c r="G474" s="3"/>
@@ -14518,7 +14544,7 @@
       <c r="A475" s="1"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
-      <c r="D475" s="35"/>
+      <c r="D475" s="37"/>
       <c r="E475" s="3"/>
       <c r="F475" s="3"/>
       <c r="G475" s="3"/>
@@ -14546,7 +14572,7 @@
       <c r="A476" s="1"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
-      <c r="D476" s="35"/>
+      <c r="D476" s="37"/>
       <c r="E476" s="3"/>
       <c r="F476" s="3"/>
       <c r="G476" s="3"/>
@@ -14574,7 +14600,7 @@
       <c r="A477" s="1"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
-      <c r="D477" s="35"/>
+      <c r="D477" s="37"/>
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
       <c r="G477" s="3"/>
@@ -14602,7 +14628,7 @@
       <c r="A478" s="1"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
-      <c r="D478" s="35"/>
+      <c r="D478" s="37"/>
       <c r="E478" s="3"/>
       <c r="F478" s="3"/>
       <c r="G478" s="3"/>
@@ -14630,7 +14656,7 @@
       <c r="A479" s="1"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
-      <c r="D479" s="35"/>
+      <c r="D479" s="37"/>
       <c r="E479" s="3"/>
       <c r="F479" s="3"/>
       <c r="G479" s="3"/>
@@ -14658,7 +14684,7 @@
       <c r="A480" s="1"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
-      <c r="D480" s="35"/>
+      <c r="D480" s="37"/>
       <c r="E480" s="3"/>
       <c r="F480" s="3"/>
       <c r="G480" s="3"/>
@@ -14686,7 +14712,7 @@
       <c r="A481" s="1"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
-      <c r="D481" s="35"/>
+      <c r="D481" s="37"/>
       <c r="E481" s="3"/>
       <c r="F481" s="3"/>
       <c r="G481" s="3"/>
@@ -14714,7 +14740,7 @@
       <c r="A482" s="1"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
-      <c r="D482" s="35"/>
+      <c r="D482" s="37"/>
       <c r="E482" s="3"/>
       <c r="F482" s="3"/>
       <c r="G482" s="3"/>
@@ -14742,7 +14768,7 @@
       <c r="A483" s="1"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
-      <c r="D483" s="35"/>
+      <c r="D483" s="37"/>
       <c r="E483" s="3"/>
       <c r="F483" s="3"/>
       <c r="G483" s="3"/>
@@ -14770,7 +14796,7 @@
       <c r="A484" s="1"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
-      <c r="D484" s="35"/>
+      <c r="D484" s="37"/>
       <c r="E484" s="3"/>
       <c r="F484" s="3"/>
       <c r="G484" s="3"/>
@@ -14798,7 +14824,7 @@
       <c r="A485" s="1"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
-      <c r="D485" s="35"/>
+      <c r="D485" s="37"/>
       <c r="E485" s="3"/>
       <c r="F485" s="3"/>
       <c r="G485" s="3"/>
@@ -14826,7 +14852,7 @@
       <c r="A486" s="1"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
-      <c r="D486" s="35"/>
+      <c r="D486" s="37"/>
       <c r="E486" s="3"/>
       <c r="F486" s="3"/>
       <c r="G486" s="3"/>
@@ -14854,7 +14880,7 @@
       <c r="A487" s="1"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
-      <c r="D487" s="35"/>
+      <c r="D487" s="37"/>
       <c r="E487" s="3"/>
       <c r="F487" s="3"/>
       <c r="G487" s="3"/>
@@ -14882,7 +14908,7 @@
       <c r="A488" s="1"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
-      <c r="D488" s="35"/>
+      <c r="D488" s="37"/>
       <c r="E488" s="3"/>
       <c r="F488" s="3"/>
       <c r="G488" s="3"/>
@@ -14910,7 +14936,7 @@
       <c r="A489" s="1"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
-      <c r="D489" s="35"/>
+      <c r="D489" s="37"/>
       <c r="E489" s="3"/>
       <c r="F489" s="3"/>
       <c r="G489" s="3"/>
@@ -14938,7 +14964,7 @@
       <c r="A490" s="1"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
-      <c r="D490" s="35"/>
+      <c r="D490" s="37"/>
       <c r="E490" s="3"/>
       <c r="F490" s="3"/>
       <c r="G490" s="3"/>
@@ -14966,7 +14992,7 @@
       <c r="A491" s="1"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
-      <c r="D491" s="35"/>
+      <c r="D491" s="37"/>
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
       <c r="G491" s="3"/>
@@ -14994,7 +15020,7 @@
       <c r="A492" s="1"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
-      <c r="D492" s="35"/>
+      <c r="D492" s="37"/>
       <c r="E492" s="3"/>
       <c r="F492" s="3"/>
       <c r="G492" s="3"/>
@@ -15022,7 +15048,7 @@
       <c r="A493" s="1"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
-      <c r="D493" s="35"/>
+      <c r="D493" s="37"/>
       <c r="E493" s="3"/>
       <c r="F493" s="3"/>
       <c r="G493" s="3"/>
@@ -15050,7 +15076,7 @@
       <c r="A494" s="1"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
-      <c r="D494" s="35"/>
+      <c r="D494" s="37"/>
       <c r="E494" s="3"/>
       <c r="F494" s="3"/>
       <c r="G494" s="3"/>
@@ -15078,7 +15104,7 @@
       <c r="A495" s="1"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
-      <c r="D495" s="35"/>
+      <c r="D495" s="37"/>
       <c r="E495" s="3"/>
       <c r="F495" s="3"/>
       <c r="G495" s="3"/>
@@ -15106,7 +15132,7 @@
       <c r="A496" s="1"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
-      <c r="D496" s="35"/>
+      <c r="D496" s="37"/>
       <c r="E496" s="3"/>
       <c r="F496" s="3"/>
       <c r="G496" s="3"/>
@@ -15134,7 +15160,7 @@
       <c r="A497" s="1"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
-      <c r="D497" s="35"/>
+      <c r="D497" s="37"/>
       <c r="E497" s="3"/>
       <c r="F497" s="3"/>
       <c r="G497" s="3"/>
@@ -15162,7 +15188,7 @@
       <c r="A498" s="1"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
-      <c r="D498" s="35"/>
+      <c r="D498" s="37"/>
       <c r="E498" s="3"/>
       <c r="F498" s="3"/>
       <c r="G498" s="3"/>
@@ -15190,7 +15216,7 @@
       <c r="A499" s="1"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
-      <c r="D499" s="35"/>
+      <c r="D499" s="37"/>
       <c r="E499" s="3"/>
       <c r="F499" s="3"/>
       <c r="G499" s="3"/>
@@ -15218,7 +15244,7 @@
       <c r="A500" s="1"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
-      <c r="D500" s="35"/>
+      <c r="D500" s="37"/>
       <c r="E500" s="3"/>
       <c r="F500" s="3"/>
       <c r="G500" s="3"/>
@@ -15246,7 +15272,7 @@
       <c r="A501" s="1"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
-      <c r="D501" s="35"/>
+      <c r="D501" s="37"/>
       <c r="E501" s="3"/>
       <c r="F501" s="3"/>
       <c r="G501" s="3"/>
@@ -15274,7 +15300,7 @@
       <c r="A502" s="1"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
-      <c r="D502" s="35"/>
+      <c r="D502" s="37"/>
       <c r="E502" s="3"/>
       <c r="F502" s="3"/>
       <c r="G502" s="3"/>
@@ -15302,7 +15328,7 @@
       <c r="A503" s="1"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
-      <c r="D503" s="35"/>
+      <c r="D503" s="37"/>
       <c r="E503" s="3"/>
       <c r="F503" s="3"/>
       <c r="G503" s="3"/>
@@ -15330,7 +15356,7 @@
       <c r="A504" s="1"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
-      <c r="D504" s="35"/>
+      <c r="D504" s="37"/>
       <c r="E504" s="3"/>
       <c r="F504" s="3"/>
       <c r="G504" s="3"/>
@@ -15358,7 +15384,7 @@
       <c r="A505" s="1"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
-      <c r="D505" s="35"/>
+      <c r="D505" s="37"/>
       <c r="E505" s="3"/>
       <c r="F505" s="3"/>
       <c r="G505" s="3"/>
@@ -15386,7 +15412,7 @@
       <c r="A506" s="1"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
-      <c r="D506" s="35"/>
+      <c r="D506" s="37"/>
       <c r="E506" s="3"/>
       <c r="F506" s="3"/>
       <c r="G506" s="3"/>
@@ -15414,7 +15440,7 @@
       <c r="A507" s="1"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
-      <c r="D507" s="35"/>
+      <c r="D507" s="37"/>
       <c r="E507" s="3"/>
       <c r="F507" s="3"/>
       <c r="G507" s="3"/>
@@ -15442,7 +15468,7 @@
       <c r="A508" s="1"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
-      <c r="D508" s="35"/>
+      <c r="D508" s="37"/>
       <c r="E508" s="3"/>
       <c r="F508" s="3"/>
       <c r="G508" s="3"/>
@@ -15470,7 +15496,7 @@
       <c r="A509" s="1"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
-      <c r="D509" s="35"/>
+      <c r="D509" s="37"/>
       <c r="E509" s="3"/>
       <c r="F509" s="3"/>
       <c r="G509" s="3"/>
@@ -15498,7 +15524,7 @@
       <c r="A510" s="1"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
-      <c r="D510" s="35"/>
+      <c r="D510" s="37"/>
       <c r="E510" s="3"/>
       <c r="F510" s="3"/>
       <c r="G510" s="3"/>
@@ -15526,7 +15552,7 @@
       <c r="A511" s="1"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
-      <c r="D511" s="35"/>
+      <c r="D511" s="37"/>
       <c r="E511" s="3"/>
       <c r="F511" s="3"/>
       <c r="G511" s="3"/>
@@ -15554,7 +15580,7 @@
       <c r="A512" s="1"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
-      <c r="D512" s="35"/>
+      <c r="D512" s="37"/>
       <c r="E512" s="3"/>
       <c r="F512" s="3"/>
       <c r="G512" s="3"/>
@@ -15582,7 +15608,7 @@
       <c r="A513" s="1"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
-      <c r="D513" s="35"/>
+      <c r="D513" s="37"/>
       <c r="E513" s="3"/>
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
@@ -15610,7 +15636,7 @@
       <c r="A514" s="1"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
-      <c r="D514" s="35"/>
+      <c r="D514" s="37"/>
       <c r="E514" s="3"/>
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
@@ -15638,7 +15664,7 @@
       <c r="A515" s="1"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
-      <c r="D515" s="35"/>
+      <c r="D515" s="37"/>
       <c r="E515" s="3"/>
       <c r="F515" s="3"/>
       <c r="G515" s="3"/>
@@ -15666,7 +15692,7 @@
       <c r="A516" s="1"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
-      <c r="D516" s="35"/>
+      <c r="D516" s="37"/>
       <c r="E516" s="3"/>
       <c r="F516" s="3"/>
       <c r="G516" s="3"/>
@@ -15694,7 +15720,7 @@
       <c r="A517" s="1"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
-      <c r="D517" s="35"/>
+      <c r="D517" s="37"/>
       <c r="E517" s="3"/>
       <c r="F517" s="3"/>
       <c r="G517" s="3"/>
@@ -15722,7 +15748,7 @@
       <c r="A518" s="1"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
-      <c r="D518" s="35"/>
+      <c r="D518" s="37"/>
       <c r="E518" s="3"/>
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
@@ -15750,7 +15776,7 @@
       <c r="A519" s="1"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
-      <c r="D519" s="35"/>
+      <c r="D519" s="37"/>
       <c r="E519" s="3"/>
       <c r="F519" s="3"/>
       <c r="G519" s="3"/>
@@ -15778,7 +15804,7 @@
       <c r="A520" s="1"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
-      <c r="D520" s="35"/>
+      <c r="D520" s="37"/>
       <c r="E520" s="3"/>
       <c r="F520" s="3"/>
       <c r="G520" s="3"/>
@@ -15806,7 +15832,7 @@
       <c r="A521" s="1"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
-      <c r="D521" s="35"/>
+      <c r="D521" s="37"/>
       <c r="E521" s="3"/>
       <c r="F521" s="3"/>
       <c r="G521" s="3"/>
@@ -15834,7 +15860,7 @@
       <c r="A522" s="1"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
-      <c r="D522" s="35"/>
+      <c r="D522" s="37"/>
       <c r="E522" s="3"/>
       <c r="F522" s="3"/>
       <c r="G522" s="3"/>
@@ -15862,7 +15888,7 @@
       <c r="A523" s="1"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
-      <c r="D523" s="35"/>
+      <c r="D523" s="37"/>
       <c r="E523" s="3"/>
       <c r="F523" s="3"/>
       <c r="G523" s="3"/>
@@ -15890,7 +15916,7 @@
       <c r="A524" s="1"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
-      <c r="D524" s="35"/>
+      <c r="D524" s="37"/>
       <c r="E524" s="3"/>
       <c r="F524" s="3"/>
       <c r="G524" s="3"/>
@@ -15918,7 +15944,7 @@
       <c r="A525" s="1"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
-      <c r="D525" s="35"/>
+      <c r="D525" s="37"/>
       <c r="E525" s="3"/>
       <c r="F525" s="3"/>
       <c r="G525" s="3"/>
@@ -15946,7 +15972,7 @@
       <c r="A526" s="1"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
-      <c r="D526" s="35"/>
+      <c r="D526" s="37"/>
       <c r="E526" s="3"/>
       <c r="F526" s="3"/>
       <c r="G526" s="3"/>
@@ -15974,7 +16000,7 @@
       <c r="A527" s="1"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
-      <c r="D527" s="35"/>
+      <c r="D527" s="37"/>
       <c r="E527" s="3"/>
       <c r="F527" s="3"/>
       <c r="G527" s="3"/>
@@ -16002,7 +16028,7 @@
       <c r="A528" s="1"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
-      <c r="D528" s="35"/>
+      <c r="D528" s="37"/>
       <c r="E528" s="3"/>
       <c r="F528" s="3"/>
       <c r="G528" s="3"/>
@@ -16030,7 +16056,7 @@
       <c r="A529" s="1"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
-      <c r="D529" s="35"/>
+      <c r="D529" s="37"/>
       <c r="E529" s="3"/>
       <c r="F529" s="3"/>
       <c r="G529" s="3"/>
@@ -16058,7 +16084,7 @@
       <c r="A530" s="1"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
-      <c r="D530" s="35"/>
+      <c r="D530" s="37"/>
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>
       <c r="G530" s="3"/>
@@ -16086,7 +16112,7 @@
       <c r="A531" s="1"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
-      <c r="D531" s="35"/>
+      <c r="D531" s="37"/>
       <c r="E531" s="3"/>
       <c r="F531" s="3"/>
       <c r="G531" s="3"/>
@@ -16114,7 +16140,7 @@
       <c r="A532" s="1"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
-      <c r="D532" s="35"/>
+      <c r="D532" s="37"/>
       <c r="E532" s="3"/>
       <c r="F532" s="3"/>
       <c r="G532" s="3"/>
@@ -16142,7 +16168,7 @@
       <c r="A533" s="1"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
-      <c r="D533" s="35"/>
+      <c r="D533" s="37"/>
       <c r="E533" s="3"/>
       <c r="F533" s="3"/>
       <c r="G533" s="3"/>
@@ -16170,7 +16196,7 @@
       <c r="A534" s="1"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
-      <c r="D534" s="35"/>
+      <c r="D534" s="37"/>
       <c r="E534" s="3"/>
       <c r="F534" s="3"/>
       <c r="G534" s="3"/>
@@ -16198,7 +16224,7 @@
       <c r="A535" s="1"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
-      <c r="D535" s="35"/>
+      <c r="D535" s="37"/>
       <c r="E535" s="3"/>
       <c r="F535" s="3"/>
       <c r="G535" s="3"/>
@@ -16226,7 +16252,7 @@
       <c r="A536" s="1"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
-      <c r="D536" s="35"/>
+      <c r="D536" s="37"/>
       <c r="E536" s="3"/>
       <c r="F536" s="3"/>
       <c r="G536" s="3"/>
@@ -16254,7 +16280,7 @@
       <c r="A537" s="1"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
-      <c r="D537" s="35"/>
+      <c r="D537" s="37"/>
       <c r="E537" s="3"/>
       <c r="F537" s="3"/>
       <c r="G537" s="3"/>
@@ -16282,7 +16308,7 @@
       <c r="A538" s="1"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
-      <c r="D538" s="35"/>
+      <c r="D538" s="37"/>
       <c r="E538" s="3"/>
       <c r="F538" s="3"/>
       <c r="G538" s="3"/>
@@ -16310,7 +16336,7 @@
       <c r="A539" s="1"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
-      <c r="D539" s="35"/>
+      <c r="D539" s="37"/>
       <c r="E539" s="3"/>
       <c r="F539" s="3"/>
       <c r="G539" s="3"/>
@@ -16338,7 +16364,7 @@
       <c r="A540" s="1"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
-      <c r="D540" s="35"/>
+      <c r="D540" s="37"/>
       <c r="E540" s="3"/>
       <c r="F540" s="3"/>
       <c r="G540" s="3"/>
@@ -16366,7 +16392,7 @@
       <c r="A541" s="1"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
-      <c r="D541" s="35"/>
+      <c r="D541" s="37"/>
       <c r="E541" s="3"/>
       <c r="F541" s="3"/>
       <c r="G541" s="3"/>
@@ -16394,7 +16420,7 @@
       <c r="A542" s="1"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
-      <c r="D542" s="35"/>
+      <c r="D542" s="37"/>
       <c r="E542" s="3"/>
       <c r="F542" s="3"/>
       <c r="G542" s="3"/>
@@ -16422,7 +16448,7 @@
       <c r="A543" s="1"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
-      <c r="D543" s="35"/>
+      <c r="D543" s="37"/>
       <c r="E543" s="3"/>
       <c r="F543" s="3"/>
       <c r="G543" s="3"/>
@@ -16450,7 +16476,7 @@
       <c r="A544" s="1"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
-      <c r="D544" s="35"/>
+      <c r="D544" s="37"/>
       <c r="E544" s="3"/>
       <c r="F544" s="3"/>
       <c r="G544" s="3"/>
@@ -16478,7 +16504,7 @@
       <c r="A545" s="1"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
-      <c r="D545" s="35"/>
+      <c r="D545" s="37"/>
       <c r="E545" s="3"/>
       <c r="F545" s="3"/>
       <c r="G545" s="3"/>
@@ -16506,7 +16532,7 @@
       <c r="A546" s="1"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
-      <c r="D546" s="35"/>
+      <c r="D546" s="37"/>
       <c r="E546" s="3"/>
       <c r="F546" s="3"/>
       <c r="G546" s="3"/>
@@ -16534,7 +16560,7 @@
       <c r="A547" s="1"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
-      <c r="D547" s="35"/>
+      <c r="D547" s="37"/>
       <c r="E547" s="3"/>
       <c r="F547" s="3"/>
       <c r="G547" s="3"/>
@@ -16562,7 +16588,7 @@
       <c r="A548" s="1"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
-      <c r="D548" s="35"/>
+      <c r="D548" s="37"/>
       <c r="E548" s="3"/>
       <c r="F548" s="3"/>
       <c r="G548" s="3"/>
@@ -16590,7 +16616,7 @@
       <c r="A549" s="1"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
-      <c r="D549" s="35"/>
+      <c r="D549" s="37"/>
       <c r="E549" s="3"/>
       <c r="F549" s="3"/>
       <c r="G549" s="3"/>
@@ -16618,7 +16644,7 @@
       <c r="A550" s="1"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
-      <c r="D550" s="35"/>
+      <c r="D550" s="37"/>
       <c r="E550" s="3"/>
       <c r="F550" s="3"/>
       <c r="G550" s="3"/>
@@ -16646,7 +16672,7 @@
       <c r="A551" s="1"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
-      <c r="D551" s="35"/>
+      <c r="D551" s="37"/>
       <c r="E551" s="3"/>
       <c r="F551" s="3"/>
       <c r="G551" s="3"/>
@@ -16674,7 +16700,7 @@
       <c r="A552" s="1"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
-      <c r="D552" s="35"/>
+      <c r="D552" s="37"/>
       <c r="E552" s="3"/>
       <c r="F552" s="3"/>
       <c r="G552" s="3"/>
@@ -16702,7 +16728,7 @@
       <c r="A553" s="1"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
-      <c r="D553" s="35"/>
+      <c r="D553" s="37"/>
       <c r="E553" s="3"/>
       <c r="F553" s="3"/>
       <c r="G553" s="3"/>
@@ -16730,7 +16756,7 @@
       <c r="A554" s="1"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
-      <c r="D554" s="35"/>
+      <c r="D554" s="37"/>
       <c r="E554" s="3"/>
       <c r="F554" s="3"/>
       <c r="G554" s="3"/>
@@ -16758,7 +16784,7 @@
       <c r="A555" s="1"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
-      <c r="D555" s="35"/>
+      <c r="D555" s="37"/>
       <c r="E555" s="3"/>
       <c r="F555" s="3"/>
       <c r="G555" s="3"/>
@@ -16786,7 +16812,7 @@
       <c r="A556" s="1"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
-      <c r="D556" s="35"/>
+      <c r="D556" s="37"/>
       <c r="E556" s="3"/>
       <c r="F556" s="3"/>
       <c r="G556" s="3"/>
@@ -16814,7 +16840,7 @@
       <c r="A557" s="1"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
-      <c r="D557" s="35"/>
+      <c r="D557" s="37"/>
       <c r="E557" s="3"/>
       <c r="F557" s="3"/>
       <c r="G557" s="3"/>
@@ -16842,7 +16868,7 @@
       <c r="A558" s="1"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
-      <c r="D558" s="35"/>
+      <c r="D558" s="37"/>
       <c r="E558" s="3"/>
       <c r="F558" s="3"/>
       <c r="G558" s="3"/>
@@ -16870,7 +16896,7 @@
       <c r="A559" s="1"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
-      <c r="D559" s="35"/>
+      <c r="D559" s="37"/>
       <c r="E559" s="3"/>
       <c r="F559" s="3"/>
       <c r="G559" s="3"/>
@@ -16898,7 +16924,7 @@
       <c r="A560" s="1"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
-      <c r="D560" s="35"/>
+      <c r="D560" s="37"/>
       <c r="E560" s="3"/>
       <c r="F560" s="3"/>
       <c r="G560" s="3"/>
@@ -16926,7 +16952,7 @@
       <c r="A561" s="1"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
-      <c r="D561" s="35"/>
+      <c r="D561" s="37"/>
       <c r="E561" s="3"/>
       <c r="F561" s="3"/>
       <c r="G561" s="3"/>
@@ -16954,7 +16980,7 @@
       <c r="A562" s="1"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
-      <c r="D562" s="35"/>
+      <c r="D562" s="37"/>
       <c r="E562" s="3"/>
       <c r="F562" s="3"/>
       <c r="G562" s="3"/>
@@ -16982,7 +17008,7 @@
       <c r="A563" s="1"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
-      <c r="D563" s="35"/>
+      <c r="D563" s="37"/>
       <c r="E563" s="3"/>
       <c r="F563" s="3"/>
       <c r="G563" s="3"/>
@@ -17010,7 +17036,7 @@
       <c r="A564" s="1"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
-      <c r="D564" s="35"/>
+      <c r="D564" s="37"/>
       <c r="E564" s="3"/>
       <c r="F564" s="3"/>
       <c r="G564" s="3"/>
@@ -17038,7 +17064,7 @@
       <c r="A565" s="1"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
-      <c r="D565" s="35"/>
+      <c r="D565" s="37"/>
       <c r="E565" s="3"/>
       <c r="F565" s="3"/>
       <c r="G565" s="3"/>
@@ -17066,7 +17092,7 @@
       <c r="A566" s="1"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
-      <c r="D566" s="35"/>
+      <c r="D566" s="37"/>
       <c r="E566" s="3"/>
       <c r="F566" s="3"/>
       <c r="G566" s="3"/>
@@ -17094,7 +17120,7 @@
       <c r="A567" s="1"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
-      <c r="D567" s="35"/>
+      <c r="D567" s="37"/>
       <c r="E567" s="3"/>
       <c r="F567" s="3"/>
       <c r="G567" s="3"/>
@@ -17122,7 +17148,7 @@
       <c r="A568" s="1"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
-      <c r="D568" s="35"/>
+      <c r="D568" s="37"/>
       <c r="E568" s="3"/>
       <c r="F568" s="3"/>
       <c r="G568" s="3"/>
@@ -17150,7 +17176,7 @@
       <c r="A569" s="1"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
-      <c r="D569" s="35"/>
+      <c r="D569" s="37"/>
       <c r="E569" s="3"/>
       <c r="F569" s="3"/>
       <c r="G569" s="3"/>
@@ -17178,7 +17204,7 @@
       <c r="A570" s="1"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
-      <c r="D570" s="35"/>
+      <c r="D570" s="37"/>
       <c r="E570" s="3"/>
       <c r="F570" s="3"/>
       <c r="G570" s="3"/>
@@ -17206,7 +17232,7 @@
       <c r="A571" s="1"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
-      <c r="D571" s="35"/>
+      <c r="D571" s="37"/>
       <c r="E571" s="3"/>
       <c r="F571" s="3"/>
       <c r="G571" s="3"/>
@@ -17234,7 +17260,7 @@
       <c r="A572" s="1"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
-      <c r="D572" s="35"/>
+      <c r="D572" s="37"/>
       <c r="E572" s="3"/>
       <c r="F572" s="3"/>
       <c r="G572" s="3"/>
@@ -17262,7 +17288,7 @@
       <c r="A573" s="1"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
-      <c r="D573" s="35"/>
+      <c r="D573" s="37"/>
       <c r="E573" s="3"/>
       <c r="F573" s="3"/>
       <c r="G573" s="3"/>
@@ -17290,7 +17316,7 @@
       <c r="A574" s="1"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
-      <c r="D574" s="35"/>
+      <c r="D574" s="37"/>
       <c r="E574" s="3"/>
       <c r="F574" s="3"/>
       <c r="G574" s="3"/>
@@ -17318,7 +17344,7 @@
       <c r="A575" s="1"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
-      <c r="D575" s="35"/>
+      <c r="D575" s="37"/>
       <c r="E575" s="3"/>
       <c r="F575" s="3"/>
       <c r="G575" s="3"/>
@@ -17346,7 +17372,7 @@
       <c r="A576" s="1"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
-      <c r="D576" s="35"/>
+      <c r="D576" s="37"/>
       <c r="E576" s="3"/>
       <c r="F576" s="3"/>
       <c r="G576" s="3"/>
@@ -17374,7 +17400,7 @@
       <c r="A577" s="1"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
-      <c r="D577" s="35"/>
+      <c r="D577" s="37"/>
       <c r="E577" s="3"/>
       <c r="F577" s="3"/>
       <c r="G577" s="3"/>
@@ -17402,7 +17428,7 @@
       <c r="A578" s="1"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
-      <c r="D578" s="35"/>
+      <c r="D578" s="37"/>
       <c r="E578" s="3"/>
       <c r="F578" s="3"/>
       <c r="G578" s="3"/>
@@ -17430,7 +17456,7 @@
       <c r="A579" s="1"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
-      <c r="D579" s="35"/>
+      <c r="D579" s="37"/>
       <c r="E579" s="3"/>
       <c r="F579" s="3"/>
       <c r="G579" s="3"/>
@@ -17458,7 +17484,7 @@
       <c r="A580" s="1"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
-      <c r="D580" s="35"/>
+      <c r="D580" s="37"/>
       <c r="E580" s="3"/>
       <c r="F580" s="3"/>
       <c r="G580" s="3"/>
@@ -17486,7 +17512,7 @@
       <c r="A581" s="1"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
-      <c r="D581" s="35"/>
+      <c r="D581" s="37"/>
       <c r="E581" s="3"/>
       <c r="F581" s="3"/>
       <c r="G581" s="3"/>
@@ -17514,7 +17540,7 @@
       <c r="A582" s="1"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
-      <c r="D582" s="35"/>
+      <c r="D582" s="37"/>
       <c r="E582" s="3"/>
       <c r="F582" s="3"/>
       <c r="G582" s="3"/>
@@ -17542,7 +17568,7 @@
       <c r="A583" s="1"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
-      <c r="D583" s="35"/>
+      <c r="D583" s="37"/>
       <c r="E583" s="3"/>
       <c r="F583" s="3"/>
       <c r="G583" s="3"/>
@@ -17570,7 +17596,7 @@
       <c r="A584" s="1"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
-      <c r="D584" s="35"/>
+      <c r="D584" s="37"/>
       <c r="E584" s="3"/>
       <c r="F584" s="3"/>
       <c r="G584" s="3"/>
@@ -17598,7 +17624,7 @@
       <c r="A585" s="1"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
-      <c r="D585" s="35"/>
+      <c r="D585" s="37"/>
       <c r="E585" s="3"/>
       <c r="F585" s="3"/>
       <c r="G585" s="3"/>
@@ -17626,7 +17652,7 @@
       <c r="A586" s="1"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
-      <c r="D586" s="35"/>
+      <c r="D586" s="37"/>
       <c r="E586" s="3"/>
       <c r="F586" s="3"/>
       <c r="G586" s="3"/>
@@ -17654,7 +17680,7 @@
       <c r="A587" s="1"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
-      <c r="D587" s="35"/>
+      <c r="D587" s="37"/>
       <c r="E587" s="3"/>
       <c r="F587" s="3"/>
       <c r="G587" s="3"/>
@@ -17682,7 +17708,7 @@
       <c r="A588" s="1"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
-      <c r="D588" s="35"/>
+      <c r="D588" s="37"/>
       <c r="E588" s="3"/>
       <c r="F588" s="3"/>
       <c r="G588" s="3"/>
@@ -17710,7 +17736,7 @@
       <c r="A589" s="1"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
-      <c r="D589" s="35"/>
+      <c r="D589" s="37"/>
       <c r="E589" s="3"/>
       <c r="F589" s="3"/>
       <c r="G589" s="3"/>
@@ -17738,7 +17764,7 @@
       <c r="A590" s="1"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
-      <c r="D590" s="35"/>
+      <c r="D590" s="37"/>
       <c r="E590" s="3"/>
       <c r="F590" s="3"/>
       <c r="G590" s="3"/>
@@ -17766,7 +17792,7 @@
       <c r="A591" s="1"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
-      <c r="D591" s="35"/>
+      <c r="D591" s="37"/>
       <c r="E591" s="3"/>
       <c r="F591" s="3"/>
       <c r="G591" s="3"/>
@@ -17794,7 +17820,7 @@
       <c r="A592" s="1"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
-      <c r="D592" s="35"/>
+      <c r="D592" s="37"/>
       <c r="E592" s="3"/>
       <c r="F592" s="3"/>
       <c r="G592" s="3"/>
@@ -17822,7 +17848,7 @@
       <c r="A593" s="1"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
-      <c r="D593" s="35"/>
+      <c r="D593" s="37"/>
       <c r="E593" s="3"/>
       <c r="F593" s="3"/>
       <c r="G593" s="3"/>
@@ -17850,7 +17876,7 @@
       <c r="A594" s="1"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
-      <c r="D594" s="35"/>
+      <c r="D594" s="37"/>
       <c r="E594" s="3"/>
       <c r="F594" s="3"/>
       <c r="G594" s="3"/>
@@ -17878,7 +17904,7 @@
       <c r="A595" s="1"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
-      <c r="D595" s="35"/>
+      <c r="D595" s="37"/>
       <c r="E595" s="3"/>
       <c r="F595" s="3"/>
       <c r="G595" s="3"/>
@@ -17906,7 +17932,7 @@
       <c r="A596" s="1"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
-      <c r="D596" s="35"/>
+      <c r="D596" s="37"/>
       <c r="E596" s="3"/>
       <c r="F596" s="3"/>
       <c r="G596" s="3"/>
@@ -17934,7 +17960,7 @@
       <c r="A597" s="1"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
-      <c r="D597" s="35"/>
+      <c r="D597" s="37"/>
       <c r="E597" s="3"/>
       <c r="F597" s="3"/>
       <c r="G597" s="3"/>
@@ -17962,7 +17988,7 @@
       <c r="A598" s="1"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
-      <c r="D598" s="35"/>
+      <c r="D598" s="37"/>
       <c r="E598" s="3"/>
       <c r="F598" s="3"/>
       <c r="G598" s="3"/>
@@ -17990,7 +18016,7 @@
       <c r="A599" s="1"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
-      <c r="D599" s="35"/>
+      <c r="D599" s="37"/>
       <c r="E599" s="3"/>
       <c r="F599" s="3"/>
       <c r="G599" s="3"/>
@@ -18018,7 +18044,7 @@
       <c r="A600" s="1"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
-      <c r="D600" s="35"/>
+      <c r="D600" s="37"/>
       <c r="E600" s="3"/>
       <c r="F600" s="3"/>
       <c r="G600" s="3"/>
@@ -18046,7 +18072,7 @@
       <c r="A601" s="1"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
-      <c r="D601" s="35"/>
+      <c r="D601" s="37"/>
       <c r="E601" s="3"/>
       <c r="F601" s="3"/>
       <c r="G601" s="3"/>
@@ -18074,7 +18100,7 @@
       <c r="A602" s="1"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
-      <c r="D602" s="35"/>
+      <c r="D602" s="37"/>
       <c r="E602" s="3"/>
       <c r="F602" s="3"/>
       <c r="G602" s="3"/>
@@ -18102,7 +18128,7 @@
       <c r="A603" s="1"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
-      <c r="D603" s="35"/>
+      <c r="D603" s="37"/>
       <c r="E603" s="3"/>
       <c r="F603" s="3"/>
       <c r="G603" s="3"/>
@@ -18130,7 +18156,7 @@
       <c r="A604" s="1"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
-      <c r="D604" s="35"/>
+      <c r="D604" s="37"/>
       <c r="E604" s="3"/>
       <c r="F604" s="3"/>
       <c r="G604" s="3"/>
@@ -18158,7 +18184,7 @@
       <c r="A605" s="1"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
-      <c r="D605" s="35"/>
+      <c r="D605" s="37"/>
       <c r="E605" s="3"/>
       <c r="F605" s="3"/>
       <c r="G605" s="3"/>
@@ -18186,7 +18212,7 @@
       <c r="A606" s="1"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
-      <c r="D606" s="35"/>
+      <c r="D606" s="37"/>
       <c r="E606" s="3"/>
       <c r="F606" s="3"/>
       <c r="G606" s="3"/>
@@ -18214,7 +18240,7 @@
       <c r="A607" s="1"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
-      <c r="D607" s="35"/>
+      <c r="D607" s="37"/>
       <c r="E607" s="3"/>
       <c r="F607" s="3"/>
       <c r="G607" s="3"/>
@@ -18242,7 +18268,7 @@
       <c r="A608" s="1"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
-      <c r="D608" s="35"/>
+      <c r="D608" s="37"/>
       <c r="E608" s="3"/>
       <c r="F608" s="3"/>
       <c r="G608" s="3"/>
@@ -18270,7 +18296,7 @@
       <c r="A609" s="1"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
-      <c r="D609" s="35"/>
+      <c r="D609" s="37"/>
       <c r="E609" s="3"/>
       <c r="F609" s="3"/>
       <c r="G609" s="3"/>
@@ -18298,7 +18324,7 @@
       <c r="A610" s="1"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
-      <c r="D610" s="35"/>
+      <c r="D610" s="37"/>
       <c r="E610" s="3"/>
       <c r="F610" s="3"/>
       <c r="G610" s="3"/>
@@ -18326,7 +18352,7 @@
       <c r="A611" s="1"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
-      <c r="D611" s="35"/>
+      <c r="D611" s="37"/>
       <c r="E611" s="3"/>
       <c r="F611" s="3"/>
       <c r="G611" s="3"/>
@@ -18354,7 +18380,7 @@
       <c r="A612" s="1"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
-      <c r="D612" s="35"/>
+      <c r="D612" s="37"/>
       <c r="E612" s="3"/>
       <c r="F612" s="3"/>
       <c r="G612" s="3"/>
@@ -18382,7 +18408,7 @@
       <c r="A613" s="1"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
-      <c r="D613" s="35"/>
+      <c r="D613" s="37"/>
       <c r="E613" s="3"/>
       <c r="F613" s="3"/>
       <c r="G613" s="3"/>
@@ -18410,7 +18436,7 @@
       <c r="A614" s="1"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
-      <c r="D614" s="35"/>
+      <c r="D614" s="37"/>
       <c r="E614" s="3"/>
       <c r="F614" s="3"/>
       <c r="G614" s="3"/>
@@ -18438,7 +18464,7 @@
       <c r="A615" s="1"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
-      <c r="D615" s="35"/>
+      <c r="D615" s="37"/>
       <c r="E615" s="3"/>
       <c r="F615" s="3"/>
       <c r="G615" s="3"/>
@@ -18466,7 +18492,7 @@
       <c r="A616" s="1"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
-      <c r="D616" s="35"/>
+      <c r="D616" s="37"/>
       <c r="E616" s="3"/>
       <c r="F616" s="3"/>
       <c r="G616" s="3"/>
@@ -18494,7 +18520,7 @@
       <c r="A617" s="1"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
-      <c r="D617" s="35"/>
+      <c r="D617" s="37"/>
       <c r="E617" s="3"/>
       <c r="F617" s="3"/>
       <c r="G617" s="3"/>
@@ -18522,7 +18548,7 @@
       <c r="A618" s="1"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
-      <c r="D618" s="35"/>
+      <c r="D618" s="37"/>
       <c r="E618" s="3"/>
       <c r="F618" s="3"/>
       <c r="G618" s="3"/>
@@ -18550,7 +18576,7 @@
       <c r="A619" s="1"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
-      <c r="D619" s="35"/>
+      <c r="D619" s="37"/>
       <c r="E619" s="3"/>
       <c r="F619" s="3"/>
       <c r="G619" s="3"/>
@@ -18578,7 +18604,7 @@
       <c r="A620" s="1"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
-      <c r="D620" s="35"/>
+      <c r="D620" s="37"/>
       <c r="E620" s="3"/>
       <c r="F620" s="3"/>
       <c r="G620" s="3"/>
@@ -18606,7 +18632,7 @@
       <c r="A621" s="1"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
-      <c r="D621" s="35"/>
+      <c r="D621" s="37"/>
       <c r="E621" s="3"/>
       <c r="F621" s="3"/>
       <c r="G621" s="3"/>
@@ -18634,7 +18660,7 @@
       <c r="A622" s="1"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
-      <c r="D622" s="35"/>
+      <c r="D622" s="37"/>
       <c r="E622" s="3"/>
       <c r="F622" s="3"/>
       <c r="G622" s="3"/>
@@ -18662,7 +18688,7 @@
       <c r="A623" s="1"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
-      <c r="D623" s="35"/>
+      <c r="D623" s="37"/>
       <c r="E623" s="3"/>
       <c r="F623" s="3"/>
       <c r="G623" s="3"/>
@@ -18690,7 +18716,7 @@
       <c r="A624" s="1"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
-      <c r="D624" s="35"/>
+      <c r="D624" s="37"/>
       <c r="E624" s="3"/>
       <c r="F624" s="3"/>
       <c r="G624" s="3"/>
@@ -18718,7 +18744,7 @@
       <c r="A625" s="1"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
-      <c r="D625" s="35"/>
+      <c r="D625" s="37"/>
       <c r="E625" s="3"/>
       <c r="F625" s="3"/>
       <c r="G625" s="3"/>
@@ -18746,7 +18772,7 @@
       <c r="A626" s="1"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
-      <c r="D626" s="35"/>
+      <c r="D626" s="37"/>
       <c r="E626" s="3"/>
       <c r="F626" s="3"/>
       <c r="G626" s="3"/>
@@ -18774,7 +18800,7 @@
       <c r="A627" s="1"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
-      <c r="D627" s="35"/>
+      <c r="D627" s="37"/>
       <c r="E627" s="3"/>
       <c r="F627" s="3"/>
       <c r="G627" s="3"/>
@@ -18802,7 +18828,7 @@
       <c r="A628" s="1"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
-      <c r="D628" s="35"/>
+      <c r="D628" s="37"/>
       <c r="E628" s="3"/>
       <c r="F628" s="3"/>
       <c r="G628" s="3"/>
@@ -18830,7 +18856,7 @@
       <c r="A629" s="1"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
-      <c r="D629" s="35"/>
+      <c r="D629" s="37"/>
       <c r="E629" s="3"/>
       <c r="F629" s="3"/>
       <c r="G629" s="3"/>
@@ -18858,7 +18884,7 @@
       <c r="A630" s="1"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
-      <c r="D630" s="35"/>
+      <c r="D630" s="37"/>
       <c r="E630" s="3"/>
       <c r="F630" s="3"/>
       <c r="G630" s="3"/>
@@ -18886,7 +18912,7 @@
       <c r="A631" s="1"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
-      <c r="D631" s="35"/>
+      <c r="D631" s="37"/>
       <c r="E631" s="3"/>
       <c r="F631" s="3"/>
       <c r="G631" s="3"/>
@@ -18914,7 +18940,7 @@
       <c r="A632" s="1"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
-      <c r="D632" s="35"/>
+      <c r="D632" s="37"/>
       <c r="E632" s="3"/>
       <c r="F632" s="3"/>
       <c r="G632" s="3"/>
@@ -18942,7 +18968,7 @@
       <c r="A633" s="1"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
-      <c r="D633" s="35"/>
+      <c r="D633" s="37"/>
       <c r="E633" s="3"/>
       <c r="F633" s="3"/>
       <c r="G633" s="3"/>
@@ -18970,7 +18996,7 @@
       <c r="A634" s="1"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
-      <c r="D634" s="35"/>
+      <c r="D634" s="37"/>
       <c r="E634" s="3"/>
       <c r="F634" s="3"/>
       <c r="G634" s="3"/>
@@ -18998,7 +19024,7 @@
       <c r="A635" s="1"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
-      <c r="D635" s="35"/>
+      <c r="D635" s="37"/>
       <c r="E635" s="3"/>
       <c r="F635" s="3"/>
       <c r="G635" s="3"/>
@@ -19026,7 +19052,7 @@
       <c r="A636" s="1"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
-      <c r="D636" s="35"/>
+      <c r="D636" s="37"/>
       <c r="E636" s="3"/>
       <c r="F636" s="3"/>
       <c r="G636" s="3"/>
@@ -19054,7 +19080,7 @@
       <c r="A637" s="1"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
-      <c r="D637" s="35"/>
+      <c r="D637" s="37"/>
       <c r="E637" s="3"/>
       <c r="F637" s="3"/>
       <c r="G637" s="3"/>
@@ -19082,7 +19108,7 @@
       <c r="A638" s="1"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
-      <c r="D638" s="35"/>
+      <c r="D638" s="37"/>
       <c r="E638" s="3"/>
       <c r="F638" s="3"/>
       <c r="G638" s="3"/>
@@ -19110,7 +19136,7 @@
       <c r="A639" s="1"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
-      <c r="D639" s="35"/>
+      <c r="D639" s="37"/>
       <c r="E639" s="3"/>
       <c r="F639" s="3"/>
       <c r="G639" s="3"/>
@@ -19138,7 +19164,7 @@
       <c r="A640" s="1"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
-      <c r="D640" s="35"/>
+      <c r="D640" s="37"/>
       <c r="E640" s="3"/>
       <c r="F640" s="3"/>
       <c r="G640" s="3"/>
@@ -19166,7 +19192,7 @@
       <c r="A641" s="1"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
-      <c r="D641" s="35"/>
+      <c r="D641" s="37"/>
       <c r="E641" s="3"/>
       <c r="F641" s="3"/>
       <c r="G641" s="3"/>
@@ -19194,7 +19220,7 @@
       <c r="A642" s="1"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
-      <c r="D642" s="35"/>
+      <c r="D642" s="37"/>
       <c r="E642" s="3"/>
       <c r="F642" s="3"/>
       <c r="G642" s="3"/>
@@ -19222,7 +19248,7 @@
       <c r="A643" s="1"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
-      <c r="D643" s="35"/>
+      <c r="D643" s="37"/>
       <c r="E643" s="3"/>
       <c r="F643" s="3"/>
       <c r="G643" s="3"/>
@@ -19250,7 +19276,7 @@
       <c r="A644" s="1"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
-      <c r="D644" s="35"/>
+      <c r="D644" s="37"/>
       <c r="E644" s="3"/>
       <c r="F644" s="3"/>
       <c r="G644" s="3"/>
@@ -19278,7 +19304,7 @@
       <c r="A645" s="1"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
-      <c r="D645" s="35"/>
+      <c r="D645" s="37"/>
       <c r="E645" s="3"/>
       <c r="F645" s="3"/>
       <c r="G645" s="3"/>
@@ -19306,7 +19332,7 @@
       <c r="A646" s="1"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
-      <c r="D646" s="35"/>
+      <c r="D646" s="37"/>
       <c r="E646" s="3"/>
       <c r="F646" s="3"/>
       <c r="G646" s="3"/>
@@ -19334,7 +19360,7 @@
       <c r="A647" s="1"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
-      <c r="D647" s="35"/>
+      <c r="D647" s="37"/>
       <c r="E647" s="3"/>
       <c r="F647" s="3"/>
       <c r="G647" s="3"/>
@@ -19362,7 +19388,7 @@
       <c r="A648" s="1"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
-      <c r="D648" s="35"/>
+      <c r="D648" s="37"/>
       <c r="E648" s="3"/>
       <c r="F648" s="3"/>
       <c r="G648" s="3"/>
@@ -19390,7 +19416,7 @@
       <c r="A649" s="1"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
-      <c r="D649" s="35"/>
+      <c r="D649" s="37"/>
       <c r="E649" s="3"/>
       <c r="F649" s="3"/>
       <c r="G649" s="3"/>
@@ -19418,7 +19444,7 @@
       <c r="A650" s="1"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
-      <c r="D650" s="35"/>
+      <c r="D650" s="37"/>
       <c r="E650" s="3"/>
       <c r="F650" s="3"/>
       <c r="G650" s="3"/>
@@ -19446,7 +19472,7 @@
       <c r="A651" s="1"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
-      <c r="D651" s="35"/>
+      <c r="D651" s="37"/>
       <c r="E651" s="3"/>
       <c r="F651" s="3"/>
       <c r="G651" s="3"/>
@@ -19474,7 +19500,7 @@
       <c r="A652" s="1"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
-      <c r="D652" s="35"/>
+      <c r="D652" s="37"/>
       <c r="E652" s="3"/>
       <c r="F652" s="3"/>
       <c r="G652" s="3"/>
@@ -19502,7 +19528,7 @@
       <c r="A653" s="1"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
-      <c r="D653" s="35"/>
+      <c r="D653" s="37"/>
       <c r="E653" s="3"/>
       <c r="F653" s="3"/>
       <c r="G653" s="3"/>
@@ -19530,7 +19556,7 @@
       <c r="A654" s="1"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
-      <c r="D654" s="35"/>
+      <c r="D654" s="37"/>
       <c r="E654" s="3"/>
       <c r="F654" s="3"/>
       <c r="G654" s="3"/>
@@ -19558,7 +19584,7 @@
       <c r="A655" s="1"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
-      <c r="D655" s="35"/>
+      <c r="D655" s="37"/>
       <c r="E655" s="3"/>
       <c r="F655" s="3"/>
       <c r="G655" s="3"/>
@@ -19586,7 +19612,7 @@
       <c r="A656" s="1"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
-      <c r="D656" s="35"/>
+      <c r="D656" s="37"/>
       <c r="E656" s="3"/>
       <c r="F656" s="3"/>
       <c r="G656" s="3"/>
@@ -19614,7 +19640,7 @@
       <c r="A657" s="1"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
-      <c r="D657" s="35"/>
+      <c r="D657" s="37"/>
       <c r="E657" s="3"/>
       <c r="F657" s="3"/>
       <c r="G657" s="3"/>
@@ -19642,7 +19668,7 @@
       <c r="A658" s="1"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
-      <c r="D658" s="35"/>
+      <c r="D658" s="37"/>
       <c r="E658" s="3"/>
       <c r="F658" s="3"/>
       <c r="G658" s="3"/>
@@ -19670,7 +19696,7 @@
       <c r="A659" s="1"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
-      <c r="D659" s="35"/>
+      <c r="D659" s="37"/>
       <c r="E659" s="3"/>
       <c r="F659" s="3"/>
       <c r="G659" s="3"/>
@@ -19698,7 +19724,7 @@
       <c r="A660" s="1"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
-      <c r="D660" s="35"/>
+      <c r="D660" s="37"/>
       <c r="E660" s="3"/>
       <c r="F660" s="3"/>
       <c r="G660" s="3"/>
@@ -19726,7 +19752,7 @@
       <c r="A661" s="1"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
-      <c r="D661" s="35"/>
+      <c r="D661" s="37"/>
       <c r="E661" s="3"/>
       <c r="F661" s="3"/>
       <c r="G661" s="3"/>
@@ -19754,7 +19780,7 @@
       <c r="A662" s="1"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
-      <c r="D662" s="35"/>
+      <c r="D662" s="37"/>
       <c r="E662" s="3"/>
       <c r="F662" s="3"/>
       <c r="G662" s="3"/>
@@ -19782,7 +19808,7 @@
       <c r="A663" s="1"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
-      <c r="D663" s="35"/>
+      <c r="D663" s="37"/>
       <c r="E663" s="3"/>
       <c r="F663" s="3"/>
       <c r="G663" s="3"/>
@@ -19810,7 +19836,7 @@
       <c r="A664" s="1"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
-      <c r="D664" s="35"/>
+      <c r="D664" s="37"/>
       <c r="E664" s="3"/>
       <c r="F664" s="3"/>
       <c r="G664" s="3"/>
@@ -19838,7 +19864,7 @@
       <c r="A665" s="1"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
-      <c r="D665" s="35"/>
+      <c r="D665" s="37"/>
       <c r="E665" s="3"/>
       <c r="F665" s="3"/>
       <c r="G665" s="3"/>
@@ -19866,7 +19892,7 @@
       <c r="A666" s="1"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
-      <c r="D666" s="35"/>
+      <c r="D666" s="37"/>
       <c r="E666" s="3"/>
       <c r="F666" s="3"/>
       <c r="G666" s="3"/>
@@ -19894,7 +19920,7 @@
       <c r="A667" s="1"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
-      <c r="D667" s="35"/>
+      <c r="D667" s="37"/>
       <c r="E667" s="3"/>
       <c r="F667" s="3"/>
       <c r="G667" s="3"/>
@@ -19922,7 +19948,7 @@
       <c r="A668" s="1"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
-      <c r="D668" s="35"/>
+      <c r="D668" s="37"/>
       <c r="E668" s="3"/>
       <c r="F668" s="3"/>
       <c r="G668" s="3"/>
@@ -19950,7 +19976,7 @@
       <c r="A669" s="1"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
-      <c r="D669" s="35"/>
+      <c r="D669" s="37"/>
       <c r="E669" s="3"/>
       <c r="F669" s="3"/>
       <c r="G669" s="3"/>
@@ -19978,7 +20004,7 @@
       <c r="A670" s="1"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
-      <c r="D670" s="35"/>
+      <c r="D670" s="37"/>
       <c r="E670" s="3"/>
       <c r="F670" s="3"/>
       <c r="G670" s="3"/>
@@ -20006,7 +20032,7 @@
       <c r="A671" s="1"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
-      <c r="D671" s="35"/>
+      <c r="D671" s="37"/>
       <c r="E671" s="3"/>
       <c r="F671" s="3"/>
       <c r="G671" s="3"/>
@@ -20034,7 +20060,7 @@
       <c r="A672" s="1"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
-      <c r="D672" s="35"/>
+      <c r="D672" s="37"/>
       <c r="E672" s="3"/>
       <c r="F672" s="3"/>
       <c r="G672" s="3"/>
@@ -20062,7 +20088,7 @@
       <c r="A673" s="1"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
-      <c r="D673" s="35"/>
+      <c r="D673" s="37"/>
       <c r="E673" s="3"/>
       <c r="F673" s="3"/>
       <c r="G673" s="3"/>
@@ -20090,7 +20116,7 @@
       <c r="A674" s="1"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
-      <c r="D674" s="35"/>
+      <c r="D674" s="37"/>
       <c r="E674" s="3"/>
       <c r="F674" s="3"/>
       <c r="G674" s="3"/>
@@ -20118,7 +20144,7 @@
       <c r="A675" s="1"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
-      <c r="D675" s="35"/>
+      <c r="D675" s="37"/>
       <c r="E675" s="3"/>
       <c r="F675" s="3"/>
       <c r="G675" s="3"/>
@@ -20146,7 +20172,7 @@
       <c r="A676" s="1"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
-      <c r="D676" s="35"/>
+      <c r="D676" s="37"/>
       <c r="E676" s="3"/>
       <c r="F676" s="3"/>
       <c r="G676" s="3"/>
@@ -20174,7 +20200,7 @@
       <c r="A677" s="1"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
-      <c r="D677" s="35"/>
+      <c r="D677" s="37"/>
       <c r="E677" s="3"/>
       <c r="F677" s="3"/>
       <c r="G677" s="3"/>
@@ -20202,7 +20228,7 @@
       <c r="A678" s="1"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
-      <c r="D678" s="35"/>
+      <c r="D678" s="37"/>
       <c r="E678" s="3"/>
       <c r="F678" s="3"/>
       <c r="G678" s="3"/>
@@ -20230,7 +20256,7 @@
       <c r="A679" s="1"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
-      <c r="D679" s="35"/>
+      <c r="D679" s="37"/>
       <c r="E679" s="3"/>
       <c r="F679" s="3"/>
       <c r="G679" s="3"/>
@@ -20258,7 +20284,7 @@
       <c r="A680" s="1"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
-      <c r="D680" s="35"/>
+      <c r="D680" s="37"/>
       <c r="E680" s="3"/>
       <c r="F680" s="3"/>
       <c r="G680" s="3"/>
@@ -20286,7 +20312,7 @@
       <c r="A681" s="1"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
-      <c r="D681" s="35"/>
+      <c r="D681" s="37"/>
       <c r="E681" s="3"/>
       <c r="F681" s="3"/>
       <c r="G681" s="3"/>
@@ -20314,7 +20340,7 @@
       <c r="A682" s="1"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
-      <c r="D682" s="35"/>
+      <c r="D682" s="37"/>
       <c r="E682" s="3"/>
       <c r="F682" s="3"/>
       <c r="G682" s="3"/>
@@ -20342,7 +20368,7 @@
       <c r="A683" s="1"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
-      <c r="D683" s="35"/>
+      <c r="D683" s="37"/>
       <c r="E683" s="3"/>
       <c r="F683" s="3"/>
       <c r="G683" s="3"/>
@@ -20370,7 +20396,7 @@
       <c r="A684" s="1"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
-      <c r="D684" s="35"/>
+      <c r="D684" s="37"/>
       <c r="E684" s="3"/>
       <c r="F684" s="3"/>
       <c r="G684" s="3"/>
@@ -20398,7 +20424,7 @@
       <c r="A685" s="1"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
-      <c r="D685" s="35"/>
+      <c r="D685" s="37"/>
       <c r="E685" s="3"/>
       <c r="F685" s="3"/>
       <c r="G685" s="3"/>
@@ -20426,7 +20452,7 @@
       <c r="A686" s="1"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
-      <c r="D686" s="35"/>
+      <c r="D686" s="37"/>
       <c r="E686" s="3"/>
       <c r="F686" s="3"/>
       <c r="G686" s="3"/>
@@ -20454,7 +20480,7 @@
       <c r="A687" s="1"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
-      <c r="D687" s="35"/>
+      <c r="D687" s="37"/>
       <c r="E687" s="3"/>
       <c r="F687" s="3"/>
       <c r="G687" s="3"/>
@@ -20482,7 +20508,7 @@
       <c r="A688" s="1"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
-      <c r="D688" s="35"/>
+      <c r="D688" s="37"/>
       <c r="E688" s="3"/>
       <c r="F688" s="3"/>
       <c r="G688" s="3"/>
@@ -20510,7 +20536,7 @@
       <c r="A689" s="1"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
-      <c r="D689" s="35"/>
+      <c r="D689" s="37"/>
       <c r="E689" s="3"/>
       <c r="F689" s="3"/>
       <c r="G689" s="3"/>
@@ -20538,7 +20564,7 @@
       <c r="A690" s="1"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
-      <c r="D690" s="35"/>
+      <c r="D690" s="37"/>
       <c r="E690" s="3"/>
       <c r="F690" s="3"/>
       <c r="G690" s="3"/>
@@ -20566,7 +20592,7 @@
       <c r="A691" s="1"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
-      <c r="D691" s="35"/>
+      <c r="D691" s="37"/>
       <c r="E691" s="3"/>
       <c r="F691" s="3"/>
       <c r="G691" s="3"/>
@@ -20594,7 +20620,7 @@
       <c r="A692" s="1"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
-      <c r="D692" s="35"/>
+      <c r="D692" s="37"/>
       <c r="E692" s="3"/>
       <c r="F692" s="3"/>
       <c r="G692" s="3"/>
@@ -20622,7 +20648,7 @@
       <c r="A693" s="1"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
-      <c r="D693" s="35"/>
+      <c r="D693" s="37"/>
       <c r="E693" s="3"/>
       <c r="F693" s="3"/>
       <c r="G693" s="3"/>
@@ -20650,7 +20676,7 @@
       <c r="A694" s="1"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
-      <c r="D694" s="35"/>
+      <c r="D694" s="37"/>
       <c r="E694" s="3"/>
       <c r="F694" s="3"/>
       <c r="G694" s="3"/>
@@ -20678,7 +20704,7 @@
       <c r="A695" s="1"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
-      <c r="D695" s="35"/>
+      <c r="D695" s="37"/>
       <c r="E695" s="3"/>
       <c r="F695" s="3"/>
       <c r="G695" s="3"/>
@@ -20706,7 +20732,7 @@
       <c r="A696" s="1"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
-      <c r="D696" s="35"/>
+      <c r="D696" s="37"/>
       <c r="E696" s="3"/>
       <c r="F696" s="3"/>
       <c r="G696" s="3"/>
@@ -20734,7 +20760,7 @@
       <c r="A697" s="1"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
-      <c r="D697" s="35"/>
+      <c r="D697" s="37"/>
       <c r="E697" s="3"/>
       <c r="F697" s="3"/>
       <c r="G697" s="3"/>
@@ -20762,7 +20788,7 @@
       <c r="A698" s="1"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
-      <c r="D698" s="35"/>
+      <c r="D698" s="37"/>
       <c r="E698" s="3"/>
       <c r="F698" s="3"/>
       <c r="G698" s="3"/>
@@ -20790,7 +20816,7 @@
       <c r="A699" s="1"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
-      <c r="D699" s="35"/>
+      <c r="D699" s="37"/>
       <c r="E699" s="3"/>
       <c r="F699" s="3"/>
       <c r="G699" s="3"/>
@@ -20818,7 +20844,7 @@
       <c r="A700" s="1"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
-      <c r="D700" s="35"/>
+      <c r="D700" s="37"/>
       <c r="E700" s="3"/>
       <c r="F700" s="3"/>
       <c r="G700" s="3"/>
@@ -20846,7 +20872,7 @@
       <c r="A701" s="1"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
-      <c r="D701" s="35"/>
+      <c r="D701" s="37"/>
       <c r="E701" s="3"/>
       <c r="F701" s="3"/>
       <c r="G701" s="3"/>
@@ -20874,7 +20900,7 @@
       <c r="A702" s="1"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
-      <c r="D702" s="35"/>
+      <c r="D702" s="37"/>
       <c r="E702" s="3"/>
       <c r="F702" s="3"/>
       <c r="G702" s="3"/>
@@ -20902,7 +20928,7 @@
       <c r="A703" s="1"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
-      <c r="D703" s="35"/>
+      <c r="D703" s="37"/>
       <c r="E703" s="3"/>
       <c r="F703" s="3"/>
       <c r="G703" s="3"/>
@@ -20930,7 +20956,7 @@
       <c r="A704" s="1"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
-      <c r="D704" s="35"/>
+      <c r="D704" s="37"/>
       <c r="E704" s="3"/>
       <c r="F704" s="3"/>
       <c r="G704" s="3"/>
@@ -20958,7 +20984,7 @@
       <c r="A705" s="1"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
-      <c r="D705" s="35"/>
+      <c r="D705" s="37"/>
       <c r="E705" s="3"/>
       <c r="F705" s="3"/>
       <c r="G705" s="3"/>
@@ -20986,7 +21012,7 @@
       <c r="A706" s="1"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
-      <c r="D706" s="35"/>
+      <c r="D706" s="37"/>
       <c r="E706" s="3"/>
       <c r="F706" s="3"/>
       <c r="G706" s="3"/>
@@ -21014,7 +21040,7 @@
       <c r="A707" s="1"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
-      <c r="D707" s="35"/>
+      <c r="D707" s="37"/>
       <c r="E707" s="3"/>
       <c r="F707" s="3"/>
       <c r="G707" s="3"/>
@@ -21042,7 +21068,7 @@
       <c r="A708" s="1"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
-      <c r="D708" s="35"/>
+      <c r="D708" s="37"/>
       <c r="E708" s="3"/>
       <c r="F708" s="3"/>
       <c r="G708" s="3"/>
@@ -21070,7 +21096,7 @@
       <c r="A709" s="1"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
-      <c r="D709" s="35"/>
+      <c r="D709" s="37"/>
       <c r="E709" s="3"/>
       <c r="F709" s="3"/>
       <c r="G709" s="3"/>
@@ -21098,7 +21124,7 @@
       <c r="A710" s="1"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
-      <c r="D710" s="35"/>
+      <c r="D710" s="37"/>
       <c r="E710" s="3"/>
       <c r="F710" s="3"/>
       <c r="G710" s="3"/>
@@ -21126,7 +21152,7 @@
       <c r="A711" s="1"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
-      <c r="D711" s="35"/>
+      <c r="D711" s="37"/>
       <c r="E711" s="3"/>
       <c r="F711" s="3"/>
       <c r="G711" s="3"/>
@@ -21154,7 +21180,7 @@
       <c r="A712" s="1"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
-      <c r="D712" s="35"/>
+      <c r="D712" s="37"/>
       <c r="E712" s="3"/>
       <c r="F712" s="3"/>
       <c r="G712" s="3"/>
@@ -21182,7 +21208,7 @@
       <c r="A713" s="1"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
-      <c r="D713" s="35"/>
+      <c r="D713" s="37"/>
       <c r="E713" s="3"/>
       <c r="F713" s="3"/>
       <c r="G713" s="3"/>
@@ -21210,7 +21236,7 @@
       <c r="A714" s="1"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
-      <c r="D714" s="35"/>
+      <c r="D714" s="37"/>
       <c r="E714" s="3"/>
       <c r="F714" s="3"/>
       <c r="G714" s="3"/>
@@ -21238,7 +21264,7 @@
       <c r="A715" s="1"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
-      <c r="D715" s="35"/>
+      <c r="D715" s="37"/>
       <c r="E715" s="3"/>
       <c r="F715" s="3"/>
       <c r="G715" s="3"/>
@@ -21266,7 +21292,7 @@
       <c r="A716" s="1"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
-      <c r="D716" s="35"/>
+      <c r="D716" s="37"/>
       <c r="E716" s="3"/>
       <c r="F716" s="3"/>
       <c r="G716" s="3"/>
@@ -21294,7 +21320,7 @@
       <c r="A717" s="1"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
-      <c r="D717" s="35"/>
+      <c r="D717" s="37"/>
       <c r="E717" s="3"/>
       <c r="F717" s="3"/>
       <c r="G717" s="3"/>
@@ -21322,7 +21348,7 @@
       <c r="A718" s="1"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
-      <c r="D718" s="35"/>
+      <c r="D718" s="37"/>
       <c r="E718" s="3"/>
       <c r="F718" s="3"/>
       <c r="G718" s="3"/>
@@ -21350,7 +21376,7 @@
       <c r="A719" s="1"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
-      <c r="D719" s="35"/>
+      <c r="D719" s="37"/>
       <c r="E719" s="3"/>
       <c r="F719" s="3"/>
       <c r="G719" s="3"/>
@@ -21378,7 +21404,7 @@
       <c r="A720" s="1"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
-      <c r="D720" s="35"/>
+      <c r="D720" s="37"/>
       <c r="E720" s="3"/>
       <c r="F720" s="3"/>
       <c r="G720" s="3"/>
@@ -21406,7 +21432,7 @@
       <c r="A721" s="1"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
-      <c r="D721" s="35"/>
+      <c r="D721" s="37"/>
       <c r="E721" s="3"/>
       <c r="F721" s="3"/>
       <c r="G721" s="3"/>
@@ -21434,7 +21460,7 @@
       <c r="A722" s="1"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
-      <c r="D722" s="35"/>
+      <c r="D722" s="37"/>
       <c r="E722" s="3"/>
       <c r="F722" s="3"/>
       <c r="G722" s="3"/>
@@ -21462,7 +21488,7 @@
       <c r="A723" s="1"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
-      <c r="D723" s="35"/>
+      <c r="D723" s="37"/>
       <c r="E723" s="3"/>
       <c r="F723" s="3"/>
       <c r="G723" s="3"/>
@@ -21490,7 +21516,7 @@
       <c r="A724" s="1"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
-      <c r="D724" s="35"/>
+      <c r="D724" s="37"/>
       <c r="E724" s="3"/>
       <c r="F724" s="3"/>
       <c r="G724" s="3"/>
@@ -21518,7 +21544,7 @@
       <c r="A725" s="1"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
-      <c r="D725" s="35"/>
+      <c r="D725" s="37"/>
       <c r="E725" s="3"/>
       <c r="F725" s="3"/>
       <c r="G725" s="3"/>
@@ -21546,7 +21572,7 @@
       <c r="A726" s="1"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
-      <c r="D726" s="35"/>
+      <c r="D726" s="37"/>
       <c r="E726" s="3"/>
       <c r="F726" s="3"/>
       <c r="G726" s="3"/>
@@ -21574,7 +21600,7 @@
       <c r="A727" s="1"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
-      <c r="D727" s="35"/>
+      <c r="D727" s="37"/>
       <c r="E727" s="3"/>
       <c r="F727" s="3"/>
       <c r="G727" s="3"/>
@@ -21602,7 +21628,7 @@
       <c r="A728" s="1"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
-      <c r="D728" s="35"/>
+      <c r="D728" s="37"/>
       <c r="E728" s="3"/>
       <c r="F728" s="3"/>
       <c r="G728" s="3"/>
@@ -21630,7 +21656,7 @@
       <c r="A729" s="1"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
-      <c r="D729" s="35"/>
+      <c r="D729" s="37"/>
       <c r="E729" s="3"/>
       <c r="F729" s="3"/>
       <c r="G729" s="3"/>
@@ -21658,7 +21684,7 @@
       <c r="A730" s="1"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
-      <c r="D730" s="35"/>
+      <c r="D730" s="37"/>
       <c r="E730" s="3"/>
       <c r="F730" s="3"/>
       <c r="G730" s="3"/>
@@ -21686,7 +21712,7 @@
       <c r="A731" s="1"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
-      <c r="D731" s="35"/>
+      <c r="D731" s="37"/>
       <c r="E731" s="3"/>
       <c r="F731" s="3"/>
       <c r="G731" s="3"/>
@@ -21714,7 +21740,7 @@
       <c r="A732" s="1"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
-      <c r="D732" s="35"/>
+      <c r="D732" s="37"/>
       <c r="E732" s="3"/>
       <c r="F732" s="3"/>
       <c r="G732" s="3"/>
@@ -21742,7 +21768,7 @@
       <c r="A733" s="1"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
-      <c r="D733" s="35"/>
+      <c r="D733" s="37"/>
       <c r="E733" s="3"/>
       <c r="F733" s="3"/>
       <c r="G733" s="3"/>
@@ -21770,7 +21796,7 @@
       <c r="A734" s="1"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
-      <c r="D734" s="35"/>
+      <c r="D734" s="37"/>
       <c r="E734" s="3"/>
       <c r="F734" s="3"/>
       <c r="G734" s="3"/>
@@ -21798,7 +21824,7 @@
       <c r="A735" s="1"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
-      <c r="D735" s="35"/>
+      <c r="D735" s="37"/>
       <c r="E735" s="3"/>
       <c r="F735" s="3"/>
       <c r="G735" s="3"/>
@@ -21826,7 +21852,7 @@
       <c r="A736" s="1"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
-      <c r="D736" s="35"/>
+      <c r="D736" s="37"/>
       <c r="E736" s="3"/>
       <c r="F736" s="3"/>
       <c r="G736" s="3"/>
@@ -21854,7 +21880,7 @@
       <c r="A737" s="1"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
-      <c r="D737" s="35"/>
+      <c r="D737" s="37"/>
       <c r="E737" s="3"/>
       <c r="F737" s="3"/>
       <c r="G737" s="3"/>
@@ -21882,7 +21908,7 @@
       <c r="A738" s="1"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
-      <c r="D738" s="35"/>
+      <c r="D738" s="37"/>
       <c r="E738" s="3"/>
       <c r="F738" s="3"/>
       <c r="G738" s="3"/>
@@ -21910,7 +21936,7 @@
       <c r="A739" s="1"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
-      <c r="D739" s="35"/>
+      <c r="D739" s="37"/>
       <c r="E739" s="3"/>
       <c r="F739" s="3"/>
       <c r="G739" s="3"/>
@@ -21938,7 +21964,7 @@
       <c r="A740" s="1"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
-      <c r="D740" s="35"/>
+      <c r="D740" s="37"/>
       <c r="E740" s="3"/>
       <c r="F740" s="3"/>
       <c r="G740" s="3"/>
@@ -21966,7 +21992,7 @@
       <c r="A741" s="1"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
-      <c r="D741" s="35"/>
+      <c r="D741" s="37"/>
       <c r="E741" s="3"/>
       <c r="F741" s="3"/>
       <c r="G741" s="3"/>
@@ -21994,7 +22020,7 @@
       <c r="A742" s="1"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
-      <c r="D742" s="35"/>
+      <c r="D742" s="37"/>
       <c r="E742" s="3"/>
       <c r="F742" s="3"/>
       <c r="G742" s="3"/>
@@ -22022,7 +22048,7 @@
       <c r="A743" s="1"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
-      <c r="D743" s="35"/>
+      <c r="D743" s="37"/>
       <c r="E743" s="3"/>
       <c r="F743" s="3"/>
       <c r="G743" s="3"/>
@@ -22050,7 +22076,7 @@
       <c r="A744" s="1"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
-      <c r="D744" s="35"/>
+      <c r="D744" s="37"/>
       <c r="E744" s="3"/>
       <c r="F744" s="3"/>
       <c r="G744" s="3"/>
@@ -22078,7 +22104,7 @@
       <c r="A745" s="1"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
-      <c r="D745" s="35"/>
+      <c r="D745" s="37"/>
       <c r="E745" s="3"/>
       <c r="F745" s="3"/>
       <c r="G745" s="3"/>
@@ -22106,7 +22132,7 @@
       <c r="A746" s="1"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
-      <c r="D746" s="35"/>
+      <c r="D746" s="37"/>
       <c r="E746" s="3"/>
       <c r="F746" s="3"/>
       <c r="G746" s="3"/>
@@ -22134,7 +22160,7 @@
       <c r="A747" s="1"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
-      <c r="D747" s="35"/>
+      <c r="D747" s="37"/>
       <c r="E747" s="3"/>
       <c r="F747" s="3"/>
       <c r="G747" s="3"/>
@@ -22162,7 +22188,7 @@
       <c r="A748" s="1"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
-      <c r="D748" s="35"/>
+      <c r="D748" s="37"/>
       <c r="E748" s="3"/>
       <c r="F748" s="3"/>
       <c r="G748" s="3"/>
@@ -22190,7 +22216,7 @@
       <c r="A749" s="1"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
-      <c r="D749" s="35"/>
+      <c r="D749" s="37"/>
       <c r="E749" s="3"/>
       <c r="F749" s="3"/>
       <c r="G749" s="3"/>
@@ -22218,7 +22244,7 @@
       <c r="A750" s="1"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
-      <c r="D750" s="35"/>
+      <c r="D750" s="37"/>
       <c r="E750" s="3"/>
       <c r="F750" s="3"/>
       <c r="G750" s="3"/>
@@ -22246,7 +22272,7 @@
       <c r="A751" s="1"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
-      <c r="D751" s="35"/>
+      <c r="D751" s="37"/>
       <c r="E751" s="3"/>
       <c r="F751" s="3"/>
       <c r="G751" s="3"/>
@@ -22274,7 +22300,7 @@
       <c r="A752" s="1"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
-      <c r="D752" s="35"/>
+      <c r="D752" s="37"/>
       <c r="E752" s="3"/>
       <c r="F752" s="3"/>
       <c r="G752" s="3"/>
@@ -22302,7 +22328,7 @@
       <c r="A753" s="1"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
-      <c r="D753" s="35"/>
+      <c r="D753" s="37"/>
       <c r="E753" s="3"/>
       <c r="F753" s="3"/>
       <c r="G753" s="3"/>
@@ -22330,7 +22356,7 @@
       <c r="A754" s="1"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
-      <c r="D754" s="35"/>
+      <c r="D754" s="37"/>
       <c r="E754" s="3"/>
       <c r="F754" s="3"/>
       <c r="G754" s="3"/>
@@ -22358,7 +22384,7 @@
       <c r="A755" s="1"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
-      <c r="D755" s="35"/>
+      <c r="D755" s="37"/>
       <c r="E755" s="3"/>
       <c r="F755" s="3"/>
       <c r="G755" s="3"/>
@@ -22386,7 +22412,7 @@
       <c r="A756" s="1"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
-      <c r="D756" s="35"/>
+      <c r="D756" s="37"/>
       <c r="E756" s="3"/>
       <c r="F756" s="3"/>
       <c r="G756" s="3"/>
@@ -22414,7 +22440,7 @@
       <c r="A757" s="1"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
-      <c r="D757" s="35"/>
+      <c r="D757" s="37"/>
       <c r="E757" s="3"/>
       <c r="F757" s="3"/>
       <c r="G757" s="3"/>
@@ -22442,7 +22468,7 @@
       <c r="A758" s="1"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
-      <c r="D758" s="35"/>
+      <c r="D758" s="37"/>
       <c r="E758" s="3"/>
       <c r="F758" s="3"/>
       <c r="G758" s="3"/>
@@ -22470,7 +22496,7 @@
       <c r="A759" s="1"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
-      <c r="D759" s="35"/>
+      <c r="D759" s="37"/>
       <c r="E759" s="3"/>
       <c r="F759" s="3"/>
       <c r="G759" s="3"/>
@@ -22498,7 +22524,7 @@
       <c r="A760" s="1"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
-      <c r="D760" s="35"/>
+      <c r="D760" s="37"/>
       <c r="E760" s="3"/>
       <c r="F760" s="3"/>
       <c r="G760" s="3"/>
@@ -22526,7 +22552,7 @@
       <c r="A761" s="1"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
-      <c r="D761" s="35"/>
+      <c r="D761" s="37"/>
       <c r="E761" s="3"/>
       <c r="F761" s="3"/>
       <c r="G761" s="3"/>
@@ -22554,7 +22580,7 @@
       <c r="A762" s="1"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
-      <c r="D762" s="35"/>
+      <c r="D762" s="37"/>
       <c r="E762" s="3"/>
       <c r="F762" s="3"/>
       <c r="G762" s="3"/>
@@ -22582,7 +22608,7 @@
       <c r="A763" s="1"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
-      <c r="D763" s="35"/>
+      <c r="D763" s="37"/>
       <c r="E763" s="3"/>
       <c r="F763" s="3"/>
       <c r="G763" s="3"/>
@@ -22610,7 +22636,7 @@
       <c r="A764" s="1"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
-      <c r="D764" s="35"/>
+      <c r="D764" s="37"/>
       <c r="E764" s="3"/>
       <c r="F764" s="3"/>
       <c r="G764" s="3"/>
@@ -22638,7 +22664,7 @@
       <c r="A765" s="1"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
-      <c r="D765" s="35"/>
+      <c r="D765" s="37"/>
       <c r="E765" s="3"/>
       <c r="F765" s="3"/>
       <c r="G765" s="3"/>
@@ -22666,7 +22692,7 @@
       <c r="A766" s="1"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
-      <c r="D766" s="35"/>
+      <c r="D766" s="37"/>
       <c r="E766" s="3"/>
       <c r="F766" s="3"/>
       <c r="G766" s="3"/>
@@ -22694,7 +22720,7 @@
       <c r="A767" s="1"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
-      <c r="D767" s="35"/>
+      <c r="D767" s="37"/>
       <c r="E767" s="3"/>
       <c r="F767" s="3"/>
       <c r="G767" s="3"/>
@@ -22722,7 +22748,7 @@
       <c r="A768" s="1"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
-      <c r="D768" s="35"/>
+      <c r="D768" s="37"/>
       <c r="E768" s="3"/>
       <c r="F768" s="3"/>
       <c r="G768" s="3"/>
@@ -22750,7 +22776,7 @@
       <c r="A769" s="1"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
-      <c r="D769" s="35"/>
+      <c r="D769" s="37"/>
       <c r="E769" s="3"/>
       <c r="F769" s="3"/>
       <c r="G769" s="3"/>
@@ -22778,7 +22804,7 @@
       <c r="A770" s="1"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
-      <c r="D770" s="35"/>
+      <c r="D770" s="37"/>
       <c r="E770" s="3"/>
       <c r="F770" s="3"/>
       <c r="G770" s="3"/>
@@ -22806,7 +22832,7 @@
       <c r="A771" s="1"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
-      <c r="D771" s="35"/>
+      <c r="D771" s="37"/>
       <c r="E771" s="3"/>
       <c r="F771" s="3"/>
       <c r="G771" s="3"/>
@@ -22834,7 +22860,7 @@
       <c r="A772" s="1"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
-      <c r="D772" s="35"/>
+      <c r="D772" s="37"/>
       <c r="E772" s="3"/>
       <c r="F772" s="3"/>
       <c r="G772" s="3"/>
@@ -22862,7 +22888,7 @@
       <c r="A773" s="1"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
-      <c r="D773" s="35"/>
+      <c r="D773" s="37"/>
       <c r="E773" s="3"/>
       <c r="F773" s="3"/>
       <c r="G773" s="3"/>
@@ -22890,7 +22916,7 @@
       <c r="A774" s="1"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
-      <c r="D774" s="35"/>
+      <c r="D774" s="37"/>
       <c r="E774" s="3"/>
       <c r="F774" s="3"/>
       <c r="G774" s="3"/>
@@ -22918,7 +22944,7 @@
       <c r="A775" s="1"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
-      <c r="D775" s="35"/>
+      <c r="D775" s="37"/>
       <c r="E775" s="3"/>
       <c r="F775" s="3"/>
       <c r="G775" s="3"/>
@@ -22946,7 +22972,7 @@
       <c r="A776" s="1"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
-      <c r="D776" s="35"/>
+      <c r="D776" s="37"/>
       <c r="E776" s="3"/>
       <c r="F776" s="3"/>
       <c r="G776" s="3"/>
@@ -22974,7 +23000,7 @@
       <c r="A777" s="1"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
-      <c r="D777" s="35"/>
+      <c r="D777" s="37"/>
       <c r="E777" s="3"/>
       <c r="F777" s="3"/>
       <c r="G777" s="3"/>
@@ -23002,7 +23028,7 @@
       <c r="A778" s="1"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
-      <c r="D778" s="35"/>
+      <c r="D778" s="37"/>
       <c r="E778" s="3"/>
       <c r="F778" s="3"/>
       <c r="G778" s="3"/>
@@ -23030,7 +23056,7 @@
       <c r="A779" s="1"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
-      <c r="D779" s="35"/>
+      <c r="D779" s="37"/>
       <c r="E779" s="3"/>
       <c r="F779" s="3"/>
       <c r="G779" s="3"/>
@@ -23058,7 +23084,7 @@
       <c r="A780" s="1"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
-      <c r="D780" s="35"/>
+      <c r="D780" s="37"/>
       <c r="E780" s="3"/>
       <c r="F780" s="3"/>
       <c r="G780" s="3"/>
@@ -23086,7 +23112,7 @@
       <c r="A781" s="1"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
-      <c r="D781" s="35"/>
+      <c r="D781" s="37"/>
       <c r="E781" s="3"/>
       <c r="F781" s="3"/>
       <c r="G781" s="3"/>
@@ -23114,7 +23140,7 @@
       <c r="A782" s="1"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
-      <c r="D782" s="35"/>
+      <c r="D782" s="37"/>
       <c r="E782" s="3"/>
       <c r="F782" s="3"/>
       <c r="G782" s="3"/>
@@ -23142,7 +23168,7 @@
       <c r="A783" s="1"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
-      <c r="D783" s="35"/>
+      <c r="D783" s="37"/>
       <c r="E783" s="3"/>
       <c r="F783" s="3"/>
       <c r="G783" s="3"/>
@@ -23170,7 +23196,7 @@
       <c r="A784" s="1"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
-      <c r="D784" s="35"/>
+      <c r="D784" s="37"/>
       <c r="E784" s="3"/>
       <c r="F784" s="3"/>
       <c r="G784" s="3"/>
@@ -23198,7 +23224,7 @@
       <c r="A785" s="1"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
-      <c r="D785" s="35"/>
+      <c r="D785" s="37"/>
       <c r="E785" s="3"/>
       <c r="F785" s="3"/>
       <c r="G785" s="3"/>
@@ -23226,7 +23252,7 @@
       <c r="A786" s="1"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
-      <c r="D786" s="35"/>
+      <c r="D786" s="37"/>
       <c r="E786" s="3"/>
       <c r="F786" s="3"/>
       <c r="G786" s="3"/>
@@ -23254,7 +23280,7 @@
       <c r="A787" s="1"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
-      <c r="D787" s="35"/>
+      <c r="D787" s="37"/>
       <c r="E787" s="3"/>
       <c r="F787" s="3"/>
       <c r="G787" s="3"/>
@@ -23282,7 +23308,7 @@
       <c r="A788" s="1"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
-      <c r="D788" s="35"/>
+      <c r="D788" s="37"/>
       <c r="E788" s="3"/>
       <c r="F788" s="3"/>
       <c r="G788" s="3"/>
@@ -23310,7 +23336,7 @@
       <c r="A789" s="1"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
-      <c r="D789" s="35"/>
+      <c r="D789" s="37"/>
       <c r="E789" s="3"/>
       <c r="F789" s="3"/>
       <c r="G789" s="3"/>
@@ -23338,7 +23364,7 @@
       <c r="A790" s="1"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
-      <c r="D790" s="35"/>
+      <c r="D790" s="37"/>
       <c r="E790" s="3"/>
       <c r="F790" s="3"/>
       <c r="G790" s="3"/>
@@ -23366,7 +23392,7 @@
       <c r="A791" s="1"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
-      <c r="D791" s="35"/>
+      <c r="D791" s="37"/>
       <c r="E791" s="3"/>
       <c r="F791" s="3"/>
       <c r="G791" s="3"/>
@@ -23394,7 +23420,7 @@
       <c r="A792" s="1"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
-      <c r="D792" s="35"/>
+      <c r="D792" s="37"/>
       <c r="E792" s="3"/>
       <c r="F792" s="3"/>
       <c r="G792" s="3"/>
@@ -23422,7 +23448,7 @@
       <c r="A793" s="1"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
-      <c r="D793" s="35"/>
+      <c r="D793" s="37"/>
       <c r="E793" s="3"/>
       <c r="F793" s="3"/>
       <c r="G793" s="3"/>
@@ -23450,7 +23476,7 @@
       <c r="A794" s="1"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
-      <c r="D794" s="35"/>
+      <c r="D794" s="37"/>
       <c r="E794" s="3"/>
       <c r="F794" s="3"/>
       <c r="G794" s="3"/>
@@ -23478,7 +23504,7 @@
       <c r="A795" s="1"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
-      <c r="D795" s="35"/>
+      <c r="D795" s="37"/>
       <c r="E795" s="3"/>
       <c r="F795" s="3"/>
       <c r="G795" s="3"/>
@@ -23506,7 +23532,7 @@
       <c r="A796" s="1"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
-      <c r="D796" s="35"/>
+      <c r="D796" s="37"/>
       <c r="E796" s="3"/>
       <c r="F796" s="3"/>
       <c r="G796" s="3"/>
@@ -23534,7 +23560,7 @@
       <c r="A797" s="1"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
-      <c r="D797" s="35"/>
+      <c r="D797" s="37"/>
       <c r="E797" s="3"/>
       <c r="F797" s="3"/>
       <c r="G797" s="3"/>
@@ -23562,7 +23588,7 @@
       <c r="A798" s="1"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
-      <c r="D798" s="35"/>
+      <c r="D798" s="37"/>
       <c r="E798" s="3"/>
       <c r="F798" s="3"/>
       <c r="G798" s="3"/>
@@ -23590,7 +23616,7 @@
       <c r="A799" s="1"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
-      <c r="D799" s="35"/>
+      <c r="D799" s="37"/>
       <c r="E799" s="3"/>
       <c r="F799" s="3"/>
       <c r="G799" s="3"/>
@@ -23618,7 +23644,7 @@
       <c r="A800" s="1"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
-      <c r="D800" s="35"/>
+      <c r="D800" s="37"/>
       <c r="E800" s="3"/>
       <c r="F800" s="3"/>
       <c r="G800" s="3"/>
@@ -23646,7 +23672,7 @@
       <c r="A801" s="1"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
-      <c r="D801" s="35"/>
+      <c r="D801" s="37"/>
       <c r="E801" s="3"/>
       <c r="F801" s="3"/>
       <c r="G801" s="3"/>
@@ -23674,7 +23700,7 @@
       <c r="A802" s="1"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
-      <c r="D802" s="35"/>
+      <c r="D802" s="37"/>
       <c r="E802" s="3"/>
       <c r="F802" s="3"/>
       <c r="G802" s="3"/>
@@ -23702,7 +23728,7 @@
       <c r="A803" s="1"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
-      <c r="D803" s="35"/>
+      <c r="D803" s="37"/>
       <c r="E803" s="3"/>
       <c r="F803" s="3"/>
       <c r="G803" s="3"/>
@@ -23730,7 +23756,7 @@
       <c r="A804" s="1"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
-      <c r="D804" s="35"/>
+      <c r="D804" s="37"/>
       <c r="E804" s="3"/>
       <c r="F804" s="3"/>
       <c r="G804" s="3"/>
@@ -23758,7 +23784,7 @@
       <c r="A805" s="1"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
-      <c r="D805" s="35"/>
+      <c r="D805" s="37"/>
       <c r="E805" s="3"/>
       <c r="F805" s="3"/>
       <c r="G805" s="3"/>
@@ -23786,7 +23812,7 @@
       <c r="A806" s="1"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
-      <c r="D806" s="35"/>
+      <c r="D806" s="37"/>
       <c r="E806" s="3"/>
       <c r="F806" s="3"/>
       <c r="G806" s="3"/>
@@ -23814,7 +23840,7 @@
       <c r="A807" s="1"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
-      <c r="D807" s="35"/>
+      <c r="D807" s="37"/>
       <c r="E807" s="3"/>
       <c r="F807" s="3"/>
       <c r="G807" s="3"/>
@@ -23842,7 +23868,7 @@
       <c r="A808" s="1"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
-      <c r="D808" s="35"/>
+      <c r="D808" s="37"/>
       <c r="E808" s="3"/>
       <c r="F808" s="3"/>
       <c r="G808" s="3"/>
@@ -23870,7 +23896,7 @@
       <c r="A809" s="1"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
-      <c r="D809" s="35"/>
+      <c r="D809" s="37"/>
       <c r="E809" s="3"/>
       <c r="F809" s="3"/>
       <c r="G809" s="3"/>
@@ -23898,7 +23924,7 @@
       <c r="A810" s="1"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
-      <c r="D810" s="35"/>
+      <c r="D810" s="37"/>
       <c r="E810" s="3"/>
       <c r="F810" s="3"/>
       <c r="G810" s="3"/>
@@ -23926,7 +23952,7 @@
       <c r="A811" s="1"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
-      <c r="D811" s="35"/>
+      <c r="D811" s="37"/>
       <c r="E811" s="3"/>
       <c r="F811" s="3"/>
       <c r="G811" s="3"/>
@@ -23954,7 +23980,7 @@
       <c r="A812" s="1"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
-      <c r="D812" s="35"/>
+      <c r="D812" s="37"/>
       <c r="E812" s="3"/>
       <c r="F812" s="3"/>
       <c r="G812" s="3"/>
@@ -23982,7 +24008,7 @@
       <c r="A813" s="1"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
-      <c r="D813" s="35"/>
+      <c r="D813" s="37"/>
       <c r="E813" s="3"/>
       <c r="F813" s="3"/>
       <c r="G813" s="3"/>
@@ -24010,7 +24036,7 @@
       <c r="A814" s="1"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
-      <c r="D814" s="35"/>
+      <c r="D814" s="37"/>
       <c r="E814" s="3"/>
       <c r="F814" s="3"/>
       <c r="G814" s="3"/>
@@ -24038,7 +24064,7 @@
       <c r="A815" s="1"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
-      <c r="D815" s="35"/>
+      <c r="D815" s="37"/>
       <c r="E815" s="3"/>
       <c r="F815" s="3"/>
       <c r="G815" s="3"/>
@@ -24066,7 +24092,7 @@
       <c r="A816" s="1"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
-      <c r="D816" s="35"/>
+      <c r="D816" s="37"/>
       <c r="E816" s="3"/>
       <c r="F816" s="3"/>
       <c r="G816" s="3"/>
@@ -24094,7 +24120,7 @@
       <c r="A817" s="1"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
-      <c r="D817" s="35"/>
+      <c r="D817" s="37"/>
       <c r="E817" s="3"/>
       <c r="F817" s="3"/>
       <c r="G817" s="3"/>
@@ -24122,7 +24148,7 @@
       <c r="A818" s="1"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
-      <c r="D818" s="35"/>
+      <c r="D818" s="37"/>
       <c r="E818" s="3"/>
       <c r="F818" s="3"/>
       <c r="G818" s="3"/>
@@ -24150,7 +24176,7 @@
       <c r="A819" s="1"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
-      <c r="D819" s="35"/>
+      <c r="D819" s="37"/>
       <c r="E819" s="3"/>
       <c r="F819" s="3"/>
       <c r="G819" s="3"/>
@@ -24178,7 +24204,7 @@
       <c r="A820" s="1"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
-      <c r="D820" s="35"/>
+      <c r="D820" s="37"/>
       <c r="E820" s="3"/>
       <c r="F820" s="3"/>
       <c r="G820" s="3"/>
@@ -24206,7 +24232,7 @@
       <c r="A821" s="1"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
-      <c r="D821" s="35"/>
+      <c r="D821" s="37"/>
       <c r="E821" s="3"/>
       <c r="F821" s="3"/>
       <c r="G821" s="3"/>
@@ -24234,7 +24260,7 @@
       <c r="A822" s="1"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
-      <c r="D822" s="35"/>
+      <c r="D822" s="37"/>
       <c r="E822" s="3"/>
       <c r="F822" s="3"/>
       <c r="G822" s="3"/>
@@ -24262,7 +24288,7 @@
       <c r="A823" s="1"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
-      <c r="D823" s="35"/>
+      <c r="D823" s="37"/>
       <c r="E823" s="3"/>
       <c r="F823" s="3"/>
       <c r="G823" s="3"/>
@@ -24290,7 +24316,7 @@
       <c r="A824" s="1"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
-      <c r="D824" s="35"/>
+      <c r="D824" s="37"/>
       <c r="E824" s="3"/>
       <c r="F824" s="3"/>
       <c r="G824" s="3"/>
@@ -24318,7 +24344,7 @@
       <c r="A825" s="1"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
-      <c r="D825" s="35"/>
+      <c r="D825" s="37"/>
       <c r="E825" s="3"/>
       <c r="F825" s="3"/>
       <c r="G825" s="3"/>
@@ -24346,7 +24372,7 @@
       <c r="A826" s="1"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
-      <c r="D826" s="35"/>
+      <c r="D826" s="37"/>
       <c r="E826" s="3"/>
       <c r="F826" s="3"/>
       <c r="G826" s="3"/>
@@ -24374,7 +24400,7 @@
       <c r="A827" s="1"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
-      <c r="D827" s="35"/>
+      <c r="D827" s="37"/>
       <c r="E827" s="3"/>
       <c r="F827" s="3"/>
       <c r="G827" s="3"/>
@@ -24402,7 +24428,7 @@
       <c r="A828" s="1"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
-      <c r="D828" s="35"/>
+      <c r="D828" s="37"/>
       <c r="E828" s="3"/>
       <c r="F828" s="3"/>
       <c r="G828" s="3"/>
@@ -24430,7 +24456,7 @@
       <c r="A829" s="1"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
-      <c r="D829" s="35"/>
+      <c r="D829" s="37"/>
       <c r="E829" s="3"/>
       <c r="F829" s="3"/>
       <c r="G829" s="3"/>
@@ -24458,7 +24484,7 @@
       <c r="A830" s="1"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
-      <c r="D830" s="35"/>
+      <c r="D830" s="37"/>
       <c r="E830" s="3"/>
       <c r="F830" s="3"/>
       <c r="G830" s="3"/>
@@ -24486,7 +24512,7 @@
       <c r="A831" s="1"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
-      <c r="D831" s="35"/>
+      <c r="D831" s="37"/>
       <c r="E831" s="3"/>
       <c r="F831" s="3"/>
       <c r="G831" s="3"/>
@@ -24514,7 +24540,7 @@
       <c r="A832" s="1"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
-      <c r="D832" s="35"/>
+      <c r="D832" s="37"/>
       <c r="E832" s="3"/>
       <c r="F832" s="3"/>
       <c r="G832" s="3"/>
@@ -24542,7 +24568,7 @@
       <c r="A833" s="1"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
-      <c r="D833" s="35"/>
+      <c r="D833" s="37"/>
       <c r="E833" s="3"/>
       <c r="F833" s="3"/>
       <c r="G833" s="3"/>
@@ -24570,7 +24596,7 @@
       <c r="A834" s="1"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
-      <c r="D834" s="35"/>
+      <c r="D834" s="37"/>
       <c r="E834" s="3"/>
       <c r="F834" s="3"/>
       <c r="G834" s="3"/>
@@ -24598,7 +24624,7 @@
       <c r="A835" s="1"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
-      <c r="D835" s="35"/>
+      <c r="D835" s="37"/>
       <c r="E835" s="3"/>
       <c r="F835" s="3"/>
       <c r="G835" s="3"/>
@@ -24626,7 +24652,7 @@
       <c r="A836" s="1"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
-      <c r="D836" s="35"/>
+      <c r="D836" s="37"/>
       <c r="E836" s="3"/>
       <c r="F836" s="3"/>
       <c r="G836" s="3"/>
@@ -24654,7 +24680,7 @@
       <c r="A837" s="1"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
-      <c r="D837" s="35"/>
+      <c r="D837" s="37"/>
       <c r="E837" s="3"/>
       <c r="F837" s="3"/>
       <c r="G837" s="3"/>
@@ -24682,7 +24708,7 @@
       <c r="A838" s="1"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
-      <c r="D838" s="35"/>
+      <c r="D838" s="37"/>
       <c r="E838" s="3"/>
       <c r="F838" s="3"/>
       <c r="G838" s="3"/>
@@ -24710,7 +24736,7 @@
       <c r="A839" s="1"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
-      <c r="D839" s="35"/>
+      <c r="D839" s="37"/>
       <c r="E839" s="3"/>
       <c r="F839" s="3"/>
       <c r="G839" s="3"/>
@@ -24738,7 +24764,7 @@
       <c r="A840" s="1"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
-      <c r="D840" s="35"/>
+      <c r="D840" s="37"/>
       <c r="E840" s="3"/>
       <c r="F840" s="3"/>
       <c r="G840" s="3"/>
@@ -24766,7 +24792,7 @@
       <c r="A841" s="1"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
-      <c r="D841" s="35"/>
+      <c r="D841" s="37"/>
       <c r="E841" s="3"/>
       <c r="F841" s="3"/>
       <c r="G841" s="3"/>
@@ -24794,7 +24820,7 @@
       <c r="A842" s="1"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
-      <c r="D842" s="35"/>
+      <c r="D842" s="37"/>
       <c r="E842" s="3"/>
       <c r="F842" s="3"/>
       <c r="G842" s="3"/>
@@ -24822,7 +24848,7 @@
       <c r="A843" s="1"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
-      <c r="D843" s="35"/>
+      <c r="D843" s="37"/>
       <c r="E843" s="3"/>
       <c r="F843" s="3"/>
       <c r="G843" s="3"/>
@@ -24850,7 +24876,7 @@
       <c r="A844" s="1"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
-      <c r="D844" s="35"/>
+      <c r="D844" s="37"/>
       <c r="E844" s="3"/>
       <c r="F844" s="3"/>
       <c r="G844" s="3"/>
@@ -24878,7 +24904,7 @@
       <c r="A845" s="1"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
-      <c r="D845" s="35"/>
+      <c r="D845" s="37"/>
       <c r="E845" s="3"/>
       <c r="F845" s="3"/>
       <c r="G845" s="3"/>
@@ -24906,7 +24932,7 @@
       <c r="A846" s="1"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
-      <c r="D846" s="35"/>
+      <c r="D846" s="37"/>
       <c r="E846" s="3"/>
       <c r="F846" s="3"/>
       <c r="G846" s="3"/>
@@ -24934,7 +24960,7 @@
       <c r="A847" s="1"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
-      <c r="D847" s="35"/>
+      <c r="D847" s="37"/>
       <c r="E847" s="3"/>
       <c r="F847" s="3"/>
       <c r="G847" s="3"/>
@@ -24962,7 +24988,7 @@
       <c r="A848" s="1"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
-      <c r="D848" s="35"/>
+      <c r="D848" s="37"/>
       <c r="E848" s="3"/>
       <c r="F848" s="3"/>
       <c r="G848" s="3"/>
@@ -24990,7 +25016,7 @@
       <c r="A849" s="1"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
-      <c r="D849" s="35"/>
+      <c r="D849" s="37"/>
       <c r="E849" s="3"/>
       <c r="F849" s="3"/>
       <c r="G849" s="3"/>
@@ -25018,7 +25044,7 @@
       <c r="A850" s="1"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
-      <c r="D850" s="35"/>
+      <c r="D850" s="37"/>
       <c r="E850" s="3"/>
       <c r="F850" s="3"/>
       <c r="G850" s="3"/>
@@ -25046,7 +25072,7 @@
       <c r="A851" s="1"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
-      <c r="D851" s="35"/>
+      <c r="D851" s="37"/>
       <c r="E851" s="3"/>
       <c r="F851" s="3"/>
       <c r="G851" s="3"/>
@@ -25074,7 +25100,7 @@
       <c r="A852" s="1"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
-      <c r="D852" s="35"/>
+      <c r="D852" s="37"/>
       <c r="E852" s="3"/>
       <c r="F852" s="3"/>
       <c r="G852" s="3"/>
@@ -25102,7 +25128,7 @@
       <c r="A853" s="1"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
-      <c r="D853" s="35"/>
+      <c r="D853" s="37"/>
       <c r="E853" s="3"/>
       <c r="F853" s="3"/>
       <c r="G853" s="3"/>
@@ -25130,7 +25156,7 @@
       <c r="A854" s="1"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
-      <c r="D854" s="35"/>
+      <c r="D854" s="37"/>
       <c r="E854" s="3"/>
       <c r="F854" s="3"/>
       <c r="G854" s="3"/>
@@ -25158,7 +25184,7 @@
       <c r="A855" s="1"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
-      <c r="D855" s="35"/>
+      <c r="D855" s="37"/>
       <c r="E855" s="3"/>
       <c r="F855" s="3"/>
       <c r="G855" s="3"/>
@@ -25186,7 +25212,7 @@
       <c r="A856" s="1"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
-      <c r="D856" s="35"/>
+      <c r="D856" s="37"/>
       <c r="E856" s="3"/>
       <c r="F856" s="3"/>
       <c r="G856" s="3"/>
@@ -25214,7 +25240,7 @@
       <c r="A857" s="1"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
-      <c r="D857" s="35"/>
+      <c r="D857" s="37"/>
       <c r="E857" s="3"/>
       <c r="F857" s="3"/>
       <c r="G857" s="3"/>
@@ -25242,7 +25268,7 @@
       <c r="A858" s="1"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
-      <c r="D858" s="35"/>
+      <c r="D858" s="37"/>
       <c r="E858" s="3"/>
       <c r="F858" s="3"/>
       <c r="G858" s="3"/>
@@ -25270,7 +25296,7 @@
       <c r="A859" s="1"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
-      <c r="D859" s="35"/>
+      <c r="D859" s="37"/>
       <c r="E859" s="3"/>
       <c r="F859" s="3"/>
       <c r="G859" s="3"/>
@@ -25298,7 +25324,7 @@
       <c r="A860" s="1"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
-      <c r="D860" s="35"/>
+      <c r="D860" s="37"/>
       <c r="E860" s="3"/>
       <c r="F860" s="3"/>
       <c r="G860" s="3"/>
@@ -25326,7 +25352,7 @@
       <c r="A861" s="1"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
-      <c r="D861" s="35"/>
+      <c r="D861" s="37"/>
       <c r="E861" s="3"/>
       <c r="F861" s="3"/>
       <c r="G861" s="3"/>
@@ -25354,7 +25380,7 @@
       <c r="A862" s="1"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
-      <c r="D862" s="35"/>
+      <c r="D862" s="37"/>
       <c r="E862" s="3"/>
       <c r="F862" s="3"/>
       <c r="G862" s="3"/>
@@ -25382,7 +25408,7 @@
       <c r="A863" s="1"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
-      <c r="D863" s="35"/>
+      <c r="D863" s="37"/>
       <c r="E863" s="3"/>
       <c r="F863" s="3"/>
       <c r="G863" s="3"/>
@@ -25410,7 +25436,7 @@
       <c r="A864" s="1"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
-      <c r="D864" s="35"/>
+      <c r="D864" s="37"/>
       <c r="E864" s="3"/>
       <c r="F864" s="3"/>
       <c r="G864" s="3"/>
@@ -25438,7 +25464,7 @@
       <c r="A865" s="1"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
-      <c r="D865" s="35"/>
+      <c r="D865" s="37"/>
       <c r="E865" s="3"/>
       <c r="F865" s="3"/>
       <c r="G865" s="3"/>
@@ -25466,7 +25492,7 @@
       <c r="A866" s="1"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
-      <c r="D866" s="35"/>
+      <c r="D866" s="37"/>
       <c r="E866" s="3"/>
       <c r="F866" s="3"/>
       <c r="G866" s="3"/>
@@ -25494,7 +25520,7 @@
       <c r="A867" s="1"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
-      <c r="D867" s="35"/>
+      <c r="D867" s="37"/>
       <c r="E867" s="3"/>
       <c r="F867" s="3"/>
       <c r="G867" s="3"/>
@@ -25522,7 +25548,7 @@
       <c r="A868" s="1"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
-      <c r="D868" s="35"/>
+      <c r="D868" s="37"/>
       <c r="E868" s="3"/>
       <c r="F868" s="3"/>
       <c r="G868" s="3"/>
@@ -25550,7 +25576,7 @@
       <c r="A869" s="1"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
-      <c r="D869" s="35"/>
+      <c r="D869" s="37"/>
       <c r="E869" s="3"/>
       <c r="F869" s="3"/>
       <c r="G869" s="3"/>
@@ -25578,7 +25604,7 @@
       <c r="A870" s="1"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
-      <c r="D870" s="35"/>
+      <c r="D870" s="37"/>
       <c r="E870" s="3"/>
       <c r="F870" s="3"/>
       <c r="G870" s="3"/>
@@ -25606,7 +25632,7 @@
       <c r="A871" s="1"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
-      <c r="D871" s="35"/>
+      <c r="D871" s="37"/>
       <c r="E871" s="3"/>
       <c r="F871" s="3"/>
       <c r="G871" s="3"/>
@@ -25634,7 +25660,7 @@
       <c r="A872" s="1"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
-      <c r="D872" s="35"/>
+      <c r="D872" s="37"/>
       <c r="E872" s="3"/>
       <c r="F872" s="3"/>
       <c r="G872" s="3"/>
@@ -25662,7 +25688,7 @@
       <c r="A873" s="1"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
-      <c r="D873" s="35"/>
+      <c r="D873" s="37"/>
       <c r="E873" s="3"/>
       <c r="F873" s="3"/>
       <c r="G873" s="3"/>
@@ -25690,7 +25716,7 @@
       <c r="A874" s="1"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
-      <c r="D874" s="35"/>
+      <c r="D874" s="37"/>
       <c r="E874" s="3"/>
       <c r="F874" s="3"/>
       <c r="G874" s="3"/>
@@ -25718,7 +25744,7 @@
       <c r="A875" s="1"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
-      <c r="D875" s="35"/>
+      <c r="D875" s="37"/>
       <c r="E875" s="3"/>
       <c r="F875" s="3"/>
       <c r="G875" s="3"/>
@@ -25746,7 +25772,7 @@
       <c r="A876" s="1"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
-      <c r="D876" s="35"/>
+      <c r="D876" s="37"/>
       <c r="E876" s="3"/>
       <c r="F876" s="3"/>
       <c r="G876" s="3"/>
@@ -25774,7 +25800,7 @@
       <c r="A877" s="1"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
-      <c r="D877" s="35"/>
+      <c r="D877" s="37"/>
       <c r="E877" s="3"/>
       <c r="F877" s="3"/>
       <c r="G877" s="3"/>
@@ -25802,7 +25828,7 @@
       <c r="A878" s="1"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
-      <c r="D878" s="35"/>
+      <c r="D878" s="37"/>
       <c r="E878" s="3"/>
       <c r="F878" s="3"/>
       <c r="G878" s="3"/>
@@ -25830,7 +25856,7 @@
       <c r="A879" s="1"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
-      <c r="D879" s="35"/>
+      <c r="D879" s="37"/>
       <c r="E879" s="3"/>
       <c r="F879" s="3"/>
       <c r="G879" s="3"/>
@@ -25858,7 +25884,7 @@
       <c r="A880" s="1"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
-      <c r="D880" s="35"/>
+      <c r="D880" s="37"/>
       <c r="E880" s="3"/>
       <c r="F880" s="3"/>
       <c r="G880" s="3"/>
@@ -25886,7 +25912,7 @@
       <c r="A881" s="1"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
-      <c r="D881" s="35"/>
+      <c r="D881" s="37"/>
       <c r="E881" s="3"/>
       <c r="F881" s="3"/>
       <c r="G881" s="3"/>
@@ -25914,7 +25940,7 @@
       <c r="A882" s="1"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
-      <c r="D882" s="35"/>
+      <c r="D882" s="37"/>
       <c r="E882" s="3"/>
       <c r="F882" s="3"/>
       <c r="G882" s="3"/>
@@ -25942,7 +25968,7 @@
       <c r="A883" s="1"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
-      <c r="D883" s="35"/>
+      <c r="D883" s="37"/>
       <c r="E883" s="3"/>
       <c r="F883" s="3"/>
       <c r="G883" s="3"/>
@@ -25970,7 +25996,7 @@
       <c r="A884" s="1"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
-      <c r="D884" s="35"/>
+      <c r="D884" s="37"/>
       <c r="E884" s="3"/>
       <c r="F884" s="3"/>
       <c r="G884" s="3"/>
@@ -25998,7 +26024,7 @@
       <c r="A885" s="1"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
-      <c r="D885" s="35"/>
+      <c r="D885" s="37"/>
       <c r="E885" s="3"/>
       <c r="F885" s="3"/>
       <c r="G885" s="3"/>
@@ -26026,7 +26052,7 @@
       <c r="A886" s="1"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
-      <c r="D886" s="35"/>
+      <c r="D886" s="37"/>
       <c r="E886" s="3"/>
       <c r="F886" s="3"/>
       <c r="G886" s="3"/>
@@ -26054,7 +26080,7 @@
       <c r="A887" s="1"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
-      <c r="D887" s="35"/>
+      <c r="D887" s="37"/>
       <c r="E887" s="3"/>
       <c r="F887" s="3"/>
       <c r="G887" s="3"/>
@@ -26082,7 +26108,7 @@
       <c r="A888" s="1"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
-      <c r="D888" s="35"/>
+      <c r="D888" s="37"/>
       <c r="E888" s="3"/>
       <c r="F888" s="3"/>
       <c r="G888" s="3"/>
@@ -26110,7 +26136,7 @@
       <c r="A889" s="1"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
-      <c r="D889" s="35"/>
+      <c r="D889" s="37"/>
       <c r="E889" s="3"/>
       <c r="F889" s="3"/>
       <c r="G889" s="3"/>
@@ -26138,7 +26164,7 @@
       <c r="A890" s="1"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
-      <c r="D890" s="35"/>
+      <c r="D890" s="37"/>
       <c r="E890" s="3"/>
       <c r="F890" s="3"/>
       <c r="G890" s="3"/>
@@ -26166,7 +26192,7 @@
       <c r="A891" s="1"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
-      <c r="D891" s="35"/>
+      <c r="D891" s="37"/>
       <c r="E891" s="3"/>
       <c r="F891" s="3"/>
       <c r="G891" s="3"/>
@@ -26194,7 +26220,7 @@
       <c r="A892" s="1"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
-      <c r="D892" s="35"/>
+      <c r="D892" s="37"/>
       <c r="E892" s="3"/>
       <c r="F892" s="3"/>
       <c r="G892" s="3"/>
@@ -26222,7 +26248,7 @@
       <c r="A893" s="1"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
-      <c r="D893" s="35"/>
+      <c r="D893" s="37"/>
       <c r="E893" s="3"/>
       <c r="F893" s="3"/>
       <c r="G893" s="3"/>
@@ -26250,7 +26276,7 @@
       <c r="A894" s="1"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
-      <c r="D894" s="35"/>
+      <c r="D894" s="37"/>
       <c r="E894" s="3"/>
       <c r="F894" s="3"/>
       <c r="G894" s="3"/>
@@ -26278,7 +26304,7 @@
       <c r="A895" s="1"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
-      <c r="D895" s="35"/>
+      <c r="D895" s="37"/>
       <c r="E895" s="3"/>
       <c r="F895" s="3"/>
       <c r="G895" s="3"/>
@@ -26306,7 +26332,7 @@
       <c r="A896" s="1"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
-      <c r="D896" s="35"/>
+      <c r="D896" s="37"/>
       <c r="E896" s="3"/>
       <c r="F896" s="3"/>
       <c r="G896" s="3"/>
@@ -26334,7 +26360,7 @@
       <c r="A897" s="1"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
-      <c r="D897" s="35"/>
+      <c r="D897" s="37"/>
       <c r="E897" s="3"/>
       <c r="F897" s="3"/>
       <c r="G897" s="3"/>
@@ -26362,7 +26388,7 @@
       <c r="A898" s="1"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
-      <c r="D898" s="35"/>
+      <c r="D898" s="37"/>
       <c r="E898" s="3"/>
       <c r="F898" s="3"/>
       <c r="G898" s="3"/>
@@ -26390,7 +26416,7 @@
       <c r="A899" s="1"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
-      <c r="D899" s="35"/>
+      <c r="D899" s="37"/>
       <c r="E899" s="3"/>
       <c r="F899" s="3"/>
       <c r="G899" s="3"/>
@@ -26418,7 +26444,7 @@
       <c r="A900" s="1"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
-      <c r="D900" s="35"/>
+      <c r="D900" s="37"/>
       <c r="E900" s="3"/>
       <c r="F900" s="3"/>
       <c r="G900" s="3"/>
@@ -26446,7 +26472,7 @@
       <c r="A901" s="1"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
-      <c r="D901" s="35"/>
+      <c r="D901" s="37"/>
       <c r="E901" s="3"/>
       <c r="F901" s="3"/>
       <c r="G901" s="3"/>
@@ -26474,7 +26500,7 @@
       <c r="A902" s="1"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
-      <c r="D902" s="35"/>
+      <c r="D902" s="37"/>
       <c r="E902" s="3"/>
       <c r="F902" s="3"/>
       <c r="G902" s="3"/>
@@ -26502,7 +26528,7 @@
       <c r="A903" s="1"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
-      <c r="D903" s="35"/>
+      <c r="D903" s="37"/>
       <c r="E903" s="3"/>
       <c r="F903" s="3"/>
       <c r="G903" s="3"/>
@@ -26530,7 +26556,7 @@
       <c r="A904" s="1"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
-      <c r="D904" s="35"/>
+      <c r="D904" s="37"/>
       <c r="E904" s="3"/>
       <c r="F904" s="3"/>
       <c r="G904" s="3"/>
@@ -26558,7 +26584,7 @@
       <c r="A905" s="1"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
-      <c r="D905" s="35"/>
+      <c r="D905" s="37"/>
       <c r="E905" s="3"/>
       <c r="F905" s="3"/>
       <c r="G905" s="3"/>
@@ -26586,7 +26612,7 @@
       <c r="A906" s="1"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
-      <c r="D906" s="35"/>
+      <c r="D906" s="37"/>
       <c r="E906" s="3"/>
       <c r="F906" s="3"/>
       <c r="G906" s="3"/>
@@ -26614,7 +26640,7 @@
       <c r="A907" s="1"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
-      <c r="D907" s="35"/>
+      <c r="D907" s="37"/>
       <c r="E907" s="3"/>
       <c r="F907" s="3"/>
       <c r="G907" s="3"/>
@@ -26642,7 +26668,7 @@
       <c r="A908" s="1"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
-      <c r="D908" s="35"/>
+      <c r="D908" s="37"/>
       <c r="E908" s="3"/>
       <c r="F908" s="3"/>
       <c r="G908" s="3"/>
@@ -26670,7 +26696,7 @@
       <c r="A909" s="1"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
-      <c r="D909" s="35"/>
+      <c r="D909" s="37"/>
       <c r="E909" s="3"/>
       <c r="F909" s="3"/>
       <c r="G909" s="3"/>
@@ -26698,7 +26724,7 @@
       <c r="A910" s="1"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
-      <c r="D910" s="35"/>
+      <c r="D910" s="37"/>
       <c r="E910" s="3"/>
       <c r="F910" s="3"/>
       <c r="G910" s="3"/>
@@ -26726,7 +26752,7 @@
       <c r="A911" s="1"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
-      <c r="D911" s="35"/>
+      <c r="D911" s="37"/>
       <c r="E911" s="3"/>
       <c r="F911" s="3"/>
       <c r="G911" s="3"/>
@@ -26754,7 +26780,7 @@
       <c r="A912" s="1"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
-      <c r="D912" s="35"/>
+      <c r="D912" s="37"/>
       <c r="E912" s="3"/>
       <c r="F912" s="3"/>
       <c r="G912" s="3"/>
@@ -26782,7 +26808,7 @@
       <c r="A913" s="1"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
-      <c r="D913" s="35"/>
+      <c r="D913" s="37"/>
       <c r="E913" s="3"/>
       <c r="F913" s="3"/>
       <c r="G913" s="3"/>
@@ -26810,7 +26836,7 @@
       <c r="A914" s="1"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
-      <c r="D914" s="35"/>
+      <c r="D914" s="37"/>
       <c r="E914" s="3"/>
       <c r="F914" s="3"/>
       <c r="G914" s="3"/>
@@ -26838,7 +26864,7 @@
       <c r="A915" s="1"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
-      <c r="D915" s="35"/>
+      <c r="D915" s="37"/>
       <c r="E915" s="3"/>
       <c r="F915" s="3"/>
       <c r="G915" s="3"/>
@@ -26866,7 +26892,7 @@
       <c r="A916" s="1"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
-      <c r="D916" s="35"/>
+      <c r="D916" s="37"/>
       <c r="E916" s="3"/>
       <c r="F916" s="3"/>
       <c r="G916" s="3"/>
@@ -26894,7 +26920,7 @@
       <c r="A917" s="1"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
-      <c r="D917" s="35"/>
+      <c r="D917" s="37"/>
       <c r="E917" s="3"/>
       <c r="F917" s="3"/>
       <c r="G917" s="3"/>
@@ -26922,7 +26948,7 @@
       <c r="A918" s="1"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
-      <c r="D918" s="35"/>
+      <c r="D918" s="37"/>
       <c r="E918" s="3"/>
       <c r="F918" s="3"/>
       <c r="G918" s="3"/>
@@ -26950,7 +26976,7 @@
       <c r="A919" s="1"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
-      <c r="D919" s="35"/>
+      <c r="D919" s="37"/>
       <c r="E919" s="3"/>
       <c r="F919" s="3"/>
       <c r="G919" s="3"/>
@@ -26978,7 +27004,7 @@
       <c r="A920" s="1"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
-      <c r="D920" s="35"/>
+      <c r="D920" s="37"/>
       <c r="E920" s="3"/>
       <c r="F920" s="3"/>
       <c r="G920" s="3"/>
@@ -27006,7 +27032,7 @@
       <c r="A921" s="1"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
-      <c r="D921" s="35"/>
+      <c r="D921" s="37"/>
       <c r="E921" s="3"/>
       <c r="F921" s="3"/>
       <c r="G921" s="3"/>
@@ -27034,7 +27060,7 @@
       <c r="A922" s="1"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
-      <c r="D922" s="35"/>
+      <c r="D922" s="37"/>
       <c r="E922" s="3"/>
       <c r="F922" s="3"/>
       <c r="G922" s="3"/>
@@ -27062,7 +27088,7 @@
       <c r="A923" s="1"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
-      <c r="D923" s="35"/>
+      <c r="D923" s="37"/>
       <c r="E923" s="3"/>
       <c r="F923" s="3"/>
       <c r="G923" s="3"/>
@@ -27090,7 +27116,7 @@
       <c r="A924" s="1"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
-      <c r="D924" s="35"/>
+      <c r="D924" s="37"/>
       <c r="E924" s="3"/>
       <c r="F924" s="3"/>
       <c r="G924" s="3"/>
@@ -27118,7 +27144,7 @@
       <c r="A925" s="1"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
-      <c r="D925" s="35"/>
+      <c r="D925" s="37"/>
       <c r="E925" s="3"/>
       <c r="F925" s="3"/>
       <c r="G925" s="3"/>
@@ -27146,7 +27172,7 @@
       <c r="A926" s="1"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
-      <c r="D926" s="35"/>
+      <c r="D926" s="37"/>
       <c r="E926" s="3"/>
       <c r="F926" s="3"/>
       <c r="G926" s="3"/>
@@ -27174,7 +27200,7 @@
       <c r="A927" s="1"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
-      <c r="D927" s="35"/>
+      <c r="D927" s="37"/>
       <c r="E927" s="3"/>
       <c r="F927" s="3"/>
       <c r="G927" s="3"/>
@@ -27202,7 +27228,7 @@
       <c r="A928" s="1"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
-      <c r="D928" s="35"/>
+      <c r="D928" s="37"/>
       <c r="E928" s="3"/>
       <c r="F928" s="3"/>
       <c r="G928" s="3"/>
@@ -27230,7 +27256,7 @@
       <c r="A929" s="1"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
-      <c r="D929" s="35"/>
+      <c r="D929" s="37"/>
       <c r="E929" s="3"/>
       <c r="F929" s="3"/>
       <c r="G929" s="3"/>
@@ -27258,7 +27284,7 @@
       <c r="A930" s="1"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
-      <c r="D930" s="35"/>
+      <c r="D930" s="37"/>
       <c r="E930" s="3"/>
       <c r="F930" s="3"/>
       <c r="G930" s="3"/>
@@ -27286,7 +27312,7 @@
       <c r="A931" s="1"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
-      <c r="D931" s="35"/>
+      <c r="D931" s="37"/>
       <c r="E931" s="3"/>
       <c r="F931" s="3"/>
       <c r="G931" s="3"/>
@@ -27314,7 +27340,7 @@
       <c r="A932" s="1"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
-      <c r="D932" s="35"/>
+      <c r="D932" s="37"/>
       <c r="E932" s="3"/>
       <c r="F932" s="3"/>
       <c r="G932" s="3"/>
@@ -27342,7 +27368,7 @@
       <c r="A933" s="1"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
-      <c r="D933" s="35"/>
+      <c r="D933" s="37"/>
       <c r="E933" s="3"/>
       <c r="F933" s="3"/>
       <c r="G933" s="3"/>
@@ -27370,7 +27396,7 @@
       <c r="A934" s="1"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
-      <c r="D934" s="35"/>
+      <c r="D934" s="37"/>
       <c r="E934" s="3"/>
       <c r="F934" s="3"/>
       <c r="G934" s="3"/>
@@ -27398,7 +27424,7 @@
       <c r="A935" s="1"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
-      <c r="D935" s="35"/>
+      <c r="D935" s="37"/>
       <c r="E935" s="3"/>
       <c r="F935" s="3"/>
       <c r="G935" s="3"/>
@@ -27426,7 +27452,7 @@
       <c r="A936" s="1"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
-      <c r="D936" s="35"/>
+      <c r="D936" s="37"/>
       <c r="E936" s="3"/>
       <c r="F936" s="3"/>
       <c r="G936" s="3"/>
@@ -27454,7 +27480,7 @@
       <c r="A937" s="1"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
-      <c r="D937" s="35"/>
+      <c r="D937" s="37"/>
       <c r="E937" s="3"/>
       <c r="F937" s="3"/>
       <c r="G937" s="3"/>
@@ -27482,7 +27508,7 @@
       <c r="A938" s="1"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
-      <c r="D938" s="35"/>
+      <c r="D938" s="37"/>
       <c r="E938" s="3"/>
       <c r="F938" s="3"/>
       <c r="G938" s="3"/>
@@ -27510,7 +27536,7 @@
       <c r="A939" s="1"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
-      <c r="D939" s="35"/>
+      <c r="D939" s="37"/>
       <c r="E939" s="3"/>
       <c r="F939" s="3"/>
       <c r="G939" s="3"/>
@@ -27538,7 +27564,7 @@
       <c r="A940" s="1"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
-      <c r="D940" s="35"/>
+      <c r="D940" s="37"/>
       <c r="E940" s="3"/>
       <c r="F940" s="3"/>
       <c r="G940" s="3"/>
@@ -27566,7 +27592,7 @@
       <c r="A941" s="1"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
-      <c r="D941" s="35"/>
+      <c r="D941" s="37"/>
       <c r="E941" s="3"/>
       <c r="F941" s="3"/>
       <c r="G941" s="3"/>
@@ -27594,7 +27620,7 @@
       <c r="A942" s="1"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
-      <c r="D942" s="35"/>
+      <c r="D942" s="37"/>
       <c r="E942" s="3"/>
       <c r="F942" s="3"/>
       <c r="G942" s="3"/>
@@ -27622,7 +27648,7 @@
       <c r="A943" s="1"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
-      <c r="D943" s="35"/>
+      <c r="D943" s="37"/>
       <c r="E943" s="3"/>
       <c r="F943" s="3"/>
       <c r="G943" s="3"/>
@@ -27650,7 +27676,7 @@
       <c r="A944" s="1"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
-      <c r="D944" s="35"/>
+      <c r="D944" s="37"/>
       <c r="E944" s="3"/>
       <c r="F944" s="3"/>
       <c r="G944" s="3"/>
@@ -27678,7 +27704,7 @@
       <c r="A945" s="1"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
-      <c r="D945" s="35"/>
+      <c r="D945" s="37"/>
       <c r="E945" s="3"/>
       <c r="F945" s="3"/>
       <c r="G945" s="3"/>
@@ -27706,7 +27732,7 @@
       <c r="A946" s="1"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
-      <c r="D946" s="35"/>
+      <c r="D946" s="37"/>
       <c r="E946" s="3"/>
       <c r="F946" s="3"/>
       <c r="G946" s="3"/>
@@ -27734,7 +27760,7 @@
       <c r="A947" s="1"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
-      <c r="D947" s="35"/>
+      <c r="D947" s="37"/>
       <c r="E947" s="3"/>
       <c r="F947" s="3"/>
       <c r="G947" s="3"/>
@@ -27762,7 +27788,7 @@
       <c r="A948" s="1"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
-      <c r="D948" s="35"/>
+      <c r="D948" s="37"/>
       <c r="E948" s="3"/>
       <c r="F948" s="3"/>
       <c r="G948" s="3"/>
@@ -27790,7 +27816,7 @@
       <c r="A949" s="1"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
-      <c r="D949" s="35"/>
+      <c r="D949" s="37"/>
       <c r="E949" s="3"/>
       <c r="F949" s="3"/>
       <c r="G949" s="3"/>
@@ -27818,7 +27844,7 @@
       <c r="A950" s="1"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
-      <c r="D950" s="35"/>
+      <c r="D950" s="37"/>
       <c r="E950" s="3"/>
       <c r="F950" s="3"/>
       <c r="G950" s="3"/>
@@ -27846,7 +27872,7 @@
       <c r="A951" s="1"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
-      <c r="D951" s="35"/>
+      <c r="D951" s="37"/>
       <c r="E951" s="3"/>
       <c r="F951" s="3"/>
       <c r="G951" s="3"/>
@@ -27874,7 +27900,7 @@
       <c r="A952" s="1"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
-      <c r="D952" s="35"/>
+      <c r="D952" s="37"/>
       <c r="E952" s="3"/>
       <c r="F952" s="3"/>
       <c r="G952" s="3"/>
@@ -27902,7 +27928,7 @@
       <c r="A953" s="1"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
-      <c r="D953" s="35"/>
+      <c r="D953" s="37"/>
       <c r="E953" s="3"/>
       <c r="F953" s="3"/>
       <c r="G953" s="3"/>
@@ -27930,7 +27956,7 @@
       <c r="A954" s="1"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
-      <c r="D954" s="35"/>
+      <c r="D954" s="37"/>
       <c r="E954" s="3"/>
       <c r="F954" s="3"/>
       <c r="G954" s="3"/>
@@ -27958,7 +27984,7 @@
       <c r="A955" s="1"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
-      <c r="D955" s="35"/>
+      <c r="D955" s="37"/>
       <c r="E955" s="3"/>
       <c r="F955" s="3"/>
       <c r="G955" s="3"/>
@@ -27986,7 +28012,7 @@
       <c r="A956" s="1"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
-      <c r="D956" s="35"/>
+      <c r="D956" s="37"/>
       <c r="E956" s="3"/>
       <c r="F956" s="3"/>
       <c r="G956" s="3"/>
@@ -28014,7 +28040,7 @@
       <c r="A957" s="1"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
-      <c r="D957" s="35"/>
+      <c r="D957" s="37"/>
       <c r="E957" s="3"/>
       <c r="F957" s="3"/>
       <c r="G957" s="3"/>
@@ -28042,7 +28068,7 @@
       <c r="A958" s="1"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
-      <c r="D958" s="35"/>
+      <c r="D958" s="37"/>
       <c r="E958" s="3"/>
       <c r="F958" s="3"/>
       <c r="G958" s="3"/>
@@ -28070,7 +28096,7 @@
       <c r="A959" s="1"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
-      <c r="D959" s="35"/>
+      <c r="D959" s="37"/>
       <c r="E959" s="3"/>
       <c r="F959" s="3"/>
       <c r="G959" s="3"/>
@@ -28098,7 +28124,7 @@
       <c r="A960" s="1"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
-      <c r="D960" s="35"/>
+      <c r="D960" s="37"/>
       <c r="E960" s="3"/>
       <c r="F960" s="3"/>
       <c r="G960" s="3"/>
@@ -28126,7 +28152,7 @@
       <c r="A961" s="1"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
-      <c r="D961" s="35"/>
+      <c r="D961" s="37"/>
       <c r="E961" s="3"/>
       <c r="F961" s="3"/>
       <c r="G961" s="3"/>
@@ -28154,7 +28180,7 @@
       <c r="A962" s="1"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
-      <c r="D962" s="35"/>
+      <c r="D962" s="37"/>
       <c r="E962" s="3"/>
       <c r="F962" s="3"/>
       <c r="G962" s="3"/>
@@ -28182,7 +28208,7 @@
       <c r="A963" s="1"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
-      <c r="D963" s="35"/>
+      <c r="D963" s="37"/>
       <c r="E963" s="3"/>
       <c r="F963" s="3"/>
       <c r="G963" s="3"/>
@@ -28210,7 +28236,7 @@
       <c r="A964" s="1"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
-      <c r="D964" s="35"/>
+      <c r="D964" s="37"/>
       <c r="E964" s="3"/>
       <c r="F964" s="3"/>
       <c r="G964" s="3"/>
@@ -28238,7 +28264,7 @@
       <c r="A965" s="1"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
-      <c r="D965" s="35"/>
+      <c r="D965" s="37"/>
       <c r="E965" s="3"/>
       <c r="F965" s="3"/>
       <c r="G965" s="3"/>
@@ -28266,7 +28292,7 @@
       <c r="A966" s="1"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
-      <c r="D966" s="35"/>
+      <c r="D966" s="37"/>
       <c r="E966" s="3"/>
       <c r="F966" s="3"/>
       <c r="G966" s="3"/>
@@ -28294,7 +28320,7 @@
       <c r="A967" s="1"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
-      <c r="D967" s="35"/>
+      <c r="D967" s="37"/>
       <c r="E967" s="3"/>
       <c r="F967" s="3"/>
       <c r="G967" s="3"/>
@@ -28322,7 +28348,7 @@
       <c r="A968" s="1"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
-      <c r="D968" s="35"/>
+      <c r="D968" s="37"/>
       <c r="E968" s="3"/>
       <c r="F968" s="3"/>
       <c r="G968" s="3"/>
@@ -28350,7 +28376,7 @@
       <c r="A969" s="1"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
-      <c r="D969" s="35"/>
+      <c r="D969" s="37"/>
       <c r="E969" s="3"/>
       <c r="F969" s="3"/>
       <c r="G969" s="3"/>
@@ -28378,7 +28404,7 @@
       <c r="A970" s="1"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
-      <c r="D970" s="35"/>
+      <c r="D970" s="37"/>
       <c r="E970" s="3"/>
       <c r="F970" s="3"/>
       <c r="G970" s="3"/>
@@ -28406,7 +28432,7 @@
       <c r="A971" s="1"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
-      <c r="D971" s="35"/>
+      <c r="D971" s="37"/>
       <c r="E971" s="3"/>
       <c r="F971" s="3"/>
       <c r="G971" s="3"/>
@@ -28434,7 +28460,7 @@
       <c r="A972" s="1"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
-      <c r="D972" s="35"/>
+      <c r="D972" s="37"/>
       <c r="E972" s="3"/>
       <c r="F972" s="3"/>
       <c r="G972" s="3"/>
@@ -28462,7 +28488,7 @@
       <c r="A973" s="1"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
-      <c r="D973" s="35"/>
+      <c r="D973" s="37"/>
       <c r="E973" s="3"/>
       <c r="F973" s="3"/>
       <c r="G973" s="3"/>
@@ -28490,7 +28516,7 @@
       <c r="A974" s="1"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
-      <c r="D974" s="35"/>
+      <c r="D974" s="37"/>
       <c r="E974" s="3"/>
       <c r="F974" s="3"/>
       <c r="G974" s="3"/>
@@ -28518,7 +28544,7 @@
       <c r="A975" s="1"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
-      <c r="D975" s="35"/>
+      <c r="D975" s="37"/>
       <c r="E975" s="3"/>
       <c r="F975" s="3"/>
       <c r="G975" s="3"/>
@@ -28546,7 +28572,7 @@
       <c r="A976" s="1"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
-      <c r="D976" s="35"/>
+      <c r="D976" s="37"/>
       <c r="E976" s="3"/>
       <c r="F976" s="3"/>
       <c r="G976" s="3"/>
@@ -28574,7 +28600,7 @@
       <c r="A977" s="1"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
-      <c r="D977" s="35"/>
+      <c r="D977" s="37"/>
       <c r="E977" s="3"/>
       <c r="F977" s="3"/>
       <c r="G977" s="3"/>
@@ -28602,7 +28628,7 @@
       <c r="A978" s="1"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
-      <c r="D978" s="35"/>
+      <c r="D978" s="37"/>
       <c r="E978" s="3"/>
       <c r="F978" s="3"/>
       <c r="G978" s="3"/>
@@ -28630,7 +28656,7 @@
       <c r="A979" s="1"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
-      <c r="D979" s="35"/>
+      <c r="D979" s="37"/>
       <c r="E979" s="3"/>
       <c r="F979" s="3"/>
       <c r="G979" s="3"/>
@@ -28658,7 +28684,7 @@
       <c r="A980" s="1"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
-      <c r="D980" s="35"/>
+      <c r="D980" s="37"/>
       <c r="E980" s="3"/>
       <c r="F980" s="3"/>
       <c r="G980" s="3"/>
@@ -28686,7 +28712,7 @@
       <c r="A981" s="1"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
-      <c r="D981" s="35"/>
+      <c r="D981" s="37"/>
       <c r="E981" s="3"/>
       <c r="F981" s="3"/>
       <c r="G981" s="3"/>
@@ -28714,7 +28740,7 @@
       <c r="A982" s="1"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
-      <c r="D982" s="35"/>
+      <c r="D982" s="37"/>
       <c r="E982" s="3"/>
       <c r="F982" s="3"/>
       <c r="G982" s="3"/>
@@ -28742,7 +28768,7 @@
       <c r="A983" s="1"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
-      <c r="D983" s="35"/>
+      <c r="D983" s="37"/>
       <c r="E983" s="3"/>
       <c r="F983" s="3"/>
       <c r="G983" s="3"/>
@@ -28770,7 +28796,7 @@
       <c r="A984" s="1"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
-      <c r="D984" s="35"/>
+      <c r="D984" s="37"/>
       <c r="E984" s="3"/>
       <c r="F984" s="3"/>
       <c r="G984" s="3"/>
@@ -28798,7 +28824,7 @@
       <c r="A985" s="1"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
-      <c r="D985" s="35"/>
+      <c r="D985" s="37"/>
       <c r="E985" s="3"/>
       <c r="F985" s="3"/>
       <c r="G985" s="3"/>
@@ -28826,7 +28852,7 @@
       <c r="A986" s="1"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
-      <c r="D986" s="35"/>
+      <c r="D986" s="37"/>
       <c r="E986" s="3"/>
       <c r="F986" s="3"/>
       <c r="G986" s="3"/>
@@ -28854,7 +28880,7 @@
       <c r="A987" s="1"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
-      <c r="D987" s="35"/>
+      <c r="D987" s="37"/>
       <c r="E987" s="3"/>
       <c r="F987" s="3"/>
       <c r="G987" s="3"/>
@@ -28882,7 +28908,7 @@
       <c r="A988" s="1"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
-      <c r="D988" s="35"/>
+      <c r="D988" s="37"/>
       <c r="E988" s="3"/>
       <c r="F988" s="3"/>
       <c r="G988" s="3"/>
@@ -28910,7 +28936,7 @@
       <c r="A989" s="1"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
-      <c r="D989" s="35"/>
+      <c r="D989" s="37"/>
       <c r="E989" s="3"/>
       <c r="F989" s="3"/>
       <c r="G989" s="3"/>
@@ -28938,7 +28964,7 @@
       <c r="A990" s="1"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
-      <c r="D990" s="35"/>
+      <c r="D990" s="37"/>
       <c r="E990" s="3"/>
       <c r="F990" s="3"/>
       <c r="G990" s="3"/>
@@ -28966,7 +28992,7 @@
       <c r="A991" s="1"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
-      <c r="D991" s="35"/>
+      <c r="D991" s="37"/>
       <c r="E991" s="3"/>
       <c r="F991" s="3"/>
       <c r="G991" s="3"/>
@@ -28994,7 +29020,7 @@
       <c r="A992" s="1"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
-      <c r="D992" s="35"/>
+      <c r="D992" s="37"/>
       <c r="E992" s="3"/>
       <c r="F992" s="3"/>
       <c r="G992" s="3"/>
@@ -29022,7 +29048,7 @@
       <c r="A993" s="1"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
-      <c r="D993" s="35"/>
+      <c r="D993" s="37"/>
       <c r="E993" s="3"/>
       <c r="F993" s="3"/>
       <c r="G993" s="3"/>
@@ -29050,7 +29076,7 @@
       <c r="A994" s="1"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
-      <c r="D994" s="35"/>
+      <c r="D994" s="37"/>
       <c r="E994" s="3"/>
       <c r="F994" s="3"/>
       <c r="G994" s="3"/>
@@ -29078,7 +29104,7 @@
       <c r="A995" s="1"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
-      <c r="D995" s="35"/>
+      <c r="D995" s="37"/>
       <c r="E995" s="3"/>
       <c r="F995" s="3"/>
       <c r="G995" s="3"/>
@@ -29106,7 +29132,7 @@
       <c r="A996" s="1"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
-      <c r="D996" s="35"/>
+      <c r="D996" s="37"/>
       <c r="E996" s="3"/>
       <c r="F996" s="3"/>
       <c r="G996" s="3"/>
@@ -29134,7 +29160,7 @@
       <c r="A997" s="1"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
-      <c r="D997" s="35"/>
+      <c r="D997" s="37"/>
       <c r="E997" s="3"/>
       <c r="F997" s="3"/>
       <c r="G997" s="3"/>
@@ -29162,7 +29188,7 @@
       <c r="A998" s="1"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
-      <c r="D998" s="35"/>
+      <c r="D998" s="37"/>
       <c r="E998" s="3"/>
       <c r="F998" s="3"/>
       <c r="G998" s="3"/>
@@ -29190,7 +29216,7 @@
       <c r="A999" s="1"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
-      <c r="D999" s="35"/>
+      <c r="D999" s="37"/>
       <c r="E999" s="3"/>
       <c r="F999" s="3"/>
       <c r="G999" s="3"/>
@@ -29218,7 +29244,7 @@
       <c r="A1000" s="1"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>
-      <c r="D1000" s="35"/>
+      <c r="D1000" s="37"/>
       <c r="E1000" s="3"/>
       <c r="F1000" s="3"/>
       <c r="G1000" s="3"/>
@@ -29261,10 +29287,26 @@
     <hyperlink r:id="rId2" ref="B9"/>
     <hyperlink r:id="rId3" ref="D13"/>
     <hyperlink r:id="rId4" ref="D14"/>
+    <hyperlink r:id="rId5" ref="D15"/>
+    <hyperlink r:id="rId6" ref="D16"/>
+    <hyperlink r:id="rId7" ref="D17"/>
+    <hyperlink r:id="rId8" ref="D18"/>
+    <hyperlink r:id="rId9" ref="D19"/>
+    <hyperlink r:id="rId10" ref="D20"/>
+    <hyperlink r:id="rId11" ref="D21"/>
+    <hyperlink r:id="rId12" ref="D22"/>
+    <hyperlink r:id="rId13" ref="D24"/>
+    <hyperlink r:id="rId14" ref="D25"/>
+    <hyperlink r:id="rId15" ref="D26"/>
+    <hyperlink r:id="rId16" ref="D27"/>
+    <hyperlink r:id="rId17" ref="D28"/>
+    <hyperlink r:id="rId18" ref="D29"/>
+    <hyperlink r:id="rId19" ref="D30"/>
+    <hyperlink r:id="rId20" ref="D31"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>
--- a/desarrollo/PEP/gestión/PEP-CP.xlsx
+++ b/desarrollo/PEP/gestión/PEP-CP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="112">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -104,7 +104,7 @@
     <t>Flores / Programador full stack</t>
   </si>
   <si>
-    <t>Elaboracion de Historia de Usuario -HU01</t>
+    <t>Elaboracion de Historia de Usuario - HU01</t>
   </si>
   <si>
     <t>Historia de Usuario 01</t>
@@ -113,7 +113,7 @@
     <t>PEP-HU01.docx</t>
   </si>
   <si>
-    <t>Elaboracion de Historia de Usuario -HU02</t>
+    <t>Elaboracion de Historia de Usuario - HU02</t>
   </si>
   <si>
     <t>Historia de Usuario 02</t>
@@ -122,7 +122,7 @@
     <t>PEP-HU02.docx</t>
   </si>
   <si>
-    <t>Elaboracion de Historia de Usuario -HU03</t>
+    <t>Elaboracion de Historia de Usuario - HU03</t>
   </si>
   <si>
     <t>Historia de Usuario 03</t>
@@ -134,7 +134,7 @@
     <t>Calle / Programador Backend</t>
   </si>
   <si>
-    <t>Elaboracion de Historia de Usuario -HU04</t>
+    <t>Elaboracion de Historia de Usuario - HU04</t>
   </si>
   <si>
     <t>Historia de Usuario 04</t>
@@ -146,7 +146,7 @@
     <t>Luján / Diseñador UX</t>
   </si>
   <si>
-    <t>Elaboracion de Historia de Usuario -HU05</t>
+    <t>Elaboracion de Historia de Usuario - HU05</t>
   </si>
   <si>
     <t>Historia de Usuario 05</t>
@@ -158,7 +158,7 @@
     <t>Calongos / Programador frontend - Analista</t>
   </si>
   <si>
-    <t>Elaboracion de Historia de Usuario -HU06</t>
+    <t>Elaboracion de Historia de Usuario - HU06</t>
   </si>
   <si>
     <t>Historia de Usuario 06</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Diseño de  Arquitectura del Sistema</t>
+    <t>Diseño de Componentes y Deployment</t>
   </si>
   <si>
     <t>Diseño de Diagrama de Componentes y Deployment</t>
@@ -284,6 +284,15 @@
     <t>PEP-IBD.docx</t>
   </si>
   <si>
+    <t>Desarrollo del frontend</t>
+  </si>
+  <si>
+    <t>Documentación Frontend</t>
+  </si>
+  <si>
+    <t>PEP-DF.docx</t>
+  </si>
+  <si>
     <t>Desarrollo del Servidor</t>
   </si>
   <si>
@@ -291,15 +300,6 @@
   </si>
   <si>
     <t>PEP-DB.docx</t>
-  </si>
-  <si>
-    <t>Desarrollo del frontend</t>
-  </si>
-  <si>
-    <t>Documentación Frontend</t>
-  </si>
-  <si>
-    <t>PEP-DF.docx</t>
   </si>
   <si>
     <t>Pruebas de integración</t>
@@ -311,6 +311,15 @@
     <t>PEP-IP.docx</t>
   </si>
   <si>
+    <t xml:space="preserve">Diseño de Arquitectura del Sistema </t>
+  </si>
+  <si>
+    <t>PEP-DAS.docx</t>
+  </si>
+  <si>
+    <t>Calderón  / Analista QA</t>
+  </si>
+  <si>
     <t>Pruebas de aceptación del usuario</t>
   </si>
   <si>
@@ -318,9 +327,6 @@
   </si>
   <si>
     <t>PEP-IUAT.docx</t>
-  </si>
-  <si>
-    <t>Calderón  / Analista QA</t>
   </si>
   <si>
     <t>Documentación de manual de usuario</t>
@@ -352,7 +358,7 @@
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -416,11 +422,6 @@
       <sz val="13.0"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -520,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -613,13 +614,9 @@
     <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -2072,7 +2069,7 @@
       <c r="C33" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="28" t="s">
         <v>89</v>
       </c>
       <c r="E33" s="25" t="s">
@@ -2082,10 +2079,10 @@
         <v>45567.0</v>
       </c>
       <c r="G33" s="27">
-        <v>45576.0</v>
+        <v>45596.0</v>
       </c>
       <c r="H33" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -2114,20 +2111,20 @@
       <c r="C34" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="26" t="s">
         <v>92</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F34" s="27">
         <v>45577.0</v>
       </c>
       <c r="G34" s="27">
-        <v>45588.0</v>
+        <v>45599.0</v>
       </c>
       <c r="H34" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -2156,20 +2153,20 @@
       <c r="C35" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" s="28" t="s">
         <v>95</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F35" s="27">
         <v>45577.0</v>
       </c>
       <c r="G35" s="27">
-        <v>45588.0</v>
+        <v>45599.0</v>
       </c>
       <c r="H35" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
@@ -2198,19 +2195,21 @@
       <c r="C36" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="28" t="s">
         <v>98</v>
       </c>
       <c r="E36" s="25" t="s">
         <v>43</v>
       </c>
       <c r="F36" s="27">
-        <v>45589.0</v>
+        <v>45601.0</v>
       </c>
       <c r="G36" s="27">
-        <v>45598.0</v>
+        <v>45603.0</v>
       </c>
-      <c r="H36" s="36"/>
+      <c r="H36" s="21">
+        <v>100.0</v>
+      </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -2236,22 +2235,22 @@
         <v>99</v>
       </c>
       <c r="C37" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="E37" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="25" t="s">
-        <v>102</v>
-      </c>
       <c r="F37" s="27">
-        <v>45599.0</v>
+        <v>45604.0</v>
       </c>
       <c r="G37" s="27">
-        <v>45603.0</v>
+        <v>45608.0</v>
       </c>
       <c r="H37" s="21">
-        <v>0.0</v>
+        <v>100.0</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -2275,24 +2274,26 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="D38" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="D38" s="32" t="s">
-        <v>105</v>
-      </c>
       <c r="E38" s="25" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="F38" s="27">
-        <v>45604.0</v>
+        <v>45609.0</v>
       </c>
       <c r="G38" s="27">
-        <v>45605.0</v>
+        <v>45623.0</v>
       </c>
-      <c r="H38" s="21"/>
+      <c r="H38" s="21">
+        <v>60.0</v>
+      </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -2315,88 +2316,102 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="32" t="s">
+      <c r="D39" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="E39" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="27">
+        <v>45609.0</v>
+      </c>
+      <c r="G39" s="27">
+        <v>45623.0</v>
+      </c>
+      <c r="H39" s="21">
+        <v>20.0</v>
+      </c>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="E39" s="25" t="s">
+      <c r="C40" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="E40" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F39" s="27">
-        <v>45606.0</v>
+      <c r="F40" s="27">
+        <v>45619.0</v>
       </c>
-      <c r="G39" s="27">
-        <v>45609.0</v>
+      <c r="G40" s="27">
+        <v>45623.0</v>
       </c>
-      <c r="H39" s="21">
-        <v>0.0</v>
+      <c r="H40" s="21">
+        <v>100.0</v>
       </c>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="37"/>
-      <c r="U39" s="37"/>
-      <c r="V39" s="37"/>
-      <c r="W39" s="37"/>
-      <c r="X39" s="37"/>
-      <c r="Y39" s="37"/>
-      <c r="Z39" s="37"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="1" t="s">
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="30" t="s">
-        <v>109</v>
+      <c r="B41" s="30" t="s">
+        <v>111</v>
       </c>
-      <c r="C40" s="38">
-        <v>45610.0</v>
+      <c r="C41" s="31">
+        <v>45623.0</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="1"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="40"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="7"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -2418,13 +2433,13 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="40"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="38"/>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -2446,13 +2461,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="1"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="38"/>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -2530,8 +2545,8 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -3120,7 +3135,7 @@
       <c r="A67" s="1"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="41"/>
+      <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -3148,7 +3163,7 @@
       <c r="A68" s="1"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
-      <c r="D68" s="37"/>
+      <c r="D68" s="39"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -3176,7 +3191,7 @@
       <c r="A69" s="1"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
-      <c r="D69" s="37"/>
+      <c r="D69" s="36"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -3204,7 +3219,7 @@
       <c r="A70" s="1"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
-      <c r="D70" s="37"/>
+      <c r="D70" s="36"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -3232,7 +3247,7 @@
       <c r="A71" s="1"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
-      <c r="D71" s="37"/>
+      <c r="D71" s="36"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -3260,7 +3275,7 @@
       <c r="A72" s="1"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="37"/>
+      <c r="D72" s="36"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -3288,7 +3303,7 @@
       <c r="A73" s="1"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
-      <c r="D73" s="37"/>
+      <c r="D73" s="36"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -3316,7 +3331,7 @@
       <c r="A74" s="1"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
-      <c r="D74" s="37"/>
+      <c r="D74" s="36"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -3344,7 +3359,7 @@
       <c r="A75" s="1"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="37"/>
+      <c r="D75" s="36"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -3372,7 +3387,7 @@
       <c r="A76" s="1"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
-      <c r="D76" s="37"/>
+      <c r="D76" s="36"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -3400,7 +3415,7 @@
       <c r="A77" s="1"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="37"/>
+      <c r="D77" s="36"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -3428,7 +3443,7 @@
       <c r="A78" s="1"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
-      <c r="D78" s="37"/>
+      <c r="D78" s="36"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -3456,7 +3471,7 @@
       <c r="A79" s="1"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
-      <c r="D79" s="37"/>
+      <c r="D79" s="36"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -3484,7 +3499,7 @@
       <c r="A80" s="1"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="37"/>
+      <c r="D80" s="36"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -3512,7 +3527,7 @@
       <c r="A81" s="1"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
-      <c r="D81" s="37"/>
+      <c r="D81" s="36"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -3540,7 +3555,7 @@
       <c r="A82" s="1"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
-      <c r="D82" s="37"/>
+      <c r="D82" s="36"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -3568,7 +3583,7 @@
       <c r="A83" s="1"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
-      <c r="D83" s="37"/>
+      <c r="D83" s="36"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -3596,7 +3611,7 @@
       <c r="A84" s="1"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
-      <c r="D84" s="37"/>
+      <c r="D84" s="36"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -3624,7 +3639,7 @@
       <c r="A85" s="1"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
-      <c r="D85" s="37"/>
+      <c r="D85" s="36"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -3652,7 +3667,7 @@
       <c r="A86" s="1"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="37"/>
+      <c r="D86" s="36"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -3680,7 +3695,7 @@
       <c r="A87" s="1"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
-      <c r="D87" s="37"/>
+      <c r="D87" s="36"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -3708,7 +3723,7 @@
       <c r="A88" s="1"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
-      <c r="D88" s="37"/>
+      <c r="D88" s="36"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -3736,7 +3751,7 @@
       <c r="A89" s="1"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
-      <c r="D89" s="37"/>
+      <c r="D89" s="36"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -3764,7 +3779,7 @@
       <c r="A90" s="1"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
-      <c r="D90" s="37"/>
+      <c r="D90" s="36"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -3792,7 +3807,7 @@
       <c r="A91" s="1"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="37"/>
+      <c r="D91" s="36"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -3820,7 +3835,7 @@
       <c r="A92" s="1"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
-      <c r="D92" s="37"/>
+      <c r="D92" s="36"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -3848,7 +3863,7 @@
       <c r="A93" s="1"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
-      <c r="D93" s="37"/>
+      <c r="D93" s="36"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -3876,7 +3891,7 @@
       <c r="A94" s="1"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="37"/>
+      <c r="D94" s="36"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -3904,7 +3919,7 @@
       <c r="A95" s="1"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="37"/>
+      <c r="D95" s="36"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -3932,7 +3947,7 @@
       <c r="A96" s="1"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="37"/>
+      <c r="D96" s="36"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -3960,7 +3975,7 @@
       <c r="A97" s="1"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
-      <c r="D97" s="37"/>
+      <c r="D97" s="36"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -3988,7 +4003,7 @@
       <c r="A98" s="1"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
-      <c r="D98" s="37"/>
+      <c r="D98" s="36"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -4016,7 +4031,7 @@
       <c r="A99" s="1"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="37"/>
+      <c r="D99" s="36"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -4044,7 +4059,7 @@
       <c r="A100" s="1"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
-      <c r="D100" s="37"/>
+      <c r="D100" s="36"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -4072,7 +4087,7 @@
       <c r="A101" s="1"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="37"/>
+      <c r="D101" s="36"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -4100,7 +4115,7 @@
       <c r="A102" s="1"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="37"/>
+      <c r="D102" s="36"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -4128,7 +4143,7 @@
       <c r="A103" s="1"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
-      <c r="D103" s="37"/>
+      <c r="D103" s="36"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -4156,7 +4171,7 @@
       <c r="A104" s="1"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
-      <c r="D104" s="37"/>
+      <c r="D104" s="36"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
@@ -4184,7 +4199,7 @@
       <c r="A105" s="1"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
-      <c r="D105" s="37"/>
+      <c r="D105" s="36"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -4212,7 +4227,7 @@
       <c r="A106" s="1"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
-      <c r="D106" s="37"/>
+      <c r="D106" s="36"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
@@ -4240,7 +4255,7 @@
       <c r="A107" s="1"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
-      <c r="D107" s="37"/>
+      <c r="D107" s="36"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -4268,7 +4283,7 @@
       <c r="A108" s="1"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="37"/>
+      <c r="D108" s="36"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -4296,7 +4311,7 @@
       <c r="A109" s="1"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
-      <c r="D109" s="37"/>
+      <c r="D109" s="36"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
@@ -4324,7 +4339,7 @@
       <c r="A110" s="1"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
-      <c r="D110" s="37"/>
+      <c r="D110" s="36"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
@@ -4352,7 +4367,7 @@
       <c r="A111" s="1"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
-      <c r="D111" s="37"/>
+      <c r="D111" s="36"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
@@ -4380,7 +4395,7 @@
       <c r="A112" s="1"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
-      <c r="D112" s="37"/>
+      <c r="D112" s="36"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
@@ -4408,7 +4423,7 @@
       <c r="A113" s="1"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
-      <c r="D113" s="37"/>
+      <c r="D113" s="36"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
@@ -4436,7 +4451,7 @@
       <c r="A114" s="1"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
-      <c r="D114" s="37"/>
+      <c r="D114" s="36"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
@@ -4464,7 +4479,7 @@
       <c r="A115" s="1"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
-      <c r="D115" s="37"/>
+      <c r="D115" s="36"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
@@ -4492,7 +4507,7 @@
       <c r="A116" s="1"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
-      <c r="D116" s="37"/>
+      <c r="D116" s="36"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
@@ -4520,7 +4535,7 @@
       <c r="A117" s="1"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
-      <c r="D117" s="37"/>
+      <c r="D117" s="36"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
@@ -4548,7 +4563,7 @@
       <c r="A118" s="1"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
-      <c r="D118" s="37"/>
+      <c r="D118" s="36"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
@@ -4576,7 +4591,7 @@
       <c r="A119" s="1"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="37"/>
+      <c r="D119" s="36"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
@@ -4604,7 +4619,7 @@
       <c r="A120" s="1"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
-      <c r="D120" s="37"/>
+      <c r="D120" s="36"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
@@ -4632,7 +4647,7 @@
       <c r="A121" s="1"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
-      <c r="D121" s="37"/>
+      <c r="D121" s="36"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
@@ -4660,7 +4675,7 @@
       <c r="A122" s="1"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="37"/>
+      <c r="D122" s="36"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
@@ -4688,7 +4703,7 @@
       <c r="A123" s="1"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="37"/>
+      <c r="D123" s="36"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
@@ -4716,7 +4731,7 @@
       <c r="A124" s="1"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="37"/>
+      <c r="D124" s="36"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
@@ -4744,7 +4759,7 @@
       <c r="A125" s="1"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
-      <c r="D125" s="37"/>
+      <c r="D125" s="36"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
@@ -4772,7 +4787,7 @@
       <c r="A126" s="1"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
-      <c r="D126" s="37"/>
+      <c r="D126" s="36"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -4800,7 +4815,7 @@
       <c r="A127" s="1"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
-      <c r="D127" s="37"/>
+      <c r="D127" s="36"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
@@ -4828,7 +4843,7 @@
       <c r="A128" s="1"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
-      <c r="D128" s="37"/>
+      <c r="D128" s="36"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
@@ -4856,7 +4871,7 @@
       <c r="A129" s="1"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="37"/>
+      <c r="D129" s="36"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
@@ -4884,7 +4899,7 @@
       <c r="A130" s="1"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="37"/>
+      <c r="D130" s="36"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
@@ -4912,7 +4927,7 @@
       <c r="A131" s="1"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
-      <c r="D131" s="37"/>
+      <c r="D131" s="36"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
@@ -4940,7 +4955,7 @@
       <c r="A132" s="1"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="37"/>
+      <c r="D132" s="36"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
@@ -4968,7 +4983,7 @@
       <c r="A133" s="1"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
-      <c r="D133" s="37"/>
+      <c r="D133" s="36"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
@@ -4996,7 +5011,7 @@
       <c r="A134" s="1"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
-      <c r="D134" s="37"/>
+      <c r="D134" s="36"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
@@ -5024,7 +5039,7 @@
       <c r="A135" s="1"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
-      <c r="D135" s="37"/>
+      <c r="D135" s="36"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
@@ -5052,7 +5067,7 @@
       <c r="A136" s="1"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
-      <c r="D136" s="37"/>
+      <c r="D136" s="36"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
@@ -5080,7 +5095,7 @@
       <c r="A137" s="1"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
-      <c r="D137" s="37"/>
+      <c r="D137" s="36"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
@@ -5108,7 +5123,7 @@
       <c r="A138" s="1"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
-      <c r="D138" s="37"/>
+      <c r="D138" s="36"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
@@ -5136,7 +5151,7 @@
       <c r="A139" s="1"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="37"/>
+      <c r="D139" s="36"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -5164,7 +5179,7 @@
       <c r="A140" s="1"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
-      <c r="D140" s="37"/>
+      <c r="D140" s="36"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
@@ -5192,7 +5207,7 @@
       <c r="A141" s="1"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
-      <c r="D141" s="37"/>
+      <c r="D141" s="36"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
@@ -5220,7 +5235,7 @@
       <c r="A142" s="1"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
-      <c r="D142" s="37"/>
+      <c r="D142" s="36"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
@@ -5248,7 +5263,7 @@
       <c r="A143" s="1"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="37"/>
+      <c r="D143" s="36"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -5276,7 +5291,7 @@
       <c r="A144" s="1"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
-      <c r="D144" s="37"/>
+      <c r="D144" s="36"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
@@ -5304,7 +5319,7 @@
       <c r="A145" s="1"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
-      <c r="D145" s="37"/>
+      <c r="D145" s="36"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
@@ -5332,7 +5347,7 @@
       <c r="A146" s="1"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
-      <c r="D146" s="37"/>
+      <c r="D146" s="36"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
@@ -5360,7 +5375,7 @@
       <c r="A147" s="1"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
-      <c r="D147" s="37"/>
+      <c r="D147" s="36"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
       <c r="G147" s="3"/>
@@ -5388,7 +5403,7 @@
       <c r="A148" s="1"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
-      <c r="D148" s="37"/>
+      <c r="D148" s="36"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -5416,7 +5431,7 @@
       <c r="A149" s="1"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
-      <c r="D149" s="37"/>
+      <c r="D149" s="36"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
@@ -5444,7 +5459,7 @@
       <c r="A150" s="1"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
-      <c r="D150" s="37"/>
+      <c r="D150" s="36"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
       <c r="G150" s="3"/>
@@ -5472,7 +5487,7 @@
       <c r="A151" s="1"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
-      <c r="D151" s="37"/>
+      <c r="D151" s="36"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -5500,7 +5515,7 @@
       <c r="A152" s="1"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
-      <c r="D152" s="37"/>
+      <c r="D152" s="36"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
       <c r="G152" s="3"/>
@@ -5528,7 +5543,7 @@
       <c r="A153" s="1"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
-      <c r="D153" s="37"/>
+      <c r="D153" s="36"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
@@ -5556,7 +5571,7 @@
       <c r="A154" s="1"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
-      <c r="D154" s="37"/>
+      <c r="D154" s="36"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
@@ -5584,7 +5599,7 @@
       <c r="A155" s="1"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
-      <c r="D155" s="37"/>
+      <c r="D155" s="36"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
@@ -5612,7 +5627,7 @@
       <c r="A156" s="1"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
-      <c r="D156" s="37"/>
+      <c r="D156" s="36"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
       <c r="G156" s="3"/>
@@ -5640,7 +5655,7 @@
       <c r="A157" s="1"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
-      <c r="D157" s="37"/>
+      <c r="D157" s="36"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
@@ -5668,7 +5683,7 @@
       <c r="A158" s="1"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
-      <c r="D158" s="37"/>
+      <c r="D158" s="36"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
@@ -5696,7 +5711,7 @@
       <c r="A159" s="1"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
-      <c r="D159" s="37"/>
+      <c r="D159" s="36"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
@@ -5724,7 +5739,7 @@
       <c r="A160" s="1"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
-      <c r="D160" s="37"/>
+      <c r="D160" s="36"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
@@ -5752,7 +5767,7 @@
       <c r="A161" s="1"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
-      <c r="D161" s="37"/>
+      <c r="D161" s="36"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
@@ -5780,7 +5795,7 @@
       <c r="A162" s="1"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
-      <c r="D162" s="37"/>
+      <c r="D162" s="36"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
@@ -5808,7 +5823,7 @@
       <c r="A163" s="1"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
-      <c r="D163" s="37"/>
+      <c r="D163" s="36"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
@@ -5836,7 +5851,7 @@
       <c r="A164" s="1"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
-      <c r="D164" s="37"/>
+      <c r="D164" s="36"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
@@ -5864,7 +5879,7 @@
       <c r="A165" s="1"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
-      <c r="D165" s="37"/>
+      <c r="D165" s="36"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
@@ -5892,7 +5907,7 @@
       <c r="A166" s="1"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
-      <c r="D166" s="37"/>
+      <c r="D166" s="36"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
@@ -5920,7 +5935,7 @@
       <c r="A167" s="1"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
-      <c r="D167" s="37"/>
+      <c r="D167" s="36"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
@@ -5948,7 +5963,7 @@
       <c r="A168" s="1"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
-      <c r="D168" s="37"/>
+      <c r="D168" s="36"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
@@ -5976,7 +5991,7 @@
       <c r="A169" s="1"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
-      <c r="D169" s="37"/>
+      <c r="D169" s="36"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
@@ -6004,7 +6019,7 @@
       <c r="A170" s="1"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
-      <c r="D170" s="37"/>
+      <c r="D170" s="36"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
@@ -6032,7 +6047,7 @@
       <c r="A171" s="1"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
-      <c r="D171" s="37"/>
+      <c r="D171" s="36"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
@@ -6060,7 +6075,7 @@
       <c r="A172" s="1"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="37"/>
+      <c r="D172" s="36"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
@@ -6088,7 +6103,7 @@
       <c r="A173" s="1"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
-      <c r="D173" s="37"/>
+      <c r="D173" s="36"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
@@ -6116,7 +6131,7 @@
       <c r="A174" s="1"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
-      <c r="D174" s="37"/>
+      <c r="D174" s="36"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
@@ -6144,7 +6159,7 @@
       <c r="A175" s="1"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
-      <c r="D175" s="37"/>
+      <c r="D175" s="36"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
@@ -6172,7 +6187,7 @@
       <c r="A176" s="1"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
-      <c r="D176" s="37"/>
+      <c r="D176" s="36"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
@@ -6200,7 +6215,7 @@
       <c r="A177" s="1"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
-      <c r="D177" s="37"/>
+      <c r="D177" s="36"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
@@ -6228,7 +6243,7 @@
       <c r="A178" s="1"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
-      <c r="D178" s="37"/>
+      <c r="D178" s="36"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
@@ -6256,7 +6271,7 @@
       <c r="A179" s="1"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
-      <c r="D179" s="37"/>
+      <c r="D179" s="36"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
@@ -6284,7 +6299,7 @@
       <c r="A180" s="1"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
-      <c r="D180" s="37"/>
+      <c r="D180" s="36"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
@@ -6312,7 +6327,7 @@
       <c r="A181" s="1"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
-      <c r="D181" s="37"/>
+      <c r="D181" s="36"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
@@ -6340,7 +6355,7 @@
       <c r="A182" s="1"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
-      <c r="D182" s="37"/>
+      <c r="D182" s="36"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
@@ -6368,7 +6383,7 @@
       <c r="A183" s="1"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
-      <c r="D183" s="37"/>
+      <c r="D183" s="36"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
@@ -6396,7 +6411,7 @@
       <c r="A184" s="1"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
-      <c r="D184" s="37"/>
+      <c r="D184" s="36"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -6424,7 +6439,7 @@
       <c r="A185" s="1"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
-      <c r="D185" s="37"/>
+      <c r="D185" s="36"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
@@ -6452,7 +6467,7 @@
       <c r="A186" s="1"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
-      <c r="D186" s="37"/>
+      <c r="D186" s="36"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
@@ -6480,7 +6495,7 @@
       <c r="A187" s="1"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
-      <c r="D187" s="37"/>
+      <c r="D187" s="36"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -6508,7 +6523,7 @@
       <c r="A188" s="1"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
-      <c r="D188" s="37"/>
+      <c r="D188" s="36"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
@@ -6536,7 +6551,7 @@
       <c r="A189" s="1"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
-      <c r="D189" s="37"/>
+      <c r="D189" s="36"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
@@ -6564,7 +6579,7 @@
       <c r="A190" s="1"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
-      <c r="D190" s="37"/>
+      <c r="D190" s="36"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
@@ -6592,7 +6607,7 @@
       <c r="A191" s="1"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
-      <c r="D191" s="37"/>
+      <c r="D191" s="36"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
@@ -6620,7 +6635,7 @@
       <c r="A192" s="1"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
-      <c r="D192" s="37"/>
+      <c r="D192" s="36"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -6648,7 +6663,7 @@
       <c r="A193" s="1"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
-      <c r="D193" s="37"/>
+      <c r="D193" s="36"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
@@ -6676,7 +6691,7 @@
       <c r="A194" s="1"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
-      <c r="D194" s="37"/>
+      <c r="D194" s="36"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
@@ -6704,7 +6719,7 @@
       <c r="A195" s="1"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
-      <c r="D195" s="37"/>
+      <c r="D195" s="36"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
@@ -6732,7 +6747,7 @@
       <c r="A196" s="1"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
-      <c r="D196" s="37"/>
+      <c r="D196" s="36"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
@@ -6760,7 +6775,7 @@
       <c r="A197" s="1"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
-      <c r="D197" s="37"/>
+      <c r="D197" s="36"/>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
@@ -6788,7 +6803,7 @@
       <c r="A198" s="1"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
-      <c r="D198" s="37"/>
+      <c r="D198" s="36"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
@@ -6816,7 +6831,7 @@
       <c r="A199" s="1"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
-      <c r="D199" s="37"/>
+      <c r="D199" s="36"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
@@ -6844,7 +6859,7 @@
       <c r="A200" s="1"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
-      <c r="D200" s="37"/>
+      <c r="D200" s="36"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
       <c r="G200" s="3"/>
@@ -6872,7 +6887,7 @@
       <c r="A201" s="1"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
-      <c r="D201" s="37"/>
+      <c r="D201" s="36"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
@@ -6900,7 +6915,7 @@
       <c r="A202" s="1"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
-      <c r="D202" s="37"/>
+      <c r="D202" s="36"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
@@ -6928,7 +6943,7 @@
       <c r="A203" s="1"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
-      <c r="D203" s="37"/>
+      <c r="D203" s="36"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
@@ -6956,7 +6971,7 @@
       <c r="A204" s="1"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
-      <c r="D204" s="37"/>
+      <c r="D204" s="36"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
@@ -6984,7 +6999,7 @@
       <c r="A205" s="1"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
-      <c r="D205" s="37"/>
+      <c r="D205" s="36"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
@@ -7012,7 +7027,7 @@
       <c r="A206" s="1"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
-      <c r="D206" s="37"/>
+      <c r="D206" s="36"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
@@ -7040,7 +7055,7 @@
       <c r="A207" s="1"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
-      <c r="D207" s="37"/>
+      <c r="D207" s="36"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
@@ -7068,7 +7083,7 @@
       <c r="A208" s="1"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
-      <c r="D208" s="37"/>
+      <c r="D208" s="36"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
@@ -7096,7 +7111,7 @@
       <c r="A209" s="1"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
-      <c r="D209" s="37"/>
+      <c r="D209" s="36"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
@@ -7124,7 +7139,7 @@
       <c r="A210" s="1"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
-      <c r="D210" s="37"/>
+      <c r="D210" s="36"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
@@ -7152,7 +7167,7 @@
       <c r="A211" s="1"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
-      <c r="D211" s="37"/>
+      <c r="D211" s="36"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
@@ -7180,7 +7195,7 @@
       <c r="A212" s="1"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
-      <c r="D212" s="37"/>
+      <c r="D212" s="36"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
       <c r="G212" s="3"/>
@@ -7208,7 +7223,7 @@
       <c r="A213" s="1"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
-      <c r="D213" s="37"/>
+      <c r="D213" s="36"/>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
@@ -7236,7 +7251,7 @@
       <c r="A214" s="1"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
-      <c r="D214" s="37"/>
+      <c r="D214" s="36"/>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
@@ -7264,7 +7279,7 @@
       <c r="A215" s="1"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
-      <c r="D215" s="37"/>
+      <c r="D215" s="36"/>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
@@ -7292,7 +7307,7 @@
       <c r="A216" s="1"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
-      <c r="D216" s="37"/>
+      <c r="D216" s="36"/>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
@@ -7320,7 +7335,7 @@
       <c r="A217" s="1"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
-      <c r="D217" s="37"/>
+      <c r="D217" s="36"/>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
@@ -7348,7 +7363,7 @@
       <c r="A218" s="1"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
-      <c r="D218" s="37"/>
+      <c r="D218" s="36"/>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
@@ -7376,7 +7391,7 @@
       <c r="A219" s="1"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
-      <c r="D219" s="37"/>
+      <c r="D219" s="36"/>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
@@ -7404,7 +7419,7 @@
       <c r="A220" s="1"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
-      <c r="D220" s="37"/>
+      <c r="D220" s="36"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
@@ -7432,7 +7447,7 @@
       <c r="A221" s="1"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
-      <c r="D221" s="37"/>
+      <c r="D221" s="36"/>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
@@ -7460,7 +7475,7 @@
       <c r="A222" s="1"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
-      <c r="D222" s="37"/>
+      <c r="D222" s="36"/>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
@@ -7488,7 +7503,7 @@
       <c r="A223" s="1"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
-      <c r="D223" s="37"/>
+      <c r="D223" s="36"/>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
@@ -7516,7 +7531,7 @@
       <c r="A224" s="1"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
-      <c r="D224" s="37"/>
+      <c r="D224" s="36"/>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
@@ -7544,7 +7559,7 @@
       <c r="A225" s="1"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
-      <c r="D225" s="37"/>
+      <c r="D225" s="36"/>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
@@ -7572,7 +7587,7 @@
       <c r="A226" s="1"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
-      <c r="D226" s="37"/>
+      <c r="D226" s="36"/>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
@@ -7600,7 +7615,7 @@
       <c r="A227" s="1"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
-      <c r="D227" s="37"/>
+      <c r="D227" s="36"/>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
@@ -7628,7 +7643,7 @@
       <c r="A228" s="1"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
-      <c r="D228" s="37"/>
+      <c r="D228" s="36"/>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
@@ -7656,7 +7671,7 @@
       <c r="A229" s="1"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
-      <c r="D229" s="37"/>
+      <c r="D229" s="36"/>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
@@ -7684,7 +7699,7 @@
       <c r="A230" s="1"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
-      <c r="D230" s="37"/>
+      <c r="D230" s="36"/>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
@@ -7712,7 +7727,7 @@
       <c r="A231" s="1"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
-      <c r="D231" s="37"/>
+      <c r="D231" s="36"/>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
       <c r="G231" s="3"/>
@@ -7740,7 +7755,7 @@
       <c r="A232" s="1"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
-      <c r="D232" s="37"/>
+      <c r="D232" s="36"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
@@ -7768,7 +7783,7 @@
       <c r="A233" s="1"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
-      <c r="D233" s="37"/>
+      <c r="D233" s="36"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
@@ -7796,7 +7811,7 @@
       <c r="A234" s="1"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
-      <c r="D234" s="37"/>
+      <c r="D234" s="36"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
@@ -7824,7 +7839,7 @@
       <c r="A235" s="1"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
-      <c r="D235" s="37"/>
+      <c r="D235" s="36"/>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
@@ -7852,7 +7867,7 @@
       <c r="A236" s="1"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
-      <c r="D236" s="37"/>
+      <c r="D236" s="36"/>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
@@ -7880,7 +7895,7 @@
       <c r="A237" s="1"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
-      <c r="D237" s="37"/>
+      <c r="D237" s="36"/>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
@@ -7908,7 +7923,7 @@
       <c r="A238" s="1"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
-      <c r="D238" s="37"/>
+      <c r="D238" s="36"/>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
@@ -7936,7 +7951,7 @@
       <c r="A239" s="1"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
-      <c r="D239" s="37"/>
+      <c r="D239" s="36"/>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
@@ -7964,7 +7979,7 @@
       <c r="A240" s="1"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
-      <c r="D240" s="37"/>
+      <c r="D240" s="36"/>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
@@ -7992,7 +8007,7 @@
       <c r="A241" s="1"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
-      <c r="D241" s="37"/>
+      <c r="D241" s="36"/>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
@@ -8020,7 +8035,7 @@
       <c r="A242" s="1"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
-      <c r="D242" s="37"/>
+      <c r="D242" s="36"/>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
@@ -8048,7 +8063,7 @@
       <c r="A243" s="1"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
-      <c r="D243" s="37"/>
+      <c r="D243" s="36"/>
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
@@ -8076,7 +8091,7 @@
       <c r="A244" s="1"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
-      <c r="D244" s="37"/>
+      <c r="D244" s="36"/>
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
@@ -8104,7 +8119,7 @@
       <c r="A245" s="1"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
-      <c r="D245" s="37"/>
+      <c r="D245" s="36"/>
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
@@ -8132,7 +8147,7 @@
       <c r="A246" s="1"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
-      <c r="D246" s="37"/>
+      <c r="D246" s="36"/>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
@@ -8160,7 +8175,7 @@
       <c r="A247" s="1"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
-      <c r="D247" s="37"/>
+      <c r="D247" s="36"/>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
@@ -8188,7 +8203,7 @@
       <c r="A248" s="1"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
-      <c r="D248" s="37"/>
+      <c r="D248" s="36"/>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
@@ -8216,7 +8231,7 @@
       <c r="A249" s="1"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
-      <c r="D249" s="37"/>
+      <c r="D249" s="36"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
@@ -8244,7 +8259,7 @@
       <c r="A250" s="1"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
-      <c r="D250" s="37"/>
+      <c r="D250" s="36"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
@@ -8272,7 +8287,7 @@
       <c r="A251" s="1"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
-      <c r="D251" s="37"/>
+      <c r="D251" s="36"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
@@ -8300,7 +8315,7 @@
       <c r="A252" s="1"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
-      <c r="D252" s="37"/>
+      <c r="D252" s="36"/>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
@@ -8328,7 +8343,7 @@
       <c r="A253" s="1"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
-      <c r="D253" s="37"/>
+      <c r="D253" s="36"/>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
@@ -8356,7 +8371,7 @@
       <c r="A254" s="1"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
-      <c r="D254" s="37"/>
+      <c r="D254" s="36"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
@@ -8384,7 +8399,7 @@
       <c r="A255" s="1"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
-      <c r="D255" s="37"/>
+      <c r="D255" s="36"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
@@ -8412,7 +8427,7 @@
       <c r="A256" s="1"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
-      <c r="D256" s="37"/>
+      <c r="D256" s="36"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
@@ -8440,7 +8455,7 @@
       <c r="A257" s="1"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
-      <c r="D257" s="37"/>
+      <c r="D257" s="36"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
@@ -8468,7 +8483,7 @@
       <c r="A258" s="1"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
-      <c r="D258" s="37"/>
+      <c r="D258" s="36"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
@@ -8496,7 +8511,7 @@
       <c r="A259" s="1"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
-      <c r="D259" s="37"/>
+      <c r="D259" s="36"/>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
@@ -8524,7 +8539,7 @@
       <c r="A260" s="1"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
-      <c r="D260" s="37"/>
+      <c r="D260" s="36"/>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
@@ -8552,7 +8567,7 @@
       <c r="A261" s="1"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
-      <c r="D261" s="37"/>
+      <c r="D261" s="36"/>
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
@@ -8580,7 +8595,7 @@
       <c r="A262" s="1"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
-      <c r="D262" s="37"/>
+      <c r="D262" s="36"/>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
@@ -8608,7 +8623,7 @@
       <c r="A263" s="1"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
-      <c r="D263" s="37"/>
+      <c r="D263" s="36"/>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
@@ -8636,7 +8651,7 @@
       <c r="A264" s="1"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
-      <c r="D264" s="37"/>
+      <c r="D264" s="36"/>
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
@@ -8664,7 +8679,7 @@
       <c r="A265" s="1"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
-      <c r="D265" s="37"/>
+      <c r="D265" s="36"/>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
@@ -8692,7 +8707,7 @@
       <c r="A266" s="1"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
-      <c r="D266" s="37"/>
+      <c r="D266" s="36"/>
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
@@ -8720,7 +8735,7 @@
       <c r="A267" s="1"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
-      <c r="D267" s="37"/>
+      <c r="D267" s="36"/>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
@@ -8748,7 +8763,7 @@
       <c r="A268" s="1"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
-      <c r="D268" s="37"/>
+      <c r="D268" s="36"/>
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
@@ -8776,7 +8791,7 @@
       <c r="A269" s="1"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
-      <c r="D269" s="37"/>
+      <c r="D269" s="36"/>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
@@ -8804,7 +8819,7 @@
       <c r="A270" s="1"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
-      <c r="D270" s="37"/>
+      <c r="D270" s="36"/>
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
@@ -8832,7 +8847,7 @@
       <c r="A271" s="1"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
-      <c r="D271" s="37"/>
+      <c r="D271" s="36"/>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
@@ -8860,7 +8875,7 @@
       <c r="A272" s="1"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
-      <c r="D272" s="37"/>
+      <c r="D272" s="36"/>
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
@@ -8888,7 +8903,7 @@
       <c r="A273" s="1"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
-      <c r="D273" s="37"/>
+      <c r="D273" s="36"/>
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
@@ -8916,7 +8931,7 @@
       <c r="A274" s="1"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
-      <c r="D274" s="37"/>
+      <c r="D274" s="36"/>
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
@@ -8944,7 +8959,7 @@
       <c r="A275" s="1"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
-      <c r="D275" s="37"/>
+      <c r="D275" s="36"/>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
@@ -8972,7 +8987,7 @@
       <c r="A276" s="1"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
-      <c r="D276" s="37"/>
+      <c r="D276" s="36"/>
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
@@ -9000,7 +9015,7 @@
       <c r="A277" s="1"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
-      <c r="D277" s="37"/>
+      <c r="D277" s="36"/>
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
@@ -9028,7 +9043,7 @@
       <c r="A278" s="1"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
-      <c r="D278" s="37"/>
+      <c r="D278" s="36"/>
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
@@ -9056,7 +9071,7 @@
       <c r="A279" s="1"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
-      <c r="D279" s="37"/>
+      <c r="D279" s="36"/>
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
@@ -9084,7 +9099,7 @@
       <c r="A280" s="1"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
-      <c r="D280" s="37"/>
+      <c r="D280" s="36"/>
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
@@ -9112,7 +9127,7 @@
       <c r="A281" s="1"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
-      <c r="D281" s="37"/>
+      <c r="D281" s="36"/>
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
@@ -9140,7 +9155,7 @@
       <c r="A282" s="1"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
-      <c r="D282" s="37"/>
+      <c r="D282" s="36"/>
       <c r="E282" s="3"/>
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
@@ -9168,7 +9183,7 @@
       <c r="A283" s="1"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
-      <c r="D283" s="37"/>
+      <c r="D283" s="36"/>
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
@@ -9196,7 +9211,7 @@
       <c r="A284" s="1"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
-      <c r="D284" s="37"/>
+      <c r="D284" s="36"/>
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
@@ -9224,7 +9239,7 @@
       <c r="A285" s="1"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
-      <c r="D285" s="37"/>
+      <c r="D285" s="36"/>
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
@@ -9252,7 +9267,7 @@
       <c r="A286" s="1"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
-      <c r="D286" s="37"/>
+      <c r="D286" s="36"/>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
@@ -9280,7 +9295,7 @@
       <c r="A287" s="1"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
-      <c r="D287" s="37"/>
+      <c r="D287" s="36"/>
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
@@ -9308,7 +9323,7 @@
       <c r="A288" s="1"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
-      <c r="D288" s="37"/>
+      <c r="D288" s="36"/>
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
@@ -9336,7 +9351,7 @@
       <c r="A289" s="1"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
-      <c r="D289" s="37"/>
+      <c r="D289" s="36"/>
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
@@ -9364,7 +9379,7 @@
       <c r="A290" s="1"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
-      <c r="D290" s="37"/>
+      <c r="D290" s="36"/>
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
@@ -9392,7 +9407,7 @@
       <c r="A291" s="1"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
-      <c r="D291" s="37"/>
+      <c r="D291" s="36"/>
       <c r="E291" s="3"/>
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
@@ -9420,7 +9435,7 @@
       <c r="A292" s="1"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
-      <c r="D292" s="37"/>
+      <c r="D292" s="36"/>
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
@@ -9448,7 +9463,7 @@
       <c r="A293" s="1"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
-      <c r="D293" s="37"/>
+      <c r="D293" s="36"/>
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
@@ -9476,7 +9491,7 @@
       <c r="A294" s="1"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
-      <c r="D294" s="37"/>
+      <c r="D294" s="36"/>
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
@@ -9504,7 +9519,7 @@
       <c r="A295" s="1"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
-      <c r="D295" s="37"/>
+      <c r="D295" s="36"/>
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
@@ -9532,7 +9547,7 @@
       <c r="A296" s="1"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
-      <c r="D296" s="37"/>
+      <c r="D296" s="36"/>
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
@@ -9560,7 +9575,7 @@
       <c r="A297" s="1"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
-      <c r="D297" s="37"/>
+      <c r="D297" s="36"/>
       <c r="E297" s="3"/>
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
@@ -9588,7 +9603,7 @@
       <c r="A298" s="1"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
-      <c r="D298" s="37"/>
+      <c r="D298" s="36"/>
       <c r="E298" s="3"/>
       <c r="F298" s="3"/>
       <c r="G298" s="3"/>
@@ -9616,7 +9631,7 @@
       <c r="A299" s="1"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
-      <c r="D299" s="37"/>
+      <c r="D299" s="36"/>
       <c r="E299" s="3"/>
       <c r="F299" s="3"/>
       <c r="G299" s="3"/>
@@ -9644,7 +9659,7 @@
       <c r="A300" s="1"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
-      <c r="D300" s="37"/>
+      <c r="D300" s="36"/>
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
@@ -9672,7 +9687,7 @@
       <c r="A301" s="1"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
-      <c r="D301" s="37"/>
+      <c r="D301" s="36"/>
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
       <c r="G301" s="3"/>
@@ -9700,7 +9715,7 @@
       <c r="A302" s="1"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
-      <c r="D302" s="37"/>
+      <c r="D302" s="36"/>
       <c r="E302" s="3"/>
       <c r="F302" s="3"/>
       <c r="G302" s="3"/>
@@ -9728,7 +9743,7 @@
       <c r="A303" s="1"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
-      <c r="D303" s="37"/>
+      <c r="D303" s="36"/>
       <c r="E303" s="3"/>
       <c r="F303" s="3"/>
       <c r="G303" s="3"/>
@@ -9756,7 +9771,7 @@
       <c r="A304" s="1"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
-      <c r="D304" s="37"/>
+      <c r="D304" s="36"/>
       <c r="E304" s="3"/>
       <c r="F304" s="3"/>
       <c r="G304" s="3"/>
@@ -9784,7 +9799,7 @@
       <c r="A305" s="1"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
-      <c r="D305" s="37"/>
+      <c r="D305" s="36"/>
       <c r="E305" s="3"/>
       <c r="F305" s="3"/>
       <c r="G305" s="3"/>
@@ -9812,7 +9827,7 @@
       <c r="A306" s="1"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
-      <c r="D306" s="37"/>
+      <c r="D306" s="36"/>
       <c r="E306" s="3"/>
       <c r="F306" s="3"/>
       <c r="G306" s="3"/>
@@ -9840,7 +9855,7 @@
       <c r="A307" s="1"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
-      <c r="D307" s="37"/>
+      <c r="D307" s="36"/>
       <c r="E307" s="3"/>
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
@@ -9868,7 +9883,7 @@
       <c r="A308" s="1"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
-      <c r="D308" s="37"/>
+      <c r="D308" s="36"/>
       <c r="E308" s="3"/>
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
@@ -9896,7 +9911,7 @@
       <c r="A309" s="1"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
-      <c r="D309" s="37"/>
+      <c r="D309" s="36"/>
       <c r="E309" s="3"/>
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
@@ -9924,7 +9939,7 @@
       <c r="A310" s="1"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
-      <c r="D310" s="37"/>
+      <c r="D310" s="36"/>
       <c r="E310" s="3"/>
       <c r="F310" s="3"/>
       <c r="G310" s="3"/>
@@ -9952,7 +9967,7 @@
       <c r="A311" s="1"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
-      <c r="D311" s="37"/>
+      <c r="D311" s="36"/>
       <c r="E311" s="3"/>
       <c r="F311" s="3"/>
       <c r="G311" s="3"/>
@@ -9980,7 +9995,7 @@
       <c r="A312" s="1"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
-      <c r="D312" s="37"/>
+      <c r="D312" s="36"/>
       <c r="E312" s="3"/>
       <c r="F312" s="3"/>
       <c r="G312" s="3"/>
@@ -10008,7 +10023,7 @@
       <c r="A313" s="1"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
-      <c r="D313" s="37"/>
+      <c r="D313" s="36"/>
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
@@ -10036,7 +10051,7 @@
       <c r="A314" s="1"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
-      <c r="D314" s="37"/>
+      <c r="D314" s="36"/>
       <c r="E314" s="3"/>
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
@@ -10064,7 +10079,7 @@
       <c r="A315" s="1"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
-      <c r="D315" s="37"/>
+      <c r="D315" s="36"/>
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
       <c r="G315" s="3"/>
@@ -10092,7 +10107,7 @@
       <c r="A316" s="1"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
-      <c r="D316" s="37"/>
+      <c r="D316" s="36"/>
       <c r="E316" s="3"/>
       <c r="F316" s="3"/>
       <c r="G316" s="3"/>
@@ -10120,7 +10135,7 @@
       <c r="A317" s="1"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
-      <c r="D317" s="37"/>
+      <c r="D317" s="36"/>
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
@@ -10148,7 +10163,7 @@
       <c r="A318" s="1"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
-      <c r="D318" s="37"/>
+      <c r="D318" s="36"/>
       <c r="E318" s="3"/>
       <c r="F318" s="3"/>
       <c r="G318" s="3"/>
@@ -10176,7 +10191,7 @@
       <c r="A319" s="1"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
-      <c r="D319" s="37"/>
+      <c r="D319" s="36"/>
       <c r="E319" s="3"/>
       <c r="F319" s="3"/>
       <c r="G319" s="3"/>
@@ -10204,7 +10219,7 @@
       <c r="A320" s="1"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
-      <c r="D320" s="37"/>
+      <c r="D320" s="36"/>
       <c r="E320" s="3"/>
       <c r="F320" s="3"/>
       <c r="G320" s="3"/>
@@ -10232,7 +10247,7 @@
       <c r="A321" s="1"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
-      <c r="D321" s="37"/>
+      <c r="D321" s="36"/>
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
       <c r="G321" s="3"/>
@@ -10260,7 +10275,7 @@
       <c r="A322" s="1"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
-      <c r="D322" s="37"/>
+      <c r="D322" s="36"/>
       <c r="E322" s="3"/>
       <c r="F322" s="3"/>
       <c r="G322" s="3"/>
@@ -10288,7 +10303,7 @@
       <c r="A323" s="1"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
-      <c r="D323" s="37"/>
+      <c r="D323" s="36"/>
       <c r="E323" s="3"/>
       <c r="F323" s="3"/>
       <c r="G323" s="3"/>
@@ -10316,7 +10331,7 @@
       <c r="A324" s="1"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
-      <c r="D324" s="37"/>
+      <c r="D324" s="36"/>
       <c r="E324" s="3"/>
       <c r="F324" s="3"/>
       <c r="G324" s="3"/>
@@ -10344,7 +10359,7 @@
       <c r="A325" s="1"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
-      <c r="D325" s="37"/>
+      <c r="D325" s="36"/>
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
       <c r="G325" s="3"/>
@@ -10372,7 +10387,7 @@
       <c r="A326" s="1"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
-      <c r="D326" s="37"/>
+      <c r="D326" s="36"/>
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
       <c r="G326" s="3"/>
@@ -10400,7 +10415,7 @@
       <c r="A327" s="1"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
-      <c r="D327" s="37"/>
+      <c r="D327" s="36"/>
       <c r="E327" s="3"/>
       <c r="F327" s="3"/>
       <c r="G327" s="3"/>
@@ -10428,7 +10443,7 @@
       <c r="A328" s="1"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
-      <c r="D328" s="37"/>
+      <c r="D328" s="36"/>
       <c r="E328" s="3"/>
       <c r="F328" s="3"/>
       <c r="G328" s="3"/>
@@ -10456,7 +10471,7 @@
       <c r="A329" s="1"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
-      <c r="D329" s="37"/>
+      <c r="D329" s="36"/>
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
       <c r="G329" s="3"/>
@@ -10484,7 +10499,7 @@
       <c r="A330" s="1"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
-      <c r="D330" s="37"/>
+      <c r="D330" s="36"/>
       <c r="E330" s="3"/>
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
@@ -10512,7 +10527,7 @@
       <c r="A331" s="1"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
-      <c r="D331" s="37"/>
+      <c r="D331" s="36"/>
       <c r="E331" s="3"/>
       <c r="F331" s="3"/>
       <c r="G331" s="3"/>
@@ -10540,7 +10555,7 @@
       <c r="A332" s="1"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
-      <c r="D332" s="37"/>
+      <c r="D332" s="36"/>
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
       <c r="G332" s="3"/>
@@ -10568,7 +10583,7 @@
       <c r="A333" s="1"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
-      <c r="D333" s="37"/>
+      <c r="D333" s="36"/>
       <c r="E333" s="3"/>
       <c r="F333" s="3"/>
       <c r="G333" s="3"/>
@@ -10596,7 +10611,7 @@
       <c r="A334" s="1"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
-      <c r="D334" s="37"/>
+      <c r="D334" s="36"/>
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
       <c r="G334" s="3"/>
@@ -10624,7 +10639,7 @@
       <c r="A335" s="1"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
-      <c r="D335" s="37"/>
+      <c r="D335" s="36"/>
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
       <c r="G335" s="3"/>
@@ -10652,7 +10667,7 @@
       <c r="A336" s="1"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
-      <c r="D336" s="37"/>
+      <c r="D336" s="36"/>
       <c r="E336" s="3"/>
       <c r="F336" s="3"/>
       <c r="G336" s="3"/>
@@ -10680,7 +10695,7 @@
       <c r="A337" s="1"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
-      <c r="D337" s="37"/>
+      <c r="D337" s="36"/>
       <c r="E337" s="3"/>
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
@@ -10708,7 +10723,7 @@
       <c r="A338" s="1"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
-      <c r="D338" s="37"/>
+      <c r="D338" s="36"/>
       <c r="E338" s="3"/>
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
@@ -10736,7 +10751,7 @@
       <c r="A339" s="1"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
-      <c r="D339" s="37"/>
+      <c r="D339" s="36"/>
       <c r="E339" s="3"/>
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
@@ -10764,7 +10779,7 @@
       <c r="A340" s="1"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
-      <c r="D340" s="37"/>
+      <c r="D340" s="36"/>
       <c r="E340" s="3"/>
       <c r="F340" s="3"/>
       <c r="G340" s="3"/>
@@ -10792,7 +10807,7 @@
       <c r="A341" s="1"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
-      <c r="D341" s="37"/>
+      <c r="D341" s="36"/>
       <c r="E341" s="3"/>
       <c r="F341" s="3"/>
       <c r="G341" s="3"/>
@@ -10820,7 +10835,7 @@
       <c r="A342" s="1"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
-      <c r="D342" s="37"/>
+      <c r="D342" s="36"/>
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
       <c r="G342" s="3"/>
@@ -10848,7 +10863,7 @@
       <c r="A343" s="1"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
-      <c r="D343" s="37"/>
+      <c r="D343" s="36"/>
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
       <c r="G343" s="3"/>
@@ -10876,7 +10891,7 @@
       <c r="A344" s="1"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
-      <c r="D344" s="37"/>
+      <c r="D344" s="36"/>
       <c r="E344" s="3"/>
       <c r="F344" s="3"/>
       <c r="G344" s="3"/>
@@ -10904,7 +10919,7 @@
       <c r="A345" s="1"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
-      <c r="D345" s="37"/>
+      <c r="D345" s="36"/>
       <c r="E345" s="3"/>
       <c r="F345" s="3"/>
       <c r="G345" s="3"/>
@@ -10932,7 +10947,7 @@
       <c r="A346" s="1"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
-      <c r="D346" s="37"/>
+      <c r="D346" s="36"/>
       <c r="E346" s="3"/>
       <c r="F346" s="3"/>
       <c r="G346" s="3"/>
@@ -10960,7 +10975,7 @@
       <c r="A347" s="1"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
-      <c r="D347" s="37"/>
+      <c r="D347" s="36"/>
       <c r="E347" s="3"/>
       <c r="F347" s="3"/>
       <c r="G347" s="3"/>
@@ -10988,7 +11003,7 @@
       <c r="A348" s="1"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
-      <c r="D348" s="37"/>
+      <c r="D348" s="36"/>
       <c r="E348" s="3"/>
       <c r="F348" s="3"/>
       <c r="G348" s="3"/>
@@ -11016,7 +11031,7 @@
       <c r="A349" s="1"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
-      <c r="D349" s="37"/>
+      <c r="D349" s="36"/>
       <c r="E349" s="3"/>
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
@@ -11044,7 +11059,7 @@
       <c r="A350" s="1"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
-      <c r="D350" s="37"/>
+      <c r="D350" s="36"/>
       <c r="E350" s="3"/>
       <c r="F350" s="3"/>
       <c r="G350" s="3"/>
@@ -11072,7 +11087,7 @@
       <c r="A351" s="1"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
-      <c r="D351" s="37"/>
+      <c r="D351" s="36"/>
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
       <c r="G351" s="3"/>
@@ -11100,7 +11115,7 @@
       <c r="A352" s="1"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
-      <c r="D352" s="37"/>
+      <c r="D352" s="36"/>
       <c r="E352" s="3"/>
       <c r="F352" s="3"/>
       <c r="G352" s="3"/>
@@ -11128,7 +11143,7 @@
       <c r="A353" s="1"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
-      <c r="D353" s="37"/>
+      <c r="D353" s="36"/>
       <c r="E353" s="3"/>
       <c r="F353" s="3"/>
       <c r="G353" s="3"/>
@@ -11156,7 +11171,7 @@
       <c r="A354" s="1"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
-      <c r="D354" s="37"/>
+      <c r="D354" s="36"/>
       <c r="E354" s="3"/>
       <c r="F354" s="3"/>
       <c r="G354" s="3"/>
@@ -11184,7 +11199,7 @@
       <c r="A355" s="1"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
-      <c r="D355" s="37"/>
+      <c r="D355" s="36"/>
       <c r="E355" s="3"/>
       <c r="F355" s="3"/>
       <c r="G355" s="3"/>
@@ -11212,7 +11227,7 @@
       <c r="A356" s="1"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
-      <c r="D356" s="37"/>
+      <c r="D356" s="36"/>
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
       <c r="G356" s="3"/>
@@ -11240,7 +11255,7 @@
       <c r="A357" s="1"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
-      <c r="D357" s="37"/>
+      <c r="D357" s="36"/>
       <c r="E357" s="3"/>
       <c r="F357" s="3"/>
       <c r="G357" s="3"/>
@@ -11268,7 +11283,7 @@
       <c r="A358" s="1"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
-      <c r="D358" s="37"/>
+      <c r="D358" s="36"/>
       <c r="E358" s="3"/>
       <c r="F358" s="3"/>
       <c r="G358" s="3"/>
@@ -11296,7 +11311,7 @@
       <c r="A359" s="1"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
-      <c r="D359" s="37"/>
+      <c r="D359" s="36"/>
       <c r="E359" s="3"/>
       <c r="F359" s="3"/>
       <c r="G359" s="3"/>
@@ -11324,7 +11339,7 @@
       <c r="A360" s="1"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
-      <c r="D360" s="37"/>
+      <c r="D360" s="36"/>
       <c r="E360" s="3"/>
       <c r="F360" s="3"/>
       <c r="G360" s="3"/>
@@ -11352,7 +11367,7 @@
       <c r="A361" s="1"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
-      <c r="D361" s="37"/>
+      <c r="D361" s="36"/>
       <c r="E361" s="3"/>
       <c r="F361" s="3"/>
       <c r="G361" s="3"/>
@@ -11380,7 +11395,7 @@
       <c r="A362" s="1"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
-      <c r="D362" s="37"/>
+      <c r="D362" s="36"/>
       <c r="E362" s="3"/>
       <c r="F362" s="3"/>
       <c r="G362" s="3"/>
@@ -11408,7 +11423,7 @@
       <c r="A363" s="1"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
-      <c r="D363" s="37"/>
+      <c r="D363" s="36"/>
       <c r="E363" s="3"/>
       <c r="F363" s="3"/>
       <c r="G363" s="3"/>
@@ -11436,7 +11451,7 @@
       <c r="A364" s="1"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
-      <c r="D364" s="37"/>
+      <c r="D364" s="36"/>
       <c r="E364" s="3"/>
       <c r="F364" s="3"/>
       <c r="G364" s="3"/>
@@ -11464,7 +11479,7 @@
       <c r="A365" s="1"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
-      <c r="D365" s="37"/>
+      <c r="D365" s="36"/>
       <c r="E365" s="3"/>
       <c r="F365" s="3"/>
       <c r="G365" s="3"/>
@@ -11492,7 +11507,7 @@
       <c r="A366" s="1"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
-      <c r="D366" s="37"/>
+      <c r="D366" s="36"/>
       <c r="E366" s="3"/>
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
@@ -11520,7 +11535,7 @@
       <c r="A367" s="1"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
-      <c r="D367" s="37"/>
+      <c r="D367" s="36"/>
       <c r="E367" s="3"/>
       <c r="F367" s="3"/>
       <c r="G367" s="3"/>
@@ -11548,7 +11563,7 @@
       <c r="A368" s="1"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
-      <c r="D368" s="37"/>
+      <c r="D368" s="36"/>
       <c r="E368" s="3"/>
       <c r="F368" s="3"/>
       <c r="G368" s="3"/>
@@ -11576,7 +11591,7 @@
       <c r="A369" s="1"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
-      <c r="D369" s="37"/>
+      <c r="D369" s="36"/>
       <c r="E369" s="3"/>
       <c r="F369" s="3"/>
       <c r="G369" s="3"/>
@@ -11604,7 +11619,7 @@
       <c r="A370" s="1"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
-      <c r="D370" s="37"/>
+      <c r="D370" s="36"/>
       <c r="E370" s="3"/>
       <c r="F370" s="3"/>
       <c r="G370" s="3"/>
@@ -11632,7 +11647,7 @@
       <c r="A371" s="1"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
-      <c r="D371" s="37"/>
+      <c r="D371" s="36"/>
       <c r="E371" s="3"/>
       <c r="F371" s="3"/>
       <c r="G371" s="3"/>
@@ -11660,7 +11675,7 @@
       <c r="A372" s="1"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
-      <c r="D372" s="37"/>
+      <c r="D372" s="36"/>
       <c r="E372" s="3"/>
       <c r="F372" s="3"/>
       <c r="G372" s="3"/>
@@ -11688,7 +11703,7 @@
       <c r="A373" s="1"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
-      <c r="D373" s="37"/>
+      <c r="D373" s="36"/>
       <c r="E373" s="3"/>
       <c r="F373" s="3"/>
       <c r="G373" s="3"/>
@@ -11716,7 +11731,7 @@
       <c r="A374" s="1"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
-      <c r="D374" s="37"/>
+      <c r="D374" s="36"/>
       <c r="E374" s="3"/>
       <c r="F374" s="3"/>
       <c r="G374" s="3"/>
@@ -11744,7 +11759,7 @@
       <c r="A375" s="1"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
-      <c r="D375" s="37"/>
+      <c r="D375" s="36"/>
       <c r="E375" s="3"/>
       <c r="F375" s="3"/>
       <c r="G375" s="3"/>
@@ -11772,7 +11787,7 @@
       <c r="A376" s="1"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
-      <c r="D376" s="37"/>
+      <c r="D376" s="36"/>
       <c r="E376" s="3"/>
       <c r="F376" s="3"/>
       <c r="G376" s="3"/>
@@ -11800,7 +11815,7 @@
       <c r="A377" s="1"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
-      <c r="D377" s="37"/>
+      <c r="D377" s="36"/>
       <c r="E377" s="3"/>
       <c r="F377" s="3"/>
       <c r="G377" s="3"/>
@@ -11828,7 +11843,7 @@
       <c r="A378" s="1"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
-      <c r="D378" s="37"/>
+      <c r="D378" s="36"/>
       <c r="E378" s="3"/>
       <c r="F378" s="3"/>
       <c r="G378" s="3"/>
@@ -11856,7 +11871,7 @@
       <c r="A379" s="1"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
-      <c r="D379" s="37"/>
+      <c r="D379" s="36"/>
       <c r="E379" s="3"/>
       <c r="F379" s="3"/>
       <c r="G379" s="3"/>
@@ -11884,7 +11899,7 @@
       <c r="A380" s="1"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
-      <c r="D380" s="37"/>
+      <c r="D380" s="36"/>
       <c r="E380" s="3"/>
       <c r="F380" s="3"/>
       <c r="G380" s="3"/>
@@ -11912,7 +11927,7 @@
       <c r="A381" s="1"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
-      <c r="D381" s="37"/>
+      <c r="D381" s="36"/>
       <c r="E381" s="3"/>
       <c r="F381" s="3"/>
       <c r="G381" s="3"/>
@@ -11940,7 +11955,7 @@
       <c r="A382" s="1"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
-      <c r="D382" s="37"/>
+      <c r="D382" s="36"/>
       <c r="E382" s="3"/>
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
@@ -11968,7 +11983,7 @@
       <c r="A383" s="1"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
-      <c r="D383" s="37"/>
+      <c r="D383" s="36"/>
       <c r="E383" s="3"/>
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
@@ -11996,7 +12011,7 @@
       <c r="A384" s="1"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
-      <c r="D384" s="37"/>
+      <c r="D384" s="36"/>
       <c r="E384" s="3"/>
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
@@ -12024,7 +12039,7 @@
       <c r="A385" s="1"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
-      <c r="D385" s="37"/>
+      <c r="D385" s="36"/>
       <c r="E385" s="3"/>
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
@@ -12052,7 +12067,7 @@
       <c r="A386" s="1"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
-      <c r="D386" s="37"/>
+      <c r="D386" s="36"/>
       <c r="E386" s="3"/>
       <c r="F386" s="3"/>
       <c r="G386" s="3"/>
@@ -12080,7 +12095,7 @@
       <c r="A387" s="1"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
-      <c r="D387" s="37"/>
+      <c r="D387" s="36"/>
       <c r="E387" s="3"/>
       <c r="F387" s="3"/>
       <c r="G387" s="3"/>
@@ -12108,7 +12123,7 @@
       <c r="A388" s="1"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
-      <c r="D388" s="37"/>
+      <c r="D388" s="36"/>
       <c r="E388" s="3"/>
       <c r="F388" s="3"/>
       <c r="G388" s="3"/>
@@ -12136,7 +12151,7 @@
       <c r="A389" s="1"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
-      <c r="D389" s="37"/>
+      <c r="D389" s="36"/>
       <c r="E389" s="3"/>
       <c r="F389" s="3"/>
       <c r="G389" s="3"/>
@@ -12164,7 +12179,7 @@
       <c r="A390" s="1"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
-      <c r="D390" s="37"/>
+      <c r="D390" s="36"/>
       <c r="E390" s="3"/>
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
@@ -12192,7 +12207,7 @@
       <c r="A391" s="1"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
-      <c r="D391" s="37"/>
+      <c r="D391" s="36"/>
       <c r="E391" s="3"/>
       <c r="F391" s="3"/>
       <c r="G391" s="3"/>
@@ -12220,7 +12235,7 @@
       <c r="A392" s="1"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
-      <c r="D392" s="37"/>
+      <c r="D392" s="36"/>
       <c r="E392" s="3"/>
       <c r="F392" s="3"/>
       <c r="G392" s="3"/>
@@ -12248,7 +12263,7 @@
       <c r="A393" s="1"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
-      <c r="D393" s="37"/>
+      <c r="D393" s="36"/>
       <c r="E393" s="3"/>
       <c r="F393" s="3"/>
       <c r="G393" s="3"/>
@@ -12276,7 +12291,7 @@
       <c r="A394" s="1"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
-      <c r="D394" s="37"/>
+      <c r="D394" s="36"/>
       <c r="E394" s="3"/>
       <c r="F394" s="3"/>
       <c r="G394" s="3"/>
@@ -12304,7 +12319,7 @@
       <c r="A395" s="1"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
-      <c r="D395" s="37"/>
+      <c r="D395" s="36"/>
       <c r="E395" s="3"/>
       <c r="F395" s="3"/>
       <c r="G395" s="3"/>
@@ -12332,7 +12347,7 @@
       <c r="A396" s="1"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
-      <c r="D396" s="37"/>
+      <c r="D396" s="36"/>
       <c r="E396" s="3"/>
       <c r="F396" s="3"/>
       <c r="G396" s="3"/>
@@ -12360,7 +12375,7 @@
       <c r="A397" s="1"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
-      <c r="D397" s="37"/>
+      <c r="D397" s="36"/>
       <c r="E397" s="3"/>
       <c r="F397" s="3"/>
       <c r="G397" s="3"/>
@@ -12388,7 +12403,7 @@
       <c r="A398" s="1"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
-      <c r="D398" s="37"/>
+      <c r="D398" s="36"/>
       <c r="E398" s="3"/>
       <c r="F398" s="3"/>
       <c r="G398" s="3"/>
@@ -12416,7 +12431,7 @@
       <c r="A399" s="1"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
-      <c r="D399" s="37"/>
+      <c r="D399" s="36"/>
       <c r="E399" s="3"/>
       <c r="F399" s="3"/>
       <c r="G399" s="3"/>
@@ -12444,7 +12459,7 @@
       <c r="A400" s="1"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
-      <c r="D400" s="37"/>
+      <c r="D400" s="36"/>
       <c r="E400" s="3"/>
       <c r="F400" s="3"/>
       <c r="G400" s="3"/>
@@ -12472,7 +12487,7 @@
       <c r="A401" s="1"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
-      <c r="D401" s="37"/>
+      <c r="D401" s="36"/>
       <c r="E401" s="3"/>
       <c r="F401" s="3"/>
       <c r="G401" s="3"/>
@@ -12500,7 +12515,7 @@
       <c r="A402" s="1"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
-      <c r="D402" s="37"/>
+      <c r="D402" s="36"/>
       <c r="E402" s="3"/>
       <c r="F402" s="3"/>
       <c r="G402" s="3"/>
@@ -12528,7 +12543,7 @@
       <c r="A403" s="1"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
-      <c r="D403" s="37"/>
+      <c r="D403" s="36"/>
       <c r="E403" s="3"/>
       <c r="F403" s="3"/>
       <c r="G403" s="3"/>
@@ -12556,7 +12571,7 @@
       <c r="A404" s="1"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
-      <c r="D404" s="37"/>
+      <c r="D404" s="36"/>
       <c r="E404" s="3"/>
       <c r="F404" s="3"/>
       <c r="G404" s="3"/>
@@ -12584,7 +12599,7 @@
       <c r="A405" s="1"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
-      <c r="D405" s="37"/>
+      <c r="D405" s="36"/>
       <c r="E405" s="3"/>
       <c r="F405" s="3"/>
       <c r="G405" s="3"/>
@@ -12612,7 +12627,7 @@
       <c r="A406" s="1"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
-      <c r="D406" s="37"/>
+      <c r="D406" s="36"/>
       <c r="E406" s="3"/>
       <c r="F406" s="3"/>
       <c r="G406" s="3"/>
@@ -12640,7 +12655,7 @@
       <c r="A407" s="1"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
-      <c r="D407" s="37"/>
+      <c r="D407" s="36"/>
       <c r="E407" s="3"/>
       <c r="F407" s="3"/>
       <c r="G407" s="3"/>
@@ -12668,7 +12683,7 @@
       <c r="A408" s="1"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
-      <c r="D408" s="37"/>
+      <c r="D408" s="36"/>
       <c r="E408" s="3"/>
       <c r="F408" s="3"/>
       <c r="G408" s="3"/>
@@ -12696,7 +12711,7 @@
       <c r="A409" s="1"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
-      <c r="D409" s="37"/>
+      <c r="D409" s="36"/>
       <c r="E409" s="3"/>
       <c r="F409" s="3"/>
       <c r="G409" s="3"/>
@@ -12724,7 +12739,7 @@
       <c r="A410" s="1"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
-      <c r="D410" s="37"/>
+      <c r="D410" s="36"/>
       <c r="E410" s="3"/>
       <c r="F410" s="3"/>
       <c r="G410" s="3"/>
@@ -12752,7 +12767,7 @@
       <c r="A411" s="1"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
-      <c r="D411" s="37"/>
+      <c r="D411" s="36"/>
       <c r="E411" s="3"/>
       <c r="F411" s="3"/>
       <c r="G411" s="3"/>
@@ -12780,7 +12795,7 @@
       <c r="A412" s="1"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
-      <c r="D412" s="37"/>
+      <c r="D412" s="36"/>
       <c r="E412" s="3"/>
       <c r="F412" s="3"/>
       <c r="G412" s="3"/>
@@ -12808,7 +12823,7 @@
       <c r="A413" s="1"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
-      <c r="D413" s="37"/>
+      <c r="D413" s="36"/>
       <c r="E413" s="3"/>
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
@@ -12836,7 +12851,7 @@
       <c r="A414" s="1"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
-      <c r="D414" s="37"/>
+      <c r="D414" s="36"/>
       <c r="E414" s="3"/>
       <c r="F414" s="3"/>
       <c r="G414" s="3"/>
@@ -12864,7 +12879,7 @@
       <c r="A415" s="1"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
-      <c r="D415" s="37"/>
+      <c r="D415" s="36"/>
       <c r="E415" s="3"/>
       <c r="F415" s="3"/>
       <c r="G415" s="3"/>
@@ -12892,7 +12907,7 @@
       <c r="A416" s="1"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
-      <c r="D416" s="37"/>
+      <c r="D416" s="36"/>
       <c r="E416" s="3"/>
       <c r="F416" s="3"/>
       <c r="G416" s="3"/>
@@ -12920,7 +12935,7 @@
       <c r="A417" s="1"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
-      <c r="D417" s="37"/>
+      <c r="D417" s="36"/>
       <c r="E417" s="3"/>
       <c r="F417" s="3"/>
       <c r="G417" s="3"/>
@@ -12948,7 +12963,7 @@
       <c r="A418" s="1"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
-      <c r="D418" s="37"/>
+      <c r="D418" s="36"/>
       <c r="E418" s="3"/>
       <c r="F418" s="3"/>
       <c r="G418" s="3"/>
@@ -12976,7 +12991,7 @@
       <c r="A419" s="1"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
-      <c r="D419" s="37"/>
+      <c r="D419" s="36"/>
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
       <c r="G419" s="3"/>
@@ -13004,7 +13019,7 @@
       <c r="A420" s="1"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
-      <c r="D420" s="37"/>
+      <c r="D420" s="36"/>
       <c r="E420" s="3"/>
       <c r="F420" s="3"/>
       <c r="G420" s="3"/>
@@ -13032,7 +13047,7 @@
       <c r="A421" s="1"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
-      <c r="D421" s="37"/>
+      <c r="D421" s="36"/>
       <c r="E421" s="3"/>
       <c r="F421" s="3"/>
       <c r="G421" s="3"/>
@@ -13060,7 +13075,7 @@
       <c r="A422" s="1"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
-      <c r="D422" s="37"/>
+      <c r="D422" s="36"/>
       <c r="E422" s="3"/>
       <c r="F422" s="3"/>
       <c r="G422" s="3"/>
@@ -13088,7 +13103,7 @@
       <c r="A423" s="1"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
-      <c r="D423" s="37"/>
+      <c r="D423" s="36"/>
       <c r="E423" s="3"/>
       <c r="F423" s="3"/>
       <c r="G423" s="3"/>
@@ -13116,7 +13131,7 @@
       <c r="A424" s="1"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
-      <c r="D424" s="37"/>
+      <c r="D424" s="36"/>
       <c r="E424" s="3"/>
       <c r="F424" s="3"/>
       <c r="G424" s="3"/>
@@ -13144,7 +13159,7 @@
       <c r="A425" s="1"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
-      <c r="D425" s="37"/>
+      <c r="D425" s="36"/>
       <c r="E425" s="3"/>
       <c r="F425" s="3"/>
       <c r="G425" s="3"/>
@@ -13172,7 +13187,7 @@
       <c r="A426" s="1"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
-      <c r="D426" s="37"/>
+      <c r="D426" s="36"/>
       <c r="E426" s="3"/>
       <c r="F426" s="3"/>
       <c r="G426" s="3"/>
@@ -13200,7 +13215,7 @@
       <c r="A427" s="1"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
-      <c r="D427" s="37"/>
+      <c r="D427" s="36"/>
       <c r="E427" s="3"/>
       <c r="F427" s="3"/>
       <c r="G427" s="3"/>
@@ -13228,7 +13243,7 @@
       <c r="A428" s="1"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
-      <c r="D428" s="37"/>
+      <c r="D428" s="36"/>
       <c r="E428" s="3"/>
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
@@ -13256,7 +13271,7 @@
       <c r="A429" s="1"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
-      <c r="D429" s="37"/>
+      <c r="D429" s="36"/>
       <c r="E429" s="3"/>
       <c r="F429" s="3"/>
       <c r="G429" s="3"/>
@@ -13284,7 +13299,7 @@
       <c r="A430" s="1"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
-      <c r="D430" s="37"/>
+      <c r="D430" s="36"/>
       <c r="E430" s="3"/>
       <c r="F430" s="3"/>
       <c r="G430" s="3"/>
@@ -13312,7 +13327,7 @@
       <c r="A431" s="1"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
-      <c r="D431" s="37"/>
+      <c r="D431" s="36"/>
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
       <c r="G431" s="3"/>
@@ -13340,7 +13355,7 @@
       <c r="A432" s="1"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
-      <c r="D432" s="37"/>
+      <c r="D432" s="36"/>
       <c r="E432" s="3"/>
       <c r="F432" s="3"/>
       <c r="G432" s="3"/>
@@ -13368,7 +13383,7 @@
       <c r="A433" s="1"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
-      <c r="D433" s="37"/>
+      <c r="D433" s="36"/>
       <c r="E433" s="3"/>
       <c r="F433" s="3"/>
       <c r="G433" s="3"/>
@@ -13396,7 +13411,7 @@
       <c r="A434" s="1"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
-      <c r="D434" s="37"/>
+      <c r="D434" s="36"/>
       <c r="E434" s="3"/>
       <c r="F434" s="3"/>
       <c r="G434" s="3"/>
@@ -13424,7 +13439,7 @@
       <c r="A435" s="1"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
-      <c r="D435" s="37"/>
+      <c r="D435" s="36"/>
       <c r="E435" s="3"/>
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
@@ -13452,7 +13467,7 @@
       <c r="A436" s="1"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
-      <c r="D436" s="37"/>
+      <c r="D436" s="36"/>
       <c r="E436" s="3"/>
       <c r="F436" s="3"/>
       <c r="G436" s="3"/>
@@ -13480,7 +13495,7 @@
       <c r="A437" s="1"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
-      <c r="D437" s="37"/>
+      <c r="D437" s="36"/>
       <c r="E437" s="3"/>
       <c r="F437" s="3"/>
       <c r="G437" s="3"/>
@@ -13508,7 +13523,7 @@
       <c r="A438" s="1"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
-      <c r="D438" s="37"/>
+      <c r="D438" s="36"/>
       <c r="E438" s="3"/>
       <c r="F438" s="3"/>
       <c r="G438" s="3"/>
@@ -13536,7 +13551,7 @@
       <c r="A439" s="1"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
-      <c r="D439" s="37"/>
+      <c r="D439" s="36"/>
       <c r="E439" s="3"/>
       <c r="F439" s="3"/>
       <c r="G439" s="3"/>
@@ -13564,7 +13579,7 @@
       <c r="A440" s="1"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
-      <c r="D440" s="37"/>
+      <c r="D440" s="36"/>
       <c r="E440" s="3"/>
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
@@ -13592,7 +13607,7 @@
       <c r="A441" s="1"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
-      <c r="D441" s="37"/>
+      <c r="D441" s="36"/>
       <c r="E441" s="3"/>
       <c r="F441" s="3"/>
       <c r="G441" s="3"/>
@@ -13620,7 +13635,7 @@
       <c r="A442" s="1"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
-      <c r="D442" s="37"/>
+      <c r="D442" s="36"/>
       <c r="E442" s="3"/>
       <c r="F442" s="3"/>
       <c r="G442" s="3"/>
@@ -13648,7 +13663,7 @@
       <c r="A443" s="1"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
-      <c r="D443" s="37"/>
+      <c r="D443" s="36"/>
       <c r="E443" s="3"/>
       <c r="F443" s="3"/>
       <c r="G443" s="3"/>
@@ -13676,7 +13691,7 @@
       <c r="A444" s="1"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
-      <c r="D444" s="37"/>
+      <c r="D444" s="36"/>
       <c r="E444" s="3"/>
       <c r="F444" s="3"/>
       <c r="G444" s="3"/>
@@ -13704,7 +13719,7 @@
       <c r="A445" s="1"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
-      <c r="D445" s="37"/>
+      <c r="D445" s="36"/>
       <c r="E445" s="3"/>
       <c r="F445" s="3"/>
       <c r="G445" s="3"/>
@@ -13732,7 +13747,7 @@
       <c r="A446" s="1"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
-      <c r="D446" s="37"/>
+      <c r="D446" s="36"/>
       <c r="E446" s="3"/>
       <c r="F446" s="3"/>
       <c r="G446" s="3"/>
@@ -13760,7 +13775,7 @@
       <c r="A447" s="1"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
-      <c r="D447" s="37"/>
+      <c r="D447" s="36"/>
       <c r="E447" s="3"/>
       <c r="F447" s="3"/>
       <c r="G447" s="3"/>
@@ -13788,7 +13803,7 @@
       <c r="A448" s="1"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
-      <c r="D448" s="37"/>
+      <c r="D448" s="36"/>
       <c r="E448" s="3"/>
       <c r="F448" s="3"/>
       <c r="G448" s="3"/>
@@ -13816,7 +13831,7 @@
       <c r="A449" s="1"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
-      <c r="D449" s="37"/>
+      <c r="D449" s="36"/>
       <c r="E449" s="3"/>
       <c r="F449" s="3"/>
       <c r="G449" s="3"/>
@@ -13844,7 +13859,7 @@
       <c r="A450" s="1"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
-      <c r="D450" s="37"/>
+      <c r="D450" s="36"/>
       <c r="E450" s="3"/>
       <c r="F450" s="3"/>
       <c r="G450" s="3"/>
@@ -13872,7 +13887,7 @@
       <c r="A451" s="1"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
-      <c r="D451" s="37"/>
+      <c r="D451" s="36"/>
       <c r="E451" s="3"/>
       <c r="F451" s="3"/>
       <c r="G451" s="3"/>
@@ -13900,7 +13915,7 @@
       <c r="A452" s="1"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
-      <c r="D452" s="37"/>
+      <c r="D452" s="36"/>
       <c r="E452" s="3"/>
       <c r="F452" s="3"/>
       <c r="G452" s="3"/>
@@ -13928,7 +13943,7 @@
       <c r="A453" s="1"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
-      <c r="D453" s="37"/>
+      <c r="D453" s="36"/>
       <c r="E453" s="3"/>
       <c r="F453" s="3"/>
       <c r="G453" s="3"/>
@@ -13956,7 +13971,7 @@
       <c r="A454" s="1"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
-      <c r="D454" s="37"/>
+      <c r="D454" s="36"/>
       <c r="E454" s="3"/>
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
@@ -13984,7 +13999,7 @@
       <c r="A455" s="1"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
-      <c r="D455" s="37"/>
+      <c r="D455" s="36"/>
       <c r="E455" s="3"/>
       <c r="F455" s="3"/>
       <c r="G455" s="3"/>
@@ -14012,7 +14027,7 @@
       <c r="A456" s="1"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
-      <c r="D456" s="37"/>
+      <c r="D456" s="36"/>
       <c r="E456" s="3"/>
       <c r="F456" s="3"/>
       <c r="G456" s="3"/>
@@ -14040,7 +14055,7 @@
       <c r="A457" s="1"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
-      <c r="D457" s="37"/>
+      <c r="D457" s="36"/>
       <c r="E457" s="3"/>
       <c r="F457" s="3"/>
       <c r="G457" s="3"/>
@@ -14068,7 +14083,7 @@
       <c r="A458" s="1"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
-      <c r="D458" s="37"/>
+      <c r="D458" s="36"/>
       <c r="E458" s="3"/>
       <c r="F458" s="3"/>
       <c r="G458" s="3"/>
@@ -14096,7 +14111,7 @@
       <c r="A459" s="1"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
-      <c r="D459" s="37"/>
+      <c r="D459" s="36"/>
       <c r="E459" s="3"/>
       <c r="F459" s="3"/>
       <c r="G459" s="3"/>
@@ -14124,7 +14139,7 @@
       <c r="A460" s="1"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
-      <c r="D460" s="37"/>
+      <c r="D460" s="36"/>
       <c r="E460" s="3"/>
       <c r="F460" s="3"/>
       <c r="G460" s="3"/>
@@ -14152,7 +14167,7 @@
       <c r="A461" s="1"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
-      <c r="D461" s="37"/>
+      <c r="D461" s="36"/>
       <c r="E461" s="3"/>
       <c r="F461" s="3"/>
       <c r="G461" s="3"/>
@@ -14180,7 +14195,7 @@
       <c r="A462" s="1"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
-      <c r="D462" s="37"/>
+      <c r="D462" s="36"/>
       <c r="E462" s="3"/>
       <c r="F462" s="3"/>
       <c r="G462" s="3"/>
@@ -14208,7 +14223,7 @@
       <c r="A463" s="1"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
-      <c r="D463" s="37"/>
+      <c r="D463" s="36"/>
       <c r="E463" s="3"/>
       <c r="F463" s="3"/>
       <c r="G463" s="3"/>
@@ -14236,7 +14251,7 @@
       <c r="A464" s="1"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
-      <c r="D464" s="37"/>
+      <c r="D464" s="36"/>
       <c r="E464" s="3"/>
       <c r="F464" s="3"/>
       <c r="G464" s="3"/>
@@ -14264,7 +14279,7 @@
       <c r="A465" s="1"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
-      <c r="D465" s="37"/>
+      <c r="D465" s="36"/>
       <c r="E465" s="3"/>
       <c r="F465" s="3"/>
       <c r="G465" s="3"/>
@@ -14292,7 +14307,7 @@
       <c r="A466" s="1"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
-      <c r="D466" s="37"/>
+      <c r="D466" s="36"/>
       <c r="E466" s="3"/>
       <c r="F466" s="3"/>
       <c r="G466" s="3"/>
@@ -14320,7 +14335,7 @@
       <c r="A467" s="1"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
-      <c r="D467" s="37"/>
+      <c r="D467" s="36"/>
       <c r="E467" s="3"/>
       <c r="F467" s="3"/>
       <c r="G467" s="3"/>
@@ -14348,7 +14363,7 @@
       <c r="A468" s="1"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
-      <c r="D468" s="37"/>
+      <c r="D468" s="36"/>
       <c r="E468" s="3"/>
       <c r="F468" s="3"/>
       <c r="G468" s="3"/>
@@ -14376,7 +14391,7 @@
       <c r="A469" s="1"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
-      <c r="D469" s="37"/>
+      <c r="D469" s="36"/>
       <c r="E469" s="3"/>
       <c r="F469" s="3"/>
       <c r="G469" s="3"/>
@@ -14404,7 +14419,7 @@
       <c r="A470" s="1"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
-      <c r="D470" s="37"/>
+      <c r="D470" s="36"/>
       <c r="E470" s="3"/>
       <c r="F470" s="3"/>
       <c r="G470" s="3"/>
@@ -14432,7 +14447,7 @@
       <c r="A471" s="1"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
-      <c r="D471" s="37"/>
+      <c r="D471" s="36"/>
       <c r="E471" s="3"/>
       <c r="F471" s="3"/>
       <c r="G471" s="3"/>
@@ -14460,7 +14475,7 @@
       <c r="A472" s="1"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
-      <c r="D472" s="37"/>
+      <c r="D472" s="36"/>
       <c r="E472" s="3"/>
       <c r="F472" s="3"/>
       <c r="G472" s="3"/>
@@ -14488,7 +14503,7 @@
       <c r="A473" s="1"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
-      <c r="D473" s="37"/>
+      <c r="D473" s="36"/>
       <c r="E473" s="3"/>
       <c r="F473" s="3"/>
       <c r="G473" s="3"/>
@@ -14516,7 +14531,7 @@
       <c r="A474" s="1"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
-      <c r="D474" s="37"/>
+      <c r="D474" s="36"/>
       <c r="E474" s="3"/>
       <c r="F474" s="3"/>
       <c r="G474" s="3"/>
@@ -14544,7 +14559,7 @@
       <c r="A475" s="1"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
-      <c r="D475" s="37"/>
+      <c r="D475" s="36"/>
       <c r="E475" s="3"/>
       <c r="F475" s="3"/>
       <c r="G475" s="3"/>
@@ -14572,7 +14587,7 @@
       <c r="A476" s="1"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
-      <c r="D476" s="37"/>
+      <c r="D476" s="36"/>
       <c r="E476" s="3"/>
       <c r="F476" s="3"/>
       <c r="G476" s="3"/>
@@ -14600,7 +14615,7 @@
       <c r="A477" s="1"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
-      <c r="D477" s="37"/>
+      <c r="D477" s="36"/>
       <c r="E477" s="3"/>
       <c r="F477" s="3"/>
       <c r="G477" s="3"/>
@@ -14628,7 +14643,7 @@
       <c r="A478" s="1"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
-      <c r="D478" s="37"/>
+      <c r="D478" s="36"/>
       <c r="E478" s="3"/>
       <c r="F478" s="3"/>
       <c r="G478" s="3"/>
@@ -14656,7 +14671,7 @@
       <c r="A479" s="1"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
-      <c r="D479" s="37"/>
+      <c r="D479" s="36"/>
       <c r="E479" s="3"/>
       <c r="F479" s="3"/>
       <c r="G479" s="3"/>
@@ -14684,7 +14699,7 @@
       <c r="A480" s="1"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
-      <c r="D480" s="37"/>
+      <c r="D480" s="36"/>
       <c r="E480" s="3"/>
       <c r="F480" s="3"/>
       <c r="G480" s="3"/>
@@ -14712,7 +14727,7 @@
       <c r="A481" s="1"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
-      <c r="D481" s="37"/>
+      <c r="D481" s="36"/>
       <c r="E481" s="3"/>
       <c r="F481" s="3"/>
       <c r="G481" s="3"/>
@@ -14740,7 +14755,7 @@
       <c r="A482" s="1"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
-      <c r="D482" s="37"/>
+      <c r="D482" s="36"/>
       <c r="E482" s="3"/>
       <c r="F482" s="3"/>
       <c r="G482" s="3"/>
@@ -14768,7 +14783,7 @@
       <c r="A483" s="1"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
-      <c r="D483" s="37"/>
+      <c r="D483" s="36"/>
       <c r="E483" s="3"/>
       <c r="F483" s="3"/>
       <c r="G483" s="3"/>
@@ -14796,7 +14811,7 @@
       <c r="A484" s="1"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
-      <c r="D484" s="37"/>
+      <c r="D484" s="36"/>
       <c r="E484" s="3"/>
       <c r="F484" s="3"/>
       <c r="G484" s="3"/>
@@ -14824,7 +14839,7 @@
       <c r="A485" s="1"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
-      <c r="D485" s="37"/>
+      <c r="D485" s="36"/>
       <c r="E485" s="3"/>
       <c r="F485" s="3"/>
       <c r="G485" s="3"/>
@@ -14852,7 +14867,7 @@
       <c r="A486" s="1"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
-      <c r="D486" s="37"/>
+      <c r="D486" s="36"/>
       <c r="E486" s="3"/>
       <c r="F486" s="3"/>
       <c r="G486" s="3"/>
@@ -14880,7 +14895,7 @@
       <c r="A487" s="1"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
-      <c r="D487" s="37"/>
+      <c r="D487" s="36"/>
       <c r="E487" s="3"/>
       <c r="F487" s="3"/>
       <c r="G487" s="3"/>
@@ -14908,7 +14923,7 @@
       <c r="A488" s="1"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
-      <c r="D488" s="37"/>
+      <c r="D488" s="36"/>
       <c r="E488" s="3"/>
       <c r="F488" s="3"/>
       <c r="G488" s="3"/>
@@ -14936,7 +14951,7 @@
       <c r="A489" s="1"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
-      <c r="D489" s="37"/>
+      <c r="D489" s="36"/>
       <c r="E489" s="3"/>
       <c r="F489" s="3"/>
       <c r="G489" s="3"/>
@@ -14964,7 +14979,7 @@
       <c r="A490" s="1"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
-      <c r="D490" s="37"/>
+      <c r="D490" s="36"/>
       <c r="E490" s="3"/>
       <c r="F490" s="3"/>
       <c r="G490" s="3"/>
@@ -14992,7 +15007,7 @@
       <c r="A491" s="1"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
-      <c r="D491" s="37"/>
+      <c r="D491" s="36"/>
       <c r="E491" s="3"/>
       <c r="F491" s="3"/>
       <c r="G491" s="3"/>
@@ -15020,7 +15035,7 @@
       <c r="A492" s="1"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
-      <c r="D492" s="37"/>
+      <c r="D492" s="36"/>
       <c r="E492" s="3"/>
       <c r="F492" s="3"/>
       <c r="G492" s="3"/>
@@ -15048,7 +15063,7 @@
       <c r="A493" s="1"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
-      <c r="D493" s="37"/>
+      <c r="D493" s="36"/>
       <c r="E493" s="3"/>
       <c r="F493" s="3"/>
       <c r="G493" s="3"/>
@@ -15076,7 +15091,7 @@
       <c r="A494" s="1"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
-      <c r="D494" s="37"/>
+      <c r="D494" s="36"/>
       <c r="E494" s="3"/>
       <c r="F494" s="3"/>
       <c r="G494" s="3"/>
@@ -15104,7 +15119,7 @@
       <c r="A495" s="1"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
-      <c r="D495" s="37"/>
+      <c r="D495" s="36"/>
       <c r="E495" s="3"/>
       <c r="F495" s="3"/>
       <c r="G495" s="3"/>
@@ -15132,7 +15147,7 @@
       <c r="A496" s="1"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
-      <c r="D496" s="37"/>
+      <c r="D496" s="36"/>
       <c r="E496" s="3"/>
       <c r="F496" s="3"/>
       <c r="G496" s="3"/>
@@ -15160,7 +15175,7 @@
       <c r="A497" s="1"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
-      <c r="D497" s="37"/>
+      <c r="D497" s="36"/>
       <c r="E497" s="3"/>
       <c r="F497" s="3"/>
       <c r="G497" s="3"/>
@@ -15188,7 +15203,7 @@
       <c r="A498" s="1"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
-      <c r="D498" s="37"/>
+      <c r="D498" s="36"/>
       <c r="E498" s="3"/>
       <c r="F498" s="3"/>
       <c r="G498" s="3"/>
@@ -15216,7 +15231,7 @@
       <c r="A499" s="1"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
-      <c r="D499" s="37"/>
+      <c r="D499" s="36"/>
       <c r="E499" s="3"/>
       <c r="F499" s="3"/>
       <c r="G499" s="3"/>
@@ -15244,7 +15259,7 @@
       <c r="A500" s="1"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
-      <c r="D500" s="37"/>
+      <c r="D500" s="36"/>
       <c r="E500" s="3"/>
       <c r="F500" s="3"/>
       <c r="G500" s="3"/>
@@ -15272,7 +15287,7 @@
       <c r="A501" s="1"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
-      <c r="D501" s="37"/>
+      <c r="D501" s="36"/>
       <c r="E501" s="3"/>
       <c r="F501" s="3"/>
       <c r="G501" s="3"/>
@@ -15300,7 +15315,7 @@
       <c r="A502" s="1"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
-      <c r="D502" s="37"/>
+      <c r="D502" s="36"/>
       <c r="E502" s="3"/>
       <c r="F502" s="3"/>
       <c r="G502" s="3"/>
@@ -15328,7 +15343,7 @@
       <c r="A503" s="1"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
-      <c r="D503" s="37"/>
+      <c r="D503" s="36"/>
       <c r="E503" s="3"/>
       <c r="F503" s="3"/>
       <c r="G503" s="3"/>
@@ -15356,7 +15371,7 @@
       <c r="A504" s="1"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
-      <c r="D504" s="37"/>
+      <c r="D504" s="36"/>
       <c r="E504" s="3"/>
       <c r="F504" s="3"/>
       <c r="G504" s="3"/>
@@ -15384,7 +15399,7 @@
       <c r="A505" s="1"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
-      <c r="D505" s="37"/>
+      <c r="D505" s="36"/>
       <c r="E505" s="3"/>
       <c r="F505" s="3"/>
       <c r="G505" s="3"/>
@@ -15412,7 +15427,7 @@
       <c r="A506" s="1"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
-      <c r="D506" s="37"/>
+      <c r="D506" s="36"/>
       <c r="E506" s="3"/>
       <c r="F506" s="3"/>
       <c r="G506" s="3"/>
@@ -15440,7 +15455,7 @@
       <c r="A507" s="1"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
-      <c r="D507" s="37"/>
+      <c r="D507" s="36"/>
       <c r="E507" s="3"/>
       <c r="F507" s="3"/>
       <c r="G507" s="3"/>
@@ -15468,7 +15483,7 @@
       <c r="A508" s="1"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
-      <c r="D508" s="37"/>
+      <c r="D508" s="36"/>
       <c r="E508" s="3"/>
       <c r="F508" s="3"/>
       <c r="G508" s="3"/>
@@ -15496,7 +15511,7 @@
       <c r="A509" s="1"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
-      <c r="D509" s="37"/>
+      <c r="D509" s="36"/>
       <c r="E509" s="3"/>
       <c r="F509" s="3"/>
       <c r="G509" s="3"/>
@@ -15524,7 +15539,7 @@
       <c r="A510" s="1"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
-      <c r="D510" s="37"/>
+      <c r="D510" s="36"/>
       <c r="E510" s="3"/>
       <c r="F510" s="3"/>
       <c r="G510" s="3"/>
@@ -15552,7 +15567,7 @@
       <c r="A511" s="1"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
-      <c r="D511" s="37"/>
+      <c r="D511" s="36"/>
       <c r="E511" s="3"/>
       <c r="F511" s="3"/>
       <c r="G511" s="3"/>
@@ -15580,7 +15595,7 @@
       <c r="A512" s="1"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
-      <c r="D512" s="37"/>
+      <c r="D512" s="36"/>
       <c r="E512" s="3"/>
       <c r="F512" s="3"/>
       <c r="G512" s="3"/>
@@ -15608,7 +15623,7 @@
       <c r="A513" s="1"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
-      <c r="D513" s="37"/>
+      <c r="D513" s="36"/>
       <c r="E513" s="3"/>
       <c r="F513" s="3"/>
       <c r="G513" s="3"/>
@@ -15636,7 +15651,7 @@
       <c r="A514" s="1"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
-      <c r="D514" s="37"/>
+      <c r="D514" s="36"/>
       <c r="E514" s="3"/>
       <c r="F514" s="3"/>
       <c r="G514" s="3"/>
@@ -15664,7 +15679,7 @@
       <c r="A515" s="1"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
-      <c r="D515" s="37"/>
+      <c r="D515" s="36"/>
       <c r="E515" s="3"/>
       <c r="F515" s="3"/>
       <c r="G515" s="3"/>
@@ -15692,7 +15707,7 @@
       <c r="A516" s="1"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
-      <c r="D516" s="37"/>
+      <c r="D516" s="36"/>
       <c r="E516" s="3"/>
       <c r="F516" s="3"/>
       <c r="G516" s="3"/>
@@ -15720,7 +15735,7 @@
       <c r="A517" s="1"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
-      <c r="D517" s="37"/>
+      <c r="D517" s="36"/>
       <c r="E517" s="3"/>
       <c r="F517" s="3"/>
       <c r="G517" s="3"/>
@@ -15748,7 +15763,7 @@
       <c r="A518" s="1"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
-      <c r="D518" s="37"/>
+      <c r="D518" s="36"/>
       <c r="E518" s="3"/>
       <c r="F518" s="3"/>
       <c r="G518" s="3"/>
@@ -15776,7 +15791,7 @@
       <c r="A519" s="1"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
-      <c r="D519" s="37"/>
+      <c r="D519" s="36"/>
       <c r="E519" s="3"/>
       <c r="F519" s="3"/>
       <c r="G519" s="3"/>
@@ -15804,7 +15819,7 @@
       <c r="A520" s="1"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
-      <c r="D520" s="37"/>
+      <c r="D520" s="36"/>
       <c r="E520" s="3"/>
       <c r="F520" s="3"/>
       <c r="G520" s="3"/>
@@ -15832,7 +15847,7 @@
       <c r="A521" s="1"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
-      <c r="D521" s="37"/>
+      <c r="D521" s="36"/>
       <c r="E521" s="3"/>
       <c r="F521" s="3"/>
       <c r="G521" s="3"/>
@@ -15860,7 +15875,7 @@
       <c r="A522" s="1"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
-      <c r="D522" s="37"/>
+      <c r="D522" s="36"/>
       <c r="E522" s="3"/>
       <c r="F522" s="3"/>
       <c r="G522" s="3"/>
@@ -15888,7 +15903,7 @@
       <c r="A523" s="1"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
-      <c r="D523" s="37"/>
+      <c r="D523" s="36"/>
       <c r="E523" s="3"/>
       <c r="F523" s="3"/>
       <c r="G523" s="3"/>
@@ -15916,7 +15931,7 @@
       <c r="A524" s="1"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
-      <c r="D524" s="37"/>
+      <c r="D524" s="36"/>
       <c r="E524" s="3"/>
       <c r="F524" s="3"/>
       <c r="G524" s="3"/>
@@ -15944,7 +15959,7 @@
       <c r="A525" s="1"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
-      <c r="D525" s="37"/>
+      <c r="D525" s="36"/>
       <c r="E525" s="3"/>
       <c r="F525" s="3"/>
       <c r="G525" s="3"/>
@@ -15972,7 +15987,7 @@
       <c r="A526" s="1"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
-      <c r="D526" s="37"/>
+      <c r="D526" s="36"/>
       <c r="E526" s="3"/>
       <c r="F526" s="3"/>
       <c r="G526" s="3"/>
@@ -16000,7 +16015,7 @@
       <c r="A527" s="1"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
-      <c r="D527" s="37"/>
+      <c r="D527" s="36"/>
       <c r="E527" s="3"/>
       <c r="F527" s="3"/>
       <c r="G527" s="3"/>
@@ -16028,7 +16043,7 @@
       <c r="A528" s="1"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
-      <c r="D528" s="37"/>
+      <c r="D528" s="36"/>
       <c r="E528" s="3"/>
       <c r="F528" s="3"/>
       <c r="G528" s="3"/>
@@ -16056,7 +16071,7 @@
       <c r="A529" s="1"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
-      <c r="D529" s="37"/>
+      <c r="D529" s="36"/>
       <c r="E529" s="3"/>
       <c r="F529" s="3"/>
       <c r="G529" s="3"/>
@@ -16084,7 +16099,7 @@
       <c r="A530" s="1"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
-      <c r="D530" s="37"/>
+      <c r="D530" s="36"/>
       <c r="E530" s="3"/>
       <c r="F530" s="3"/>
       <c r="G530" s="3"/>
@@ -16112,7 +16127,7 @@
       <c r="A531" s="1"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
-      <c r="D531" s="37"/>
+      <c r="D531" s="36"/>
       <c r="E531" s="3"/>
       <c r="F531" s="3"/>
       <c r="G531" s="3"/>
@@ -16140,7 +16155,7 @@
       <c r="A532" s="1"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
-      <c r="D532" s="37"/>
+      <c r="D532" s="36"/>
       <c r="E532" s="3"/>
       <c r="F532" s="3"/>
       <c r="G532" s="3"/>
@@ -16168,7 +16183,7 @@
       <c r="A533" s="1"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
-      <c r="D533" s="37"/>
+      <c r="D533" s="36"/>
       <c r="E533" s="3"/>
       <c r="F533" s="3"/>
       <c r="G533" s="3"/>
@@ -16196,7 +16211,7 @@
       <c r="A534" s="1"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
-      <c r="D534" s="37"/>
+      <c r="D534" s="36"/>
       <c r="E534" s="3"/>
       <c r="F534" s="3"/>
       <c r="G534" s="3"/>
@@ -16224,7 +16239,7 @@
       <c r="A535" s="1"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
-      <c r="D535" s="37"/>
+      <c r="D535" s="36"/>
       <c r="E535" s="3"/>
       <c r="F535" s="3"/>
       <c r="G535" s="3"/>
@@ -16252,7 +16267,7 @@
       <c r="A536" s="1"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
-      <c r="D536" s="37"/>
+      <c r="D536" s="36"/>
       <c r="E536" s="3"/>
       <c r="F536" s="3"/>
       <c r="G536" s="3"/>
@@ -16280,7 +16295,7 @@
       <c r="A537" s="1"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
-      <c r="D537" s="37"/>
+      <c r="D537" s="36"/>
       <c r="E537" s="3"/>
       <c r="F537" s="3"/>
       <c r="G537" s="3"/>
@@ -16308,7 +16323,7 @@
       <c r="A538" s="1"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
-      <c r="D538" s="37"/>
+      <c r="D538" s="36"/>
       <c r="E538" s="3"/>
       <c r="F538" s="3"/>
       <c r="G538" s="3"/>
@@ -16336,7 +16351,7 @@
       <c r="A539" s="1"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
-      <c r="D539" s="37"/>
+      <c r="D539" s="36"/>
       <c r="E539" s="3"/>
       <c r="F539" s="3"/>
       <c r="G539" s="3"/>
@@ -16364,7 +16379,7 @@
       <c r="A540" s="1"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
-      <c r="D540" s="37"/>
+      <c r="D540" s="36"/>
       <c r="E540" s="3"/>
       <c r="F540" s="3"/>
       <c r="G540" s="3"/>
@@ -16392,7 +16407,7 @@
       <c r="A541" s="1"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
-      <c r="D541" s="37"/>
+      <c r="D541" s="36"/>
       <c r="E541" s="3"/>
       <c r="F541" s="3"/>
       <c r="G541" s="3"/>
@@ -16420,7 +16435,7 @@
       <c r="A542" s="1"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
-      <c r="D542" s="37"/>
+      <c r="D542" s="36"/>
       <c r="E542" s="3"/>
       <c r="F542" s="3"/>
       <c r="G542" s="3"/>
@@ -16448,7 +16463,7 @@
       <c r="A543" s="1"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
-      <c r="D543" s="37"/>
+      <c r="D543" s="36"/>
       <c r="E543" s="3"/>
       <c r="F543" s="3"/>
       <c r="G543" s="3"/>
@@ -16476,7 +16491,7 @@
       <c r="A544" s="1"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
-      <c r="D544" s="37"/>
+      <c r="D544" s="36"/>
       <c r="E544" s="3"/>
       <c r="F544" s="3"/>
       <c r="G544" s="3"/>
@@ -16504,7 +16519,7 @@
       <c r="A545" s="1"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
-      <c r="D545" s="37"/>
+      <c r="D545" s="36"/>
       <c r="E545" s="3"/>
       <c r="F545" s="3"/>
       <c r="G545" s="3"/>
@@ -16532,7 +16547,7 @@
       <c r="A546" s="1"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
-      <c r="D546" s="37"/>
+      <c r="D546" s="36"/>
       <c r="E546" s="3"/>
       <c r="F546" s="3"/>
       <c r="G546" s="3"/>
@@ -16560,7 +16575,7 @@
       <c r="A547" s="1"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
-      <c r="D547" s="37"/>
+      <c r="D547" s="36"/>
       <c r="E547" s="3"/>
       <c r="F547" s="3"/>
       <c r="G547" s="3"/>
@@ -16588,7 +16603,7 @@
       <c r="A548" s="1"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
-      <c r="D548" s="37"/>
+      <c r="D548" s="36"/>
       <c r="E548" s="3"/>
       <c r="F548" s="3"/>
       <c r="G548" s="3"/>
@@ -16616,7 +16631,7 @@
       <c r="A549" s="1"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
-      <c r="D549" s="37"/>
+      <c r="D549" s="36"/>
       <c r="E549" s="3"/>
       <c r="F549" s="3"/>
       <c r="G549" s="3"/>
@@ -16644,7 +16659,7 @@
       <c r="A550" s="1"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
-      <c r="D550" s="37"/>
+      <c r="D550" s="36"/>
       <c r="E550" s="3"/>
       <c r="F550" s="3"/>
       <c r="G550" s="3"/>
@@ -16672,7 +16687,7 @@
       <c r="A551" s="1"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
-      <c r="D551" s="37"/>
+      <c r="D551" s="36"/>
       <c r="E551" s="3"/>
       <c r="F551" s="3"/>
       <c r="G551" s="3"/>
@@ -16700,7 +16715,7 @@
       <c r="A552" s="1"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
-      <c r="D552" s="37"/>
+      <c r="D552" s="36"/>
       <c r="E552" s="3"/>
       <c r="F552" s="3"/>
       <c r="G552" s="3"/>
@@ -16728,7 +16743,7 @@
       <c r="A553" s="1"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
-      <c r="D553" s="37"/>
+      <c r="D553" s="36"/>
       <c r="E553" s="3"/>
       <c r="F553" s="3"/>
       <c r="G553" s="3"/>
@@ -16756,7 +16771,7 @@
       <c r="A554" s="1"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
-      <c r="D554" s="37"/>
+      <c r="D554" s="36"/>
       <c r="E554" s="3"/>
       <c r="F554" s="3"/>
       <c r="G554" s="3"/>
@@ -16784,7 +16799,7 @@
       <c r="A555" s="1"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
-      <c r="D555" s="37"/>
+      <c r="D555" s="36"/>
       <c r="E555" s="3"/>
       <c r="F555" s="3"/>
       <c r="G555" s="3"/>
@@ -16812,7 +16827,7 @@
       <c r="A556" s="1"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
-      <c r="D556" s="37"/>
+      <c r="D556" s="36"/>
       <c r="E556" s="3"/>
       <c r="F556" s="3"/>
       <c r="G556" s="3"/>
@@ -16840,7 +16855,7 @@
       <c r="A557" s="1"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
-      <c r="D557" s="37"/>
+      <c r="D557" s="36"/>
       <c r="E557" s="3"/>
       <c r="F557" s="3"/>
       <c r="G557" s="3"/>
@@ -16868,7 +16883,7 @@
       <c r="A558" s="1"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
-      <c r="D558" s="37"/>
+      <c r="D558" s="36"/>
       <c r="E558" s="3"/>
       <c r="F558" s="3"/>
       <c r="G558" s="3"/>
@@ -16896,7 +16911,7 @@
       <c r="A559" s="1"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
-      <c r="D559" s="37"/>
+      <c r="D559" s="36"/>
       <c r="E559" s="3"/>
       <c r="F559" s="3"/>
       <c r="G559" s="3"/>
@@ -16924,7 +16939,7 @@
       <c r="A560" s="1"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
-      <c r="D560" s="37"/>
+      <c r="D560" s="36"/>
       <c r="E560" s="3"/>
       <c r="F560" s="3"/>
       <c r="G560" s="3"/>
@@ -16952,7 +16967,7 @@
       <c r="A561" s="1"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
-      <c r="D561" s="37"/>
+      <c r="D561" s="36"/>
       <c r="E561" s="3"/>
       <c r="F561" s="3"/>
       <c r="G561" s="3"/>
@@ -16980,7 +16995,7 @@
       <c r="A562" s="1"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
-      <c r="D562" s="37"/>
+      <c r="D562" s="36"/>
       <c r="E562" s="3"/>
       <c r="F562" s="3"/>
       <c r="G562" s="3"/>
@@ -17008,7 +17023,7 @@
       <c r="A563" s="1"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
-      <c r="D563" s="37"/>
+      <c r="D563" s="36"/>
       <c r="E563" s="3"/>
       <c r="F563" s="3"/>
       <c r="G563" s="3"/>
@@ -17036,7 +17051,7 @@
       <c r="A564" s="1"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
-      <c r="D564" s="37"/>
+      <c r="D564" s="36"/>
       <c r="E564" s="3"/>
       <c r="F564" s="3"/>
       <c r="G564" s="3"/>
@@ -17064,7 +17079,7 @@
       <c r="A565" s="1"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
-      <c r="D565" s="37"/>
+      <c r="D565" s="36"/>
       <c r="E565" s="3"/>
       <c r="F565" s="3"/>
       <c r="G565" s="3"/>
@@ -17092,7 +17107,7 @@
       <c r="A566" s="1"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
-      <c r="D566" s="37"/>
+      <c r="D566" s="36"/>
       <c r="E566" s="3"/>
       <c r="F566" s="3"/>
       <c r="G566" s="3"/>
@@ -17120,7 +17135,7 @@
       <c r="A567" s="1"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
-      <c r="D567" s="37"/>
+      <c r="D567" s="36"/>
       <c r="E567" s="3"/>
       <c r="F567" s="3"/>
       <c r="G567" s="3"/>
@@ -17148,7 +17163,7 @@
       <c r="A568" s="1"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
-      <c r="D568" s="37"/>
+      <c r="D568" s="36"/>
       <c r="E568" s="3"/>
       <c r="F568" s="3"/>
       <c r="G568" s="3"/>
@@ -17176,7 +17191,7 @@
       <c r="A569" s="1"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
-      <c r="D569" s="37"/>
+      <c r="D569" s="36"/>
       <c r="E569" s="3"/>
       <c r="F569" s="3"/>
       <c r="G569" s="3"/>
@@ -17204,7 +17219,7 @@
       <c r="A570" s="1"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
-      <c r="D570" s="37"/>
+      <c r="D570" s="36"/>
       <c r="E570" s="3"/>
       <c r="F570" s="3"/>
       <c r="G570" s="3"/>
@@ -17232,7 +17247,7 @@
       <c r="A571" s="1"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
-      <c r="D571" s="37"/>
+      <c r="D571" s="36"/>
       <c r="E571" s="3"/>
       <c r="F571" s="3"/>
       <c r="G571" s="3"/>
@@ -17260,7 +17275,7 @@
       <c r="A572" s="1"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
-      <c r="D572" s="37"/>
+      <c r="D572" s="36"/>
       <c r="E572" s="3"/>
       <c r="F572" s="3"/>
       <c r="G572" s="3"/>
@@ -17288,7 +17303,7 @@
       <c r="A573" s="1"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
-      <c r="D573" s="37"/>
+      <c r="D573" s="36"/>
       <c r="E573" s="3"/>
       <c r="F573" s="3"/>
       <c r="G573" s="3"/>
@@ -17316,7 +17331,7 @@
       <c r="A574" s="1"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
-      <c r="D574" s="37"/>
+      <c r="D574" s="36"/>
       <c r="E574" s="3"/>
       <c r="F574" s="3"/>
       <c r="G574" s="3"/>
@@ -17344,7 +17359,7 @@
       <c r="A575" s="1"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
-      <c r="D575" s="37"/>
+      <c r="D575" s="36"/>
       <c r="E575" s="3"/>
       <c r="F575" s="3"/>
       <c r="G575" s="3"/>
@@ -17372,7 +17387,7 @@
       <c r="A576" s="1"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
-      <c r="D576" s="37"/>
+      <c r="D576" s="36"/>
       <c r="E576" s="3"/>
       <c r="F576" s="3"/>
       <c r="G576" s="3"/>
@@ -17400,7 +17415,7 @@
       <c r="A577" s="1"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
-      <c r="D577" s="37"/>
+      <c r="D577" s="36"/>
       <c r="E577" s="3"/>
       <c r="F577" s="3"/>
       <c r="G577" s="3"/>
@@ -17428,7 +17443,7 @@
       <c r="A578" s="1"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
-      <c r="D578" s="37"/>
+      <c r="D578" s="36"/>
       <c r="E578" s="3"/>
       <c r="F578" s="3"/>
       <c r="G578" s="3"/>
@@ -17456,7 +17471,7 @@
       <c r="A579" s="1"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
-      <c r="D579" s="37"/>
+      <c r="D579" s="36"/>
       <c r="E579" s="3"/>
       <c r="F579" s="3"/>
       <c r="G579" s="3"/>
@@ -17484,7 +17499,7 @@
       <c r="A580" s="1"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
-      <c r="D580" s="37"/>
+      <c r="D580" s="36"/>
       <c r="E580" s="3"/>
       <c r="F580" s="3"/>
       <c r="G580" s="3"/>
@@ -17512,7 +17527,7 @@
       <c r="A581" s="1"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
-      <c r="D581" s="37"/>
+      <c r="D581" s="36"/>
       <c r="E581" s="3"/>
       <c r="F581" s="3"/>
       <c r="G581" s="3"/>
@@ -17540,7 +17555,7 @@
       <c r="A582" s="1"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
-      <c r="D582" s="37"/>
+      <c r="D582" s="36"/>
       <c r="E582" s="3"/>
       <c r="F582" s="3"/>
       <c r="G582" s="3"/>
@@ -17568,7 +17583,7 @@
       <c r="A583" s="1"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
-      <c r="D583" s="37"/>
+      <c r="D583" s="36"/>
       <c r="E583" s="3"/>
       <c r="F583" s="3"/>
       <c r="G583" s="3"/>
@@ -17596,7 +17611,7 @@
       <c r="A584" s="1"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
-      <c r="D584" s="37"/>
+      <c r="D584" s="36"/>
       <c r="E584" s="3"/>
       <c r="F584" s="3"/>
       <c r="G584" s="3"/>
@@ -17624,7 +17639,7 @@
       <c r="A585" s="1"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
-      <c r="D585" s="37"/>
+      <c r="D585" s="36"/>
       <c r="E585" s="3"/>
       <c r="F585" s="3"/>
       <c r="G585" s="3"/>
@@ -17652,7 +17667,7 @@
       <c r="A586" s="1"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
-      <c r="D586" s="37"/>
+      <c r="D586" s="36"/>
       <c r="E586" s="3"/>
       <c r="F586" s="3"/>
       <c r="G586" s="3"/>
@@ -17680,7 +17695,7 @@
       <c r="A587" s="1"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
-      <c r="D587" s="37"/>
+      <c r="D587" s="36"/>
       <c r="E587" s="3"/>
       <c r="F587" s="3"/>
       <c r="G587" s="3"/>
@@ -17708,7 +17723,7 @@
       <c r="A588" s="1"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
-      <c r="D588" s="37"/>
+      <c r="D588" s="36"/>
       <c r="E588" s="3"/>
       <c r="F588" s="3"/>
       <c r="G588" s="3"/>
@@ -17736,7 +17751,7 @@
       <c r="A589" s="1"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
-      <c r="D589" s="37"/>
+      <c r="D589" s="36"/>
       <c r="E589" s="3"/>
       <c r="F589" s="3"/>
       <c r="G589" s="3"/>
@@ -17764,7 +17779,7 @@
       <c r="A590" s="1"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
-      <c r="D590" s="37"/>
+      <c r="D590" s="36"/>
       <c r="E590" s="3"/>
       <c r="F590" s="3"/>
       <c r="G590" s="3"/>
@@ -17792,7 +17807,7 @@
       <c r="A591" s="1"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
-      <c r="D591" s="37"/>
+      <c r="D591" s="36"/>
       <c r="E591" s="3"/>
       <c r="F591" s="3"/>
       <c r="G591" s="3"/>
@@ -17820,7 +17835,7 @@
       <c r="A592" s="1"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
-      <c r="D592" s="37"/>
+      <c r="D592" s="36"/>
       <c r="E592" s="3"/>
       <c r="F592" s="3"/>
       <c r="G592" s="3"/>
@@ -17848,7 +17863,7 @@
       <c r="A593" s="1"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
-      <c r="D593" s="37"/>
+      <c r="D593" s="36"/>
       <c r="E593" s="3"/>
       <c r="F593" s="3"/>
       <c r="G593" s="3"/>
@@ -17876,7 +17891,7 @@
       <c r="A594" s="1"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
-      <c r="D594" s="37"/>
+      <c r="D594" s="36"/>
       <c r="E594" s="3"/>
       <c r="F594" s="3"/>
       <c r="G594" s="3"/>
@@ -17904,7 +17919,7 @@
       <c r="A595" s="1"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
-      <c r="D595" s="37"/>
+      <c r="D595" s="36"/>
       <c r="E595" s="3"/>
       <c r="F595" s="3"/>
       <c r="G595" s="3"/>
@@ -17932,7 +17947,7 @@
       <c r="A596" s="1"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
-      <c r="D596" s="37"/>
+      <c r="D596" s="36"/>
       <c r="E596" s="3"/>
       <c r="F596" s="3"/>
       <c r="G596" s="3"/>
@@ -17960,7 +17975,7 @@
       <c r="A597" s="1"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
-      <c r="D597" s="37"/>
+      <c r="D597" s="36"/>
       <c r="E597" s="3"/>
       <c r="F597" s="3"/>
       <c r="G597" s="3"/>
@@ -17988,7 +18003,7 @@
       <c r="A598" s="1"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
-      <c r="D598" s="37"/>
+      <c r="D598" s="36"/>
       <c r="E598" s="3"/>
       <c r="F598" s="3"/>
       <c r="G598" s="3"/>
@@ -18016,7 +18031,7 @@
       <c r="A599" s="1"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
-      <c r="D599" s="37"/>
+      <c r="D599" s="36"/>
       <c r="E599" s="3"/>
       <c r="F599" s="3"/>
       <c r="G599" s="3"/>
@@ -18044,7 +18059,7 @@
       <c r="A600" s="1"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
-      <c r="D600" s="37"/>
+      <c r="D600" s="36"/>
       <c r="E600" s="3"/>
       <c r="F600" s="3"/>
       <c r="G600" s="3"/>
@@ -18072,7 +18087,7 @@
       <c r="A601" s="1"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
-      <c r="D601" s="37"/>
+      <c r="D601" s="36"/>
       <c r="E601" s="3"/>
       <c r="F601" s="3"/>
       <c r="G601" s="3"/>
@@ -18100,7 +18115,7 @@
       <c r="A602" s="1"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
-      <c r="D602" s="37"/>
+      <c r="D602" s="36"/>
       <c r="E602" s="3"/>
       <c r="F602" s="3"/>
       <c r="G602" s="3"/>
@@ -18128,7 +18143,7 @@
       <c r="A603" s="1"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
-      <c r="D603" s="37"/>
+      <c r="D603" s="36"/>
       <c r="E603" s="3"/>
       <c r="F603" s="3"/>
       <c r="G603" s="3"/>
@@ -18156,7 +18171,7 @@
       <c r="A604" s="1"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
-      <c r="D604" s="37"/>
+      <c r="D604" s="36"/>
       <c r="E604" s="3"/>
       <c r="F604" s="3"/>
       <c r="G604" s="3"/>
@@ -18184,7 +18199,7 @@
       <c r="A605" s="1"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
-      <c r="D605" s="37"/>
+      <c r="D605" s="36"/>
       <c r="E605" s="3"/>
       <c r="F605" s="3"/>
       <c r="G605" s="3"/>
@@ -18212,7 +18227,7 @@
       <c r="A606" s="1"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
-      <c r="D606" s="37"/>
+      <c r="D606" s="36"/>
       <c r="E606" s="3"/>
       <c r="F606" s="3"/>
       <c r="G606" s="3"/>
@@ -18240,7 +18255,7 @@
       <c r="A607" s="1"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
-      <c r="D607" s="37"/>
+      <c r="D607" s="36"/>
       <c r="E607" s="3"/>
       <c r="F607" s="3"/>
       <c r="G607" s="3"/>
@@ -18268,7 +18283,7 @@
       <c r="A608" s="1"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
-      <c r="D608" s="37"/>
+      <c r="D608" s="36"/>
       <c r="E608" s="3"/>
       <c r="F608" s="3"/>
       <c r="G608" s="3"/>
@@ -18296,7 +18311,7 @@
       <c r="A609" s="1"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
-      <c r="D609" s="37"/>
+      <c r="D609" s="36"/>
       <c r="E609" s="3"/>
       <c r="F609" s="3"/>
       <c r="G609" s="3"/>
@@ -18324,7 +18339,7 @@
       <c r="A610" s="1"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
-      <c r="D610" s="37"/>
+      <c r="D610" s="36"/>
       <c r="E610" s="3"/>
       <c r="F610" s="3"/>
       <c r="G610" s="3"/>
@@ -18352,7 +18367,7 @@
       <c r="A611" s="1"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
-      <c r="D611" s="37"/>
+      <c r="D611" s="36"/>
       <c r="E611" s="3"/>
       <c r="F611" s="3"/>
       <c r="G611" s="3"/>
@@ -18380,7 +18395,7 @@
       <c r="A612" s="1"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
-      <c r="D612" s="37"/>
+      <c r="D612" s="36"/>
       <c r="E612" s="3"/>
       <c r="F612" s="3"/>
       <c r="G612" s="3"/>
@@ -18408,7 +18423,7 @@
       <c r="A613" s="1"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
-      <c r="D613" s="37"/>
+      <c r="D613" s="36"/>
       <c r="E613" s="3"/>
       <c r="F613" s="3"/>
       <c r="G613" s="3"/>
@@ -18436,7 +18451,7 @@
       <c r="A614" s="1"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
-      <c r="D614" s="37"/>
+      <c r="D614" s="36"/>
       <c r="E614" s="3"/>
       <c r="F614" s="3"/>
       <c r="G614" s="3"/>
@@ -18464,7 +18479,7 @@
       <c r="A615" s="1"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
-      <c r="D615" s="37"/>
+      <c r="D615" s="36"/>
       <c r="E615" s="3"/>
       <c r="F615" s="3"/>
       <c r="G615" s="3"/>
@@ -18492,7 +18507,7 @@
       <c r="A616" s="1"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
-      <c r="D616" s="37"/>
+      <c r="D616" s="36"/>
       <c r="E616" s="3"/>
       <c r="F616" s="3"/>
       <c r="G616" s="3"/>
@@ -18520,7 +18535,7 @@
       <c r="A617" s="1"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
-      <c r="D617" s="37"/>
+      <c r="D617" s="36"/>
       <c r="E617" s="3"/>
       <c r="F617" s="3"/>
       <c r="G617" s="3"/>
@@ -18548,7 +18563,7 @@
       <c r="A618" s="1"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
-      <c r="D618" s="37"/>
+      <c r="D618" s="36"/>
       <c r="E618" s="3"/>
       <c r="F618" s="3"/>
       <c r="G618" s="3"/>
@@ -18576,7 +18591,7 @@
       <c r="A619" s="1"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
-      <c r="D619" s="37"/>
+      <c r="D619" s="36"/>
       <c r="E619" s="3"/>
       <c r="F619" s="3"/>
       <c r="G619" s="3"/>
@@ -18604,7 +18619,7 @@
       <c r="A620" s="1"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
-      <c r="D620" s="37"/>
+      <c r="D620" s="36"/>
       <c r="E620" s="3"/>
       <c r="F620" s="3"/>
       <c r="G620" s="3"/>
@@ -18632,7 +18647,7 @@
       <c r="A621" s="1"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
-      <c r="D621" s="37"/>
+      <c r="D621" s="36"/>
       <c r="E621" s="3"/>
       <c r="F621" s="3"/>
       <c r="G621" s="3"/>
@@ -18660,7 +18675,7 @@
       <c r="A622" s="1"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
-      <c r="D622" s="37"/>
+      <c r="D622" s="36"/>
       <c r="E622" s="3"/>
       <c r="F622" s="3"/>
       <c r="G622" s="3"/>
@@ -18688,7 +18703,7 @@
       <c r="A623" s="1"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
-      <c r="D623" s="37"/>
+      <c r="D623" s="36"/>
       <c r="E623" s="3"/>
       <c r="F623" s="3"/>
       <c r="G623" s="3"/>
@@ -18716,7 +18731,7 @@
       <c r="A624" s="1"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
-      <c r="D624" s="37"/>
+      <c r="D624" s="36"/>
       <c r="E624" s="3"/>
       <c r="F624" s="3"/>
       <c r="G624" s="3"/>
@@ -18744,7 +18759,7 @@
       <c r="A625" s="1"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
-      <c r="D625" s="37"/>
+      <c r="D625" s="36"/>
       <c r="E625" s="3"/>
       <c r="F625" s="3"/>
       <c r="G625" s="3"/>
@@ -18772,7 +18787,7 @@
       <c r="A626" s="1"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
-      <c r="D626" s="37"/>
+      <c r="D626" s="36"/>
       <c r="E626" s="3"/>
       <c r="F626" s="3"/>
       <c r="G626" s="3"/>
@@ -18800,7 +18815,7 @@
       <c r="A627" s="1"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
-      <c r="D627" s="37"/>
+      <c r="D627" s="36"/>
       <c r="E627" s="3"/>
       <c r="F627" s="3"/>
       <c r="G627" s="3"/>
@@ -18828,7 +18843,7 @@
       <c r="A628" s="1"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
-      <c r="D628" s="37"/>
+      <c r="D628" s="36"/>
       <c r="E628" s="3"/>
       <c r="F628" s="3"/>
       <c r="G628" s="3"/>
@@ -18856,7 +18871,7 @@
       <c r="A629" s="1"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
-      <c r="D629" s="37"/>
+      <c r="D629" s="36"/>
       <c r="E629" s="3"/>
       <c r="F629" s="3"/>
       <c r="G629" s="3"/>
@@ -18884,7 +18899,7 @@
       <c r="A630" s="1"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
-      <c r="D630" s="37"/>
+      <c r="D630" s="36"/>
       <c r="E630" s="3"/>
       <c r="F630" s="3"/>
       <c r="G630" s="3"/>
@@ -18912,7 +18927,7 @@
       <c r="A631" s="1"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
-      <c r="D631" s="37"/>
+      <c r="D631" s="36"/>
       <c r="E631" s="3"/>
       <c r="F631" s="3"/>
       <c r="G631" s="3"/>
@@ -18940,7 +18955,7 @@
       <c r="A632" s="1"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
-      <c r="D632" s="37"/>
+      <c r="D632" s="36"/>
       <c r="E632" s="3"/>
       <c r="F632" s="3"/>
       <c r="G632" s="3"/>
@@ -18968,7 +18983,7 @@
       <c r="A633" s="1"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
-      <c r="D633" s="37"/>
+      <c r="D633" s="36"/>
       <c r="E633" s="3"/>
       <c r="F633" s="3"/>
       <c r="G633" s="3"/>
@@ -18996,7 +19011,7 @@
       <c r="A634" s="1"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
-      <c r="D634" s="37"/>
+      <c r="D634" s="36"/>
       <c r="E634" s="3"/>
       <c r="F634" s="3"/>
       <c r="G634" s="3"/>
@@ -19024,7 +19039,7 @@
       <c r="A635" s="1"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
-      <c r="D635" s="37"/>
+      <c r="D635" s="36"/>
       <c r="E635" s="3"/>
       <c r="F635" s="3"/>
       <c r="G635" s="3"/>
@@ -19052,7 +19067,7 @@
       <c r="A636" s="1"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
-      <c r="D636" s="37"/>
+      <c r="D636" s="36"/>
       <c r="E636" s="3"/>
       <c r="F636" s="3"/>
       <c r="G636" s="3"/>
@@ -19080,7 +19095,7 @@
       <c r="A637" s="1"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
-      <c r="D637" s="37"/>
+      <c r="D637" s="36"/>
       <c r="E637" s="3"/>
       <c r="F637" s="3"/>
       <c r="G637" s="3"/>
@@ -19108,7 +19123,7 @@
       <c r="A638" s="1"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
-      <c r="D638" s="37"/>
+      <c r="D638" s="36"/>
       <c r="E638" s="3"/>
       <c r="F638" s="3"/>
       <c r="G638" s="3"/>
@@ -19136,7 +19151,7 @@
       <c r="A639" s="1"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
-      <c r="D639" s="37"/>
+      <c r="D639" s="36"/>
       <c r="E639" s="3"/>
       <c r="F639" s="3"/>
       <c r="G639" s="3"/>
@@ -19164,7 +19179,7 @@
       <c r="A640" s="1"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
-      <c r="D640" s="37"/>
+      <c r="D640" s="36"/>
       <c r="E640" s="3"/>
       <c r="F640" s="3"/>
       <c r="G640" s="3"/>
@@ -19192,7 +19207,7 @@
       <c r="A641" s="1"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
-      <c r="D641" s="37"/>
+      <c r="D641" s="36"/>
       <c r="E641" s="3"/>
       <c r="F641" s="3"/>
       <c r="G641" s="3"/>
@@ -19220,7 +19235,7 @@
       <c r="A642" s="1"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
-      <c r="D642" s="37"/>
+      <c r="D642" s="36"/>
       <c r="E642" s="3"/>
       <c r="F642" s="3"/>
       <c r="G642" s="3"/>
@@ -19248,7 +19263,7 @@
       <c r="A643" s="1"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
-      <c r="D643" s="37"/>
+      <c r="D643" s="36"/>
       <c r="E643" s="3"/>
       <c r="F643" s="3"/>
       <c r="G643" s="3"/>
@@ -19276,7 +19291,7 @@
       <c r="A644" s="1"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
-      <c r="D644" s="37"/>
+      <c r="D644" s="36"/>
       <c r="E644" s="3"/>
       <c r="F644" s="3"/>
       <c r="G644" s="3"/>
@@ -19304,7 +19319,7 @@
       <c r="A645" s="1"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
-      <c r="D645" s="37"/>
+      <c r="D645" s="36"/>
       <c r="E645" s="3"/>
       <c r="F645" s="3"/>
       <c r="G645" s="3"/>
@@ -19332,7 +19347,7 @@
       <c r="A646" s="1"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
-      <c r="D646" s="37"/>
+      <c r="D646" s="36"/>
       <c r="E646" s="3"/>
       <c r="F646" s="3"/>
       <c r="G646" s="3"/>
@@ -19360,7 +19375,7 @@
       <c r="A647" s="1"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
-      <c r="D647" s="37"/>
+      <c r="D647" s="36"/>
       <c r="E647" s="3"/>
       <c r="F647" s="3"/>
       <c r="G647" s="3"/>
@@ -19388,7 +19403,7 @@
       <c r="A648" s="1"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
-      <c r="D648" s="37"/>
+      <c r="D648" s="36"/>
       <c r="E648" s="3"/>
       <c r="F648" s="3"/>
       <c r="G648" s="3"/>
@@ -19416,7 +19431,7 @@
       <c r="A649" s="1"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
-      <c r="D649" s="37"/>
+      <c r="D649" s="36"/>
       <c r="E649" s="3"/>
       <c r="F649" s="3"/>
       <c r="G649" s="3"/>
@@ -19444,7 +19459,7 @@
       <c r="A650" s="1"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
-      <c r="D650" s="37"/>
+      <c r="D650" s="36"/>
       <c r="E650" s="3"/>
       <c r="F650" s="3"/>
       <c r="G650" s="3"/>
@@ -19472,7 +19487,7 @@
       <c r="A651" s="1"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
-      <c r="D651" s="37"/>
+      <c r="D651" s="36"/>
       <c r="E651" s="3"/>
       <c r="F651" s="3"/>
       <c r="G651" s="3"/>
@@ -19500,7 +19515,7 @@
       <c r="A652" s="1"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
-      <c r="D652" s="37"/>
+      <c r="D652" s="36"/>
       <c r="E652" s="3"/>
       <c r="F652" s="3"/>
       <c r="G652" s="3"/>
@@ -19528,7 +19543,7 @@
       <c r="A653" s="1"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
-      <c r="D653" s="37"/>
+      <c r="D653" s="36"/>
       <c r="E653" s="3"/>
       <c r="F653" s="3"/>
       <c r="G653" s="3"/>
@@ -19556,7 +19571,7 @@
       <c r="A654" s="1"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
-      <c r="D654" s="37"/>
+      <c r="D654" s="36"/>
       <c r="E654" s="3"/>
       <c r="F654" s="3"/>
       <c r="G654" s="3"/>
@@ -19584,7 +19599,7 @@
       <c r="A655" s="1"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
-      <c r="D655" s="37"/>
+      <c r="D655" s="36"/>
       <c r="E655" s="3"/>
       <c r="F655" s="3"/>
       <c r="G655" s="3"/>
@@ -19612,7 +19627,7 @@
       <c r="A656" s="1"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
-      <c r="D656" s="37"/>
+      <c r="D656" s="36"/>
       <c r="E656" s="3"/>
       <c r="F656" s="3"/>
       <c r="G656" s="3"/>
@@ -19640,7 +19655,7 @@
       <c r="A657" s="1"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
-      <c r="D657" s="37"/>
+      <c r="D657" s="36"/>
       <c r="E657" s="3"/>
       <c r="F657" s="3"/>
       <c r="G657" s="3"/>
@@ -19668,7 +19683,7 @@
       <c r="A658" s="1"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
-      <c r="D658" s="37"/>
+      <c r="D658" s="36"/>
       <c r="E658" s="3"/>
       <c r="F658" s="3"/>
       <c r="G658" s="3"/>
@@ -19696,7 +19711,7 @@
       <c r="A659" s="1"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
-      <c r="D659" s="37"/>
+      <c r="D659" s="36"/>
       <c r="E659" s="3"/>
       <c r="F659" s="3"/>
       <c r="G659" s="3"/>
@@ -19724,7 +19739,7 @@
       <c r="A660" s="1"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
-      <c r="D660" s="37"/>
+      <c r="D660" s="36"/>
       <c r="E660" s="3"/>
       <c r="F660" s="3"/>
       <c r="G660" s="3"/>
@@ -19752,7 +19767,7 @@
       <c r="A661" s="1"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
-      <c r="D661" s="37"/>
+      <c r="D661" s="36"/>
       <c r="E661" s="3"/>
       <c r="F661" s="3"/>
       <c r="G661" s="3"/>
@@ -19780,7 +19795,7 @@
       <c r="A662" s="1"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
-      <c r="D662" s="37"/>
+      <c r="D662" s="36"/>
       <c r="E662" s="3"/>
       <c r="F662" s="3"/>
       <c r="G662" s="3"/>
@@ -19808,7 +19823,7 @@
       <c r="A663" s="1"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
-      <c r="D663" s="37"/>
+      <c r="D663" s="36"/>
       <c r="E663" s="3"/>
       <c r="F663" s="3"/>
       <c r="G663" s="3"/>
@@ -19836,7 +19851,7 @@
       <c r="A664" s="1"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
-      <c r="D664" s="37"/>
+      <c r="D664" s="36"/>
       <c r="E664" s="3"/>
       <c r="F664" s="3"/>
       <c r="G664" s="3"/>
@@ -19864,7 +19879,7 @@
       <c r="A665" s="1"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
-      <c r="D665" s="37"/>
+      <c r="D665" s="36"/>
       <c r="E665" s="3"/>
       <c r="F665" s="3"/>
       <c r="G665" s="3"/>
@@ -19892,7 +19907,7 @@
       <c r="A666" s="1"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
-      <c r="D666" s="37"/>
+      <c r="D666" s="36"/>
       <c r="E666" s="3"/>
       <c r="F666" s="3"/>
       <c r="G666" s="3"/>
@@ -19920,7 +19935,7 @@
       <c r="A667" s="1"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
-      <c r="D667" s="37"/>
+      <c r="D667" s="36"/>
       <c r="E667" s="3"/>
       <c r="F667" s="3"/>
       <c r="G667" s="3"/>
@@ -19948,7 +19963,7 @@
       <c r="A668" s="1"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
-      <c r="D668" s="37"/>
+      <c r="D668" s="36"/>
       <c r="E668" s="3"/>
       <c r="F668" s="3"/>
       <c r="G668" s="3"/>
@@ -19976,7 +19991,7 @@
       <c r="A669" s="1"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
-      <c r="D669" s="37"/>
+      <c r="D669" s="36"/>
       <c r="E669" s="3"/>
       <c r="F669" s="3"/>
       <c r="G669" s="3"/>
@@ -20004,7 +20019,7 @@
       <c r="A670" s="1"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
-      <c r="D670" s="37"/>
+      <c r="D670" s="36"/>
       <c r="E670" s="3"/>
       <c r="F670" s="3"/>
       <c r="G670" s="3"/>
@@ -20032,7 +20047,7 @@
       <c r="A671" s="1"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
-      <c r="D671" s="37"/>
+      <c r="D671" s="36"/>
       <c r="E671" s="3"/>
       <c r="F671" s="3"/>
       <c r="G671" s="3"/>
@@ -20060,7 +20075,7 @@
       <c r="A672" s="1"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
-      <c r="D672" s="37"/>
+      <c r="D672" s="36"/>
       <c r="E672" s="3"/>
       <c r="F672" s="3"/>
       <c r="G672" s="3"/>
@@ -20088,7 +20103,7 @@
       <c r="A673" s="1"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
-      <c r="D673" s="37"/>
+      <c r="D673" s="36"/>
       <c r="E673" s="3"/>
       <c r="F673" s="3"/>
       <c r="G673" s="3"/>
@@ -20116,7 +20131,7 @@
       <c r="A674" s="1"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
-      <c r="D674" s="37"/>
+      <c r="D674" s="36"/>
       <c r="E674" s="3"/>
       <c r="F674" s="3"/>
       <c r="G674" s="3"/>
@@ -20144,7 +20159,7 @@
       <c r="A675" s="1"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
-      <c r="D675" s="37"/>
+      <c r="D675" s="36"/>
       <c r="E675" s="3"/>
       <c r="F675" s="3"/>
       <c r="G675" s="3"/>
@@ -20172,7 +20187,7 @@
       <c r="A676" s="1"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
-      <c r="D676" s="37"/>
+      <c r="D676" s="36"/>
       <c r="E676" s="3"/>
       <c r="F676" s="3"/>
       <c r="G676" s="3"/>
@@ -20200,7 +20215,7 @@
       <c r="A677" s="1"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
-      <c r="D677" s="37"/>
+      <c r="D677" s="36"/>
       <c r="E677" s="3"/>
       <c r="F677" s="3"/>
       <c r="G677" s="3"/>
@@ -20228,7 +20243,7 @@
       <c r="A678" s="1"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
-      <c r="D678" s="37"/>
+      <c r="D678" s="36"/>
       <c r="E678" s="3"/>
       <c r="F678" s="3"/>
       <c r="G678" s="3"/>
@@ -20256,7 +20271,7 @@
       <c r="A679" s="1"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
-      <c r="D679" s="37"/>
+      <c r="D679" s="36"/>
       <c r="E679" s="3"/>
       <c r="F679" s="3"/>
       <c r="G679" s="3"/>
@@ -20284,7 +20299,7 @@
       <c r="A680" s="1"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
-      <c r="D680" s="37"/>
+      <c r="D680" s="36"/>
       <c r="E680" s="3"/>
       <c r="F680" s="3"/>
       <c r="G680" s="3"/>
@@ -20312,7 +20327,7 @@
       <c r="A681" s="1"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
-      <c r="D681" s="37"/>
+      <c r="D681" s="36"/>
       <c r="E681" s="3"/>
       <c r="F681" s="3"/>
       <c r="G681" s="3"/>
@@ -20340,7 +20355,7 @@
       <c r="A682" s="1"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
-      <c r="D682" s="37"/>
+      <c r="D682" s="36"/>
       <c r="E682" s="3"/>
       <c r="F682" s="3"/>
       <c r="G682" s="3"/>
@@ -20368,7 +20383,7 @@
       <c r="A683" s="1"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
-      <c r="D683" s="37"/>
+      <c r="D683" s="36"/>
       <c r="E683" s="3"/>
       <c r="F683" s="3"/>
       <c r="G683" s="3"/>
@@ -20396,7 +20411,7 @@
       <c r="A684" s="1"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
-      <c r="D684" s="37"/>
+      <c r="D684" s="36"/>
       <c r="E684" s="3"/>
       <c r="F684" s="3"/>
       <c r="G684" s="3"/>
@@ -20424,7 +20439,7 @@
       <c r="A685" s="1"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
-      <c r="D685" s="37"/>
+      <c r="D685" s="36"/>
       <c r="E685" s="3"/>
       <c r="F685" s="3"/>
       <c r="G685" s="3"/>
@@ -20452,7 +20467,7 @@
       <c r="A686" s="1"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
-      <c r="D686" s="37"/>
+      <c r="D686" s="36"/>
       <c r="E686" s="3"/>
       <c r="F686" s="3"/>
       <c r="G686" s="3"/>
@@ -20480,7 +20495,7 @@
       <c r="A687" s="1"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
-      <c r="D687" s="37"/>
+      <c r="D687" s="36"/>
       <c r="E687" s="3"/>
       <c r="F687" s="3"/>
       <c r="G687" s="3"/>
@@ -20508,7 +20523,7 @@
       <c r="A688" s="1"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
-      <c r="D688" s="37"/>
+      <c r="D688" s="36"/>
       <c r="E688" s="3"/>
       <c r="F688" s="3"/>
       <c r="G688" s="3"/>
@@ -20536,7 +20551,7 @@
       <c r="A689" s="1"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
-      <c r="D689" s="37"/>
+      <c r="D689" s="36"/>
       <c r="E689" s="3"/>
       <c r="F689" s="3"/>
       <c r="G689" s="3"/>
@@ -20564,7 +20579,7 @@
       <c r="A690" s="1"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
-      <c r="D690" s="37"/>
+      <c r="D690" s="36"/>
       <c r="E690" s="3"/>
       <c r="F690" s="3"/>
       <c r="G690" s="3"/>
@@ -20592,7 +20607,7 @@
       <c r="A691" s="1"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
-      <c r="D691" s="37"/>
+      <c r="D691" s="36"/>
       <c r="E691" s="3"/>
       <c r="F691" s="3"/>
       <c r="G691" s="3"/>
@@ -20620,7 +20635,7 @@
       <c r="A692" s="1"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
-      <c r="D692" s="37"/>
+      <c r="D692" s="36"/>
       <c r="E692" s="3"/>
       <c r="F692" s="3"/>
       <c r="G692" s="3"/>
@@ -20648,7 +20663,7 @@
       <c r="A693" s="1"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
-      <c r="D693" s="37"/>
+      <c r="D693" s="36"/>
       <c r="E693" s="3"/>
       <c r="F693" s="3"/>
       <c r="G693" s="3"/>
@@ -20676,7 +20691,7 @@
       <c r="A694" s="1"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
-      <c r="D694" s="37"/>
+      <c r="D694" s="36"/>
       <c r="E694" s="3"/>
       <c r="F694" s="3"/>
       <c r="G694" s="3"/>
@@ -20704,7 +20719,7 @@
       <c r="A695" s="1"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
-      <c r="D695" s="37"/>
+      <c r="D695" s="36"/>
       <c r="E695" s="3"/>
       <c r="F695" s="3"/>
       <c r="G695" s="3"/>
@@ -20732,7 +20747,7 @@
       <c r="A696" s="1"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
-      <c r="D696" s="37"/>
+      <c r="D696" s="36"/>
       <c r="E696" s="3"/>
       <c r="F696" s="3"/>
       <c r="G696" s="3"/>
@@ -20760,7 +20775,7 @@
       <c r="A697" s="1"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
-      <c r="D697" s="37"/>
+      <c r="D697" s="36"/>
       <c r="E697" s="3"/>
       <c r="F697" s="3"/>
       <c r="G697" s="3"/>
@@ -20788,7 +20803,7 @@
       <c r="A698" s="1"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
-      <c r="D698" s="37"/>
+      <c r="D698" s="36"/>
       <c r="E698" s="3"/>
       <c r="F698" s="3"/>
       <c r="G698" s="3"/>
@@ -20816,7 +20831,7 @@
       <c r="A699" s="1"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
-      <c r="D699" s="37"/>
+      <c r="D699" s="36"/>
       <c r="E699" s="3"/>
       <c r="F699" s="3"/>
       <c r="G699" s="3"/>
@@ -20844,7 +20859,7 @@
       <c r="A700" s="1"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
-      <c r="D700" s="37"/>
+      <c r="D700" s="36"/>
       <c r="E700" s="3"/>
       <c r="F700" s="3"/>
       <c r="G700" s="3"/>
@@ -20872,7 +20887,7 @@
       <c r="A701" s="1"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
-      <c r="D701" s="37"/>
+      <c r="D701" s="36"/>
       <c r="E701" s="3"/>
       <c r="F701" s="3"/>
       <c r="G701" s="3"/>
@@ -20900,7 +20915,7 @@
       <c r="A702" s="1"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
-      <c r="D702" s="37"/>
+      <c r="D702" s="36"/>
       <c r="E702" s="3"/>
       <c r="F702" s="3"/>
       <c r="G702" s="3"/>
@@ -20928,7 +20943,7 @@
       <c r="A703" s="1"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
-      <c r="D703" s="37"/>
+      <c r="D703" s="36"/>
       <c r="E703" s="3"/>
       <c r="F703" s="3"/>
       <c r="G703" s="3"/>
@@ -20956,7 +20971,7 @@
       <c r="A704" s="1"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
-      <c r="D704" s="37"/>
+      <c r="D704" s="36"/>
       <c r="E704" s="3"/>
       <c r="F704" s="3"/>
       <c r="G704" s="3"/>
@@ -20984,7 +20999,7 @@
       <c r="A705" s="1"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
-      <c r="D705" s="37"/>
+      <c r="D705" s="36"/>
       <c r="E705" s="3"/>
       <c r="F705" s="3"/>
       <c r="G705" s="3"/>
@@ -21012,7 +21027,7 @@
       <c r="A706" s="1"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
-      <c r="D706" s="37"/>
+      <c r="D706" s="36"/>
       <c r="E706" s="3"/>
       <c r="F706" s="3"/>
       <c r="G706" s="3"/>
@@ -21040,7 +21055,7 @@
       <c r="A707" s="1"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
-      <c r="D707" s="37"/>
+      <c r="D707" s="36"/>
       <c r="E707" s="3"/>
       <c r="F707" s="3"/>
       <c r="G707" s="3"/>
@@ -21068,7 +21083,7 @@
       <c r="A708" s="1"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
-      <c r="D708" s="37"/>
+      <c r="D708" s="36"/>
       <c r="E708" s="3"/>
       <c r="F708" s="3"/>
       <c r="G708" s="3"/>
@@ -21096,7 +21111,7 @@
       <c r="A709" s="1"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
-      <c r="D709" s="37"/>
+      <c r="D709" s="36"/>
       <c r="E709" s="3"/>
       <c r="F709" s="3"/>
       <c r="G709" s="3"/>
@@ -21124,7 +21139,7 @@
       <c r="A710" s="1"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
-      <c r="D710" s="37"/>
+      <c r="D710" s="36"/>
       <c r="E710" s="3"/>
       <c r="F710" s="3"/>
       <c r="G710" s="3"/>
@@ -21152,7 +21167,7 @@
       <c r="A711" s="1"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
-      <c r="D711" s="37"/>
+      <c r="D711" s="36"/>
       <c r="E711" s="3"/>
       <c r="F711" s="3"/>
       <c r="G711" s="3"/>
@@ -21180,7 +21195,7 @@
       <c r="A712" s="1"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
-      <c r="D712" s="37"/>
+      <c r="D712" s="36"/>
       <c r="E712" s="3"/>
       <c r="F712" s="3"/>
       <c r="G712" s="3"/>
@@ -21208,7 +21223,7 @@
       <c r="A713" s="1"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
-      <c r="D713" s="37"/>
+      <c r="D713" s="36"/>
       <c r="E713" s="3"/>
       <c r="F713" s="3"/>
       <c r="G713" s="3"/>
@@ -21236,7 +21251,7 @@
       <c r="A714" s="1"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
-      <c r="D714" s="37"/>
+      <c r="D714" s="36"/>
       <c r="E714" s="3"/>
       <c r="F714" s="3"/>
       <c r="G714" s="3"/>
@@ -21264,7 +21279,7 @@
       <c r="A715" s="1"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
-      <c r="D715" s="37"/>
+      <c r="D715" s="36"/>
       <c r="E715" s="3"/>
       <c r="F715" s="3"/>
       <c r="G715" s="3"/>
@@ -21292,7 +21307,7 @@
       <c r="A716" s="1"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
-      <c r="D716" s="37"/>
+      <c r="D716" s="36"/>
       <c r="E716" s="3"/>
       <c r="F716" s="3"/>
       <c r="G716" s="3"/>
@@ -21320,7 +21335,7 @@
       <c r="A717" s="1"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
-      <c r="D717" s="37"/>
+      <c r="D717" s="36"/>
       <c r="E717" s="3"/>
       <c r="F717" s="3"/>
       <c r="G717" s="3"/>
@@ -21348,7 +21363,7 @@
       <c r="A718" s="1"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
-      <c r="D718" s="37"/>
+      <c r="D718" s="36"/>
       <c r="E718" s="3"/>
       <c r="F718" s="3"/>
       <c r="G718" s="3"/>
@@ -21376,7 +21391,7 @@
       <c r="A719" s="1"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
-      <c r="D719" s="37"/>
+      <c r="D719" s="36"/>
       <c r="E719" s="3"/>
       <c r="F719" s="3"/>
       <c r="G719" s="3"/>
@@ -21404,7 +21419,7 @@
       <c r="A720" s="1"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
-      <c r="D720" s="37"/>
+      <c r="D720" s="36"/>
       <c r="E720" s="3"/>
       <c r="F720" s="3"/>
       <c r="G720" s="3"/>
@@ -21432,7 +21447,7 @@
       <c r="A721" s="1"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
-      <c r="D721" s="37"/>
+      <c r="D721" s="36"/>
       <c r="E721" s="3"/>
       <c r="F721" s="3"/>
       <c r="G721" s="3"/>
@@ -21460,7 +21475,7 @@
       <c r="A722" s="1"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
-      <c r="D722" s="37"/>
+      <c r="D722" s="36"/>
       <c r="E722" s="3"/>
       <c r="F722" s="3"/>
       <c r="G722" s="3"/>
@@ -21488,7 +21503,7 @@
       <c r="A723" s="1"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
-      <c r="D723" s="37"/>
+      <c r="D723" s="36"/>
       <c r="E723" s="3"/>
       <c r="F723" s="3"/>
       <c r="G723" s="3"/>
@@ -21516,7 +21531,7 @@
       <c r="A724" s="1"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
-      <c r="D724" s="37"/>
+      <c r="D724" s="36"/>
       <c r="E724" s="3"/>
       <c r="F724" s="3"/>
       <c r="G724" s="3"/>
@@ -21544,7 +21559,7 @@
       <c r="A725" s="1"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
-      <c r="D725" s="37"/>
+      <c r="D725" s="36"/>
       <c r="E725" s="3"/>
       <c r="F725" s="3"/>
       <c r="G725" s="3"/>
@@ -21572,7 +21587,7 @@
       <c r="A726" s="1"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
-      <c r="D726" s="37"/>
+      <c r="D726" s="36"/>
       <c r="E726" s="3"/>
       <c r="F726" s="3"/>
       <c r="G726" s="3"/>
@@ -21600,7 +21615,7 @@
       <c r="A727" s="1"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
-      <c r="D727" s="37"/>
+      <c r="D727" s="36"/>
       <c r="E727" s="3"/>
       <c r="F727" s="3"/>
       <c r="G727" s="3"/>
@@ -21628,7 +21643,7 @@
       <c r="A728" s="1"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
-      <c r="D728" s="37"/>
+      <c r="D728" s="36"/>
       <c r="E728" s="3"/>
       <c r="F728" s="3"/>
       <c r="G728" s="3"/>
@@ -21656,7 +21671,7 @@
       <c r="A729" s="1"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
-      <c r="D729" s="37"/>
+      <c r="D729" s="36"/>
       <c r="E729" s="3"/>
       <c r="F729" s="3"/>
       <c r="G729" s="3"/>
@@ -21684,7 +21699,7 @@
       <c r="A730" s="1"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
-      <c r="D730" s="37"/>
+      <c r="D730" s="36"/>
       <c r="E730" s="3"/>
       <c r="F730" s="3"/>
       <c r="G730" s="3"/>
@@ -21712,7 +21727,7 @@
       <c r="A731" s="1"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
-      <c r="D731" s="37"/>
+      <c r="D731" s="36"/>
       <c r="E731" s="3"/>
       <c r="F731" s="3"/>
       <c r="G731" s="3"/>
@@ -21740,7 +21755,7 @@
       <c r="A732" s="1"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
-      <c r="D732" s="37"/>
+      <c r="D732" s="36"/>
       <c r="E732" s="3"/>
       <c r="F732" s="3"/>
       <c r="G732" s="3"/>
@@ -21768,7 +21783,7 @@
       <c r="A733" s="1"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
-      <c r="D733" s="37"/>
+      <c r="D733" s="36"/>
       <c r="E733" s="3"/>
       <c r="F733" s="3"/>
       <c r="G733" s="3"/>
@@ -21796,7 +21811,7 @@
       <c r="A734" s="1"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
-      <c r="D734" s="37"/>
+      <c r="D734" s="36"/>
       <c r="E734" s="3"/>
       <c r="F734" s="3"/>
       <c r="G734" s="3"/>
@@ -21824,7 +21839,7 @@
       <c r="A735" s="1"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
-      <c r="D735" s="37"/>
+      <c r="D735" s="36"/>
       <c r="E735" s="3"/>
       <c r="F735" s="3"/>
       <c r="G735" s="3"/>
@@ -21852,7 +21867,7 @@
       <c r="A736" s="1"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
-      <c r="D736" s="37"/>
+      <c r="D736" s="36"/>
       <c r="E736" s="3"/>
       <c r="F736" s="3"/>
       <c r="G736" s="3"/>
@@ -21880,7 +21895,7 @@
       <c r="A737" s="1"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
-      <c r="D737" s="37"/>
+      <c r="D737" s="36"/>
       <c r="E737" s="3"/>
       <c r="F737" s="3"/>
       <c r="G737" s="3"/>
@@ -21908,7 +21923,7 @@
       <c r="A738" s="1"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
-      <c r="D738" s="37"/>
+      <c r="D738" s="36"/>
       <c r="E738" s="3"/>
       <c r="F738" s="3"/>
       <c r="G738" s="3"/>
@@ -21936,7 +21951,7 @@
       <c r="A739" s="1"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
-      <c r="D739" s="37"/>
+      <c r="D739" s="36"/>
       <c r="E739" s="3"/>
       <c r="F739" s="3"/>
       <c r="G739" s="3"/>
@@ -21964,7 +21979,7 @@
       <c r="A740" s="1"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
-      <c r="D740" s="37"/>
+      <c r="D740" s="36"/>
       <c r="E740" s="3"/>
       <c r="F740" s="3"/>
       <c r="G740" s="3"/>
@@ -21992,7 +22007,7 @@
       <c r="A741" s="1"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
-      <c r="D741" s="37"/>
+      <c r="D741" s="36"/>
       <c r="E741" s="3"/>
       <c r="F741" s="3"/>
       <c r="G741" s="3"/>
@@ -22020,7 +22035,7 @@
       <c r="A742" s="1"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
-      <c r="D742" s="37"/>
+      <c r="D742" s="36"/>
       <c r="E742" s="3"/>
       <c r="F742" s="3"/>
       <c r="G742" s="3"/>
@@ -22048,7 +22063,7 @@
       <c r="A743" s="1"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
-      <c r="D743" s="37"/>
+      <c r="D743" s="36"/>
       <c r="E743" s="3"/>
       <c r="F743" s="3"/>
       <c r="G743" s="3"/>
@@ -22076,7 +22091,7 @@
       <c r="A744" s="1"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
-      <c r="D744" s="37"/>
+      <c r="D744" s="36"/>
       <c r="E744" s="3"/>
       <c r="F744" s="3"/>
       <c r="G744" s="3"/>
@@ -22104,7 +22119,7 @@
       <c r="A745" s="1"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
-      <c r="D745" s="37"/>
+      <c r="D745" s="36"/>
       <c r="E745" s="3"/>
       <c r="F745" s="3"/>
       <c r="G745" s="3"/>
@@ -22132,7 +22147,7 @@
       <c r="A746" s="1"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
-      <c r="D746" s="37"/>
+      <c r="D746" s="36"/>
       <c r="E746" s="3"/>
       <c r="F746" s="3"/>
       <c r="G746" s="3"/>
@@ -22160,7 +22175,7 @@
       <c r="A747" s="1"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
-      <c r="D747" s="37"/>
+      <c r="D747" s="36"/>
       <c r="E747" s="3"/>
       <c r="F747" s="3"/>
       <c r="G747" s="3"/>
@@ -22188,7 +22203,7 @@
       <c r="A748" s="1"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
-      <c r="D748" s="37"/>
+      <c r="D748" s="36"/>
       <c r="E748" s="3"/>
       <c r="F748" s="3"/>
       <c r="G748" s="3"/>
@@ -22216,7 +22231,7 @@
       <c r="A749" s="1"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
-      <c r="D749" s="37"/>
+      <c r="D749" s="36"/>
       <c r="E749" s="3"/>
       <c r="F749" s="3"/>
       <c r="G749" s="3"/>
@@ -22244,7 +22259,7 @@
       <c r="A750" s="1"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
-      <c r="D750" s="37"/>
+      <c r="D750" s="36"/>
       <c r="E750" s="3"/>
       <c r="F750" s="3"/>
       <c r="G750" s="3"/>
@@ -22272,7 +22287,7 @@
       <c r="A751" s="1"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
-      <c r="D751" s="37"/>
+      <c r="D751" s="36"/>
       <c r="E751" s="3"/>
       <c r="F751" s="3"/>
       <c r="G751" s="3"/>
@@ -22300,7 +22315,7 @@
       <c r="A752" s="1"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
-      <c r="D752" s="37"/>
+      <c r="D752" s="36"/>
       <c r="E752" s="3"/>
       <c r="F752" s="3"/>
       <c r="G752" s="3"/>
@@ -22328,7 +22343,7 @@
       <c r="A753" s="1"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
-      <c r="D753" s="37"/>
+      <c r="D753" s="36"/>
       <c r="E753" s="3"/>
       <c r="F753" s="3"/>
       <c r="G753" s="3"/>
@@ -22356,7 +22371,7 @@
       <c r="A754" s="1"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
-      <c r="D754" s="37"/>
+      <c r="D754" s="36"/>
       <c r="E754" s="3"/>
       <c r="F754" s="3"/>
       <c r="G754" s="3"/>
@@ -22384,7 +22399,7 @@
       <c r="A755" s="1"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
-      <c r="D755" s="37"/>
+      <c r="D755" s="36"/>
       <c r="E755" s="3"/>
       <c r="F755" s="3"/>
       <c r="G755" s="3"/>
@@ -22412,7 +22427,7 @@
       <c r="A756" s="1"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
-      <c r="D756" s="37"/>
+      <c r="D756" s="36"/>
       <c r="E756" s="3"/>
       <c r="F756" s="3"/>
       <c r="G756" s="3"/>
@@ -22440,7 +22455,7 @@
       <c r="A757" s="1"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
-      <c r="D757" s="37"/>
+      <c r="D757" s="36"/>
       <c r="E757" s="3"/>
       <c r="F757" s="3"/>
       <c r="G757" s="3"/>
@@ -22468,7 +22483,7 @@
       <c r="A758" s="1"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
-      <c r="D758" s="37"/>
+      <c r="D758" s="36"/>
       <c r="E758" s="3"/>
       <c r="F758" s="3"/>
       <c r="G758" s="3"/>
@@ -22496,7 +22511,7 @@
       <c r="A759" s="1"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
-      <c r="D759" s="37"/>
+      <c r="D759" s="36"/>
       <c r="E759" s="3"/>
       <c r="F759" s="3"/>
       <c r="G759" s="3"/>
@@ -22524,7 +22539,7 @@
       <c r="A760" s="1"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
-      <c r="D760" s="37"/>
+      <c r="D760" s="36"/>
       <c r="E760" s="3"/>
       <c r="F760" s="3"/>
       <c r="G760" s="3"/>
@@ -22552,7 +22567,7 @@
       <c r="A761" s="1"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
-      <c r="D761" s="37"/>
+      <c r="D761" s="36"/>
       <c r="E761" s="3"/>
       <c r="F761" s="3"/>
       <c r="G761" s="3"/>
@@ -22580,7 +22595,7 @@
       <c r="A762" s="1"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
-      <c r="D762" s="37"/>
+      <c r="D762" s="36"/>
       <c r="E762" s="3"/>
       <c r="F762" s="3"/>
       <c r="G762" s="3"/>
@@ -22608,7 +22623,7 @@
       <c r="A763" s="1"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
-      <c r="D763" s="37"/>
+      <c r="D763" s="36"/>
       <c r="E763" s="3"/>
       <c r="F763" s="3"/>
       <c r="G763" s="3"/>
@@ -22636,7 +22651,7 @@
       <c r="A764" s="1"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
-      <c r="D764" s="37"/>
+      <c r="D764" s="36"/>
       <c r="E764" s="3"/>
       <c r="F764" s="3"/>
       <c r="G764" s="3"/>
@@ -22664,7 +22679,7 @@
       <c r="A765" s="1"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
-      <c r="D765" s="37"/>
+      <c r="D765" s="36"/>
       <c r="E765" s="3"/>
       <c r="F765" s="3"/>
       <c r="G765" s="3"/>
@@ -22692,7 +22707,7 @@
       <c r="A766" s="1"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
-      <c r="D766" s="37"/>
+      <c r="D766" s="36"/>
       <c r="E766" s="3"/>
       <c r="F766" s="3"/>
       <c r="G766" s="3"/>
@@ -22720,7 +22735,7 @@
       <c r="A767" s="1"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
-      <c r="D767" s="37"/>
+      <c r="D767" s="36"/>
       <c r="E767" s="3"/>
       <c r="F767" s="3"/>
       <c r="G767" s="3"/>
@@ -22748,7 +22763,7 @@
       <c r="A768" s="1"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
-      <c r="D768" s="37"/>
+      <c r="D768" s="36"/>
       <c r="E768" s="3"/>
       <c r="F768" s="3"/>
       <c r="G768" s="3"/>
@@ -22776,7 +22791,7 @@
       <c r="A769" s="1"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
-      <c r="D769" s="37"/>
+      <c r="D769" s="36"/>
       <c r="E769" s="3"/>
       <c r="F769" s="3"/>
       <c r="G769" s="3"/>
@@ -22804,7 +22819,7 @@
       <c r="A770" s="1"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
-      <c r="D770" s="37"/>
+      <c r="D770" s="36"/>
       <c r="E770" s="3"/>
       <c r="F770" s="3"/>
       <c r="G770" s="3"/>
@@ -22832,7 +22847,7 @@
       <c r="A771" s="1"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
-      <c r="D771" s="37"/>
+      <c r="D771" s="36"/>
       <c r="E771" s="3"/>
       <c r="F771" s="3"/>
       <c r="G771" s="3"/>
@@ -22860,7 +22875,7 @@
       <c r="A772" s="1"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
-      <c r="D772" s="37"/>
+      <c r="D772" s="36"/>
       <c r="E772" s="3"/>
       <c r="F772" s="3"/>
       <c r="G772" s="3"/>
@@ -22888,7 +22903,7 @@
       <c r="A773" s="1"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
-      <c r="D773" s="37"/>
+      <c r="D773" s="36"/>
       <c r="E773" s="3"/>
       <c r="F773" s="3"/>
       <c r="G773" s="3"/>
@@ -22916,7 +22931,7 @@
       <c r="A774" s="1"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
-      <c r="D774" s="37"/>
+      <c r="D774" s="36"/>
       <c r="E774" s="3"/>
       <c r="F774" s="3"/>
       <c r="G774" s="3"/>
@@ -22944,7 +22959,7 @@
       <c r="A775" s="1"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
-      <c r="D775" s="37"/>
+      <c r="D775" s="36"/>
       <c r="E775" s="3"/>
       <c r="F775" s="3"/>
       <c r="G775" s="3"/>
@@ -22972,7 +22987,7 @@
       <c r="A776" s="1"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
-      <c r="D776" s="37"/>
+      <c r="D776" s="36"/>
       <c r="E776" s="3"/>
       <c r="F776" s="3"/>
       <c r="G776" s="3"/>
@@ -23000,7 +23015,7 @@
       <c r="A777" s="1"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
-      <c r="D777" s="37"/>
+      <c r="D777" s="36"/>
       <c r="E777" s="3"/>
       <c r="F777" s="3"/>
       <c r="G777" s="3"/>
@@ -23028,7 +23043,7 @@
       <c r="A778" s="1"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
-      <c r="D778" s="37"/>
+      <c r="D778" s="36"/>
       <c r="E778" s="3"/>
       <c r="F778" s="3"/>
       <c r="G778" s="3"/>
@@ -23056,7 +23071,7 @@
       <c r="A779" s="1"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
-      <c r="D779" s="37"/>
+      <c r="D779" s="36"/>
       <c r="E779" s="3"/>
       <c r="F779" s="3"/>
       <c r="G779" s="3"/>
@@ -23084,7 +23099,7 @@
       <c r="A780" s="1"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
-      <c r="D780" s="37"/>
+      <c r="D780" s="36"/>
       <c r="E780" s="3"/>
       <c r="F780" s="3"/>
       <c r="G780" s="3"/>
@@ -23112,7 +23127,7 @@
       <c r="A781" s="1"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
-      <c r="D781" s="37"/>
+      <c r="D781" s="36"/>
       <c r="E781" s="3"/>
       <c r="F781" s="3"/>
       <c r="G781" s="3"/>
@@ -23140,7 +23155,7 @@
       <c r="A782" s="1"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
-      <c r="D782" s="37"/>
+      <c r="D782" s="36"/>
       <c r="E782" s="3"/>
       <c r="F782" s="3"/>
       <c r="G782" s="3"/>
@@ -23168,7 +23183,7 @@
       <c r="A783" s="1"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
-      <c r="D783" s="37"/>
+      <c r="D783" s="36"/>
       <c r="E783" s="3"/>
       <c r="F783" s="3"/>
       <c r="G783" s="3"/>
@@ -23196,7 +23211,7 @@
       <c r="A784" s="1"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
-      <c r="D784" s="37"/>
+      <c r="D784" s="36"/>
       <c r="E784" s="3"/>
       <c r="F784" s="3"/>
       <c r="G784" s="3"/>
@@ -23224,7 +23239,7 @@
       <c r="A785" s="1"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
-      <c r="D785" s="37"/>
+      <c r="D785" s="36"/>
       <c r="E785" s="3"/>
       <c r="F785" s="3"/>
       <c r="G785" s="3"/>
@@ -23252,7 +23267,7 @@
       <c r="A786" s="1"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
-      <c r="D786" s="37"/>
+      <c r="D786" s="36"/>
       <c r="E786" s="3"/>
       <c r="F786" s="3"/>
       <c r="G786" s="3"/>
@@ -23280,7 +23295,7 @@
       <c r="A787" s="1"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
-      <c r="D787" s="37"/>
+      <c r="D787" s="36"/>
       <c r="E787" s="3"/>
       <c r="F787" s="3"/>
       <c r="G787" s="3"/>
@@ -23308,7 +23323,7 @@
       <c r="A788" s="1"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
-      <c r="D788" s="37"/>
+      <c r="D788" s="36"/>
       <c r="E788" s="3"/>
       <c r="F788" s="3"/>
       <c r="G788" s="3"/>
@@ -23336,7 +23351,7 @@
       <c r="A789" s="1"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
-      <c r="D789" s="37"/>
+      <c r="D789" s="36"/>
       <c r="E789" s="3"/>
       <c r="F789" s="3"/>
       <c r="G789" s="3"/>
@@ -23364,7 +23379,7 @@
       <c r="A790" s="1"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
-      <c r="D790" s="37"/>
+      <c r="D790" s="36"/>
       <c r="E790" s="3"/>
       <c r="F790" s="3"/>
       <c r="G790" s="3"/>
@@ -23392,7 +23407,7 @@
       <c r="A791" s="1"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
-      <c r="D791" s="37"/>
+      <c r="D791" s="36"/>
       <c r="E791" s="3"/>
       <c r="F791" s="3"/>
       <c r="G791" s="3"/>
@@ -23420,7 +23435,7 @@
       <c r="A792" s="1"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
-      <c r="D792" s="37"/>
+      <c r="D792" s="36"/>
       <c r="E792" s="3"/>
       <c r="F792" s="3"/>
       <c r="G792" s="3"/>
@@ -23448,7 +23463,7 @@
       <c r="A793" s="1"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
-      <c r="D793" s="37"/>
+      <c r="D793" s="36"/>
       <c r="E793" s="3"/>
       <c r="F793" s="3"/>
       <c r="G793" s="3"/>
@@ -23476,7 +23491,7 @@
       <c r="A794" s="1"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
-      <c r="D794" s="37"/>
+      <c r="D794" s="36"/>
       <c r="E794" s="3"/>
       <c r="F794" s="3"/>
       <c r="G794" s="3"/>
@@ -23504,7 +23519,7 @@
       <c r="A795" s="1"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
-      <c r="D795" s="37"/>
+      <c r="D795" s="36"/>
       <c r="E795" s="3"/>
       <c r="F795" s="3"/>
       <c r="G795" s="3"/>
@@ -23532,7 +23547,7 @@
       <c r="A796" s="1"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
-      <c r="D796" s="37"/>
+      <c r="D796" s="36"/>
       <c r="E796" s="3"/>
       <c r="F796" s="3"/>
       <c r="G796" s="3"/>
@@ -23560,7 +23575,7 @@
       <c r="A797" s="1"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
-      <c r="D797" s="37"/>
+      <c r="D797" s="36"/>
       <c r="E797" s="3"/>
       <c r="F797" s="3"/>
       <c r="G797" s="3"/>
@@ -23588,7 +23603,7 @@
       <c r="A798" s="1"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
-      <c r="D798" s="37"/>
+      <c r="D798" s="36"/>
       <c r="E798" s="3"/>
       <c r="F798" s="3"/>
       <c r="G798" s="3"/>
@@ -23616,7 +23631,7 @@
       <c r="A799" s="1"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
-      <c r="D799" s="37"/>
+      <c r="D799" s="36"/>
       <c r="E799" s="3"/>
       <c r="F799" s="3"/>
       <c r="G799" s="3"/>
@@ -23644,7 +23659,7 @@
       <c r="A800" s="1"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
-      <c r="D800" s="37"/>
+      <c r="D800" s="36"/>
       <c r="E800" s="3"/>
       <c r="F800" s="3"/>
       <c r="G800" s="3"/>
@@ -23672,7 +23687,7 @@
       <c r="A801" s="1"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
-      <c r="D801" s="37"/>
+      <c r="D801" s="36"/>
       <c r="E801" s="3"/>
       <c r="F801" s="3"/>
       <c r="G801" s="3"/>
@@ -23700,7 +23715,7 @@
       <c r="A802" s="1"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
-      <c r="D802" s="37"/>
+      <c r="D802" s="36"/>
       <c r="E802" s="3"/>
       <c r="F802" s="3"/>
       <c r="G802" s="3"/>
@@ -23728,7 +23743,7 @@
       <c r="A803" s="1"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
-      <c r="D803" s="37"/>
+      <c r="D803" s="36"/>
       <c r="E803" s="3"/>
       <c r="F803" s="3"/>
       <c r="G803" s="3"/>
@@ -23756,7 +23771,7 @@
       <c r="A804" s="1"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
-      <c r="D804" s="37"/>
+      <c r="D804" s="36"/>
       <c r="E804" s="3"/>
       <c r="F804" s="3"/>
       <c r="G804" s="3"/>
@@ -23784,7 +23799,7 @@
       <c r="A805" s="1"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
-      <c r="D805" s="37"/>
+      <c r="D805" s="36"/>
       <c r="E805" s="3"/>
       <c r="F805" s="3"/>
       <c r="G805" s="3"/>
@@ -23812,7 +23827,7 @@
       <c r="A806" s="1"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
-      <c r="D806" s="37"/>
+      <c r="D806" s="36"/>
       <c r="E806" s="3"/>
       <c r="F806" s="3"/>
       <c r="G806" s="3"/>
@@ -23840,7 +23855,7 @@
       <c r="A807" s="1"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
-      <c r="D807" s="37"/>
+      <c r="D807" s="36"/>
       <c r="E807" s="3"/>
       <c r="F807" s="3"/>
       <c r="G807" s="3"/>
@@ -23868,7 +23883,7 @@
       <c r="A808" s="1"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
-      <c r="D808" s="37"/>
+      <c r="D808" s="36"/>
       <c r="E808" s="3"/>
       <c r="F808" s="3"/>
       <c r="G808" s="3"/>
@@ -23896,7 +23911,7 @@
       <c r="A809" s="1"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
-      <c r="D809" s="37"/>
+      <c r="D809" s="36"/>
       <c r="E809" s="3"/>
       <c r="F809" s="3"/>
       <c r="G809" s="3"/>
@@ -23924,7 +23939,7 @@
       <c r="A810" s="1"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
-      <c r="D810" s="37"/>
+      <c r="D810" s="36"/>
       <c r="E810" s="3"/>
       <c r="F810" s="3"/>
       <c r="G810" s="3"/>
@@ -23952,7 +23967,7 @@
       <c r="A811" s="1"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
-      <c r="D811" s="37"/>
+      <c r="D811" s="36"/>
       <c r="E811" s="3"/>
       <c r="F811" s="3"/>
       <c r="G811" s="3"/>
@@ -23980,7 +23995,7 @@
       <c r="A812" s="1"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
-      <c r="D812" s="37"/>
+      <c r="D812" s="36"/>
       <c r="E812" s="3"/>
       <c r="F812" s="3"/>
       <c r="G812" s="3"/>
@@ -24008,7 +24023,7 @@
       <c r="A813" s="1"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
-      <c r="D813" s="37"/>
+      <c r="D813" s="36"/>
       <c r="E813" s="3"/>
       <c r="F813" s="3"/>
       <c r="G813" s="3"/>
@@ -24036,7 +24051,7 @@
       <c r="A814" s="1"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
-      <c r="D814" s="37"/>
+      <c r="D814" s="36"/>
       <c r="E814" s="3"/>
       <c r="F814" s="3"/>
       <c r="G814" s="3"/>
@@ -24064,7 +24079,7 @@
       <c r="A815" s="1"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
-      <c r="D815" s="37"/>
+      <c r="D815" s="36"/>
       <c r="E815" s="3"/>
       <c r="F815" s="3"/>
       <c r="G815" s="3"/>
@@ -24092,7 +24107,7 @@
       <c r="A816" s="1"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
-      <c r="D816" s="37"/>
+      <c r="D816" s="36"/>
       <c r="E816" s="3"/>
       <c r="F816" s="3"/>
       <c r="G816" s="3"/>
@@ -24120,7 +24135,7 @@
       <c r="A817" s="1"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
-      <c r="D817" s="37"/>
+      <c r="D817" s="36"/>
       <c r="E817" s="3"/>
       <c r="F817" s="3"/>
       <c r="G817" s="3"/>
@@ -24148,7 +24163,7 @@
       <c r="A818" s="1"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
-      <c r="D818" s="37"/>
+      <c r="D818" s="36"/>
       <c r="E818" s="3"/>
       <c r="F818" s="3"/>
       <c r="G818" s="3"/>
@@ -24176,7 +24191,7 @@
       <c r="A819" s="1"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
-      <c r="D819" s="37"/>
+      <c r="D819" s="36"/>
       <c r="E819" s="3"/>
       <c r="F819" s="3"/>
       <c r="G819" s="3"/>
@@ -24204,7 +24219,7 @@
       <c r="A820" s="1"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
-      <c r="D820" s="37"/>
+      <c r="D820" s="36"/>
       <c r="E820" s="3"/>
       <c r="F820" s="3"/>
       <c r="G820" s="3"/>
@@ -24232,7 +24247,7 @@
       <c r="A821" s="1"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
-      <c r="D821" s="37"/>
+      <c r="D821" s="36"/>
       <c r="E821" s="3"/>
       <c r="F821" s="3"/>
       <c r="G821" s="3"/>
@@ -24260,7 +24275,7 @@
       <c r="A822" s="1"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
-      <c r="D822" s="37"/>
+      <c r="D822" s="36"/>
       <c r="E822" s="3"/>
       <c r="F822" s="3"/>
       <c r="G822" s="3"/>
@@ -24288,7 +24303,7 @@
       <c r="A823" s="1"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
-      <c r="D823" s="37"/>
+      <c r="D823" s="36"/>
       <c r="E823" s="3"/>
       <c r="F823" s="3"/>
       <c r="G823" s="3"/>
@@ -24316,7 +24331,7 @@
       <c r="A824" s="1"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
-      <c r="D824" s="37"/>
+      <c r="D824" s="36"/>
       <c r="E824" s="3"/>
       <c r="F824" s="3"/>
       <c r="G824" s="3"/>
@@ -24344,7 +24359,7 @@
       <c r="A825" s="1"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
-      <c r="D825" s="37"/>
+      <c r="D825" s="36"/>
       <c r="E825" s="3"/>
       <c r="F825" s="3"/>
       <c r="G825" s="3"/>
@@ -24372,7 +24387,7 @@
       <c r="A826" s="1"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
-      <c r="D826" s="37"/>
+      <c r="D826" s="36"/>
       <c r="E826" s="3"/>
       <c r="F826" s="3"/>
       <c r="G826" s="3"/>
@@ -24400,7 +24415,7 @@
       <c r="A827" s="1"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
-      <c r="D827" s="37"/>
+      <c r="D827" s="36"/>
       <c r="E827" s="3"/>
       <c r="F827" s="3"/>
       <c r="G827" s="3"/>
@@ -24428,7 +24443,7 @@
       <c r="A828" s="1"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
-      <c r="D828" s="37"/>
+      <c r="D828" s="36"/>
       <c r="E828" s="3"/>
       <c r="F828" s="3"/>
       <c r="G828" s="3"/>
@@ -24456,7 +24471,7 @@
       <c r="A829" s="1"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
-      <c r="D829" s="37"/>
+      <c r="D829" s="36"/>
       <c r="E829" s="3"/>
       <c r="F829" s="3"/>
       <c r="G829" s="3"/>
@@ -24484,7 +24499,7 @@
       <c r="A830" s="1"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
-      <c r="D830" s="37"/>
+      <c r="D830" s="36"/>
       <c r="E830" s="3"/>
       <c r="F830" s="3"/>
       <c r="G830" s="3"/>
@@ -24512,7 +24527,7 @@
       <c r="A831" s="1"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
-      <c r="D831" s="37"/>
+      <c r="D831" s="36"/>
       <c r="E831" s="3"/>
       <c r="F831" s="3"/>
       <c r="G831" s="3"/>
@@ -24540,7 +24555,7 @@
       <c r="A832" s="1"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
-      <c r="D832" s="37"/>
+      <c r="D832" s="36"/>
       <c r="E832" s="3"/>
       <c r="F832" s="3"/>
       <c r="G832" s="3"/>
@@ -24568,7 +24583,7 @@
       <c r="A833" s="1"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
-      <c r="D833" s="37"/>
+      <c r="D833" s="36"/>
       <c r="E833" s="3"/>
       <c r="F833" s="3"/>
       <c r="G833" s="3"/>
@@ -24596,7 +24611,7 @@
       <c r="A834" s="1"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
-      <c r="D834" s="37"/>
+      <c r="D834" s="36"/>
       <c r="E834" s="3"/>
       <c r="F834" s="3"/>
       <c r="G834" s="3"/>
@@ -24624,7 +24639,7 @@
       <c r="A835" s="1"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
-      <c r="D835" s="37"/>
+      <c r="D835" s="36"/>
       <c r="E835" s="3"/>
       <c r="F835" s="3"/>
       <c r="G835" s="3"/>
@@ -24652,7 +24667,7 @@
       <c r="A836" s="1"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
-      <c r="D836" s="37"/>
+      <c r="D836" s="36"/>
       <c r="E836" s="3"/>
       <c r="F836" s="3"/>
       <c r="G836" s="3"/>
@@ -24680,7 +24695,7 @@
       <c r="A837" s="1"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
-      <c r="D837" s="37"/>
+      <c r="D837" s="36"/>
       <c r="E837" s="3"/>
       <c r="F837" s="3"/>
       <c r="G837" s="3"/>
@@ -24708,7 +24723,7 @@
       <c r="A838" s="1"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
-      <c r="D838" s="37"/>
+      <c r="D838" s="36"/>
       <c r="E838" s="3"/>
       <c r="F838" s="3"/>
       <c r="G838" s="3"/>
@@ -24736,7 +24751,7 @@
       <c r="A839" s="1"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
-      <c r="D839" s="37"/>
+      <c r="D839" s="36"/>
       <c r="E839" s="3"/>
       <c r="F839" s="3"/>
       <c r="G839" s="3"/>
@@ -24764,7 +24779,7 @@
       <c r="A840" s="1"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
-      <c r="D840" s="37"/>
+      <c r="D840" s="36"/>
       <c r="E840" s="3"/>
       <c r="F840" s="3"/>
       <c r="G840" s="3"/>
@@ -24792,7 +24807,7 @@
       <c r="A841" s="1"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
-      <c r="D841" s="37"/>
+      <c r="D841" s="36"/>
       <c r="E841" s="3"/>
       <c r="F841" s="3"/>
       <c r="G841" s="3"/>
@@ -24820,7 +24835,7 @@
       <c r="A842" s="1"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
-      <c r="D842" s="37"/>
+      <c r="D842" s="36"/>
       <c r="E842" s="3"/>
       <c r="F842" s="3"/>
       <c r="G842" s="3"/>
@@ -24848,7 +24863,7 @@
       <c r="A843" s="1"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
-      <c r="D843" s="37"/>
+      <c r="D843" s="36"/>
       <c r="E843" s="3"/>
       <c r="F843" s="3"/>
       <c r="G843" s="3"/>
@@ -24876,7 +24891,7 @@
       <c r="A844" s="1"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
-      <c r="D844" s="37"/>
+      <c r="D844" s="36"/>
       <c r="E844" s="3"/>
       <c r="F844" s="3"/>
       <c r="G844" s="3"/>
@@ -24904,7 +24919,7 @@
       <c r="A845" s="1"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
-      <c r="D845" s="37"/>
+      <c r="D845" s="36"/>
       <c r="E845" s="3"/>
       <c r="F845" s="3"/>
       <c r="G845" s="3"/>
@@ -24932,7 +24947,7 @@
       <c r="A846" s="1"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
-      <c r="D846" s="37"/>
+      <c r="D846" s="36"/>
       <c r="E846" s="3"/>
       <c r="F846" s="3"/>
       <c r="G846" s="3"/>
@@ -24960,7 +24975,7 @@
       <c r="A847" s="1"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
-      <c r="D847" s="37"/>
+      <c r="D847" s="36"/>
       <c r="E847" s="3"/>
       <c r="F847" s="3"/>
       <c r="G847" s="3"/>
@@ -24988,7 +25003,7 @@
       <c r="A848" s="1"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
-      <c r="D848" s="37"/>
+      <c r="D848" s="36"/>
       <c r="E848" s="3"/>
       <c r="F848" s="3"/>
       <c r="G848" s="3"/>
@@ -25016,7 +25031,7 @@
       <c r="A849" s="1"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
-      <c r="D849" s="37"/>
+      <c r="D849" s="36"/>
       <c r="E849" s="3"/>
       <c r="F849" s="3"/>
       <c r="G849" s="3"/>
@@ -25044,7 +25059,7 @@
       <c r="A850" s="1"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
-      <c r="D850" s="37"/>
+      <c r="D850" s="36"/>
       <c r="E850" s="3"/>
       <c r="F850" s="3"/>
       <c r="G850" s="3"/>
@@ -25072,7 +25087,7 @@
       <c r="A851" s="1"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
-      <c r="D851" s="37"/>
+      <c r="D851" s="36"/>
       <c r="E851" s="3"/>
       <c r="F851" s="3"/>
       <c r="G851" s="3"/>
@@ -25100,7 +25115,7 @@
       <c r="A852" s="1"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
-      <c r="D852" s="37"/>
+      <c r="D852" s="36"/>
       <c r="E852" s="3"/>
       <c r="F852" s="3"/>
       <c r="G852" s="3"/>
@@ -25128,7 +25143,7 @@
       <c r="A853" s="1"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
-      <c r="D853" s="37"/>
+      <c r="D853" s="36"/>
       <c r="E853" s="3"/>
       <c r="F853" s="3"/>
       <c r="G853" s="3"/>
@@ -25156,7 +25171,7 @@
       <c r="A854" s="1"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
-      <c r="D854" s="37"/>
+      <c r="D854" s="36"/>
       <c r="E854" s="3"/>
       <c r="F854" s="3"/>
       <c r="G854" s="3"/>
@@ -25184,7 +25199,7 @@
       <c r="A855" s="1"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
-      <c r="D855" s="37"/>
+      <c r="D855" s="36"/>
       <c r="E855" s="3"/>
       <c r="F855" s="3"/>
       <c r="G855" s="3"/>
@@ -25212,7 +25227,7 @@
       <c r="A856" s="1"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
-      <c r="D856" s="37"/>
+      <c r="D856" s="36"/>
       <c r="E856" s="3"/>
       <c r="F856" s="3"/>
       <c r="G856" s="3"/>
@@ -25240,7 +25255,7 @@
       <c r="A857" s="1"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
-      <c r="D857" s="37"/>
+      <c r="D857" s="36"/>
       <c r="E857" s="3"/>
       <c r="F857" s="3"/>
       <c r="G857" s="3"/>
@@ -25268,7 +25283,7 @@
       <c r="A858" s="1"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
-      <c r="D858" s="37"/>
+      <c r="D858" s="36"/>
       <c r="E858" s="3"/>
       <c r="F858" s="3"/>
       <c r="G858" s="3"/>
@@ -25296,7 +25311,7 @@
       <c r="A859" s="1"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
-      <c r="D859" s="37"/>
+      <c r="D859" s="36"/>
       <c r="E859" s="3"/>
       <c r="F859" s="3"/>
       <c r="G859" s="3"/>
@@ -25324,7 +25339,7 @@
       <c r="A860" s="1"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
-      <c r="D860" s="37"/>
+      <c r="D860" s="36"/>
       <c r="E860" s="3"/>
       <c r="F860" s="3"/>
       <c r="G860" s="3"/>
@@ -25352,7 +25367,7 @@
       <c r="A861" s="1"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
-      <c r="D861" s="37"/>
+      <c r="D861" s="36"/>
       <c r="E861" s="3"/>
       <c r="F861" s="3"/>
       <c r="G861" s="3"/>
@@ -25380,7 +25395,7 @@
       <c r="A862" s="1"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
-      <c r="D862" s="37"/>
+      <c r="D862" s="36"/>
       <c r="E862" s="3"/>
       <c r="F862" s="3"/>
       <c r="G862" s="3"/>
@@ -25408,7 +25423,7 @@
       <c r="A863" s="1"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
-      <c r="D863" s="37"/>
+      <c r="D863" s="36"/>
       <c r="E863" s="3"/>
       <c r="F863" s="3"/>
       <c r="G863" s="3"/>
@@ -25436,7 +25451,7 @@
       <c r="A864" s="1"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
-      <c r="D864" s="37"/>
+      <c r="D864" s="36"/>
       <c r="E864" s="3"/>
       <c r="F864" s="3"/>
       <c r="G864" s="3"/>
@@ -25464,7 +25479,7 @@
       <c r="A865" s="1"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
-      <c r="D865" s="37"/>
+      <c r="D865" s="36"/>
       <c r="E865" s="3"/>
       <c r="F865" s="3"/>
       <c r="G865" s="3"/>
@@ -25492,7 +25507,7 @@
       <c r="A866" s="1"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
-      <c r="D866" s="37"/>
+      <c r="D866" s="36"/>
       <c r="E866" s="3"/>
       <c r="F866" s="3"/>
       <c r="G866" s="3"/>
@@ -25520,7 +25535,7 @@
       <c r="A867" s="1"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
-      <c r="D867" s="37"/>
+      <c r="D867" s="36"/>
       <c r="E867" s="3"/>
       <c r="F867" s="3"/>
       <c r="G867" s="3"/>
@@ -25548,7 +25563,7 @@
       <c r="A868" s="1"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
-      <c r="D868" s="37"/>
+      <c r="D868" s="36"/>
       <c r="E868" s="3"/>
       <c r="F868" s="3"/>
       <c r="G868" s="3"/>
@@ -25576,7 +25591,7 @@
       <c r="A869" s="1"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
-      <c r="D869" s="37"/>
+      <c r="D869" s="36"/>
       <c r="E869" s="3"/>
       <c r="F869" s="3"/>
       <c r="G869" s="3"/>
@@ -25604,7 +25619,7 @@
       <c r="A870" s="1"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
-      <c r="D870" s="37"/>
+      <c r="D870" s="36"/>
       <c r="E870" s="3"/>
       <c r="F870" s="3"/>
       <c r="G870" s="3"/>
@@ -25632,7 +25647,7 @@
       <c r="A871" s="1"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
-      <c r="D871" s="37"/>
+      <c r="D871" s="36"/>
       <c r="E871" s="3"/>
       <c r="F871" s="3"/>
       <c r="G871" s="3"/>
@@ -25660,7 +25675,7 @@
       <c r="A872" s="1"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
-      <c r="D872" s="37"/>
+      <c r="D872" s="36"/>
       <c r="E872" s="3"/>
       <c r="F872" s="3"/>
       <c r="G872" s="3"/>
@@ -25688,7 +25703,7 @@
       <c r="A873" s="1"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
-      <c r="D873" s="37"/>
+      <c r="D873" s="36"/>
       <c r="E873" s="3"/>
       <c r="F873" s="3"/>
       <c r="G873" s="3"/>
@@ -25716,7 +25731,7 @@
       <c r="A874" s="1"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
-      <c r="D874" s="37"/>
+      <c r="D874" s="36"/>
       <c r="E874" s="3"/>
       <c r="F874" s="3"/>
       <c r="G874" s="3"/>
@@ -25744,7 +25759,7 @@
       <c r="A875" s="1"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
-      <c r="D875" s="37"/>
+      <c r="D875" s="36"/>
       <c r="E875" s="3"/>
       <c r="F875" s="3"/>
       <c r="G875" s="3"/>
@@ -25772,7 +25787,7 @@
       <c r="A876" s="1"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
-      <c r="D876" s="37"/>
+      <c r="D876" s="36"/>
       <c r="E876" s="3"/>
       <c r="F876" s="3"/>
       <c r="G876" s="3"/>
@@ -25800,7 +25815,7 @@
       <c r="A877" s="1"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
-      <c r="D877" s="37"/>
+      <c r="D877" s="36"/>
       <c r="E877" s="3"/>
       <c r="F877" s="3"/>
       <c r="G877" s="3"/>
@@ -25828,7 +25843,7 @@
       <c r="A878" s="1"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
-      <c r="D878" s="37"/>
+      <c r="D878" s="36"/>
       <c r="E878" s="3"/>
       <c r="F878" s="3"/>
       <c r="G878" s="3"/>
@@ -25856,7 +25871,7 @@
       <c r="A879" s="1"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
-      <c r="D879" s="37"/>
+      <c r="D879" s="36"/>
       <c r="E879" s="3"/>
       <c r="F879" s="3"/>
       <c r="G879" s="3"/>
@@ -25884,7 +25899,7 @@
       <c r="A880" s="1"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
-      <c r="D880" s="37"/>
+      <c r="D880" s="36"/>
       <c r="E880" s="3"/>
       <c r="F880" s="3"/>
       <c r="G880" s="3"/>
@@ -25912,7 +25927,7 @@
       <c r="A881" s="1"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
-      <c r="D881" s="37"/>
+      <c r="D881" s="36"/>
       <c r="E881" s="3"/>
       <c r="F881" s="3"/>
       <c r="G881" s="3"/>
@@ -25940,7 +25955,7 @@
       <c r="A882" s="1"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
-      <c r="D882" s="37"/>
+      <c r="D882" s="36"/>
       <c r="E882" s="3"/>
       <c r="F882" s="3"/>
       <c r="G882" s="3"/>
@@ -25968,7 +25983,7 @@
       <c r="A883" s="1"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
-      <c r="D883" s="37"/>
+      <c r="D883" s="36"/>
       <c r="E883" s="3"/>
       <c r="F883" s="3"/>
       <c r="G883" s="3"/>
@@ -25996,7 +26011,7 @@
       <c r="A884" s="1"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
-      <c r="D884" s="37"/>
+      <c r="D884" s="36"/>
       <c r="E884" s="3"/>
       <c r="F884" s="3"/>
       <c r="G884" s="3"/>
@@ -26024,7 +26039,7 @@
       <c r="A885" s="1"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
-      <c r="D885" s="37"/>
+      <c r="D885" s="36"/>
       <c r="E885" s="3"/>
       <c r="F885" s="3"/>
       <c r="G885" s="3"/>
@@ -26052,7 +26067,7 @@
       <c r="A886" s="1"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
-      <c r="D886" s="37"/>
+      <c r="D886" s="36"/>
       <c r="E886" s="3"/>
       <c r="F886" s="3"/>
       <c r="G886" s="3"/>
@@ -26080,7 +26095,7 @@
       <c r="A887" s="1"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
-      <c r="D887" s="37"/>
+      <c r="D887" s="36"/>
       <c r="E887" s="3"/>
       <c r="F887" s="3"/>
       <c r="G887" s="3"/>
@@ -26108,7 +26123,7 @@
       <c r="A888" s="1"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
-      <c r="D888" s="37"/>
+      <c r="D888" s="36"/>
       <c r="E888" s="3"/>
       <c r="F888" s="3"/>
       <c r="G888" s="3"/>
@@ -26136,7 +26151,7 @@
       <c r="A889" s="1"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
-      <c r="D889" s="37"/>
+      <c r="D889" s="36"/>
       <c r="E889" s="3"/>
       <c r="F889" s="3"/>
       <c r="G889" s="3"/>
@@ -26164,7 +26179,7 @@
       <c r="A890" s="1"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
-      <c r="D890" s="37"/>
+      <c r="D890" s="36"/>
       <c r="E890" s="3"/>
       <c r="F890" s="3"/>
       <c r="G890" s="3"/>
@@ -26192,7 +26207,7 @@
       <c r="A891" s="1"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
-      <c r="D891" s="37"/>
+      <c r="D891" s="36"/>
       <c r="E891" s="3"/>
       <c r="F891" s="3"/>
       <c r="G891" s="3"/>
@@ -26220,7 +26235,7 @@
       <c r="A892" s="1"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
-      <c r="D892" s="37"/>
+      <c r="D892" s="36"/>
       <c r="E892" s="3"/>
       <c r="F892" s="3"/>
       <c r="G892" s="3"/>
@@ -26248,7 +26263,7 @@
       <c r="A893" s="1"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
-      <c r="D893" s="37"/>
+      <c r="D893" s="36"/>
       <c r="E893" s="3"/>
       <c r="F893" s="3"/>
       <c r="G893" s="3"/>
@@ -26276,7 +26291,7 @@
       <c r="A894" s="1"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
-      <c r="D894" s="37"/>
+      <c r="D894" s="36"/>
       <c r="E894" s="3"/>
       <c r="F894" s="3"/>
       <c r="G894" s="3"/>
@@ -26304,7 +26319,7 @@
       <c r="A895" s="1"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
-      <c r="D895" s="37"/>
+      <c r="D895" s="36"/>
       <c r="E895" s="3"/>
       <c r="F895" s="3"/>
       <c r="G895" s="3"/>
@@ -26332,7 +26347,7 @@
       <c r="A896" s="1"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
-      <c r="D896" s="37"/>
+      <c r="D896" s="36"/>
       <c r="E896" s="3"/>
       <c r="F896" s="3"/>
       <c r="G896" s="3"/>
@@ -26360,7 +26375,7 @@
       <c r="A897" s="1"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
-      <c r="D897" s="37"/>
+      <c r="D897" s="36"/>
       <c r="E897" s="3"/>
       <c r="F897" s="3"/>
       <c r="G897" s="3"/>
@@ -26388,7 +26403,7 @@
       <c r="A898" s="1"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
-      <c r="D898" s="37"/>
+      <c r="D898" s="36"/>
       <c r="E898" s="3"/>
       <c r="F898" s="3"/>
       <c r="G898" s="3"/>
@@ -26416,7 +26431,7 @@
       <c r="A899" s="1"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
-      <c r="D899" s="37"/>
+      <c r="D899" s="36"/>
       <c r="E899" s="3"/>
       <c r="F899" s="3"/>
       <c r="G899" s="3"/>
@@ -26444,7 +26459,7 @@
       <c r="A900" s="1"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
-      <c r="D900" s="37"/>
+      <c r="D900" s="36"/>
       <c r="E900" s="3"/>
       <c r="F900" s="3"/>
       <c r="G900" s="3"/>
@@ -26472,7 +26487,7 @@
       <c r="A901" s="1"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
-      <c r="D901" s="37"/>
+      <c r="D901" s="36"/>
       <c r="E901" s="3"/>
       <c r="F901" s="3"/>
       <c r="G901" s="3"/>
@@ -26500,7 +26515,7 @@
       <c r="A902" s="1"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
-      <c r="D902" s="37"/>
+      <c r="D902" s="36"/>
       <c r="E902" s="3"/>
       <c r="F902" s="3"/>
       <c r="G902" s="3"/>
@@ -26528,7 +26543,7 @@
       <c r="A903" s="1"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
-      <c r="D903" s="37"/>
+      <c r="D903" s="36"/>
       <c r="E903" s="3"/>
       <c r="F903" s="3"/>
       <c r="G903" s="3"/>
@@ -26556,7 +26571,7 @@
       <c r="A904" s="1"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
-      <c r="D904" s="37"/>
+      <c r="D904" s="36"/>
       <c r="E904" s="3"/>
       <c r="F904" s="3"/>
       <c r="G904" s="3"/>
@@ -26584,7 +26599,7 @@
       <c r="A905" s="1"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
-      <c r="D905" s="37"/>
+      <c r="D905" s="36"/>
       <c r="E905" s="3"/>
       <c r="F905" s="3"/>
       <c r="G905" s="3"/>
@@ -26612,7 +26627,7 @@
       <c r="A906" s="1"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
-      <c r="D906" s="37"/>
+      <c r="D906" s="36"/>
       <c r="E906" s="3"/>
       <c r="F906" s="3"/>
       <c r="G906" s="3"/>
@@ -26640,7 +26655,7 @@
       <c r="A907" s="1"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
-      <c r="D907" s="37"/>
+      <c r="D907" s="36"/>
       <c r="E907" s="3"/>
       <c r="F907" s="3"/>
       <c r="G907" s="3"/>
@@ -26668,7 +26683,7 @@
       <c r="A908" s="1"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
-      <c r="D908" s="37"/>
+      <c r="D908" s="36"/>
       <c r="E908" s="3"/>
       <c r="F908" s="3"/>
       <c r="G908" s="3"/>
@@ -26696,7 +26711,7 @@
       <c r="A909" s="1"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
-      <c r="D909" s="37"/>
+      <c r="D909" s="36"/>
       <c r="E909" s="3"/>
       <c r="F909" s="3"/>
       <c r="G909" s="3"/>
@@ -26724,7 +26739,7 @@
       <c r="A910" s="1"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
-      <c r="D910" s="37"/>
+      <c r="D910" s="36"/>
       <c r="E910" s="3"/>
       <c r="F910" s="3"/>
       <c r="G910" s="3"/>
@@ -26752,7 +26767,7 @@
       <c r="A911" s="1"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
-      <c r="D911" s="37"/>
+      <c r="D911" s="36"/>
       <c r="E911" s="3"/>
       <c r="F911" s="3"/>
       <c r="G911" s="3"/>
@@ -26780,7 +26795,7 @@
       <c r="A912" s="1"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
-      <c r="D912" s="37"/>
+      <c r="D912" s="36"/>
       <c r="E912" s="3"/>
       <c r="F912" s="3"/>
       <c r="G912" s="3"/>
@@ -26808,7 +26823,7 @@
       <c r="A913" s="1"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
-      <c r="D913" s="37"/>
+      <c r="D913" s="36"/>
       <c r="E913" s="3"/>
       <c r="F913" s="3"/>
       <c r="G913" s="3"/>
@@ -26836,7 +26851,7 @@
       <c r="A914" s="1"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
-      <c r="D914" s="37"/>
+      <c r="D914" s="36"/>
       <c r="E914" s="3"/>
       <c r="F914" s="3"/>
       <c r="G914" s="3"/>
@@ -26864,7 +26879,7 @@
       <c r="A915" s="1"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
-      <c r="D915" s="37"/>
+      <c r="D915" s="36"/>
       <c r="E915" s="3"/>
       <c r="F915" s="3"/>
       <c r="G915" s="3"/>
@@ -26892,7 +26907,7 @@
       <c r="A916" s="1"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
-      <c r="D916" s="37"/>
+      <c r="D916" s="36"/>
       <c r="E916" s="3"/>
       <c r="F916" s="3"/>
       <c r="G916" s="3"/>
@@ -26920,7 +26935,7 @@
       <c r="A917" s="1"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
-      <c r="D917" s="37"/>
+      <c r="D917" s="36"/>
       <c r="E917" s="3"/>
       <c r="F917" s="3"/>
       <c r="G917" s="3"/>
@@ -26948,7 +26963,7 @@
       <c r="A918" s="1"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
-      <c r="D918" s="37"/>
+      <c r="D918" s="36"/>
       <c r="E918" s="3"/>
       <c r="F918" s="3"/>
       <c r="G918" s="3"/>
@@ -26976,7 +26991,7 @@
       <c r="A919" s="1"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
-      <c r="D919" s="37"/>
+      <c r="D919" s="36"/>
       <c r="E919" s="3"/>
       <c r="F919" s="3"/>
       <c r="G919" s="3"/>
@@ -27004,7 +27019,7 @@
       <c r="A920" s="1"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
-      <c r="D920" s="37"/>
+      <c r="D920" s="36"/>
       <c r="E920" s="3"/>
       <c r="F920" s="3"/>
       <c r="G920" s="3"/>
@@ -27032,7 +27047,7 @@
       <c r="A921" s="1"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
-      <c r="D921" s="37"/>
+      <c r="D921" s="36"/>
       <c r="E921" s="3"/>
       <c r="F921" s="3"/>
       <c r="G921" s="3"/>
@@ -27060,7 +27075,7 @@
       <c r="A922" s="1"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
-      <c r="D922" s="37"/>
+      <c r="D922" s="36"/>
       <c r="E922" s="3"/>
       <c r="F922" s="3"/>
       <c r="G922" s="3"/>
@@ -27088,7 +27103,7 @@
       <c r="A923" s="1"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
-      <c r="D923" s="37"/>
+      <c r="D923" s="36"/>
       <c r="E923" s="3"/>
       <c r="F923" s="3"/>
       <c r="G923" s="3"/>
@@ -27116,7 +27131,7 @@
       <c r="A924" s="1"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
-      <c r="D924" s="37"/>
+      <c r="D924" s="36"/>
       <c r="E924" s="3"/>
       <c r="F924" s="3"/>
       <c r="G924" s="3"/>
@@ -27144,7 +27159,7 @@
       <c r="A925" s="1"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
-      <c r="D925" s="37"/>
+      <c r="D925" s="36"/>
       <c r="E925" s="3"/>
       <c r="F925" s="3"/>
       <c r="G925" s="3"/>
@@ -27172,7 +27187,7 @@
       <c r="A926" s="1"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
-      <c r="D926" s="37"/>
+      <c r="D926" s="36"/>
       <c r="E926" s="3"/>
       <c r="F926" s="3"/>
       <c r="G926" s="3"/>
@@ -27200,7 +27215,7 @@
       <c r="A927" s="1"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
-      <c r="D927" s="37"/>
+      <c r="D927" s="36"/>
       <c r="E927" s="3"/>
       <c r="F927" s="3"/>
       <c r="G927" s="3"/>
@@ -27228,7 +27243,7 @@
       <c r="A928" s="1"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
-      <c r="D928" s="37"/>
+      <c r="D928" s="36"/>
       <c r="E928" s="3"/>
       <c r="F928" s="3"/>
       <c r="G928" s="3"/>
@@ -27256,7 +27271,7 @@
       <c r="A929" s="1"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
-      <c r="D929" s="37"/>
+      <c r="D929" s="36"/>
       <c r="E929" s="3"/>
       <c r="F929" s="3"/>
       <c r="G929" s="3"/>
@@ -27284,7 +27299,7 @@
       <c r="A930" s="1"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
-      <c r="D930" s="37"/>
+      <c r="D930" s="36"/>
       <c r="E930" s="3"/>
       <c r="F930" s="3"/>
       <c r="G930" s="3"/>
@@ -27312,7 +27327,7 @@
       <c r="A931" s="1"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
-      <c r="D931" s="37"/>
+      <c r="D931" s="36"/>
       <c r="E931" s="3"/>
       <c r="F931" s="3"/>
       <c r="G931" s="3"/>
@@ -27340,7 +27355,7 @@
       <c r="A932" s="1"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
-      <c r="D932" s="37"/>
+      <c r="D932" s="36"/>
       <c r="E932" s="3"/>
       <c r="F932" s="3"/>
       <c r="G932" s="3"/>
@@ -27368,7 +27383,7 @@
       <c r="A933" s="1"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
-      <c r="D933" s="37"/>
+      <c r="D933" s="36"/>
       <c r="E933" s="3"/>
       <c r="F933" s="3"/>
       <c r="G933" s="3"/>
@@ -27396,7 +27411,7 @@
       <c r="A934" s="1"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
-      <c r="D934" s="37"/>
+      <c r="D934" s="36"/>
       <c r="E934" s="3"/>
       <c r="F934" s="3"/>
       <c r="G934" s="3"/>
@@ -27424,7 +27439,7 @@
       <c r="A935" s="1"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
-      <c r="D935" s="37"/>
+      <c r="D935" s="36"/>
       <c r="E935" s="3"/>
       <c r="F935" s="3"/>
       <c r="G935" s="3"/>
@@ -27452,7 +27467,7 @@
       <c r="A936" s="1"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
-      <c r="D936" s="37"/>
+      <c r="D936" s="36"/>
       <c r="E936" s="3"/>
       <c r="F936" s="3"/>
       <c r="G936" s="3"/>
@@ -27480,7 +27495,7 @@
       <c r="A937" s="1"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
-      <c r="D937" s="37"/>
+      <c r="D937" s="36"/>
       <c r="E937" s="3"/>
       <c r="F937" s="3"/>
       <c r="G937" s="3"/>
@@ -27508,7 +27523,7 @@
       <c r="A938" s="1"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
-      <c r="D938" s="37"/>
+      <c r="D938" s="36"/>
       <c r="E938" s="3"/>
       <c r="F938" s="3"/>
       <c r="G938" s="3"/>
@@ -27536,7 +27551,7 @@
       <c r="A939" s="1"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
-      <c r="D939" s="37"/>
+      <c r="D939" s="36"/>
       <c r="E939" s="3"/>
       <c r="F939" s="3"/>
       <c r="G939" s="3"/>
@@ -27564,7 +27579,7 @@
       <c r="A940" s="1"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
-      <c r="D940" s="37"/>
+      <c r="D940" s="36"/>
       <c r="E940" s="3"/>
       <c r="F940" s="3"/>
       <c r="G940" s="3"/>
@@ -27592,7 +27607,7 @@
       <c r="A941" s="1"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
-      <c r="D941" s="37"/>
+      <c r="D941" s="36"/>
       <c r="E941" s="3"/>
       <c r="F941" s="3"/>
       <c r="G941" s="3"/>
@@ -27620,7 +27635,7 @@
       <c r="A942" s="1"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
-      <c r="D942" s="37"/>
+      <c r="D942" s="36"/>
       <c r="E942" s="3"/>
       <c r="F942" s="3"/>
       <c r="G942" s="3"/>
@@ -27648,7 +27663,7 @@
       <c r="A943" s="1"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
-      <c r="D943" s="37"/>
+      <c r="D943" s="36"/>
       <c r="E943" s="3"/>
       <c r="F943" s="3"/>
       <c r="G943" s="3"/>
@@ -27676,7 +27691,7 @@
       <c r="A944" s="1"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
-      <c r="D944" s="37"/>
+      <c r="D944" s="36"/>
       <c r="E944" s="3"/>
       <c r="F944" s="3"/>
       <c r="G944" s="3"/>
@@ -27704,7 +27719,7 @@
       <c r="A945" s="1"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
-      <c r="D945" s="37"/>
+      <c r="D945" s="36"/>
       <c r="E945" s="3"/>
       <c r="F945" s="3"/>
       <c r="G945" s="3"/>
@@ -27732,7 +27747,7 @@
       <c r="A946" s="1"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
-      <c r="D946" s="37"/>
+      <c r="D946" s="36"/>
       <c r="E946" s="3"/>
       <c r="F946" s="3"/>
       <c r="G946" s="3"/>
@@ -27760,7 +27775,7 @@
       <c r="A947" s="1"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
-      <c r="D947" s="37"/>
+      <c r="D947" s="36"/>
       <c r="E947" s="3"/>
       <c r="F947" s="3"/>
       <c r="G947" s="3"/>
@@ -27788,7 +27803,7 @@
       <c r="A948" s="1"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
-      <c r="D948" s="37"/>
+      <c r="D948" s="36"/>
       <c r="E948" s="3"/>
       <c r="F948" s="3"/>
       <c r="G948" s="3"/>
@@ -27816,7 +27831,7 @@
       <c r="A949" s="1"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
-      <c r="D949" s="37"/>
+      <c r="D949" s="36"/>
       <c r="E949" s="3"/>
       <c r="F949" s="3"/>
       <c r="G949" s="3"/>
@@ -27844,7 +27859,7 @@
       <c r="A950" s="1"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
-      <c r="D950" s="37"/>
+      <c r="D950" s="36"/>
       <c r="E950" s="3"/>
       <c r="F950" s="3"/>
       <c r="G950" s="3"/>
@@ -27872,7 +27887,7 @@
       <c r="A951" s="1"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
-      <c r="D951" s="37"/>
+      <c r="D951" s="36"/>
       <c r="E951" s="3"/>
       <c r="F951" s="3"/>
       <c r="G951" s="3"/>
@@ -27900,7 +27915,7 @@
       <c r="A952" s="1"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
-      <c r="D952" s="37"/>
+      <c r="D952" s="36"/>
       <c r="E952" s="3"/>
       <c r="F952" s="3"/>
       <c r="G952" s="3"/>
@@ -27928,7 +27943,7 @@
       <c r="A953" s="1"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
-      <c r="D953" s="37"/>
+      <c r="D953" s="36"/>
       <c r="E953" s="3"/>
       <c r="F953" s="3"/>
       <c r="G953" s="3"/>
@@ -27956,7 +27971,7 @@
       <c r="A954" s="1"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
-      <c r="D954" s="37"/>
+      <c r="D954" s="36"/>
       <c r="E954" s="3"/>
       <c r="F954" s="3"/>
       <c r="G954" s="3"/>
@@ -27984,7 +27999,7 @@
       <c r="A955" s="1"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
-      <c r="D955" s="37"/>
+      <c r="D955" s="36"/>
       <c r="E955" s="3"/>
       <c r="F955" s="3"/>
       <c r="G955" s="3"/>
@@ -28012,7 +28027,7 @@
       <c r="A956" s="1"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
-      <c r="D956" s="37"/>
+      <c r="D956" s="36"/>
       <c r="E956" s="3"/>
       <c r="F956" s="3"/>
       <c r="G956" s="3"/>
@@ -28040,7 +28055,7 @@
       <c r="A957" s="1"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
-      <c r="D957" s="37"/>
+      <c r="D957" s="36"/>
       <c r="E957" s="3"/>
       <c r="F957" s="3"/>
       <c r="G957" s="3"/>
@@ -28068,7 +28083,7 @@
       <c r="A958" s="1"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
-      <c r="D958" s="37"/>
+      <c r="D958" s="36"/>
       <c r="E958" s="3"/>
       <c r="F958" s="3"/>
       <c r="G958" s="3"/>
@@ -28096,7 +28111,7 @@
       <c r="A959" s="1"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
-      <c r="D959" s="37"/>
+      <c r="D959" s="36"/>
       <c r="E959" s="3"/>
       <c r="F959" s="3"/>
       <c r="G959" s="3"/>
@@ -28124,7 +28139,7 @@
       <c r="A960" s="1"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
-      <c r="D960" s="37"/>
+      <c r="D960" s="36"/>
       <c r="E960" s="3"/>
       <c r="F960" s="3"/>
       <c r="G960" s="3"/>
@@ -28152,7 +28167,7 @@
       <c r="A961" s="1"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
-      <c r="D961" s="37"/>
+      <c r="D961" s="36"/>
       <c r="E961" s="3"/>
       <c r="F961" s="3"/>
       <c r="G961" s="3"/>
@@ -28180,7 +28195,7 @@
       <c r="A962" s="1"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
-      <c r="D962" s="37"/>
+      <c r="D962" s="36"/>
       <c r="E962" s="3"/>
       <c r="F962" s="3"/>
       <c r="G962" s="3"/>
@@ -28208,7 +28223,7 @@
       <c r="A963" s="1"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
-      <c r="D963" s="37"/>
+      <c r="D963" s="36"/>
       <c r="E963" s="3"/>
       <c r="F963" s="3"/>
       <c r="G963" s="3"/>
@@ -28236,7 +28251,7 @@
       <c r="A964" s="1"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
-      <c r="D964" s="37"/>
+      <c r="D964" s="36"/>
       <c r="E964" s="3"/>
       <c r="F964" s="3"/>
       <c r="G964" s="3"/>
@@ -28264,7 +28279,7 @@
       <c r="A965" s="1"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
-      <c r="D965" s="37"/>
+      <c r="D965" s="36"/>
       <c r="E965" s="3"/>
       <c r="F965" s="3"/>
       <c r="G965" s="3"/>
@@ -28292,7 +28307,7 @@
       <c r="A966" s="1"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
-      <c r="D966" s="37"/>
+      <c r="D966" s="36"/>
       <c r="E966" s="3"/>
       <c r="F966" s="3"/>
       <c r="G966" s="3"/>
@@ -28320,7 +28335,7 @@
       <c r="A967" s="1"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
-      <c r="D967" s="37"/>
+      <c r="D967" s="36"/>
       <c r="E967" s="3"/>
       <c r="F967" s="3"/>
       <c r="G967" s="3"/>
@@ -28348,7 +28363,7 @@
       <c r="A968" s="1"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
-      <c r="D968" s="37"/>
+      <c r="D968" s="36"/>
       <c r="E968" s="3"/>
       <c r="F968" s="3"/>
       <c r="G968" s="3"/>
@@ -28376,7 +28391,7 @@
       <c r="A969" s="1"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
-      <c r="D969" s="37"/>
+      <c r="D969" s="36"/>
       <c r="E969" s="3"/>
       <c r="F969" s="3"/>
       <c r="G969" s="3"/>
@@ -28404,7 +28419,7 @@
       <c r="A970" s="1"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
-      <c r="D970" s="37"/>
+      <c r="D970" s="36"/>
       <c r="E970" s="3"/>
       <c r="F970" s="3"/>
       <c r="G970" s="3"/>
@@ -28432,7 +28447,7 @@
       <c r="A971" s="1"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
-      <c r="D971" s="37"/>
+      <c r="D971" s="36"/>
       <c r="E971" s="3"/>
       <c r="F971" s="3"/>
       <c r="G971" s="3"/>
@@ -28460,7 +28475,7 @@
       <c r="A972" s="1"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
-      <c r="D972" s="37"/>
+      <c r="D972" s="36"/>
       <c r="E972" s="3"/>
       <c r="F972" s="3"/>
       <c r="G972" s="3"/>
@@ -28488,7 +28503,7 @@
       <c r="A973" s="1"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
-      <c r="D973" s="37"/>
+      <c r="D973" s="36"/>
       <c r="E973" s="3"/>
       <c r="F973" s="3"/>
       <c r="G973" s="3"/>
@@ -28516,7 +28531,7 @@
       <c r="A974" s="1"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
-      <c r="D974" s="37"/>
+      <c r="D974" s="36"/>
       <c r="E974" s="3"/>
       <c r="F974" s="3"/>
       <c r="G974" s="3"/>
@@ -28544,7 +28559,7 @@
       <c r="A975" s="1"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
-      <c r="D975" s="37"/>
+      <c r="D975" s="36"/>
       <c r="E975" s="3"/>
       <c r="F975" s="3"/>
       <c r="G975" s="3"/>
@@ -28572,7 +28587,7 @@
       <c r="A976" s="1"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
-      <c r="D976" s="37"/>
+      <c r="D976" s="36"/>
       <c r="E976" s="3"/>
       <c r="F976" s="3"/>
       <c r="G976" s="3"/>
@@ -28600,7 +28615,7 @@
       <c r="A977" s="1"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
-      <c r="D977" s="37"/>
+      <c r="D977" s="36"/>
       <c r="E977" s="3"/>
       <c r="F977" s="3"/>
       <c r="G977" s="3"/>
@@ -28628,7 +28643,7 @@
       <c r="A978" s="1"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
-      <c r="D978" s="37"/>
+      <c r="D978" s="36"/>
       <c r="E978" s="3"/>
       <c r="F978" s="3"/>
       <c r="G978" s="3"/>
@@ -28656,7 +28671,7 @@
       <c r="A979" s="1"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
-      <c r="D979" s="37"/>
+      <c r="D979" s="36"/>
       <c r="E979" s="3"/>
       <c r="F979" s="3"/>
       <c r="G979" s="3"/>
@@ -28684,7 +28699,7 @@
       <c r="A980" s="1"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
-      <c r="D980" s="37"/>
+      <c r="D980" s="36"/>
       <c r="E980" s="3"/>
       <c r="F980" s="3"/>
       <c r="G980" s="3"/>
@@ -28712,7 +28727,7 @@
       <c r="A981" s="1"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
-      <c r="D981" s="37"/>
+      <c r="D981" s="36"/>
       <c r="E981" s="3"/>
       <c r="F981" s="3"/>
       <c r="G981" s="3"/>
@@ -28740,7 +28755,7 @@
       <c r="A982" s="1"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
-      <c r="D982" s="37"/>
+      <c r="D982" s="36"/>
       <c r="E982" s="3"/>
       <c r="F982" s="3"/>
       <c r="G982" s="3"/>
@@ -28768,7 +28783,7 @@
       <c r="A983" s="1"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
-      <c r="D983" s="37"/>
+      <c r="D983" s="36"/>
       <c r="E983" s="3"/>
       <c r="F983" s="3"/>
       <c r="G983" s="3"/>
@@ -28796,7 +28811,7 @@
       <c r="A984" s="1"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
-      <c r="D984" s="37"/>
+      <c r="D984" s="36"/>
       <c r="E984" s="3"/>
       <c r="F984" s="3"/>
       <c r="G984" s="3"/>
@@ -28824,7 +28839,7 @@
       <c r="A985" s="1"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
-      <c r="D985" s="37"/>
+      <c r="D985" s="36"/>
       <c r="E985" s="3"/>
       <c r="F985" s="3"/>
       <c r="G985" s="3"/>
@@ -28852,7 +28867,7 @@
       <c r="A986" s="1"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
-      <c r="D986" s="37"/>
+      <c r="D986" s="36"/>
       <c r="E986" s="3"/>
       <c r="F986" s="3"/>
       <c r="G986" s="3"/>
@@ -28880,7 +28895,7 @@
       <c r="A987" s="1"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
-      <c r="D987" s="37"/>
+      <c r="D987" s="36"/>
       <c r="E987" s="3"/>
       <c r="F987" s="3"/>
       <c r="G987" s="3"/>
@@ -28908,7 +28923,7 @@
       <c r="A988" s="1"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
-      <c r="D988" s="37"/>
+      <c r="D988" s="36"/>
       <c r="E988" s="3"/>
       <c r="F988" s="3"/>
       <c r="G988" s="3"/>
@@ -28936,7 +28951,7 @@
       <c r="A989" s="1"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
-      <c r="D989" s="37"/>
+      <c r="D989" s="36"/>
       <c r="E989" s="3"/>
       <c r="F989" s="3"/>
       <c r="G989" s="3"/>
@@ -28964,7 +28979,7 @@
       <c r="A990" s="1"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
-      <c r="D990" s="37"/>
+      <c r="D990" s="36"/>
       <c r="E990" s="3"/>
       <c r="F990" s="3"/>
       <c r="G990" s="3"/>
@@ -28992,7 +29007,7 @@
       <c r="A991" s="1"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
-      <c r="D991" s="37"/>
+      <c r="D991" s="36"/>
       <c r="E991" s="3"/>
       <c r="F991" s="3"/>
       <c r="G991" s="3"/>
@@ -29020,7 +29035,7 @@
       <c r="A992" s="1"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
-      <c r="D992" s="37"/>
+      <c r="D992" s="36"/>
       <c r="E992" s="3"/>
       <c r="F992" s="3"/>
       <c r="G992" s="3"/>
@@ -29048,7 +29063,7 @@
       <c r="A993" s="1"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
-      <c r="D993" s="37"/>
+      <c r="D993" s="36"/>
       <c r="E993" s="3"/>
       <c r="F993" s="3"/>
       <c r="G993" s="3"/>
@@ -29076,7 +29091,7 @@
       <c r="A994" s="1"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
-      <c r="D994" s="37"/>
+      <c r="D994" s="36"/>
       <c r="E994" s="3"/>
       <c r="F994" s="3"/>
       <c r="G994" s="3"/>
@@ -29104,7 +29119,7 @@
       <c r="A995" s="1"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
-      <c r="D995" s="37"/>
+      <c r="D995" s="36"/>
       <c r="E995" s="3"/>
       <c r="F995" s="3"/>
       <c r="G995" s="3"/>
@@ -29132,7 +29147,7 @@
       <c r="A996" s="1"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
-      <c r="D996" s="37"/>
+      <c r="D996" s="36"/>
       <c r="E996" s="3"/>
       <c r="F996" s="3"/>
       <c r="G996" s="3"/>
@@ -29160,7 +29175,7 @@
       <c r="A997" s="1"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
-      <c r="D997" s="37"/>
+      <c r="D997" s="36"/>
       <c r="E997" s="3"/>
       <c r="F997" s="3"/>
       <c r="G997" s="3"/>
@@ -29188,7 +29203,7 @@
       <c r="A998" s="1"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
-      <c r="D998" s="37"/>
+      <c r="D998" s="36"/>
       <c r="E998" s="3"/>
       <c r="F998" s="3"/>
       <c r="G998" s="3"/>
@@ -29216,7 +29231,7 @@
       <c r="A999" s="1"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
-      <c r="D999" s="37"/>
+      <c r="D999" s="36"/>
       <c r="E999" s="3"/>
       <c r="F999" s="3"/>
       <c r="G999" s="3"/>
@@ -29244,7 +29259,7 @@
       <c r="A1000" s="1"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>
-      <c r="D1000" s="37"/>
+      <c r="D1000" s="36"/>
       <c r="E1000" s="3"/>
       <c r="F1000" s="3"/>
       <c r="G1000" s="3"/>
@@ -29268,12 +29283,40 @@
       <c r="Y1000" s="3"/>
       <c r="Z1000" s="3"/>
     </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="A1001" s="1"/>
+      <c r="B1001" s="3"/>
+      <c r="C1001" s="3"/>
+      <c r="D1001" s="36"/>
+      <c r="E1001" s="3"/>
+      <c r="F1001" s="3"/>
+      <c r="G1001" s="3"/>
+      <c r="H1001" s="1"/>
+      <c r="I1001" s="3"/>
+      <c r="J1001" s="3"/>
+      <c r="K1001" s="3"/>
+      <c r="L1001" s="3"/>
+      <c r="M1001" s="3"/>
+      <c r="N1001" s="3"/>
+      <c r="O1001" s="3"/>
+      <c r="P1001" s="3"/>
+      <c r="Q1001" s="3"/>
+      <c r="R1001" s="3"/>
+      <c r="S1001" s="3"/>
+      <c r="T1001" s="3"/>
+      <c r="U1001" s="3"/>
+      <c r="V1001" s="3"/>
+      <c r="W1001" s="3"/>
+      <c r="X1001" s="3"/>
+      <c r="Y1001" s="3"/>
+      <c r="Z1001" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="C41:H41"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:H3"/>
@@ -29303,10 +29346,18 @@
     <hyperlink r:id="rId18" ref="D29"/>
     <hyperlink r:id="rId19" ref="D30"/>
     <hyperlink r:id="rId20" ref="D31"/>
+    <hyperlink r:id="rId21" ref="D33"/>
+    <hyperlink r:id="rId22" ref="D34"/>
+    <hyperlink r:id="rId23" ref="D35"/>
+    <hyperlink r:id="rId24" ref="D36"/>
+    <hyperlink r:id="rId25" ref="D37"/>
+    <hyperlink r:id="rId26" ref="D38"/>
+    <hyperlink r:id="rId27" ref="D39"/>
+    <hyperlink r:id="rId28" ref="D40"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId21"/>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>